--- a/TS Jatai Working/Padam Input Templates/TS 1.3 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 1.3 Padam Input Template.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\Raja Files\Padam Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FE4889-C4AF-4A06-B913-65176873BFD0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="TS 1.3" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TS 1.3'!$A$1:$XES$1577</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4272" uniqueCount="1333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4272" uniqueCount="1332">
   <si>
     <t>PS</t>
   </si>
@@ -2101,9 +2100,6 @@
   </si>
   <si>
     <t xml:space="preserve">SrIH </t>
-  </si>
-  <si>
-    <t xml:space="preserve">aqsIq </t>
   </si>
   <si>
     <t xml:space="preserve">SrIqNAqtuq </t>
@@ -4032,7 +4028,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4181,7 +4177,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4197,6 +4193,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4228,7 +4230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4421,6 +4423,9 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4701,13 +4706,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V1577"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1348" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A910" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="V3" sqref="V3"/>
+      <selection pane="bottomLeft" activeCell="S916" sqref="S916"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -5179,7 +5184,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="72" x14ac:dyDescent="0.25">
       <c r="A1" s="60" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17" t="s">
@@ -5231,7 +5236,7 @@
         <v>10</v>
       </c>
       <c r="S1" s="47" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="T1" s="47" t="s">
         <v>17</v>
@@ -5385,7 +5390,7 @@
         <v>4</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>0</v>
@@ -5397,7 +5402,7 @@
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
       <c r="V5" s="16" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="6" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5479,7 +5484,7 @@
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
       <c r="V7" s="16" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="8" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5835,7 +5840,7 @@
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
       <c r="V16" s="16" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="17" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5917,7 +5922,7 @@
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
       <c r="V18" s="16" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="19" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7002,7 +7007,7 @@
       <c r="T46" s="4"/>
       <c r="U46" s="4"/>
       <c r="V46" s="16" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="47" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7878,7 +7883,7 @@
       <c r="T69" s="4"/>
       <c r="U69" s="4"/>
       <c r="V69" s="16" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="70" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7991,7 +7996,7 @@
       <c r="T72" s="4"/>
       <c r="U72" s="4"/>
       <c r="V72" s="16" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="73" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8069,7 +8074,7 @@
       <c r="T74" s="4"/>
       <c r="U74" s="4"/>
       <c r="V74" s="16" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
@@ -8108,7 +8113,7 @@
       <c r="T75" s="4"/>
       <c r="U75" s="4"/>
       <c r="V75" s="16" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="76" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8151,7 +8156,7 @@
       <c r="T76" s="4"/>
       <c r="U76" s="4"/>
       <c r="V76" s="50" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.25">
@@ -8402,7 +8407,7 @@
       <c r="T83" s="4"/>
       <c r="U83" s="4"/>
       <c r="V83" s="16" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.25">
@@ -8616,7 +8621,7 @@
       <c r="T89" s="4"/>
       <c r="U89" s="4"/>
       <c r="V89" s="34" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.25">
@@ -8822,7 +8827,7 @@
         <v>0</v>
       </c>
       <c r="V95" s="16" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.25">
@@ -9094,7 +9099,7 @@
         <v>0</v>
       </c>
       <c r="V104" s="16" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="105" spans="5:22" x14ac:dyDescent="0.25">
@@ -9561,7 +9566,7 @@
         <v>0</v>
       </c>
       <c r="V120" s="16" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="121" spans="5:22" x14ac:dyDescent="0.25">
@@ -9594,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="V121" s="16" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="122" spans="5:22" x14ac:dyDescent="0.25">
@@ -9767,7 +9772,7 @@
         <v>0</v>
       </c>
       <c r="V127" s="16" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="128" spans="5:22" x14ac:dyDescent="0.25">
@@ -10000,7 +10005,7 @@
         <v>0</v>
       </c>
       <c r="V135" s="16" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="136" spans="5:22" x14ac:dyDescent="0.25">
@@ -10371,7 +10376,7 @@
         <v>0</v>
       </c>
       <c r="V148" s="16" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="149" spans="5:22" x14ac:dyDescent="0.25">
@@ -10404,7 +10409,7 @@
         <v>0</v>
       </c>
       <c r="V149" s="16" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="150" spans="5:22" x14ac:dyDescent="0.25">
@@ -10606,7 +10611,7 @@
         <v>0</v>
       </c>
       <c r="V156" s="16" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="157" spans="5:22" x14ac:dyDescent="0.25">
@@ -10667,7 +10672,7 @@
         <v>0</v>
       </c>
       <c r="V158" s="16" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="159" spans="5:22" x14ac:dyDescent="0.25">
@@ -10700,7 +10705,7 @@
         <v>0</v>
       </c>
       <c r="V159" s="16" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="160" spans="5:22" x14ac:dyDescent="0.25">
@@ -10761,7 +10766,7 @@
         <v>0</v>
       </c>
       <c r="V161" s="16" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="162" spans="5:22" x14ac:dyDescent="0.25">
@@ -10794,7 +10799,7 @@
         <v>0</v>
       </c>
       <c r="V162" s="16" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="163" spans="5:22" x14ac:dyDescent="0.25">
@@ -10855,7 +10860,7 @@
         <v>0</v>
       </c>
       <c r="V164" s="16" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="165" spans="5:22" x14ac:dyDescent="0.25">
@@ -10888,7 +10893,7 @@
         <v>0</v>
       </c>
       <c r="V165" s="16" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="166" spans="5:22" x14ac:dyDescent="0.25">
@@ -11034,7 +11039,7 @@
         <v>0</v>
       </c>
       <c r="V170" s="16" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="171" spans="5:22" x14ac:dyDescent="0.25">
@@ -11067,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="V171" s="16" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="172" spans="5:22" x14ac:dyDescent="0.25">
@@ -11187,7 +11192,7 @@
         <v>0</v>
       </c>
       <c r="V175" s="16" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="176" spans="5:22" x14ac:dyDescent="0.25">
@@ -11220,7 +11225,7 @@
         <v>0</v>
       </c>
       <c r="V176" s="16" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="177" spans="5:22" x14ac:dyDescent="0.25">
@@ -11537,7 +11542,7 @@
         <v>0</v>
       </c>
       <c r="V187" s="16" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="188" spans="5:22" x14ac:dyDescent="0.25">
@@ -11570,7 +11575,7 @@
         <v>0</v>
       </c>
       <c r="V188" s="16" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="189" spans="5:22" x14ac:dyDescent="0.25">
@@ -11690,7 +11695,7 @@
         <v>0</v>
       </c>
       <c r="V192" s="16" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="193" spans="5:22" x14ac:dyDescent="0.25">
@@ -11723,7 +11728,7 @@
         <v>0</v>
       </c>
       <c r="V193" s="16" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="194" spans="5:22" x14ac:dyDescent="0.25">
@@ -11843,7 +11848,7 @@
         <v>0</v>
       </c>
       <c r="V197" s="16" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="198" spans="5:22" x14ac:dyDescent="0.25">
@@ -11876,7 +11881,7 @@
         <v>0</v>
       </c>
       <c r="V198" s="16" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="199" spans="5:22" x14ac:dyDescent="0.25">
@@ -12001,7 +12006,7 @@
         <v>0</v>
       </c>
       <c r="V202" s="16" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="203" spans="5:22" x14ac:dyDescent="0.25">
@@ -12034,7 +12039,7 @@
         <v>0</v>
       </c>
       <c r="V203" s="16" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="204" spans="5:22" x14ac:dyDescent="0.25">
@@ -12159,7 +12164,7 @@
         <v>0</v>
       </c>
       <c r="V207" s="16" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="208" spans="5:22" x14ac:dyDescent="0.25">
@@ -12192,7 +12197,7 @@
         <v>0</v>
       </c>
       <c r="V208" s="16" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="209" spans="5:22" x14ac:dyDescent="0.25">
@@ -12317,7 +12322,7 @@
         <v>0</v>
       </c>
       <c r="V212" s="16" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="213" spans="5:22" x14ac:dyDescent="0.25">
@@ -12350,7 +12355,7 @@
         <v>0</v>
       </c>
       <c r="V213" s="16" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="214" spans="5:22" x14ac:dyDescent="0.25">
@@ -12472,7 +12477,7 @@
         <v>0</v>
       </c>
       <c r="V217" s="16" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="218" spans="5:22" x14ac:dyDescent="0.25">
@@ -12624,7 +12629,7 @@
         <v>0</v>
       </c>
       <c r="V222" s="16" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="223" spans="5:22" x14ac:dyDescent="0.25">
@@ -12685,7 +12690,7 @@
         <v>0</v>
       </c>
       <c r="V224" s="16" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="225" spans="4:22" x14ac:dyDescent="0.25">
@@ -12776,7 +12781,7 @@
         <v>0</v>
       </c>
       <c r="V227" s="16" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="228" spans="4:22" x14ac:dyDescent="0.25">
@@ -12865,7 +12870,7 @@
         <v>0</v>
       </c>
       <c r="V230" s="16" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="231" spans="4:22" x14ac:dyDescent="0.25">
@@ -12954,7 +12959,7 @@
         <v>0</v>
       </c>
       <c r="V233" s="16" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="234" spans="4:22" x14ac:dyDescent="0.25">
@@ -13323,7 +13328,7 @@
         <v>0</v>
       </c>
       <c r="V246" s="16" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="247" spans="5:22" x14ac:dyDescent="0.25">
@@ -13385,7 +13390,7 @@
         <v>0</v>
       </c>
       <c r="V248" s="16" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="249" spans="5:22" x14ac:dyDescent="0.25">
@@ -13418,7 +13423,7 @@
         <v>0</v>
       </c>
       <c r="V249" s="16" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="250" spans="5:22" x14ac:dyDescent="0.25">
@@ -13507,7 +13512,7 @@
         <v>0</v>
       </c>
       <c r="V252" s="16" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="253" spans="5:22" x14ac:dyDescent="0.25">
@@ -13596,7 +13601,7 @@
         <v>0</v>
       </c>
       <c r="V255" s="16" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="256" spans="5:22" x14ac:dyDescent="0.25">
@@ -13658,7 +13663,7 @@
         <v>0</v>
       </c>
       <c r="V257" s="16" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="258" spans="1:22" x14ac:dyDescent="0.25">
@@ -13691,7 +13696,7 @@
         <v>0</v>
       </c>
       <c r="V258" s="16" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="259" spans="1:22" x14ac:dyDescent="0.25">
@@ -13752,7 +13757,7 @@
         <v>0</v>
       </c>
       <c r="V260" s="16" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="261" spans="1:22" x14ac:dyDescent="0.25">
@@ -13785,7 +13790,7 @@
         <v>0</v>
       </c>
       <c r="V261" s="16" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="262" spans="1:22" x14ac:dyDescent="0.25">
@@ -13846,12 +13851,12 @@
         <v>0</v>
       </c>
       <c r="V263" s="16" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="264" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A264" s="61" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="E264" s="26"/>
       <c r="F264" s="26"/>
@@ -13884,7 +13889,7 @@
     </row>
     <row r="265" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A265" s="61" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="E265" s="26"/>
       <c r="F265" s="26"/>
@@ -13947,7 +13952,7 @@
         <v>0</v>
       </c>
       <c r="V266" s="16" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="267" spans="1:22" x14ac:dyDescent="0.25">
@@ -14414,7 +14419,7 @@
         <v>0</v>
       </c>
       <c r="V282" s="16" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="283" spans="1:22" x14ac:dyDescent="0.25">
@@ -14447,12 +14452,12 @@
         <v>0</v>
       </c>
       <c r="V283" s="16" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="284" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A284" s="61" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="E284" s="26"/>
       <c r="F284" s="26"/>
@@ -14485,12 +14490,12 @@
         <v>0</v>
       </c>
       <c r="V284" s="16" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="285" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A285" s="61" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="E285" s="26"/>
       <c r="F285" s="26"/>
@@ -14784,7 +14789,7 @@
     <row r="295" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E295" s="26"/>
       <c r="F295" s="65" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="G295" s="26"/>
       <c r="H295" s="26"/>
@@ -14814,7 +14819,7 @@
     <row r="296" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E296" s="26"/>
       <c r="F296" s="65" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="G296" s="26"/>
       <c r="H296" s="26"/>
@@ -14848,7 +14853,7 @@
       </c>
       <c r="E297" s="26"/>
       <c r="F297" s="65" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="G297" s="26"/>
       <c r="H297" s="26"/>
@@ -14881,7 +14886,7 @@
     <row r="298" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E298" s="26"/>
       <c r="F298" s="65" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="G298" s="26"/>
       <c r="H298" s="26"/>
@@ -15080,7 +15085,7 @@
         <v>0</v>
       </c>
       <c r="V304" s="16" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="305" spans="5:22" x14ac:dyDescent="0.25">
@@ -15311,7 +15316,7 @@
         <v>0</v>
       </c>
       <c r="V312" s="16" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="313" spans="5:22" x14ac:dyDescent="0.25">
@@ -15372,7 +15377,7 @@
         <v>15</v>
       </c>
       <c r="V314" s="16" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="315" spans="5:22" x14ac:dyDescent="0.25">
@@ -15549,7 +15554,7 @@
         <v>84</v>
       </c>
       <c r="V320" s="42" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="321" spans="5:22" x14ac:dyDescent="0.25">
@@ -15610,7 +15615,7 @@
         <v>0</v>
       </c>
       <c r="V322" s="16" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="323" spans="5:22" x14ac:dyDescent="0.25">
@@ -15672,7 +15677,7 @@
         <v>0</v>
       </c>
       <c r="V324" s="16" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="325" spans="5:22" x14ac:dyDescent="0.25">
@@ -15705,7 +15710,7 @@
         <v>0</v>
       </c>
       <c r="V325" s="16" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="326" spans="5:22" x14ac:dyDescent="0.25">
@@ -15738,7 +15743,7 @@
         <v>84</v>
       </c>
       <c r="V326" s="37" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="327" spans="5:22" x14ac:dyDescent="0.25">
@@ -15830,7 +15835,7 @@
       </c>
       <c r="S329" s="49"/>
       <c r="V329" s="16" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="330" spans="5:22" x14ac:dyDescent="0.25">
@@ -15919,7 +15924,7 @@
         <v>0</v>
       </c>
       <c r="V332" s="16" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="333" spans="5:22" x14ac:dyDescent="0.25">
@@ -16008,7 +16013,7 @@
         <v>0</v>
       </c>
       <c r="V335" s="16" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="336" spans="5:22" x14ac:dyDescent="0.25">
@@ -16894,7 +16899,7 @@
         <v>0</v>
       </c>
       <c r="V365" s="16" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="366" spans="4:22" x14ac:dyDescent="0.25">
@@ -16963,7 +16968,7 @@
     </row>
     <row r="368" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D368" s="58" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E368" s="26"/>
       <c r="F368" s="26"/>
@@ -17091,7 +17096,7 @@
         <v>0</v>
       </c>
       <c r="V371" s="16" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="372" spans="4:22" x14ac:dyDescent="0.25">
@@ -17124,7 +17129,7 @@
         <v>0</v>
       </c>
       <c r="V372" s="16" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="373" spans="4:22" x14ac:dyDescent="0.25">
@@ -17519,7 +17524,7 @@
         <v>0</v>
       </c>
       <c r="V385" s="16" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="386" spans="5:22" x14ac:dyDescent="0.25">
@@ -17608,7 +17613,7 @@
         <v>0</v>
       </c>
       <c r="V388" s="16" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="389" spans="5:22" x14ac:dyDescent="0.25">
@@ -18129,7 +18134,7 @@
         <v>0</v>
       </c>
       <c r="V406" s="16" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="407" spans="4:22" x14ac:dyDescent="0.25">
@@ -18190,7 +18195,7 @@
         <v>0</v>
       </c>
       <c r="V408" s="16" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="409" spans="4:22" x14ac:dyDescent="0.25">
@@ -18251,7 +18256,7 @@
         <v>84</v>
       </c>
       <c r="V410" s="39" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="411" spans="4:22" x14ac:dyDescent="0.25">
@@ -18779,7 +18784,7 @@
         <v>0</v>
       </c>
       <c r="V428" s="16" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="429" spans="5:22" x14ac:dyDescent="0.25">
@@ -19037,7 +19042,7 @@
         <v>0</v>
       </c>
       <c r="V437" s="16" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="438" spans="5:22" x14ac:dyDescent="0.25">
@@ -19495,7 +19500,7 @@
         <v>0</v>
       </c>
       <c r="V453" s="16" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="454" spans="5:22" x14ac:dyDescent="0.25">
@@ -19587,7 +19592,7 @@
         <v>0</v>
       </c>
       <c r="V456" s="16" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="457" spans="5:22" x14ac:dyDescent="0.25">
@@ -19792,7 +19797,7 @@
         <v>0</v>
       </c>
       <c r="V463" s="16" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="464" spans="5:22" x14ac:dyDescent="0.25">
@@ -19853,7 +19858,7 @@
         <v>0</v>
       </c>
       <c r="V465" s="16" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="466" spans="5:22" x14ac:dyDescent="0.25">
@@ -20001,7 +20006,7 @@
         <v>84</v>
       </c>
       <c r="V470" s="16" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="471" spans="5:22" x14ac:dyDescent="0.25">
@@ -20258,7 +20263,7 @@
         <v>0</v>
       </c>
       <c r="V479" s="9" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="480" spans="5:22" x14ac:dyDescent="0.25">
@@ -20576,7 +20581,7 @@
         <v>0</v>
       </c>
       <c r="V490" s="16" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="491" spans="5:22" x14ac:dyDescent="0.25">
@@ -20637,7 +20642,7 @@
         <v>0</v>
       </c>
       <c r="V492" s="16" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="493" spans="5:22" x14ac:dyDescent="0.25">
@@ -21011,7 +21016,7 @@
         <v>0</v>
       </c>
       <c r="V505" s="16" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="506" spans="5:22" x14ac:dyDescent="0.25">
@@ -21072,7 +21077,7 @@
         <v>0</v>
       </c>
       <c r="V507" s="37" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="508" spans="5:22" x14ac:dyDescent="0.25">
@@ -21576,7 +21581,7 @@
         <v>0</v>
       </c>
       <c r="V524" s="16" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="525" spans="5:22" x14ac:dyDescent="0.25">
@@ -21736,7 +21741,7 @@
         <v>0</v>
       </c>
       <c r="V529" s="16" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="530" spans="5:22" x14ac:dyDescent="0.25">
@@ -21912,7 +21917,7 @@
         <v>84</v>
       </c>
       <c r="V535" s="37" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="536" spans="5:22" x14ac:dyDescent="0.25">
@@ -22087,7 +22092,7 @@
         <v>84</v>
       </c>
       <c r="V541" s="9" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="542" spans="5:22" x14ac:dyDescent="0.25">
@@ -22176,7 +22181,7 @@
         <v>84</v>
       </c>
       <c r="V544" s="37" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="545" spans="5:22" x14ac:dyDescent="0.25">
@@ -22377,7 +22382,7 @@
         <v>84</v>
       </c>
       <c r="V551" s="34" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="552" spans="5:22" x14ac:dyDescent="0.25">
@@ -22498,7 +22503,7 @@
         <v>84</v>
       </c>
       <c r="V555" s="16" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="556" spans="5:22" x14ac:dyDescent="0.25">
@@ -22531,7 +22536,7 @@
         <v>0</v>
       </c>
       <c r="V556" s="16" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="557" spans="5:22" x14ac:dyDescent="0.25">
@@ -22592,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="V558" s="16" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="559" spans="5:22" x14ac:dyDescent="0.25">
@@ -22625,7 +22630,7 @@
         <v>0</v>
       </c>
       <c r="V559" s="16" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="560" spans="5:22" x14ac:dyDescent="0.25">
@@ -22658,7 +22663,7 @@
         <v>0</v>
       </c>
       <c r="V560" s="16" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="561" spans="5:22" x14ac:dyDescent="0.25">
@@ -23013,7 +23018,7 @@
         <v>0</v>
       </c>
       <c r="V572" s="16" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="573" spans="5:22" x14ac:dyDescent="0.25">
@@ -23514,7 +23519,7 @@
         <v>84</v>
       </c>
       <c r="V589" s="43" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="590" spans="5:22" x14ac:dyDescent="0.25">
@@ -23601,7 +23606,7 @@
         <v>0</v>
       </c>
       <c r="V592" s="16" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="593" spans="5:22" x14ac:dyDescent="0.25">
@@ -23662,7 +23667,7 @@
         <v>15</v>
       </c>
       <c r="V594" s="16" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="595" spans="5:22" x14ac:dyDescent="0.25">
@@ -24554,7 +24559,7 @@
         <v>98</v>
       </c>
       <c r="V625" s="31" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="626" spans="1:22" x14ac:dyDescent="0.25">
@@ -25042,7 +25047,7 @@
         <v>0</v>
       </c>
       <c r="V641" s="16" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="642" spans="5:22" x14ac:dyDescent="0.25">
@@ -25075,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="V642" s="16" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="643" spans="5:22" x14ac:dyDescent="0.25">
@@ -25109,7 +25114,7 @@
         <v>84</v>
       </c>
       <c r="V643" s="39" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="644" spans="5:22" x14ac:dyDescent="0.25">
@@ -25255,7 +25260,7 @@
         <v>0</v>
       </c>
       <c r="V648" s="16" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="649" spans="5:22" x14ac:dyDescent="0.25">
@@ -25288,7 +25293,7 @@
         <v>0</v>
       </c>
       <c r="V649" s="16" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="650" spans="5:22" x14ac:dyDescent="0.25">
@@ -25350,10 +25355,10 @@
     </row>
     <row r="652" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E652" s="65" t="s">
+        <v>1324</v>
+      </c>
+      <c r="F652" s="65" t="s">
         <v>1325</v>
-      </c>
-      <c r="F652" s="65" t="s">
-        <v>1326</v>
       </c>
       <c r="G652" s="26"/>
       <c r="H652" s="26"/>
@@ -25382,10 +25387,10 @@
     </row>
     <row r="653" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E653" s="65" t="s">
+        <v>1324</v>
+      </c>
+      <c r="F653" s="65" t="s">
         <v>1325</v>
-      </c>
-      <c r="F653" s="65" t="s">
-        <v>1326</v>
       </c>
       <c r="G653" s="26"/>
       <c r="H653" s="26"/>
@@ -25414,7 +25419,7 @@
         <v>84</v>
       </c>
       <c r="V653" s="31" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="654" spans="5:22" x14ac:dyDescent="0.25">
@@ -25532,7 +25537,7 @@
         <v>0</v>
       </c>
       <c r="V657" s="16" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="658" spans="5:22" x14ac:dyDescent="0.25">
@@ -25624,7 +25629,7 @@
         <v>91</v>
       </c>
       <c r="V660" s="16" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="661" spans="5:22" x14ac:dyDescent="0.25">
@@ -25690,7 +25695,7 @@
         <v>0</v>
       </c>
       <c r="V662" s="16" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="663" spans="5:22" x14ac:dyDescent="0.25">
@@ -25939,7 +25944,7 @@
         <v>84</v>
       </c>
       <c r="V670" s="16" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="671" spans="5:22" x14ac:dyDescent="0.25">
@@ -26085,7 +26090,7 @@
         <v>0</v>
       </c>
       <c r="V675" s="16" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="676" spans="5:22" x14ac:dyDescent="0.25">
@@ -26265,7 +26270,7 @@
         <v>0</v>
       </c>
       <c r="V681" s="16" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="682" spans="5:22" x14ac:dyDescent="0.25">
@@ -26326,7 +26331,7 @@
         <v>0</v>
       </c>
       <c r="V683" s="16" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="684" spans="5:22" x14ac:dyDescent="0.25">
@@ -26558,7 +26563,7 @@
         <v>0</v>
       </c>
       <c r="V691" s="16" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="692" spans="5:22" x14ac:dyDescent="0.25">
@@ -26791,7 +26796,7 @@
         <v>0</v>
       </c>
       <c r="V699" s="16" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="700" spans="5:22" x14ac:dyDescent="0.25">
@@ -26998,7 +27003,7 @@
         <v>0</v>
       </c>
       <c r="V706" s="16" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="707" spans="5:22" x14ac:dyDescent="0.25">
@@ -27031,7 +27036,7 @@
         <v>0</v>
       </c>
       <c r="V707" s="16" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="708" spans="5:22" x14ac:dyDescent="0.25">
@@ -27178,7 +27183,7 @@
     </row>
     <row r="713" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E713" s="65" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="F713" s="26"/>
       <c r="G713" s="26"/>
@@ -27213,12 +27218,12 @@
         <v>94</v>
       </c>
       <c r="V713" s="16" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="714" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E714" s="65" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="F714" s="26"/>
       <c r="G714" s="26"/>
@@ -27253,12 +27258,12 @@
         <v>95</v>
       </c>
       <c r="V714" s="16" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="715" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E715" s="65" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="F715" s="26"/>
       <c r="G715" s="26"/>
@@ -27293,7 +27298,7 @@
     </row>
     <row r="716" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E716" s="65" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="F716" s="26"/>
       <c r="G716" s="26"/>
@@ -27417,7 +27422,7 @@
         <v>0</v>
       </c>
       <c r="V719" s="16" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="720" spans="5:22" x14ac:dyDescent="0.25">
@@ -27817,7 +27822,7 @@
         <v>0</v>
       </c>
       <c r="V733" s="16" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="734" spans="5:22" x14ac:dyDescent="0.25">
@@ -27906,7 +27911,7 @@
         <v>0</v>
       </c>
       <c r="V736" s="16" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="737" spans="5:22" x14ac:dyDescent="0.25">
@@ -28029,7 +28034,7 @@
         <v>0</v>
       </c>
       <c r="V740" s="16" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="741" spans="5:22" x14ac:dyDescent="0.25">
@@ -28276,7 +28281,7 @@
         <v>0</v>
       </c>
       <c r="V748" s="16" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="749" spans="5:22" x14ac:dyDescent="0.25">
@@ -28455,7 +28460,7 @@
         <v>0</v>
       </c>
       <c r="V754" s="39" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="755" spans="5:22" x14ac:dyDescent="0.25">
@@ -28662,7 +28667,7 @@
         <v>0</v>
       </c>
       <c r="V761" s="16" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="762" spans="5:22" x14ac:dyDescent="0.25">
@@ -28695,7 +28700,7 @@
         <v>0</v>
       </c>
       <c r="V762" s="16" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="763" spans="5:22" x14ac:dyDescent="0.25">
@@ -28756,7 +28761,7 @@
         <v>84</v>
       </c>
       <c r="V764" s="43" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="765" spans="5:22" x14ac:dyDescent="0.25">
@@ -28903,7 +28908,7 @@
         <v>0</v>
       </c>
       <c r="V769" s="16" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="770" spans="5:22" x14ac:dyDescent="0.25">
@@ -29323,7 +29328,7 @@
         <v>123</v>
       </c>
       <c r="V783" s="16" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="784" spans="5:22" x14ac:dyDescent="0.25">
@@ -29644,7 +29649,7 @@
         <v>0</v>
       </c>
       <c r="V794" s="16" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="795" spans="4:22" x14ac:dyDescent="0.25">
@@ -30221,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="V814" s="16" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="815" spans="5:22" x14ac:dyDescent="0.25">
@@ -30281,7 +30286,7 @@
         <v>0</v>
       </c>
       <c r="V816" s="39" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="817" spans="5:22" x14ac:dyDescent="0.25">
@@ -30398,7 +30403,7 @@
         <v>0</v>
       </c>
       <c r="V820" s="16" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="821" spans="5:22" x14ac:dyDescent="0.25">
@@ -30515,7 +30520,7 @@
         <v>0</v>
       </c>
       <c r="V824" s="16" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="825" spans="5:22" x14ac:dyDescent="0.25">
@@ -31311,7 +31316,7 @@
         <v>85</v>
       </c>
       <c r="V852" s="16" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="853" spans="5:22" x14ac:dyDescent="0.25">
@@ -31459,7 +31464,7 @@
         <v>0</v>
       </c>
       <c r="V857" s="16" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="858" spans="5:22" x14ac:dyDescent="0.25">
@@ -31764,7 +31769,7 @@
         <v>0</v>
       </c>
       <c r="V867" s="16" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="868" spans="5:22" x14ac:dyDescent="0.25">
@@ -31825,7 +31830,7 @@
         <v>84</v>
       </c>
       <c r="V869" s="43" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="870" spans="5:22" x14ac:dyDescent="0.25">
@@ -32003,7 +32008,7 @@
         <v>0</v>
       </c>
       <c r="V875" s="16" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="876" spans="5:22" x14ac:dyDescent="0.25">
@@ -32036,7 +32041,7 @@
         <v>0</v>
       </c>
       <c r="V876" s="16" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="877" spans="5:22" x14ac:dyDescent="0.25">
@@ -32153,7 +32158,7 @@
         <v>0</v>
       </c>
       <c r="V880" s="16" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="881" spans="4:22" x14ac:dyDescent="0.25">
@@ -32242,7 +32247,7 @@
         <v>0</v>
       </c>
       <c r="V883" s="16" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="884" spans="4:22" x14ac:dyDescent="0.25">
@@ -32281,7 +32286,7 @@
         <v>107</v>
       </c>
       <c r="V884" s="16" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="885" spans="4:22" x14ac:dyDescent="0.25">
@@ -32401,7 +32406,7 @@
         <v>0</v>
       </c>
       <c r="V888" s="16" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="889" spans="4:22" x14ac:dyDescent="0.25">
@@ -32440,7 +32445,7 @@
         <v>107</v>
       </c>
       <c r="V889" s="16" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="890" spans="4:22" x14ac:dyDescent="0.25">
@@ -32650,7 +32655,7 @@
         <v>0</v>
       </c>
       <c r="V896" s="16" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="897" spans="5:22" x14ac:dyDescent="0.25">
@@ -32711,7 +32716,7 @@
         <v>0</v>
       </c>
       <c r="V898" s="16" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="899" spans="5:22" x14ac:dyDescent="0.25">
@@ -32772,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="V900" s="16" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="901" spans="5:22" x14ac:dyDescent="0.25">
@@ -32833,7 +32838,7 @@
         <v>0</v>
       </c>
       <c r="V902" s="16" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="903" spans="5:22" x14ac:dyDescent="0.25">
@@ -33117,8 +33122,8 @@
         <f t="shared" si="30"/>
         <v>43</v>
       </c>
-      <c r="N912" s="9" t="s">
-        <v>691</v>
+      <c r="N912" s="67" t="s">
+        <v>182</v>
       </c>
       <c r="V912" s="16"/>
     </row>
@@ -33202,7 +33207,7 @@
         <v>46</v>
       </c>
       <c r="N915" s="9" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="V915" s="16"/>
     </row>
@@ -33289,7 +33294,7 @@
         <v>49</v>
       </c>
       <c r="N918" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="V918" s="16"/>
     </row>
@@ -33317,7 +33322,7 @@
         <v>50</v>
       </c>
       <c r="N919" s="9" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="V919" s="16"/>
     </row>
@@ -33372,7 +33377,7 @@
         <v>52</v>
       </c>
       <c r="N921" s="9" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="O921" s="2"/>
       <c r="V921" s="16"/>
@@ -33429,7 +33434,7 @@
         <v>54</v>
       </c>
       <c r="N923" s="9" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="O923" s="2"/>
       <c r="V923" s="16"/>
@@ -33486,7 +33491,7 @@
         <v>56</v>
       </c>
       <c r="N925" s="9" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="O925" s="2"/>
       <c r="V925" s="16"/>
@@ -33515,7 +33520,7 @@
         <v>57</v>
       </c>
       <c r="N926" s="9" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="V926" s="16"/>
     </row>
@@ -33571,13 +33576,13 @@
         <v>59</v>
       </c>
       <c r="N928" s="9" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="O928" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V928" s="16" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="929" spans="5:22" x14ac:dyDescent="0.25">
@@ -33604,7 +33609,7 @@
         <v>60</v>
       </c>
       <c r="N929" s="9" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="V929" s="16"/>
     </row>
@@ -33632,7 +33637,7 @@
         <v>61</v>
       </c>
       <c r="N930" s="9" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="V930" s="16"/>
     </row>
@@ -33660,13 +33665,13 @@
         <v>62</v>
       </c>
       <c r="N931" s="9" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="O931" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V931" s="16" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="932" spans="5:22" x14ac:dyDescent="0.25">
@@ -33693,7 +33698,7 @@
         <v>63</v>
       </c>
       <c r="N932" s="9" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="V932" s="16"/>
     </row>
@@ -33749,7 +33754,7 @@
         <v>65</v>
       </c>
       <c r="N934" s="9" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="V934" s="16"/>
     </row>
@@ -33889,7 +33894,7 @@
         <v>70</v>
       </c>
       <c r="N939" s="9" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="V939" s="16"/>
     </row>
@@ -33917,13 +33922,13 @@
         <v>71</v>
       </c>
       <c r="N940" s="9" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="O940" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V940" s="16" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="941" spans="5:22" x14ac:dyDescent="0.25">
@@ -33950,13 +33955,13 @@
         <v>72</v>
       </c>
       <c r="N941" s="9" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="O941" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V941" s="16" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="942" spans="5:22" x14ac:dyDescent="0.25">
@@ -33983,13 +33988,13 @@
         <v>73</v>
       </c>
       <c r="N942" s="9" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="O942" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V942" s="16" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="943" spans="5:22" x14ac:dyDescent="0.25">
@@ -34016,13 +34021,13 @@
         <v>74</v>
       </c>
       <c r="N943" s="9" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="O943" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V943" s="16" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="944" spans="5:22" x14ac:dyDescent="0.25">
@@ -34077,13 +34082,13 @@
         <v>76</v>
       </c>
       <c r="N945" s="9" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="O945" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V945" s="16" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="946" spans="5:22" x14ac:dyDescent="0.25">
@@ -34139,7 +34144,7 @@
         <v>78</v>
       </c>
       <c r="N947" s="9" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="O947" s="2" t="s">
         <v>0</v>
@@ -34148,7 +34153,7 @@
         <v>84</v>
       </c>
       <c r="V947" s="16" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="948" spans="5:22" x14ac:dyDescent="0.25">
@@ -34173,7 +34178,7 @@
         <v>1</v>
       </c>
       <c r="N948" s="9" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="O948" s="2"/>
       <c r="V948" s="16"/>
@@ -34202,7 +34207,7 @@
         <v>2</v>
       </c>
       <c r="N949" s="9" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="V949" s="16"/>
     </row>
@@ -34286,7 +34291,7 @@
         <v>5</v>
       </c>
       <c r="N952" s="9" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="V952" s="16"/>
     </row>
@@ -34342,7 +34347,7 @@
         <v>7</v>
       </c>
       <c r="N954" s="9" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="V954" s="16"/>
     </row>
@@ -34370,7 +34375,7 @@
         <v>8</v>
       </c>
       <c r="N955" s="9" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="V955" s="16"/>
     </row>
@@ -34398,7 +34403,7 @@
         <v>9</v>
       </c>
       <c r="N956" s="9" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="O956" s="2"/>
       <c r="V956" s="16"/>
@@ -34455,7 +34460,7 @@
         <v>11</v>
       </c>
       <c r="N958" s="9" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="O958" s="2" t="s">
         <v>85</v>
@@ -34464,7 +34469,7 @@
         <v>98</v>
       </c>
       <c r="V958" s="16" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="959" spans="5:22" x14ac:dyDescent="0.25">
@@ -34491,7 +34496,7 @@
         <v>12</v>
       </c>
       <c r="N959" s="9" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="V959" s="16"/>
     </row>
@@ -34547,13 +34552,13 @@
         <v>14</v>
       </c>
       <c r="N961" s="9" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="O961" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V961" s="16" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="962" spans="5:22" x14ac:dyDescent="0.25">
@@ -34580,7 +34585,7 @@
         <v>15</v>
       </c>
       <c r="N962" s="9" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="O962" s="2"/>
       <c r="V962" s="16"/>
@@ -34637,7 +34642,7 @@
         <v>17</v>
       </c>
       <c r="N964" s="9" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="V964" s="16"/>
     </row>
@@ -34665,7 +34670,7 @@
         <v>18</v>
       </c>
       <c r="N965" s="9" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="V965" s="16"/>
     </row>
@@ -34749,7 +34754,7 @@
         <v>21</v>
       </c>
       <c r="N968" s="9" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="V968" s="16"/>
     </row>
@@ -34805,7 +34810,7 @@
         <v>23</v>
       </c>
       <c r="N970" s="9" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="V970" s="16"/>
     </row>
@@ -34833,7 +34838,7 @@
         <v>24</v>
       </c>
       <c r="N971" s="9" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="V971" s="16"/>
     </row>
@@ -34889,13 +34894,13 @@
         <v>26</v>
       </c>
       <c r="N973" s="9" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="O973" s="2" t="s">
         <v>85</v>
       </c>
       <c r="V973" s="16" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="974" spans="5:22" x14ac:dyDescent="0.25">
@@ -34922,7 +34927,7 @@
         <v>27</v>
       </c>
       <c r="N974" s="9" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="V974" s="16"/>
     </row>
@@ -34978,7 +34983,7 @@
         <v>29</v>
       </c>
       <c r="N976" s="9" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="V976" s="16"/>
     </row>
@@ -35006,7 +35011,7 @@
         <v>30</v>
       </c>
       <c r="N977" s="9" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="V977" s="16"/>
     </row>
@@ -35034,7 +35039,7 @@
         <v>31</v>
       </c>
       <c r="N978" s="9" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="V978" s="16"/>
     </row>
@@ -35090,7 +35095,7 @@
         <v>33</v>
       </c>
       <c r="N980" s="9" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="V980" s="16"/>
     </row>
@@ -35146,7 +35151,7 @@
         <v>35</v>
       </c>
       <c r="N982" s="9" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="O982" s="2"/>
       <c r="V982" s="16"/>
@@ -35210,7 +35215,7 @@
         <v>0</v>
       </c>
       <c r="V984" s="16" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="985" spans="5:22" x14ac:dyDescent="0.25">
@@ -35271,7 +35276,7 @@
         <v>0</v>
       </c>
       <c r="V986" s="16" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="987" spans="5:22" x14ac:dyDescent="0.25">
@@ -35326,7 +35331,7 @@
         <v>41</v>
       </c>
       <c r="N988" s="9" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="V988" s="16"/>
     </row>
@@ -35354,7 +35359,7 @@
         <v>42</v>
       </c>
       <c r="N989" s="9" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="V989" s="16"/>
     </row>
@@ -35382,7 +35387,7 @@
         <v>43</v>
       </c>
       <c r="N990" s="9" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="V990" s="16"/>
     </row>
@@ -35410,7 +35415,7 @@
         <v>44</v>
       </c>
       <c r="N991" s="9" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="V991" s="16"/>
     </row>
@@ -35438,7 +35443,7 @@
         <v>45</v>
       </c>
       <c r="N992" s="9" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="V992" s="16"/>
     </row>
@@ -35466,7 +35471,7 @@
         <v>46</v>
       </c>
       <c r="N993" s="9" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="O993" s="2"/>
       <c r="V993" s="16"/>
@@ -35495,7 +35500,7 @@
         <v>47</v>
       </c>
       <c r="N994" s="9" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="V994" s="16"/>
     </row>
@@ -35523,7 +35528,7 @@
         <v>48</v>
       </c>
       <c r="N995" s="9" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="V995" s="16"/>
     </row>
@@ -35636,7 +35641,7 @@
         <v>52</v>
       </c>
       <c r="N999" s="9" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="O999" s="1" t="s">
         <v>105</v>
@@ -35667,7 +35672,7 @@
         <v>53</v>
       </c>
       <c r="N1000" s="9" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="O1000" s="2"/>
       <c r="V1000" s="16"/>
@@ -35893,13 +35898,13 @@
         <v>61</v>
       </c>
       <c r="N1008" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="O1008" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1008" s="16" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="1009" spans="4:22" x14ac:dyDescent="0.25">
@@ -35926,7 +35931,7 @@
         <v>62</v>
       </c>
       <c r="N1009" s="9" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="V1009" s="16"/>
     </row>
@@ -35954,7 +35959,7 @@
         <v>63</v>
       </c>
       <c r="N1010" s="9" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="V1010" s="16"/>
     </row>
@@ -35982,7 +35987,7 @@
         <v>64</v>
       </c>
       <c r="N1011" s="9" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="V1011" s="16"/>
     </row>
@@ -36039,7 +36044,7 @@
         <v>66</v>
       </c>
       <c r="N1013" s="9" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="V1013" s="16"/>
     </row>
@@ -36127,7 +36132,7 @@
         <v>69</v>
       </c>
       <c r="N1016" s="9" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="U1016" s="2" t="s">
         <v>91</v>
@@ -36158,7 +36163,7 @@
         <v>70</v>
       </c>
       <c r="N1017" s="9" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="O1017" s="2"/>
       <c r="V1017" s="16"/>
@@ -36187,7 +36192,7 @@
         <v>71</v>
       </c>
       <c r="N1018" s="9" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="V1018" s="16"/>
     </row>
@@ -36215,7 +36220,7 @@
         <v>72</v>
       </c>
       <c r="N1019" s="9" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="V1019" s="16"/>
     </row>
@@ -36243,7 +36248,7 @@
         <v>73</v>
       </c>
       <c r="N1020" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="V1020" s="16"/>
     </row>
@@ -36271,7 +36276,7 @@
         <v>74</v>
       </c>
       <c r="N1021" s="9" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="V1021" s="16"/>
     </row>
@@ -36327,14 +36332,14 @@
         <v>76</v>
       </c>
       <c r="N1023" s="9" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="O1023" s="2"/>
       <c r="P1023" s="2" t="s">
         <v>84</v>
       </c>
       <c r="V1023" s="35" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="1024" spans="4:22" x14ac:dyDescent="0.25">
@@ -36361,7 +36366,7 @@
         <v>1</v>
       </c>
       <c r="N1024" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="V1024" s="16"/>
     </row>
@@ -36458,7 +36463,7 @@
         <v>4</v>
       </c>
       <c r="N1027" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="V1027" s="16"/>
     </row>
@@ -36520,7 +36525,7 @@
         <v>6</v>
       </c>
       <c r="N1029" s="40" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U1029" s="2" t="s">
         <v>107</v>
@@ -36532,7 +36537,7 @@
         <v>128</v>
       </c>
       <c r="D1030" s="58" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="E1030" s="26"/>
       <c r="F1030" s="26"/>
@@ -36559,7 +36564,7 @@
         <v>7</v>
       </c>
       <c r="N1030" s="9" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="S1030" s="2" t="s">
         <v>112</v>
@@ -36628,14 +36633,14 @@
         <v>9</v>
       </c>
       <c r="N1032" s="9" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="O1032" s="2"/>
       <c r="V1032" s="16"/>
     </row>
     <row r="1033" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D1033" s="58" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="E1033" s="26"/>
       <c r="F1033" s="26"/>
@@ -36662,7 +36667,7 @@
         <v>10</v>
       </c>
       <c r="N1033" s="9" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="O1033" s="2"/>
       <c r="S1033" s="2" t="s">
@@ -36702,7 +36707,7 @@
         <v>11</v>
       </c>
       <c r="N1034" s="9" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="U1034" s="2" t="s">
         <v>109</v>
@@ -36735,13 +36740,13 @@
         <v>12</v>
       </c>
       <c r="N1035" s="9" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="P1035" s="2" t="s">
         <v>84</v>
       </c>
       <c r="V1035" s="43" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="1036" spans="1:22" x14ac:dyDescent="0.25">
@@ -36825,13 +36830,13 @@
         <v>15</v>
       </c>
       <c r="N1038" s="9" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="O1038" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1038" s="16" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="1039" spans="1:22" x14ac:dyDescent="0.25">
@@ -36858,7 +36863,7 @@
         <v>16</v>
       </c>
       <c r="N1039" s="9" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="V1039" s="16"/>
     </row>
@@ -36886,7 +36891,7 @@
         <v>17</v>
       </c>
       <c r="N1040" s="9" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="V1040" s="16"/>
     </row>
@@ -36914,7 +36919,7 @@
         <v>18</v>
       </c>
       <c r="N1041" s="9" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="V1041" s="16"/>
     </row>
@@ -36942,7 +36947,7 @@
         <v>19</v>
       </c>
       <c r="N1042" s="9" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="V1042" s="16"/>
     </row>
@@ -36970,7 +36975,7 @@
         <v>20</v>
       </c>
       <c r="N1043" s="9" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="V1043" s="16"/>
     </row>
@@ -37026,7 +37031,7 @@
         <v>22</v>
       </c>
       <c r="N1045" s="9" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="V1045" s="16"/>
     </row>
@@ -37054,13 +37059,13 @@
         <v>23</v>
       </c>
       <c r="N1046" s="9" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="O1046" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1046" s="16" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="1047" spans="5:22" x14ac:dyDescent="0.25">
@@ -37087,13 +37092,13 @@
         <v>24</v>
       </c>
       <c r="N1047" s="9" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="O1047" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1047" s="16" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="1048" spans="5:22" x14ac:dyDescent="0.25">
@@ -37120,7 +37125,7 @@
         <v>25</v>
       </c>
       <c r="N1048" s="9" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="V1048" s="16"/>
     </row>
@@ -37154,7 +37159,7 @@
         <v>0</v>
       </c>
       <c r="V1049" s="16" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="1050" spans="5:22" x14ac:dyDescent="0.25">
@@ -37181,13 +37186,13 @@
         <v>27</v>
       </c>
       <c r="N1050" s="9" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="O1050" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1050" s="16" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="1051" spans="5:22" x14ac:dyDescent="0.25">
@@ -37214,7 +37219,7 @@
         <v>28</v>
       </c>
       <c r="N1051" s="9" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="O1051" s="2"/>
       <c r="V1051" s="16"/>
@@ -37243,7 +37248,7 @@
         <v>29</v>
       </c>
       <c r="N1052" s="9" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="V1052" s="16"/>
     </row>
@@ -37299,13 +37304,13 @@
         <v>31</v>
       </c>
       <c r="N1054" s="9" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="O1054" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1054" s="16" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="1055" spans="5:22" x14ac:dyDescent="0.25">
@@ -37332,7 +37337,7 @@
         <v>32</v>
       </c>
       <c r="N1055" s="9" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="V1055" s="16"/>
     </row>
@@ -37388,13 +37393,13 @@
         <v>34</v>
       </c>
       <c r="N1057" s="9" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="P1057" s="2" t="s">
         <v>84</v>
       </c>
       <c r="V1057" s="35" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="1058" spans="5:22" x14ac:dyDescent="0.25">
@@ -37419,7 +37424,7 @@
         <v>1</v>
       </c>
       <c r="N1058" s="9" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="V1058" s="16"/>
     </row>
@@ -37475,7 +37480,7 @@
         <v>3</v>
       </c>
       <c r="N1060" s="9" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="V1060" s="16"/>
     </row>
@@ -37588,7 +37593,7 @@
         <v>7</v>
       </c>
       <c r="N1064" s="9" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="V1064" s="16"/>
     </row>
@@ -37644,7 +37649,7 @@
         <v>9</v>
       </c>
       <c r="N1066" s="9" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="V1066" s="16"/>
     </row>
@@ -37700,7 +37705,7 @@
         <v>11</v>
       </c>
       <c r="N1068" s="9" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="V1068" s="16"/>
     </row>
@@ -37784,7 +37789,7 @@
         <v>14</v>
       </c>
       <c r="N1071" s="9" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="O1071" s="2"/>
       <c r="V1071" s="16"/>
@@ -37813,7 +37818,7 @@
         <v>15</v>
       </c>
       <c r="N1072" s="9" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="V1072" s="16"/>
     </row>
@@ -37841,7 +37846,7 @@
         <v>16</v>
       </c>
       <c r="N1073" s="9" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="V1073" s="16"/>
     </row>
@@ -37869,7 +37874,7 @@
         <v>17</v>
       </c>
       <c r="N1074" s="9" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="O1074" s="2"/>
       <c r="V1074" s="16"/>
@@ -37900,7 +37905,7 @@
         <v>18</v>
       </c>
       <c r="N1075" s="9" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="V1075" s="16"/>
     </row>
@@ -38086,7 +38091,7 @@
         <v>24</v>
       </c>
       <c r="N1081" s="9" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="V1081" s="16"/>
     </row>
@@ -38177,7 +38182,7 @@
         <v>27</v>
       </c>
       <c r="N1084" s="9" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="V1084" s="16"/>
     </row>
@@ -38261,7 +38266,7 @@
         <v>30</v>
       </c>
       <c r="N1087" s="9" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="V1087" s="16"/>
     </row>
@@ -38289,13 +38294,13 @@
         <v>31</v>
       </c>
       <c r="N1088" s="9" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="O1088" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1088" s="16" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="1089" spans="5:22" x14ac:dyDescent="0.25">
@@ -38351,13 +38356,13 @@
         <v>33</v>
       </c>
       <c r="N1090" s="9" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="O1090" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1090" s="16" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="1091" spans="5:22" x14ac:dyDescent="0.25">
@@ -38384,13 +38389,13 @@
         <v>34</v>
       </c>
       <c r="N1091" s="9" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="O1091" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1091" s="16" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="1092" spans="5:22" x14ac:dyDescent="0.25">
@@ -38417,7 +38422,7 @@
         <v>35</v>
       </c>
       <c r="N1092" s="9" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="V1092" s="16"/>
     </row>
@@ -38445,13 +38450,13 @@
         <v>36</v>
       </c>
       <c r="N1093" s="9" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="O1093" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1093" s="16" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="1094" spans="5:22" x14ac:dyDescent="0.25">
@@ -38478,7 +38483,7 @@
         <v>37</v>
       </c>
       <c r="N1094" s="9" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="V1094" s="16"/>
     </row>
@@ -38534,13 +38539,13 @@
         <v>39</v>
       </c>
       <c r="N1096" s="9" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="O1096" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1096" s="16" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="1097" spans="5:22" x14ac:dyDescent="0.25">
@@ -38567,7 +38572,7 @@
         <v>40</v>
       </c>
       <c r="N1097" s="9" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="O1097" s="2"/>
       <c r="V1097" s="16"/>
@@ -38596,7 +38601,7 @@
         <v>41</v>
       </c>
       <c r="N1098" s="9" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="O1098" s="2"/>
       <c r="V1098" s="16"/>
@@ -38625,7 +38630,7 @@
         <v>42</v>
       </c>
       <c r="N1099" s="9" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="V1099" s="16"/>
     </row>
@@ -38681,7 +38686,7 @@
         <v>44</v>
       </c>
       <c r="N1101" s="9" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="V1101" s="16"/>
     </row>
@@ -38737,7 +38742,7 @@
         <v>46</v>
       </c>
       <c r="N1103" s="9" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="P1103" s="2" t="s">
         <v>84</v>
@@ -38770,7 +38775,7 @@
         <v>47</v>
       </c>
       <c r="N1104" s="9" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="V1104" s="16"/>
     </row>
@@ -38798,14 +38803,14 @@
         <v>48</v>
       </c>
       <c r="N1105" s="9" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="V1105" s="16"/>
     </row>
     <row r="1106" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E1106" s="26"/>
       <c r="F1106" s="65" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="G1106" s="57" t="s">
         <v>138</v>
@@ -38830,17 +38835,17 @@
         <v>49</v>
       </c>
       <c r="N1106" s="9" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="V1106" s="16"/>
     </row>
     <row r="1107" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B1107" s="64" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E1107" s="26"/>
       <c r="F1107" s="65" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="G1107" s="57" t="s">
         <v>138</v>
@@ -38865,7 +38870,7 @@
         <v>50</v>
       </c>
       <c r="N1107" s="9" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="V1107" s="16"/>
     </row>
@@ -38920,7 +38925,7 @@
         <v>52</v>
       </c>
       <c r="N1109" s="9" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="V1109" s="16"/>
     </row>
@@ -39005,7 +39010,7 @@
         <v>55</v>
       </c>
       <c r="N1112" s="9" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="V1112" s="16"/>
     </row>
@@ -39033,13 +39038,13 @@
         <v>56</v>
       </c>
       <c r="N1113" s="9" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="P1113" s="2" t="s">
         <v>84</v>
       </c>
       <c r="V1113" s="35" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="1114" spans="1:22" x14ac:dyDescent="0.25">
@@ -39066,7 +39071,7 @@
         <v>57</v>
       </c>
       <c r="N1114" s="9" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="V1114" s="16"/>
     </row>
@@ -39094,7 +39099,7 @@
         <v>58</v>
       </c>
       <c r="N1115" s="9" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="V1115" s="16"/>
     </row>
@@ -39122,7 +39127,7 @@
         <v>59</v>
       </c>
       <c r="N1116" s="9" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="U1116" s="2" t="s">
         <v>91</v>
@@ -39153,7 +39158,7 @@
         <v>60</v>
       </c>
       <c r="N1117" s="9" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="V1117" s="16"/>
     </row>
@@ -39213,7 +39218,7 @@
         <v>62</v>
       </c>
       <c r="N1119" s="9" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="V1119" s="16"/>
     </row>
@@ -39244,7 +39249,7 @@
         <v>63</v>
       </c>
       <c r="N1120" s="9" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="O1120" s="2"/>
       <c r="V1120" s="16"/>
@@ -39273,13 +39278,13 @@
         <v>64</v>
       </c>
       <c r="N1121" s="9" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="O1121" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1121" s="16" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="1122" spans="5:22" x14ac:dyDescent="0.25">
@@ -39306,7 +39311,7 @@
         <v>65</v>
       </c>
       <c r="N1122" s="9" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="V1122" s="16"/>
     </row>
@@ -39397,7 +39402,7 @@
         <v>0</v>
       </c>
       <c r="V1125" s="16" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="1126" spans="5:22" x14ac:dyDescent="0.25">
@@ -39424,7 +39429,7 @@
         <v>69</v>
       </c>
       <c r="N1126" s="9" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="O1126" s="2"/>
       <c r="V1126" s="16"/>
@@ -39453,7 +39458,7 @@
         <v>70</v>
       </c>
       <c r="N1127" s="9" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="O1127" s="2"/>
       <c r="V1127" s="16"/>
@@ -39482,13 +39487,13 @@
         <v>71</v>
       </c>
       <c r="N1128" s="9" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="O1128" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1128" s="16" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="1129" spans="5:22" x14ac:dyDescent="0.25">
@@ -39515,7 +39520,7 @@
         <v>72</v>
       </c>
       <c r="N1129" s="9" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="V1129" s="16"/>
     </row>
@@ -39571,7 +39576,7 @@
         <v>74</v>
       </c>
       <c r="N1131" s="9" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="V1131" s="16"/>
     </row>
@@ -39629,7 +39634,7 @@
         <v>76</v>
       </c>
       <c r="N1133" s="9" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="V1133" s="16"/>
     </row>
@@ -39690,7 +39695,7 @@
         <v>78</v>
       </c>
       <c r="N1135" s="9" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="O1135" s="1" t="s">
         <v>105</v>
@@ -39751,7 +39756,7 @@
         <v>80</v>
       </c>
       <c r="N1137" s="9" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="O1137" s="2"/>
       <c r="V1137" s="16"/>
@@ -39780,7 +39785,7 @@
         <v>81</v>
       </c>
       <c r="N1138" s="9" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="V1138" s="16"/>
     </row>
@@ -39836,7 +39841,7 @@
         <v>83</v>
       </c>
       <c r="N1140" s="9" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="V1140" s="16"/>
     </row>
@@ -39895,13 +39900,13 @@
         <v>85</v>
       </c>
       <c r="N1142" s="9" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="P1142" s="2" t="s">
         <v>84</v>
       </c>
       <c r="V1142" s="41" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="1143" spans="5:22" x14ac:dyDescent="0.25">
@@ -39984,13 +39989,13 @@
         <v>88</v>
       </c>
       <c r="N1145" s="9" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="O1145" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1145" s="16" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="1146" spans="5:22" x14ac:dyDescent="0.25">
@@ -40017,7 +40022,7 @@
         <v>89</v>
       </c>
       <c r="N1146" s="9" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="V1146" s="16"/>
     </row>
@@ -40045,7 +40050,7 @@
         <v>90</v>
       </c>
       <c r="N1147" s="9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="V1147" s="16"/>
     </row>
@@ -40073,7 +40078,7 @@
         <v>91</v>
       </c>
       <c r="N1148" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="O1148" s="2"/>
       <c r="V1148" s="16"/>
@@ -40131,13 +40136,13 @@
         <v>93</v>
       </c>
       <c r="N1150" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="P1150" s="2" t="s">
         <v>84</v>
       </c>
       <c r="V1150" s="9" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="1151" spans="5:22" x14ac:dyDescent="0.25">
@@ -40164,7 +40169,7 @@
         <v>94</v>
       </c>
       <c r="N1151" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="V1151" s="16"/>
     </row>
@@ -40192,7 +40197,7 @@
         <v>95</v>
       </c>
       <c r="N1152" s="9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="V1152" s="16"/>
     </row>
@@ -40220,7 +40225,7 @@
         <v>96</v>
       </c>
       <c r="N1153" s="9" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="V1153" s="16"/>
     </row>
@@ -40248,18 +40253,18 @@
         <v>97</v>
       </c>
       <c r="N1154" s="9" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="P1154" s="2" t="s">
         <v>84</v>
       </c>
       <c r="V1154" s="43" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="1155" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1155" s="59" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E1155" s="57" t="s">
         <v>136</v>
@@ -40292,7 +40297,7 @@
     </row>
     <row r="1156" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1156" s="59" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E1156" s="57" t="s">
         <v>136</v>
@@ -40331,7 +40336,7 @@
     </row>
     <row r="1157" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1157" s="59" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E1157" s="26"/>
       <c r="F1157" s="26"/>
@@ -40358,13 +40363,13 @@
         <v>3</v>
       </c>
       <c r="N1157" s="9" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="V1157" s="16"/>
     </row>
     <row r="1158" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1158" s="59" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E1158" s="26"/>
       <c r="F1158" s="26"/>
@@ -40391,7 +40396,7 @@
         <v>4</v>
       </c>
       <c r="N1158" s="9" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="U1158" s="2" t="s">
         <v>108</v>
@@ -40400,7 +40405,7 @@
     </row>
     <row r="1159" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1159" s="59" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E1159" s="26"/>
       <c r="F1159" s="26"/>
@@ -40425,14 +40430,14 @@
         <v>5</v>
       </c>
       <c r="N1159" s="9" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="O1159" s="2"/>
       <c r="V1159" s="16"/>
     </row>
     <row r="1160" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1160" s="59" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E1160" s="26"/>
       <c r="F1160" s="26"/>
@@ -40457,13 +40462,13 @@
         <v>6</v>
       </c>
       <c r="N1160" s="9" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="V1160" s="16"/>
     </row>
     <row r="1161" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1161" s="59" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E1161" s="26"/>
       <c r="F1161" s="26"/>
@@ -40495,7 +40500,7 @@
     </row>
     <row r="1162" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1162" s="59" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E1162" s="26"/>
       <c r="F1162" s="26"/>
@@ -40520,13 +40525,13 @@
         <v>8</v>
       </c>
       <c r="N1162" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="V1162" s="16"/>
     </row>
     <row r="1163" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1163" s="59" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E1163" s="26"/>
       <c r="F1163" s="26"/>
@@ -40551,13 +40556,13 @@
         <v>9</v>
       </c>
       <c r="N1163" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="V1163" s="16"/>
     </row>
     <row r="1164" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1164" s="59" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E1164" s="26"/>
       <c r="F1164" s="26"/>
@@ -40582,13 +40587,13 @@
         <v>10</v>
       </c>
       <c r="N1164" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="V1164" s="16"/>
     </row>
     <row r="1165" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1165" s="59" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E1165" s="26"/>
       <c r="F1165" s="26"/>
@@ -40613,18 +40618,18 @@
         <v>11</v>
       </c>
       <c r="N1165" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="P1165" s="2" t="s">
         <v>84</v>
       </c>
       <c r="V1165" s="9" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="1166" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1166" s="59" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E1166" s="26"/>
       <c r="F1166" s="26"/>
@@ -40655,7 +40660,7 @@
     </row>
     <row r="1167" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1167" s="59" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E1167" s="26"/>
       <c r="F1167" s="26"/>
@@ -40680,13 +40685,13 @@
         <v>13</v>
       </c>
       <c r="N1167" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="V1167" s="16"/>
     </row>
     <row r="1168" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1168" s="59" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E1168" s="26"/>
       <c r="F1168" s="26"/>
@@ -40711,14 +40716,14 @@
         <v>14</v>
       </c>
       <c r="N1168" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="O1168" s="2"/>
       <c r="V1168" s="16"/>
     </row>
     <row r="1169" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1169" s="59" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E1169" s="26"/>
       <c r="F1169" s="26"/>
@@ -40743,13 +40748,13 @@
         <v>15</v>
       </c>
       <c r="N1169" s="9" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="V1169" s="16"/>
     </row>
     <row r="1170" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1170" s="59" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E1170" s="26"/>
       <c r="F1170" s="26"/>
@@ -40774,18 +40779,18 @@
         <v>16</v>
       </c>
       <c r="N1170" s="9" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="O1170" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1170" s="16" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="1171" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1171" s="59" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E1171" s="26"/>
       <c r="F1171" s="26"/>
@@ -40816,7 +40821,7 @@
     </row>
     <row r="1172" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1172" s="59" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E1172" s="26"/>
       <c r="F1172" s="26"/>
@@ -40841,13 +40846,13 @@
         <v>18</v>
       </c>
       <c r="N1172" s="9" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="V1172" s="16"/>
     </row>
     <row r="1173" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1173" s="59" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E1173" s="26"/>
       <c r="F1173" s="26"/>
@@ -40872,18 +40877,18 @@
         <v>19</v>
       </c>
       <c r="N1173" s="9" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="O1173" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1173" s="16" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="1174" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1174" s="59" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E1174" s="26"/>
       <c r="F1174" s="26"/>
@@ -40908,13 +40913,13 @@
         <v>20</v>
       </c>
       <c r="N1174" s="9" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="V1174" s="16"/>
     </row>
     <row r="1175" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1175" s="59" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E1175" s="26"/>
       <c r="F1175" s="26"/>
@@ -40939,13 +40944,13 @@
         <v>21</v>
       </c>
       <c r="N1175" s="9" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="V1175" s="16"/>
     </row>
     <row r="1176" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1176" s="59" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E1176" s="26"/>
       <c r="F1176" s="26"/>
@@ -40981,7 +40986,7 @@
     </row>
     <row r="1177" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1177" s="59" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E1177" s="26"/>
       <c r="F1177" s="26"/>
@@ -41015,7 +41020,7 @@
     </row>
     <row r="1178" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1178" s="59" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E1178" s="26"/>
       <c r="F1178" s="26"/>
@@ -41046,7 +41051,7 @@
     </row>
     <row r="1179" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1179" s="59" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E1179" s="26"/>
       <c r="F1179" s="26"/>
@@ -41071,13 +41076,13 @@
         <v>25</v>
       </c>
       <c r="N1179" s="9" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="V1179" s="16"/>
     </row>
     <row r="1180" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1180" s="59" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E1180" s="26"/>
       <c r="F1180" s="26"/>
@@ -41102,13 +41107,13 @@
         <v>26</v>
       </c>
       <c r="N1180" s="9" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="V1180" s="16"/>
     </row>
     <row r="1181" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1181" s="59" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E1181" s="26"/>
       <c r="F1181" s="26"/>
@@ -41133,13 +41138,13 @@
         <v>27</v>
       </c>
       <c r="N1181" s="9" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="V1181" s="16"/>
     </row>
     <row r="1182" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1182" s="59" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E1182" s="26"/>
       <c r="F1182" s="26"/>
@@ -41164,13 +41169,13 @@
         <v>28</v>
       </c>
       <c r="N1182" s="9" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="V1182" s="16"/>
     </row>
     <row r="1183" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1183" s="59" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E1183" s="26"/>
       <c r="F1183" s="26"/>
@@ -41195,18 +41200,18 @@
         <v>29</v>
       </c>
       <c r="N1183" s="9" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="O1183" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1183" s="16" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="1184" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1184" s="59" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E1184" s="26"/>
       <c r="F1184" s="26"/>
@@ -41231,18 +41236,18 @@
         <v>30</v>
       </c>
       <c r="N1184" s="9" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="P1184" s="2" t="s">
         <v>84</v>
       </c>
       <c r="V1184" s="43" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="1185" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1185" s="59" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E1185" s="26"/>
       <c r="F1185" s="26"/>
@@ -41267,13 +41272,13 @@
         <v>31</v>
       </c>
       <c r="N1185" s="9" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="V1185" s="16"/>
     </row>
     <row r="1186" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1186" s="59" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E1186" s="26"/>
       <c r="F1186" s="26"/>
@@ -41298,13 +41303,13 @@
         <v>32</v>
       </c>
       <c r="N1186" s="9" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="V1186" s="16"/>
     </row>
     <row r="1187" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1187" s="59" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E1187" s="26"/>
       <c r="F1187" s="26"/>
@@ -41329,13 +41334,13 @@
         <v>33</v>
       </c>
       <c r="N1187" s="9" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="V1187" s="16"/>
     </row>
     <row r="1188" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1188" s="59" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E1188" s="26"/>
       <c r="F1188" s="26"/>
@@ -41360,13 +41365,13 @@
         <v>34</v>
       </c>
       <c r="N1188" s="9" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="V1188" s="16"/>
     </row>
     <row r="1189" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1189" s="59" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E1189" s="26"/>
       <c r="F1189" s="26"/>
@@ -41391,18 +41396,18 @@
         <v>35</v>
       </c>
       <c r="N1189" s="9" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="O1189" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1189" s="16" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="1190" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1190" s="59" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E1190" s="26"/>
       <c r="F1190" s="26"/>
@@ -41433,7 +41438,7 @@
     </row>
     <row r="1191" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1191" s="59" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E1191" s="26"/>
       <c r="F1191" s="26"/>
@@ -41458,18 +41463,18 @@
         <v>37</v>
       </c>
       <c r="N1191" s="9" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="P1191" s="2" t="s">
         <v>84</v>
       </c>
       <c r="V1191" s="35" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="1192" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1192" s="59" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E1192" s="26"/>
       <c r="F1192" s="26"/>
@@ -41500,7 +41505,7 @@
     </row>
     <row r="1193" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1193" s="59" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E1193" s="26"/>
       <c r="F1193" s="26"/>
@@ -41525,13 +41530,13 @@
         <v>39</v>
       </c>
       <c r="N1193" s="9" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="V1193" s="16"/>
     </row>
     <row r="1194" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1194" s="59" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E1194" s="26"/>
       <c r="F1194" s="26"/>
@@ -41565,11 +41570,11 @@
     </row>
     <row r="1195" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1195" s="59" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E1195" s="26"/>
       <c r="F1195" s="65" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="G1195" s="26"/>
       <c r="H1195" s="26"/>
@@ -41592,7 +41597,7 @@
         <v>41</v>
       </c>
       <c r="N1195" s="9" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="S1195" s="2" t="s">
         <v>111</v>
@@ -41607,11 +41612,11 @@
         <v>128</v>
       </c>
       <c r="C1196" s="59" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E1196" s="26"/>
       <c r="F1196" s="65" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="G1196" s="26"/>
       <c r="H1196" s="26"/>
@@ -41634,13 +41639,13 @@
         <v>42</v>
       </c>
       <c r="N1196" s="9" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="V1196" s="16"/>
     </row>
     <row r="1197" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1197" s="59" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E1197" s="26"/>
       <c r="F1197" s="26"/>
@@ -41665,18 +41670,18 @@
         <v>43</v>
       </c>
       <c r="N1197" s="9" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="O1197" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1197" s="16" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="1198" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1198" s="59" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E1198" s="26"/>
       <c r="F1198" s="26"/>
@@ -41701,13 +41706,13 @@
         <v>44</v>
       </c>
       <c r="N1198" s="9" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="V1198" s="16"/>
     </row>
     <row r="1199" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1199" s="59" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E1199" s="26"/>
       <c r="F1199" s="26"/>
@@ -41732,13 +41737,13 @@
         <v>45</v>
       </c>
       <c r="N1199" s="9" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="V1199" s="16"/>
     </row>
     <row r="1200" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1200" s="59" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E1200" s="26"/>
       <c r="F1200" s="26"/>
@@ -41763,13 +41768,13 @@
         <v>46</v>
       </c>
       <c r="N1200" s="9" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="V1200" s="16"/>
     </row>
     <row r="1201" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1201" s="59" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E1201" s="26"/>
       <c r="F1201" s="26"/>
@@ -41794,18 +41799,18 @@
         <v>47</v>
       </c>
       <c r="N1201" s="9" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="P1201" s="2" t="s">
         <v>84</v>
       </c>
       <c r="V1201" s="35" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="1202" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1202" s="59" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E1202" s="26"/>
       <c r="F1202" s="26"/>
@@ -41830,14 +41835,14 @@
         <v>48</v>
       </c>
       <c r="N1202" s="9" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="O1202" s="2"/>
       <c r="V1202" s="16"/>
     </row>
     <row r="1203" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1203" s="59" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E1203" s="26"/>
       <c r="F1203" s="26"/>
@@ -41868,7 +41873,7 @@
     </row>
     <row r="1204" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1204" s="59" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E1204" s="26"/>
       <c r="F1204" s="26"/>
@@ -41895,13 +41900,13 @@
         <v>50</v>
       </c>
       <c r="N1204" s="9" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="O1204" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1204" s="16" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="1205" spans="3:22" x14ac:dyDescent="0.25">
@@ -41929,13 +41934,13 @@
         <v>51</v>
       </c>
       <c r="N1205" s="9" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="O1205" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1205" s="39" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="1206" spans="3:22" x14ac:dyDescent="0.25">
@@ -41964,7 +41969,7 @@
         <v>52</v>
       </c>
       <c r="N1206" s="9" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="V1206" s="16"/>
     </row>
@@ -41994,7 +41999,7 @@
         <v>53</v>
       </c>
       <c r="N1207" s="9" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="V1207" s="16"/>
     </row>
@@ -42024,7 +42029,7 @@
         <v>54</v>
       </c>
       <c r="N1208" s="9" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O1208" s="2"/>
       <c r="V1208" s="16"/>
@@ -42053,7 +42058,7 @@
         <v>55</v>
       </c>
       <c r="N1209" s="9" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="V1209" s="16"/>
     </row>
@@ -42081,13 +42086,13 @@
         <v>56</v>
       </c>
       <c r="N1210" s="9" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="P1210" s="2" t="s">
         <v>84</v>
       </c>
       <c r="V1210" s="9" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="1211" spans="3:22" x14ac:dyDescent="0.25">
@@ -42114,7 +42119,7 @@
         <v>57</v>
       </c>
       <c r="N1211" s="9" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="V1211" s="16"/>
     </row>
@@ -42145,7 +42150,7 @@
         <v>58</v>
       </c>
       <c r="N1212" s="9" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="S1212" s="2" t="s">
         <v>92</v>
@@ -42179,13 +42184,13 @@
         <v>59</v>
       </c>
       <c r="N1213" s="9" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="O1213" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1213" s="16" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="1214" spans="3:22" x14ac:dyDescent="0.25">
@@ -42271,7 +42276,7 @@
         <v>62</v>
       </c>
       <c r="N1216" s="9" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="V1216" s="16"/>
     </row>
@@ -42299,7 +42304,7 @@
         <v>63</v>
       </c>
       <c r="N1217" s="9" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="O1217" s="2"/>
       <c r="V1217" s="16"/>
@@ -42328,7 +42333,7 @@
         <v>64</v>
       </c>
       <c r="N1218" s="9" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="O1218" s="2"/>
       <c r="V1218" s="16"/>
@@ -42357,13 +42362,13 @@
         <v>65</v>
       </c>
       <c r="N1219" s="9" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="P1219" s="2" t="s">
         <v>84</v>
       </c>
       <c r="V1219" s="9" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="1220" spans="4:22" x14ac:dyDescent="0.25">
@@ -42392,7 +42397,7 @@
         <v>66</v>
       </c>
       <c r="N1220" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="V1220" s="16"/>
     </row>
@@ -42422,7 +42427,7 @@
         <v>67</v>
       </c>
       <c r="N1221" s="9" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="O1221" s="2"/>
       <c r="V1221" s="16"/>
@@ -42486,7 +42491,7 @@
         <v>69</v>
       </c>
       <c r="N1223" s="9" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="V1223" s="16"/>
     </row>
@@ -42516,7 +42521,7 @@
         <v>70</v>
       </c>
       <c r="N1224" s="9" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="V1224" s="16"/>
     </row>
@@ -42544,7 +42549,7 @@
         <v>71</v>
       </c>
       <c r="N1225" s="9" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="V1225" s="16"/>
     </row>
@@ -42572,7 +42577,7 @@
         <v>72</v>
       </c>
       <c r="N1226" s="9" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="V1226" s="16"/>
     </row>
@@ -42603,7 +42608,7 @@
         <v>73</v>
       </c>
       <c r="N1227" s="9" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="S1227" s="2" t="s">
         <v>92</v>
@@ -42637,13 +42642,13 @@
         <v>74</v>
       </c>
       <c r="N1228" s="9" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="O1228" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1228" s="16" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="1229" spans="4:22" x14ac:dyDescent="0.25">
@@ -42734,7 +42739,7 @@
         <v>77</v>
       </c>
       <c r="N1231" s="9" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="V1231" s="16"/>
     </row>
@@ -42790,7 +42795,7 @@
         <v>79</v>
       </c>
       <c r="N1233" s="9" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="O1233" s="2"/>
       <c r="V1233" s="16"/>
@@ -42847,7 +42852,7 @@
         <v>81</v>
       </c>
       <c r="N1235" s="9" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="V1235" s="16"/>
     </row>
@@ -42875,7 +42880,7 @@
         <v>82</v>
       </c>
       <c r="N1236" s="9" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="S1236" s="2" t="s">
         <v>100</v>
@@ -42906,7 +42911,7 @@
         <v>83</v>
       </c>
       <c r="N1237" s="9" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="V1237" s="16"/>
     </row>
@@ -42934,7 +42939,7 @@
         <v>84</v>
       </c>
       <c r="N1238" s="9" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="V1238" s="16"/>
     </row>
@@ -42962,7 +42967,7 @@
         <v>85</v>
       </c>
       <c r="N1239" s="9" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="O1239" s="2" t="s">
         <v>0</v>
@@ -42971,7 +42976,7 @@
         <v>84</v>
       </c>
       <c r="V1239" s="16" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="1240" spans="5:22" x14ac:dyDescent="0.25">
@@ -42998,7 +43003,7 @@
         <v>86</v>
       </c>
       <c r="N1240" s="9" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="V1240" s="16"/>
     </row>
@@ -43026,7 +43031,7 @@
         <v>87</v>
       </c>
       <c r="N1241" s="9" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="V1241" s="16"/>
     </row>
@@ -43089,7 +43094,7 @@
         <v>89</v>
       </c>
       <c r="N1243" s="9" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="O1243" s="2"/>
       <c r="V1243" s="16"/>
@@ -43120,7 +43125,7 @@
         <v>90</v>
       </c>
       <c r="N1244" s="9" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="O1244" s="2"/>
       <c r="V1244" s="16"/>
@@ -43151,7 +43156,7 @@
         <v>91</v>
       </c>
       <c r="N1245" s="9" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="V1245" s="16"/>
     </row>
@@ -43181,7 +43186,7 @@
         <v>92</v>
       </c>
       <c r="N1246" s="9" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="U1246" s="49" t="s">
         <v>91</v>
@@ -43247,13 +43252,13 @@
         <v>94</v>
       </c>
       <c r="N1248" s="9" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="O1248" s="1" t="s">
         <v>15</v>
       </c>
       <c r="V1248" s="33" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="1249" spans="5:22" x14ac:dyDescent="0.25">
@@ -43280,7 +43285,7 @@
         <v>95</v>
       </c>
       <c r="N1249" s="9" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="V1249" s="16"/>
     </row>
@@ -43336,7 +43341,7 @@
         <v>97</v>
       </c>
       <c r="N1251" s="9" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="P1251" s="2" t="s">
         <v>84</v>
@@ -43375,13 +43380,13 @@
         <v>98</v>
       </c>
       <c r="N1252" s="9" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="O1252" s="2" t="s">
         <v>15</v>
       </c>
       <c r="V1252" s="35" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="1253" spans="5:22" x14ac:dyDescent="0.25">
@@ -43436,13 +43441,13 @@
         <v>100</v>
       </c>
       <c r="N1254" s="9" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="O1254" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1254" s="16" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="1255" spans="5:22" x14ac:dyDescent="0.25">
@@ -43468,7 +43473,7 @@
         <v>101</v>
       </c>
       <c r="N1255" s="9" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="S1255" s="2" t="s">
         <v>92</v>
@@ -43502,7 +43507,7 @@
         <v>102</v>
       </c>
       <c r="N1256" s="9" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="V1256" s="16"/>
     </row>
@@ -43530,7 +43535,7 @@
         <v>103</v>
       </c>
       <c r="N1257" s="9" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="V1257" s="16"/>
     </row>
@@ -43589,7 +43594,7 @@
         <v>105</v>
       </c>
       <c r="N1259" s="9" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="V1259" s="16"/>
     </row>
@@ -43617,13 +43622,13 @@
         <v>106</v>
       </c>
       <c r="N1260" s="9" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="P1260" s="2" t="s">
         <v>84</v>
       </c>
       <c r="V1260" s="38" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="1261" spans="5:22" x14ac:dyDescent="0.25">
@@ -43650,7 +43655,7 @@
         <v>107</v>
       </c>
       <c r="N1261" s="9" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="V1261" s="16"/>
     </row>
@@ -43706,7 +43711,7 @@
         <v>109</v>
       </c>
       <c r="N1263" s="9" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="V1263" s="16"/>
     </row>
@@ -43734,7 +43739,7 @@
         <v>110</v>
       </c>
       <c r="N1264" s="9" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="V1264" s="16"/>
     </row>
@@ -43762,7 +43767,7 @@
         <v>111</v>
       </c>
       <c r="N1265" s="9" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="V1265" s="16"/>
     </row>
@@ -43821,7 +43826,7 @@
         <v>113</v>
       </c>
       <c r="N1267" s="9" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="V1267" s="16"/>
     </row>
@@ -43849,7 +43854,7 @@
         <v>114</v>
       </c>
       <c r="N1268" s="9" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="V1268" s="16"/>
     </row>
@@ -43877,13 +43882,13 @@
         <v>115</v>
       </c>
       <c r="N1269" s="9" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="P1269" s="2" t="s">
         <v>84</v>
       </c>
       <c r="V1269" s="35" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="1270" spans="5:22" x14ac:dyDescent="0.25">
@@ -43910,7 +43915,7 @@
         <v>116</v>
       </c>
       <c r="N1270" s="9" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="O1270" s="2"/>
       <c r="V1270" s="16"/>
@@ -43939,7 +43944,7 @@
         <v>117</v>
       </c>
       <c r="N1271" s="9" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="O1271" s="2"/>
       <c r="V1271" s="16"/>
@@ -43968,13 +43973,13 @@
         <v>118</v>
       </c>
       <c r="N1272" s="9" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="O1272" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1272" s="16" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="1273" spans="5:22" x14ac:dyDescent="0.25">
@@ -44001,7 +44006,7 @@
         <v>119</v>
       </c>
       <c r="N1273" s="9" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="V1273" s="16"/>
     </row>
@@ -44029,13 +44034,13 @@
         <v>120</v>
       </c>
       <c r="N1274" s="9" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="O1274" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1274" s="16" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="1275" spans="5:22" x14ac:dyDescent="0.25">
@@ -44062,13 +44067,13 @@
         <v>121</v>
       </c>
       <c r="N1275" s="9" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="P1275" s="2" t="s">
         <v>84</v>
       </c>
       <c r="V1275" s="43" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1276" spans="5:22" x14ac:dyDescent="0.25">
@@ -44123,7 +44128,7 @@
         <v>123</v>
       </c>
       <c r="N1277" s="9" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="O1277" s="2"/>
       <c r="V1277" s="16"/>
@@ -44152,13 +44157,13 @@
         <v>124</v>
       </c>
       <c r="N1278" s="9" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="P1278" s="2" t="s">
         <v>84</v>
       </c>
       <c r="V1278" s="51" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="1279" spans="5:22" x14ac:dyDescent="0.25">
@@ -44185,7 +44190,7 @@
         <v>125</v>
       </c>
       <c r="N1279" s="9" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="O1279" s="2"/>
       <c r="V1279" s="16"/>
@@ -44242,7 +44247,7 @@
         <v>127</v>
       </c>
       <c r="N1281" s="9" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="O1281" s="2"/>
       <c r="V1281" s="16"/>
@@ -44338,7 +44343,7 @@
         <v>130</v>
       </c>
       <c r="N1284" s="9" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="V1284" s="16"/>
     </row>
@@ -44371,7 +44376,7 @@
         <v>131</v>
       </c>
       <c r="N1285" s="9" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="V1285" s="16"/>
     </row>
@@ -44401,7 +44406,7 @@
         <v>132</v>
       </c>
       <c r="N1286" s="9" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="V1286" s="16"/>
     </row>
@@ -44431,13 +44436,13 @@
         <v>133</v>
       </c>
       <c r="N1287" s="9" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="O1287" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1287" s="16" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1288" spans="1:22" x14ac:dyDescent="0.25">
@@ -44466,7 +44471,7 @@
         <v>134</v>
       </c>
       <c r="N1288" s="9" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="O1288" s="2" t="s">
         <v>0</v>
@@ -44475,7 +44480,7 @@
         <v>84</v>
       </c>
       <c r="V1288" s="16" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="1289" spans="1:22" x14ac:dyDescent="0.25">
@@ -44502,7 +44507,7 @@
         <v>135</v>
       </c>
       <c r="N1289" s="9" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="V1289" s="16"/>
     </row>
@@ -44558,7 +44563,7 @@
         <v>137</v>
       </c>
       <c r="N1291" s="9" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="O1291" s="1" t="s">
         <v>105</v>
@@ -44589,7 +44594,7 @@
         <v>138</v>
       </c>
       <c r="N1292" s="9" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="O1292" s="2"/>
       <c r="V1292" s="16"/>
@@ -44618,7 +44623,7 @@
         <v>139</v>
       </c>
       <c r="N1293" s="9" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="V1293" s="16"/>
     </row>
@@ -44648,7 +44653,7 @@
         <v>140</v>
       </c>
       <c r="N1294" s="9" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="V1294" s="16"/>
     </row>
@@ -44678,7 +44683,7 @@
         <v>141</v>
       </c>
       <c r="N1295" s="9" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="V1295" s="16"/>
     </row>
@@ -44708,7 +44713,7 @@
         <v>142</v>
       </c>
       <c r="N1296" s="9" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="U1296" s="2" t="s">
         <v>109</v>
@@ -44747,7 +44752,7 @@
         <v>84</v>
       </c>
       <c r="V1297" s="51" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="1298" spans="5:22" x14ac:dyDescent="0.25">
@@ -44774,7 +44779,7 @@
         <v>144</v>
       </c>
       <c r="N1298" s="9" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="V1298" s="16"/>
     </row>
@@ -44802,7 +44807,7 @@
         <v>145</v>
       </c>
       <c r="N1299" s="9" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="V1299" s="16"/>
     </row>
@@ -44830,7 +44835,7 @@
         <v>146</v>
       </c>
       <c r="N1300" s="9" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="V1300" s="16"/>
     </row>
@@ -44886,13 +44891,13 @@
         <v>148</v>
       </c>
       <c r="N1302" s="9" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="O1302" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1302" s="16" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="1303" spans="5:22" x14ac:dyDescent="0.25">
@@ -44950,13 +44955,13 @@
         <v>150</v>
       </c>
       <c r="N1304" s="9" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="P1304" s="2" t="s">
         <v>84</v>
       </c>
       <c r="V1304" s="43" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="1305" spans="5:22" x14ac:dyDescent="0.25">
@@ -44982,13 +44987,13 @@
         <v>151</v>
       </c>
       <c r="N1305" s="9" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="O1305" s="1" t="s">
         <v>15</v>
       </c>
       <c r="V1305" s="33" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="1306" spans="5:22" x14ac:dyDescent="0.25">
@@ -45015,13 +45020,13 @@
         <v>152</v>
       </c>
       <c r="N1306" s="9" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="O1306" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1306" s="16" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="1307" spans="5:22" x14ac:dyDescent="0.25">
@@ -45048,13 +45053,13 @@
         <v>153</v>
       </c>
       <c r="N1307" s="9" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="P1307" s="2" t="s">
         <v>84</v>
       </c>
       <c r="V1307" s="43" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="1308" spans="5:22" x14ac:dyDescent="0.25">
@@ -45081,7 +45086,7 @@
         <v>154</v>
       </c>
       <c r="N1308" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="V1308" s="16"/>
     </row>
@@ -45109,7 +45114,7 @@
         <v>155</v>
       </c>
       <c r="N1309" s="9" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="V1309" s="16"/>
     </row>
@@ -45137,7 +45142,7 @@
         <v>156</v>
       </c>
       <c r="N1310" s="9" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="V1310" s="16"/>
     </row>
@@ -45165,13 +45170,13 @@
         <v>157</v>
       </c>
       <c r="N1311" s="9" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="O1311" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1311" s="16" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="1312" spans="5:22" x14ac:dyDescent="0.25">
@@ -45198,7 +45203,7 @@
         <v>158</v>
       </c>
       <c r="N1312" s="9" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="V1312" s="16"/>
     </row>
@@ -45226,13 +45231,13 @@
         <v>159</v>
       </c>
       <c r="N1313" s="9" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="O1313" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1313" s="16" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="1314" spans="5:22" x14ac:dyDescent="0.25">
@@ -45259,7 +45264,7 @@
         <v>160</v>
       </c>
       <c r="N1314" s="9" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="P1314" s="2" t="s">
         <v>84</v>
@@ -45320,7 +45325,7 @@
         <v>162</v>
       </c>
       <c r="N1316" s="9" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="V1316" s="16"/>
     </row>
@@ -45348,13 +45353,13 @@
         <v>163</v>
       </c>
       <c r="N1317" s="9" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="O1317" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1317" s="16" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1318" spans="5:22" x14ac:dyDescent="0.25">
@@ -45381,7 +45386,7 @@
         <v>164</v>
       </c>
       <c r="N1318" s="9" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="V1318" s="16"/>
     </row>
@@ -45409,7 +45414,7 @@
         <v>165</v>
       </c>
       <c r="N1319" s="9" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="V1319" s="16"/>
     </row>
@@ -45465,13 +45470,13 @@
         <v>167</v>
       </c>
       <c r="N1321" s="9" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="O1321" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1321" s="16" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="1322" spans="5:22" x14ac:dyDescent="0.25">
@@ -45498,13 +45503,13 @@
         <v>168</v>
       </c>
       <c r="N1322" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="P1322" s="2" t="s">
         <v>84</v>
       </c>
       <c r="V1322" s="38" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="1323" spans="5:22" x14ac:dyDescent="0.25">
@@ -45531,7 +45536,7 @@
         <v>169</v>
       </c>
       <c r="N1323" s="9" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="S1323" s="2" t="s">
         <v>92</v>
@@ -45621,7 +45626,7 @@
         <v>172</v>
       </c>
       <c r="N1326" s="9" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="V1326" s="16"/>
     </row>
@@ -45709,13 +45714,13 @@
         <v>175</v>
       </c>
       <c r="N1329" s="9" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="P1329" s="2" t="s">
         <v>84</v>
       </c>
       <c r="V1329" s="35" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="1330" spans="4:22" x14ac:dyDescent="0.25">
@@ -45745,7 +45750,7 @@
         <v>176</v>
       </c>
       <c r="N1330" s="9" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="O1330" s="2"/>
       <c r="V1330" s="16"/>
@@ -45808,7 +45813,7 @@
         <v>0</v>
       </c>
       <c r="V1332" s="16" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="1333" spans="4:22" x14ac:dyDescent="0.25">
@@ -45866,7 +45871,7 @@
         <v>180</v>
       </c>
       <c r="N1334" s="9" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="V1334" s="16"/>
     </row>
@@ -45894,7 +45899,7 @@
         <v>181</v>
       </c>
       <c r="N1335" s="66" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="O1335" s="1" t="s">
         <v>105</v>
@@ -45925,7 +45930,7 @@
         <v>182</v>
       </c>
       <c r="N1336" s="9" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="V1336" s="16"/>
     </row>
@@ -45953,7 +45958,7 @@
         <v>183</v>
       </c>
       <c r="N1337" s="9" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="O1337" s="2"/>
       <c r="V1337" s="16"/>
@@ -45989,7 +45994,7 @@
         <v>84</v>
       </c>
       <c r="V1338" s="33" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="1339" spans="4:22" x14ac:dyDescent="0.25">
@@ -46022,13 +46027,13 @@
         <v>185</v>
       </c>
       <c r="N1339" s="9" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="O1339" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1339" s="16" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="1340" spans="4:22" x14ac:dyDescent="0.25">
@@ -46148,13 +46153,13 @@
         <v>189</v>
       </c>
       <c r="N1343" s="9" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="O1343" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1343" s="16" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="1344" spans="4:22" x14ac:dyDescent="0.25">
@@ -46181,13 +46186,13 @@
         <v>190</v>
       </c>
       <c r="N1344" s="9" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="O1344" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1344" s="16" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1345" spans="5:22" x14ac:dyDescent="0.25">
@@ -46214,13 +46219,13 @@
         <v>191</v>
       </c>
       <c r="N1345" s="9" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="P1345" s="2" t="s">
         <v>84</v>
       </c>
       <c r="V1345" s="35" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="1346" spans="5:22" x14ac:dyDescent="0.25">
@@ -46276,7 +46281,7 @@
         <v>193</v>
       </c>
       <c r="N1347" s="9" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="V1347" s="16"/>
     </row>
@@ -46304,7 +46309,7 @@
         <v>194</v>
       </c>
       <c r="N1348" s="9" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="V1348" s="16"/>
     </row>
@@ -46332,7 +46337,7 @@
         <v>195</v>
       </c>
       <c r="N1349" s="9" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="V1349" s="16"/>
     </row>
@@ -46360,7 +46365,7 @@
         <v>196</v>
       </c>
       <c r="N1350" s="9" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="V1350" s="16"/>
     </row>
@@ -46388,7 +46393,7 @@
         <v>197</v>
       </c>
       <c r="N1351" s="9" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="V1351" s="16"/>
     </row>
@@ -46444,7 +46449,7 @@
         <v>199</v>
       </c>
       <c r="N1353" s="9" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="V1353" s="16"/>
     </row>
@@ -46472,7 +46477,7 @@
         <v>200</v>
       </c>
       <c r="N1354" s="9" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="O1354" s="1" t="s">
         <v>105</v>
@@ -46502,7 +46507,7 @@
         <v>201</v>
       </c>
       <c r="N1355" s="40" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="V1355" s="16"/>
     </row>
@@ -46537,7 +46542,7 @@
         <v>84</v>
       </c>
       <c r="V1356" s="43" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1357" spans="5:22" x14ac:dyDescent="0.25">
@@ -46564,7 +46569,7 @@
         <v>203</v>
       </c>
       <c r="N1357" s="40" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="O1357" s="2"/>
       <c r="V1357" s="16"/>
@@ -46621,13 +46626,13 @@
         <v>205</v>
       </c>
       <c r="N1359" s="40" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="O1359" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1359" s="16" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="1360" spans="5:22" x14ac:dyDescent="0.25">
@@ -46654,13 +46659,13 @@
         <v>206</v>
       </c>
       <c r="N1360" s="9" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="O1360" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1360" s="16" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="1361" spans="4:22" x14ac:dyDescent="0.25">
@@ -46687,7 +46692,7 @@
         <v>207</v>
       </c>
       <c r="N1361" s="9" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="O1361" s="2" t="s">
         <v>0</v>
@@ -46696,7 +46701,7 @@
         <v>84</v>
       </c>
       <c r="V1361" s="16" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="1362" spans="4:22" x14ac:dyDescent="0.25">
@@ -46752,7 +46757,7 @@
         <v>209</v>
       </c>
       <c r="N1363" s="9" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="V1363" s="16"/>
     </row>
@@ -46780,7 +46785,7 @@
         <v>210</v>
       </c>
       <c r="N1364" s="9" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="O1364" s="2" t="s">
         <v>0</v>
@@ -46789,7 +46794,7 @@
         <v>84</v>
       </c>
       <c r="V1364" s="16" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="1365" spans="4:22" x14ac:dyDescent="0.25">
@@ -46816,7 +46821,7 @@
         <v>211</v>
       </c>
       <c r="N1365" s="9" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="S1365" s="2" t="s">
         <v>92</v>
@@ -46881,7 +46886,7 @@
         <v>213</v>
       </c>
       <c r="N1367" s="9" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="V1367" s="16"/>
     </row>
@@ -46912,7 +46917,7 @@
         <v>214</v>
       </c>
       <c r="N1368" s="9" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="V1368" s="16"/>
     </row>
@@ -47002,7 +47007,7 @@
         <v>217</v>
       </c>
       <c r="N1371" s="9" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="V1371" s="16"/>
     </row>
@@ -47061,7 +47066,7 @@
         <v>219</v>
       </c>
       <c r="N1373" s="9" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="O1373" s="2" t="s">
         <v>0</v>
@@ -47070,7 +47075,7 @@
         <v>84</v>
       </c>
       <c r="V1373" s="16" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="1374" spans="4:22" x14ac:dyDescent="0.25">
@@ -47097,7 +47102,7 @@
         <v>220</v>
       </c>
       <c r="N1374" s="9" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="V1374" s="16"/>
     </row>
@@ -47125,13 +47130,13 @@
         <v>221</v>
       </c>
       <c r="N1375" s="9" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="O1375" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1375" s="16" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="1376" spans="4:22" x14ac:dyDescent="0.25">
@@ -47158,7 +47163,7 @@
         <v>222</v>
       </c>
       <c r="N1376" s="53" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="O1376" s="6" t="s">
         <v>0</v>
@@ -47170,7 +47175,7 @@
       <c r="T1376" s="52"/>
       <c r="U1376" s="52"/>
       <c r="V1376" s="16" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="1377" spans="5:22" x14ac:dyDescent="0.25">
@@ -47199,7 +47204,7 @@
         <v>223</v>
       </c>
       <c r="N1377" s="9" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="V1377" s="16"/>
     </row>
@@ -47229,7 +47234,7 @@
         <v>224</v>
       </c>
       <c r="N1378" s="9" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="V1378" s="16"/>
     </row>
@@ -47287,7 +47292,7 @@
         <v>226</v>
       </c>
       <c r="N1380" s="9" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="O1380" s="2"/>
       <c r="V1380" s="16"/>
@@ -47316,7 +47321,7 @@
         <v>227</v>
       </c>
       <c r="N1381" s="9" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="O1381" s="2" t="s">
         <v>0</v>
@@ -47325,7 +47330,7 @@
         <v>84</v>
       </c>
       <c r="V1381" s="16" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="1382" spans="5:22" x14ac:dyDescent="0.25">
@@ -47352,7 +47357,7 @@
         <v>228</v>
       </c>
       <c r="N1382" s="9" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="V1382" s="16"/>
     </row>
@@ -47380,7 +47385,7 @@
         <v>229</v>
       </c>
       <c r="N1383" s="9" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="V1383" s="16"/>
     </row>
@@ -47408,7 +47413,7 @@
         <v>230</v>
       </c>
       <c r="N1384" s="9" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="V1384" s="16"/>
     </row>
@@ -47464,7 +47469,7 @@
         <v>232</v>
       </c>
       <c r="N1386" s="9" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="V1386" s="16"/>
     </row>
@@ -47523,13 +47528,13 @@
         <v>234</v>
       </c>
       <c r="N1388" s="9" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="P1388" s="2" t="s">
         <v>84</v>
       </c>
       <c r="V1388" s="35" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="1389" spans="5:22" x14ac:dyDescent="0.25">
@@ -47584,7 +47589,7 @@
         <v>236</v>
       </c>
       <c r="N1390" s="9" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="V1390" s="16"/>
     </row>
@@ -47612,7 +47617,7 @@
         <v>237</v>
       </c>
       <c r="N1391" s="9" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="O1391" s="2" t="s">
         <v>0</v>
@@ -47621,7 +47626,7 @@
         <v>84</v>
       </c>
       <c r="V1391" s="16" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="1392" spans="5:22" x14ac:dyDescent="0.25">
@@ -47648,7 +47653,7 @@
         <v>238</v>
       </c>
       <c r="N1392" s="9" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="O1392" s="2"/>
       <c r="V1392" s="16"/>
@@ -47677,7 +47682,7 @@
         <v>239</v>
       </c>
       <c r="N1393" s="9" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="O1393" s="2"/>
       <c r="V1393" s="16"/>
@@ -47706,7 +47711,7 @@
         <v>240</v>
       </c>
       <c r="N1394" s="9" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="V1394" s="16"/>
     </row>
@@ -47765,7 +47770,7 @@
         <v>242</v>
       </c>
       <c r="N1396" s="9" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="V1396" s="16"/>
     </row>
@@ -47793,13 +47798,13 @@
         <v>243</v>
       </c>
       <c r="N1397" s="9" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="O1397" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1397" s="16" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="1398" spans="5:22" x14ac:dyDescent="0.25">
@@ -47826,7 +47831,7 @@
         <v>244</v>
       </c>
       <c r="N1398" s="9" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="V1398" s="16"/>
     </row>
@@ -47854,7 +47859,7 @@
         <v>245</v>
       </c>
       <c r="N1399" s="9" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="V1399" s="16"/>
     </row>
@@ -47882,13 +47887,13 @@
         <v>246</v>
       </c>
       <c r="N1400" s="9" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="P1400" s="2" t="s">
         <v>84</v>
       </c>
       <c r="V1400" s="35" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="1401" spans="5:22" x14ac:dyDescent="0.25">
@@ -47946,7 +47951,7 @@
         <v>248</v>
       </c>
       <c r="N1402" s="9" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="U1402" s="2" t="s">
         <v>98</v>
@@ -47977,7 +47982,7 @@
         <v>249</v>
       </c>
       <c r="N1403" s="9" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="U1403" s="2" t="s">
         <v>91</v>
@@ -48008,13 +48013,13 @@
         <v>250</v>
       </c>
       <c r="N1404" s="9" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="O1404" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1404" s="16" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="1405" spans="5:22" x14ac:dyDescent="0.25">
@@ -48096,7 +48101,7 @@
         <v>253</v>
       </c>
       <c r="N1407" s="9" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="V1407" s="16"/>
     </row>
@@ -48124,7 +48129,7 @@
         <v>254</v>
       </c>
       <c r="N1408" s="9" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="V1408" s="16"/>
     </row>
@@ -48152,7 +48157,7 @@
         <v>255</v>
       </c>
       <c r="N1409" s="9" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="O1409" s="2" t="s">
         <v>0</v>
@@ -48161,7 +48166,7 @@
         <v>84</v>
       </c>
       <c r="V1409" s="16" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="1410" spans="5:22" x14ac:dyDescent="0.25">
@@ -48275,13 +48280,13 @@
         <v>259</v>
       </c>
       <c r="N1413" s="9" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="O1413" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1413" s="16" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="1414" spans="5:22" x14ac:dyDescent="0.25">
@@ -48308,7 +48313,7 @@
         <v>260</v>
       </c>
       <c r="N1414" s="9" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="V1414" s="16"/>
     </row>
@@ -48336,7 +48341,7 @@
         <v>261</v>
       </c>
       <c r="N1415" s="9" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="V1415" s="16"/>
     </row>
@@ -48364,7 +48369,7 @@
         <v>262</v>
       </c>
       <c r="N1416" s="9" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="V1416" s="16"/>
     </row>
@@ -48392,7 +48397,7 @@
         <v>263</v>
       </c>
       <c r="N1417" s="9" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1418" spans="5:22" x14ac:dyDescent="0.25">
@@ -48419,13 +48424,13 @@
         <v>264</v>
       </c>
       <c r="N1418" s="16" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="O1418" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1418" s="9" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="1419" spans="5:22" x14ac:dyDescent="0.25">
@@ -48452,7 +48457,7 @@
         <v>265</v>
       </c>
       <c r="N1419" s="9" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="V1419" s="16"/>
     </row>
@@ -48480,7 +48485,7 @@
         <v>266</v>
       </c>
       <c r="N1420" s="9" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="O1420" s="2"/>
       <c r="P1420" s="2" t="s">
@@ -48490,7 +48495,7 @@
         <v>98</v>
       </c>
       <c r="V1420" s="43" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="1421" spans="5:22" x14ac:dyDescent="0.25">
@@ -48545,7 +48550,7 @@
         <v>268</v>
       </c>
       <c r="N1422" s="9" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="V1422" s="16"/>
     </row>
@@ -48573,7 +48578,7 @@
         <v>269</v>
       </c>
       <c r="N1423" s="9" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="O1423" s="2"/>
       <c r="V1423" s="16"/>
@@ -48602,7 +48607,7 @@
         <v>270</v>
       </c>
       <c r="N1424" s="9" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="V1424" s="16"/>
     </row>
@@ -48630,13 +48635,13 @@
         <v>271</v>
       </c>
       <c r="N1425" s="9" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="O1425" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1425" s="16" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="1426" spans="5:22" x14ac:dyDescent="0.25">
@@ -48663,7 +48668,7 @@
         <v>272</v>
       </c>
       <c r="N1426" s="9" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="V1426" s="16"/>
     </row>
@@ -48691,7 +48696,7 @@
         <v>273</v>
       </c>
       <c r="N1427" s="9" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="V1427" s="16"/>
     </row>
@@ -48752,7 +48757,7 @@
         <v>275</v>
       </c>
       <c r="N1429" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="V1429" s="16"/>
     </row>
@@ -48780,7 +48785,7 @@
         <v>276</v>
       </c>
       <c r="N1430" s="9" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="O1430" s="2"/>
       <c r="V1430" s="16"/>
@@ -48837,7 +48842,7 @@
         <v>278</v>
       </c>
       <c r="N1432" s="9" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="V1432" s="16"/>
     </row>
@@ -48865,7 +48870,7 @@
         <v>279</v>
       </c>
       <c r="N1433" s="9" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="V1433" s="16"/>
     </row>
@@ -48893,7 +48898,7 @@
         <v>280</v>
       </c>
       <c r="N1434" s="9" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="V1434" s="16"/>
     </row>
@@ -48921,13 +48926,13 @@
         <v>281</v>
       </c>
       <c r="N1435" s="9" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="O1435" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1435" s="16" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="1436" spans="5:22" x14ac:dyDescent="0.25">
@@ -48954,7 +48959,7 @@
         <v>282</v>
       </c>
       <c r="N1436" s="9" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="O1436" s="2" t="s">
         <v>0</v>
@@ -48963,7 +48968,7 @@
         <v>84</v>
       </c>
       <c r="V1436" s="35" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="1437" spans="5:22" x14ac:dyDescent="0.25">
@@ -49052,13 +49057,13 @@
         <v>285</v>
       </c>
       <c r="N1439" s="9" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="O1439" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1439" s="16" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="1440" spans="5:22" x14ac:dyDescent="0.25">
@@ -49085,13 +49090,13 @@
         <v>286</v>
       </c>
       <c r="N1440" s="9" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="O1440" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1440" s="16" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="1441" spans="1:22" x14ac:dyDescent="0.25">
@@ -49118,7 +49123,7 @@
         <v>287</v>
       </c>
       <c r="N1441" s="9" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="V1441" s="16"/>
     </row>
@@ -49174,13 +49179,13 @@
         <v>289</v>
       </c>
       <c r="N1443" s="9" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="O1443" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1443" s="16" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="1444" spans="1:22" x14ac:dyDescent="0.25">
@@ -49235,13 +49240,13 @@
         <v>291</v>
       </c>
       <c r="N1445" s="9" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="P1445" s="2" t="s">
         <v>84</v>
       </c>
       <c r="V1445" s="39" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="1446" spans="1:22" x14ac:dyDescent="0.25">
@@ -49296,7 +49301,7 @@
         <v>293</v>
       </c>
       <c r="N1447" s="9" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="V1447" s="16"/>
     </row>
@@ -49355,7 +49360,7 @@
         <v>295</v>
       </c>
       <c r="N1449" s="9" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="V1449" s="16"/>
     </row>
@@ -49383,7 +49388,7 @@
         <v>296</v>
       </c>
       <c r="N1450" s="9" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="V1450" s="16"/>
     </row>
@@ -49411,13 +49416,13 @@
         <v>297</v>
       </c>
       <c r="N1451" s="9" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="O1451" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1451" s="16" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="1452" spans="1:22" x14ac:dyDescent="0.25">
@@ -49444,13 +49449,13 @@
         <v>298</v>
       </c>
       <c r="N1452" s="9" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="P1452" s="2" t="s">
         <v>84</v>
       </c>
       <c r="V1452" s="35" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="1453" spans="1:22" x14ac:dyDescent="0.25">
@@ -49477,7 +49482,7 @@
         <v>299</v>
       </c>
       <c r="N1453" s="9" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="V1453" s="16"/>
     </row>
@@ -49535,13 +49540,13 @@
         <v>301</v>
       </c>
       <c r="N1455" s="9" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="V1455" s="16"/>
     </row>
     <row r="1456" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1456" s="61" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="E1456" s="26"/>
       <c r="F1456" s="26"/>
@@ -49568,7 +49573,7 @@
         <v>302</v>
       </c>
       <c r="N1456" s="9" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="O1456" s="1" t="s">
         <v>105</v>
@@ -49577,7 +49582,7 @@
     </row>
     <row r="1457" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1457" s="61" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="E1457" s="26"/>
       <c r="F1457" s="26"/>
@@ -49604,7 +49609,7 @@
         <v>303</v>
       </c>
       <c r="N1457" s="9" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="V1457" s="16"/>
     </row>
@@ -49634,7 +49639,7 @@
         <v>304</v>
       </c>
       <c r="N1458" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="V1458" s="16"/>
     </row>
@@ -49662,7 +49667,7 @@
         <v>305</v>
       </c>
       <c r="N1459" s="9" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="O1459" s="2" t="s">
         <v>0</v>
@@ -49671,7 +49676,7 @@
         <v>84</v>
       </c>
       <c r="V1459" s="35" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="1460" spans="1:22" x14ac:dyDescent="0.25">
@@ -49757,13 +49762,13 @@
         <v>308</v>
       </c>
       <c r="N1462" s="9" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="O1462" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1462" s="16" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="1463" spans="1:22" x14ac:dyDescent="0.25">
@@ -49790,7 +49795,7 @@
         <v>309</v>
       </c>
       <c r="N1463" s="9" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="V1463" s="16"/>
     </row>
@@ -49818,7 +49823,7 @@
         <v>310</v>
       </c>
       <c r="N1464" s="9" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="V1464" s="16"/>
     </row>
@@ -49877,13 +49882,13 @@
         <v>312</v>
       </c>
       <c r="N1466" s="9" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="P1466" s="2" t="s">
         <v>84</v>
       </c>
       <c r="V1466" s="43" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="1467" spans="1:22" x14ac:dyDescent="0.25">
@@ -49938,7 +49943,7 @@
         <v>314</v>
       </c>
       <c r="N1468" s="9" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="V1468" s="16"/>
     </row>
@@ -49966,7 +49971,7 @@
         <v>315</v>
       </c>
       <c r="N1469" s="9" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="V1469" s="16"/>
     </row>
@@ -49994,7 +49999,7 @@
         <v>316</v>
       </c>
       <c r="N1470" s="9" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="U1470" s="2" t="s">
         <v>107</v>
@@ -50025,7 +50030,7 @@
         <v>317</v>
       </c>
       <c r="N1471" s="9" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="V1471" s="16"/>
     </row>
@@ -50053,7 +50058,7 @@
         <v>318</v>
       </c>
       <c r="N1472" s="9" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="V1472" s="16"/>
     </row>
@@ -50081,7 +50086,7 @@
         <v>319</v>
       </c>
       <c r="N1473" s="9" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O1473" s="2" t="s">
         <v>0</v>
@@ -50090,7 +50095,7 @@
         <v>84</v>
       </c>
       <c r="V1473" s="16" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="1474" spans="5:22" x14ac:dyDescent="0.25">
@@ -50117,13 +50122,13 @@
         <v>320</v>
       </c>
       <c r="N1474" s="9" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O1474" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1474" s="16" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="1475" spans="5:22" x14ac:dyDescent="0.25">
@@ -50150,13 +50155,13 @@
         <v>321</v>
       </c>
       <c r="N1475" s="9" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="O1475" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1475" s="16" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="1476" spans="5:22" x14ac:dyDescent="0.25">
@@ -50183,13 +50188,13 @@
         <v>322</v>
       </c>
       <c r="N1476" s="9" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="O1476" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1476" s="16" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="1477" spans="5:22" x14ac:dyDescent="0.25">
@@ -50216,13 +50221,13 @@
         <v>323</v>
       </c>
       <c r="N1477" s="9" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="P1477" s="2" t="s">
         <v>84</v>
       </c>
       <c r="V1477" s="9" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="1478" spans="5:22" x14ac:dyDescent="0.25">
@@ -50249,7 +50254,7 @@
         <v>324</v>
       </c>
       <c r="N1478" s="9" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="V1478" s="16"/>
     </row>
@@ -50277,7 +50282,7 @@
         <v>325</v>
       </c>
       <c r="N1479" s="9" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="V1479" s="16"/>
     </row>
@@ -50305,7 +50310,7 @@
         <v>326</v>
       </c>
       <c r="N1480" s="9" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="P1480" s="2" t="s">
         <v>84</v>
@@ -50314,13 +50319,13 @@
         <v>98</v>
       </c>
       <c r="V1480" s="35" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="1481" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E1481" s="26"/>
       <c r="F1481" s="65" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="G1481" s="26"/>
       <c r="H1481" s="57" t="s">
@@ -50345,14 +50350,14 @@
         <v>327</v>
       </c>
       <c r="N1481" s="9" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="V1481" s="16"/>
     </row>
     <row r="1482" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E1482" s="26"/>
       <c r="F1482" s="65" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="G1482" s="26"/>
       <c r="H1482" s="57" t="s">
@@ -50377,7 +50382,7 @@
         <v>328</v>
       </c>
       <c r="N1482" s="9" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="V1482" s="16"/>
     </row>
@@ -50407,13 +50412,13 @@
         <v>329</v>
       </c>
       <c r="N1483" s="9" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="O1483" s="2" t="s">
         <v>15</v>
       </c>
       <c r="V1483" s="33" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="1484" spans="5:22" x14ac:dyDescent="0.25">
@@ -50442,7 +50447,7 @@
         <v>330</v>
       </c>
       <c r="N1484" s="9" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="U1484" s="2" t="s">
         <v>91</v>
@@ -50475,13 +50480,13 @@
         <v>331</v>
       </c>
       <c r="N1485" s="9" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="O1485" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1485" s="16" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="1486" spans="5:22" x14ac:dyDescent="0.25">
@@ -50510,7 +50515,7 @@
         <v>332</v>
       </c>
       <c r="N1486" s="9" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="V1486" s="16"/>
     </row>
@@ -50569,7 +50574,7 @@
         <v>334</v>
       </c>
       <c r="N1488" s="9" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="O1488" s="2"/>
       <c r="V1488" s="16"/>
@@ -50598,7 +50603,7 @@
         <v>335</v>
       </c>
       <c r="N1489" s="9" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="V1489" s="16"/>
     </row>
@@ -50626,14 +50631,14 @@
         <v>336</v>
       </c>
       <c r="N1490" s="9" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="O1490" s="2"/>
       <c r="P1490" s="2" t="s">
         <v>84</v>
       </c>
       <c r="V1490" s="35" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="1491" spans="5:22" x14ac:dyDescent="0.25">
@@ -50660,7 +50665,7 @@
         <v>337</v>
       </c>
       <c r="N1491" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="V1491" s="16"/>
     </row>
@@ -50744,13 +50749,13 @@
         <v>340</v>
       </c>
       <c r="N1494" s="9" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="O1494" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1494" s="16" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="1495" spans="5:22" x14ac:dyDescent="0.25">
@@ -50777,7 +50782,7 @@
         <v>341</v>
       </c>
       <c r="N1495" s="9" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="V1495" s="16"/>
     </row>
@@ -50835,7 +50840,7 @@
         <v>343</v>
       </c>
       <c r="N1497" s="9" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="V1497" s="16"/>
     </row>
@@ -50895,7 +50900,7 @@
         <v>345</v>
       </c>
       <c r="N1499" s="9" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="V1499" s="16"/>
     </row>
@@ -50925,7 +50930,7 @@
         <v>346</v>
       </c>
       <c r="N1500" s="9" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="V1500" s="16"/>
     </row>
@@ -50955,7 +50960,7 @@
         <v>347</v>
       </c>
       <c r="N1501" s="9" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="V1501" s="16"/>
     </row>
@@ -50985,7 +50990,7 @@
         <v>348</v>
       </c>
       <c r="N1502" s="9" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="P1502" s="2" t="s">
         <v>84</v>
@@ -50997,7 +51002,7 @@
         <v>127</v>
       </c>
       <c r="V1502" s="35" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="1503" spans="5:22" x14ac:dyDescent="0.25">
@@ -51052,7 +51057,7 @@
         <v>350</v>
       </c>
       <c r="N1504" s="9" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="V1504" s="16"/>
     </row>
@@ -51079,7 +51084,7 @@
         <v>351</v>
       </c>
       <c r="N1505" s="9" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="O1505" s="2"/>
       <c r="V1505" s="16"/>
@@ -51139,7 +51144,7 @@
         <v>353</v>
       </c>
       <c r="N1507" s="9" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="V1507" s="16"/>
     </row>
@@ -51167,7 +51172,7 @@
         <v>354</v>
       </c>
       <c r="N1508" s="9" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="V1508" s="16"/>
     </row>
@@ -51195,7 +51200,7 @@
         <v>355</v>
       </c>
       <c r="N1509" s="9" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="V1509" s="16"/>
     </row>
@@ -51257,7 +51262,7 @@
         <v>84</v>
       </c>
       <c r="V1511" s="43" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="1512" spans="5:22" x14ac:dyDescent="0.25">
@@ -51284,7 +51289,7 @@
         <v>358</v>
       </c>
       <c r="N1512" s="9" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="V1512" s="16"/>
     </row>
@@ -51312,7 +51317,7 @@
         <v>359</v>
       </c>
       <c r="N1513" s="9" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="V1513" s="16"/>
     </row>
@@ -51340,13 +51345,13 @@
         <v>360</v>
       </c>
       <c r="N1514" s="9" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="P1514" s="2" t="s">
         <v>84</v>
       </c>
       <c r="V1514" s="35" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="1515" spans="5:22" x14ac:dyDescent="0.25">
@@ -51380,7 +51385,7 @@
     <row r="1516" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E1516" s="26"/>
       <c r="F1516" s="65" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="G1516" s="26"/>
       <c r="H1516" s="26"/>
@@ -51403,14 +51408,14 @@
         <v>362</v>
       </c>
       <c r="N1516" s="9" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="V1516" s="16"/>
     </row>
     <row r="1517" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E1517" s="26"/>
       <c r="F1517" s="65" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="G1517" s="26"/>
       <c r="H1517" s="26"/>
@@ -51433,13 +51438,13 @@
         <v>363</v>
       </c>
       <c r="N1517" s="9" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="O1517" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1517" s="16" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="1518" spans="5:22" x14ac:dyDescent="0.25">
@@ -51447,7 +51452,7 @@
         <v>136</v>
       </c>
       <c r="F1518" s="65" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="G1518" s="26"/>
       <c r="H1518" s="26"/>
@@ -51470,7 +51475,7 @@
         <v>364</v>
       </c>
       <c r="N1518" s="9" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="O1518" s="1" t="s">
         <v>15</v>
@@ -51479,7 +51484,7 @@
         <v>102</v>
       </c>
       <c r="V1518" s="33" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="1519" spans="5:22" x14ac:dyDescent="0.25">
@@ -51487,7 +51492,7 @@
         <v>136</v>
       </c>
       <c r="F1519" s="65" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="G1519" s="26"/>
       <c r="H1519" s="26"/>
@@ -51510,7 +51515,7 @@
         <v>365</v>
       </c>
       <c r="N1519" s="9" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="V1519" s="16"/>
     </row>
@@ -51538,7 +51543,7 @@
         <v>366</v>
       </c>
       <c r="N1520" s="9" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="O1520" s="2" t="s">
         <v>0</v>
@@ -51547,7 +51552,7 @@
         <v>84</v>
       </c>
       <c r="V1520" s="16" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="1521" spans="1:22" x14ac:dyDescent="0.25">
@@ -51574,7 +51579,7 @@
         <v>367</v>
       </c>
       <c r="N1521" s="9" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="O1521" s="2"/>
       <c r="V1521" s="16"/>
@@ -51631,7 +51636,7 @@
         <v>369</v>
       </c>
       <c r="N1523" s="9" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="V1523" s="16"/>
     </row>
@@ -51720,7 +51725,7 @@
         <v>372</v>
       </c>
       <c r="N1526" s="9" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="V1526" s="16"/>
     </row>
@@ -51748,7 +51753,7 @@
         <v>373</v>
       </c>
       <c r="N1527" s="9" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="V1527" s="16"/>
     </row>
@@ -51776,7 +51781,7 @@
         <v>374</v>
       </c>
       <c r="N1528" s="9" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="V1528" s="16"/>
     </row>
@@ -51832,7 +51837,7 @@
         <v>376</v>
       </c>
       <c r="N1530" s="9" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="O1530" s="2"/>
       <c r="P1530" s="2" t="s">
@@ -51928,7 +51933,7 @@
         <v>379</v>
       </c>
       <c r="N1533" s="9" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="V1533" s="16"/>
     </row>
@@ -51956,7 +51961,7 @@
         <v>380</v>
       </c>
       <c r="N1534" s="9" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="V1534" s="16"/>
     </row>
@@ -51990,7 +51995,7 @@
         <v>84</v>
       </c>
       <c r="V1535" s="44" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="1536" spans="1:22" x14ac:dyDescent="0.25">
@@ -52017,7 +52022,7 @@
         <v>382</v>
       </c>
       <c r="N1536" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="V1536" s="16"/>
     </row>
@@ -52073,7 +52078,7 @@
         <v>384</v>
       </c>
       <c r="N1538" s="9" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="V1538" s="16"/>
     </row>
@@ -52101,7 +52106,7 @@
         <v>385</v>
       </c>
       <c r="N1539" s="9" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="V1539" s="16"/>
     </row>
@@ -52191,7 +52196,7 @@
         <v>388</v>
       </c>
       <c r="N1542" s="9" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="V1542" s="16"/>
     </row>
@@ -52250,13 +52255,13 @@
         <v>390</v>
       </c>
       <c r="N1544" s="9" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="P1544" s="2" t="s">
         <v>84</v>
       </c>
       <c r="V1544" s="35" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="1545" spans="5:22" x14ac:dyDescent="0.25">
@@ -52339,7 +52344,7 @@
         <v>393</v>
       </c>
       <c r="N1547" s="9" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="V1547" s="16"/>
     </row>
@@ -52401,7 +52406,7 @@
         <v>84</v>
       </c>
       <c r="V1549" s="43" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="1550" spans="5:22" x14ac:dyDescent="0.25">
@@ -52460,13 +52465,13 @@
         <v>397</v>
       </c>
       <c r="N1551" s="9" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="O1551" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1551" s="16" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="1552" spans="5:22" x14ac:dyDescent="0.25">
@@ -52493,7 +52498,7 @@
         <v>398</v>
       </c>
       <c r="N1552" s="9" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="V1552" s="16"/>
     </row>
@@ -52521,7 +52526,7 @@
         <v>399</v>
       </c>
       <c r="N1553" s="9" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="V1553" s="16"/>
     </row>
@@ -52549,7 +52554,7 @@
         <v>400</v>
       </c>
       <c r="N1554" s="9" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="V1554" s="16"/>
     </row>
@@ -52583,7 +52588,7 @@
         <v>84</v>
       </c>
       <c r="V1555" s="9" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="1556" spans="5:22" x14ac:dyDescent="0.25">
@@ -52610,7 +52615,7 @@
         <v>402</v>
       </c>
       <c r="N1556" s="9" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="V1556" s="16"/>
     </row>
@@ -52638,7 +52643,7 @@
         <v>403</v>
       </c>
       <c r="N1557" s="9" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="V1557" s="16"/>
     </row>
@@ -52666,7 +52671,7 @@
         <v>404</v>
       </c>
       <c r="N1558" s="9" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="O1558" s="2" t="s">
         <v>0</v>
@@ -52675,7 +52680,7 @@
         <v>84</v>
       </c>
       <c r="V1558" s="16" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="1559" spans="5:22" x14ac:dyDescent="0.25">
@@ -52764,7 +52769,7 @@
         <v>407</v>
       </c>
       <c r="N1561" s="9" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="V1561" s="16"/>
     </row>
@@ -52820,7 +52825,7 @@
         <v>409</v>
       </c>
       <c r="N1563" s="9" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="V1563" s="16"/>
     </row>
@@ -52848,7 +52853,7 @@
         <v>410</v>
       </c>
       <c r="N1564" s="9" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="O1564" s="2" t="s">
         <v>0</v>
@@ -52879,13 +52884,13 @@
         <v>411</v>
       </c>
       <c r="N1565" s="9" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="P1565" s="2" t="s">
         <v>84</v>
       </c>
       <c r="V1565" s="35" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1566" spans="5:22" x14ac:dyDescent="0.25">
@@ -52940,7 +52945,7 @@
         <v>413</v>
       </c>
       <c r="N1567" s="9" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="V1567" s="16"/>
     </row>
@@ -52968,7 +52973,7 @@
         <v>414</v>
       </c>
       <c r="N1568" s="9" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="P1568" s="2" t="s">
         <v>84</v>
@@ -52977,7 +52982,7 @@
         <v>98</v>
       </c>
       <c r="V1568" s="39" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1569" spans="5:8" x14ac:dyDescent="0.25">

--- a/TS Jatai Working/Padam Input Templates/TS 1.3 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 1.3 Padam Input Template.xlsx
@@ -2033,9 +2033,6 @@
     <t xml:space="preserve">juShTa$m </t>
   </si>
   <si>
-    <t xml:space="preserve">Gruqtava#t </t>
-  </si>
-  <si>
     <t xml:space="preserve">aiqndraH </t>
   </si>
   <si>
@@ -4023,6 +4020,9 @@
   </si>
   <si>
     <t>eqSha ityeqShaH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRuqtava#t </t>
   </si>
 </sst>
 </file>
@@ -4712,8 +4712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V1577"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O652" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S660" sqref="S660"/>
+    <sheetView tabSelected="1" topLeftCell="M874" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S884" sqref="S884"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -5185,7 +5185,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="72" x14ac:dyDescent="0.25">
       <c r="A1" s="60" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17" t="s">
@@ -5237,10 +5237,10 @@
         <v>10</v>
       </c>
       <c r="S1" s="47" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="T1" s="47" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="U1" s="46" t="s">
         <v>17</v>
@@ -5391,7 +5391,7 @@
         <v>4</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>0</v>
@@ -5403,7 +5403,7 @@
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
       <c r="V5" s="16" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="6" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5485,7 +5485,7 @@
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
       <c r="V7" s="16" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="8" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5841,7 +5841,7 @@
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
       <c r="V16" s="16" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="17" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5923,7 +5923,7 @@
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
       <c r="V18" s="16" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="19" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7008,7 +7008,7 @@
       <c r="T46" s="4"/>
       <c r="U46" s="4"/>
       <c r="V46" s="16" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="47" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7884,7 +7884,7 @@
       <c r="T69" s="4"/>
       <c r="U69" s="4"/>
       <c r="V69" s="16" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="70" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7997,7 +7997,7 @@
       <c r="T72" s="4"/>
       <c r="U72" s="4"/>
       <c r="V72" s="16" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="73" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8075,7 +8075,7 @@
       <c r="T74" s="4"/>
       <c r="U74" s="4"/>
       <c r="V74" s="16" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
@@ -8114,7 +8114,7 @@
       <c r="T75" s="4"/>
       <c r="U75" s="4"/>
       <c r="V75" s="16" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="76" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8157,7 +8157,7 @@
       <c r="T76" s="4"/>
       <c r="U76" s="4"/>
       <c r="V76" s="50" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.25">
@@ -8408,7 +8408,7 @@
       <c r="T83" s="4"/>
       <c r="U83" s="4"/>
       <c r="V83" s="16" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.25">
@@ -8622,7 +8622,7 @@
       <c r="T89" s="4"/>
       <c r="U89" s="4"/>
       <c r="V89" s="34" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.25">
@@ -8828,7 +8828,7 @@
         <v>0</v>
       </c>
       <c r="V95" s="16" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.25">
@@ -9100,7 +9100,7 @@
         <v>0</v>
       </c>
       <c r="V104" s="16" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="105" spans="5:22" x14ac:dyDescent="0.25">
@@ -9567,7 +9567,7 @@
         <v>0</v>
       </c>
       <c r="V120" s="16" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="121" spans="5:22" x14ac:dyDescent="0.25">
@@ -9600,7 +9600,7 @@
         <v>0</v>
       </c>
       <c r="V121" s="16" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="122" spans="5:22" x14ac:dyDescent="0.25">
@@ -9773,7 +9773,7 @@
         <v>0</v>
       </c>
       <c r="V127" s="16" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="128" spans="5:22" x14ac:dyDescent="0.25">
@@ -10006,7 +10006,7 @@
         <v>0</v>
       </c>
       <c r="V135" s="16" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="136" spans="5:22" x14ac:dyDescent="0.25">
@@ -10377,7 +10377,7 @@
         <v>0</v>
       </c>
       <c r="V148" s="16" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="149" spans="5:22" x14ac:dyDescent="0.25">
@@ -10410,7 +10410,7 @@
         <v>0</v>
       </c>
       <c r="V149" s="16" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="150" spans="5:22" x14ac:dyDescent="0.25">
@@ -10612,7 +10612,7 @@
         <v>0</v>
       </c>
       <c r="V156" s="16" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="157" spans="5:22" x14ac:dyDescent="0.25">
@@ -10673,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="V158" s="16" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="159" spans="5:22" x14ac:dyDescent="0.25">
@@ -10706,7 +10706,7 @@
         <v>0</v>
       </c>
       <c r="V159" s="16" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="160" spans="5:22" x14ac:dyDescent="0.25">
@@ -10767,7 +10767,7 @@
         <v>0</v>
       </c>
       <c r="V161" s="16" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="162" spans="5:22" x14ac:dyDescent="0.25">
@@ -10800,7 +10800,7 @@
         <v>0</v>
       </c>
       <c r="V162" s="16" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="163" spans="5:22" x14ac:dyDescent="0.25">
@@ -10861,7 +10861,7 @@
         <v>0</v>
       </c>
       <c r="V164" s="16" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="165" spans="5:22" x14ac:dyDescent="0.25">
@@ -10894,7 +10894,7 @@
         <v>0</v>
       </c>
       <c r="V165" s="16" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="166" spans="5:22" x14ac:dyDescent="0.25">
@@ -11040,7 +11040,7 @@
         <v>0</v>
       </c>
       <c r="V170" s="16" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="171" spans="5:22" x14ac:dyDescent="0.25">
@@ -11073,7 +11073,7 @@
         <v>0</v>
       </c>
       <c r="V171" s="16" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="172" spans="5:22" x14ac:dyDescent="0.25">
@@ -11193,7 +11193,7 @@
         <v>0</v>
       </c>
       <c r="V175" s="16" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="176" spans="5:22" x14ac:dyDescent="0.25">
@@ -11226,7 +11226,7 @@
         <v>0</v>
       </c>
       <c r="V176" s="16" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="177" spans="5:22" x14ac:dyDescent="0.25">
@@ -11543,7 +11543,7 @@
         <v>0</v>
       </c>
       <c r="V187" s="16" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="188" spans="5:22" x14ac:dyDescent="0.25">
@@ -11576,7 +11576,7 @@
         <v>0</v>
       </c>
       <c r="V188" s="16" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="189" spans="5:22" x14ac:dyDescent="0.25">
@@ -11696,7 +11696,7 @@
         <v>0</v>
       </c>
       <c r="V192" s="16" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="193" spans="5:22" x14ac:dyDescent="0.25">
@@ -11729,7 +11729,7 @@
         <v>0</v>
       </c>
       <c r="V193" s="16" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="194" spans="5:22" x14ac:dyDescent="0.25">
@@ -11849,7 +11849,7 @@
         <v>0</v>
       </c>
       <c r="V197" s="16" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="198" spans="5:22" x14ac:dyDescent="0.25">
@@ -11882,7 +11882,7 @@
         <v>0</v>
       </c>
       <c r="V198" s="16" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="199" spans="5:22" x14ac:dyDescent="0.25">
@@ -12007,7 +12007,7 @@
         <v>0</v>
       </c>
       <c r="V202" s="16" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="203" spans="5:22" x14ac:dyDescent="0.25">
@@ -12040,7 +12040,7 @@
         <v>0</v>
       </c>
       <c r="V203" s="16" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="204" spans="5:22" x14ac:dyDescent="0.25">
@@ -12165,7 +12165,7 @@
         <v>0</v>
       </c>
       <c r="V207" s="16" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="208" spans="5:22" x14ac:dyDescent="0.25">
@@ -12198,7 +12198,7 @@
         <v>0</v>
       </c>
       <c r="V208" s="16" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="209" spans="5:22" x14ac:dyDescent="0.25">
@@ -12323,7 +12323,7 @@
         <v>0</v>
       </c>
       <c r="V212" s="16" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="213" spans="5:22" x14ac:dyDescent="0.25">
@@ -12356,7 +12356,7 @@
         <v>0</v>
       </c>
       <c r="V213" s="16" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="214" spans="5:22" x14ac:dyDescent="0.25">
@@ -12478,7 +12478,7 @@
         <v>0</v>
       </c>
       <c r="V217" s="16" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="218" spans="5:22" x14ac:dyDescent="0.25">
@@ -12630,7 +12630,7 @@
         <v>0</v>
       </c>
       <c r="V222" s="16" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="223" spans="5:22" x14ac:dyDescent="0.25">
@@ -12691,7 +12691,7 @@
         <v>0</v>
       </c>
       <c r="V224" s="16" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="225" spans="4:22" x14ac:dyDescent="0.25">
@@ -12782,7 +12782,7 @@
         <v>0</v>
       </c>
       <c r="V227" s="16" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="228" spans="4:22" x14ac:dyDescent="0.25">
@@ -12871,7 +12871,7 @@
         <v>0</v>
       </c>
       <c r="V230" s="16" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="231" spans="4:22" x14ac:dyDescent="0.25">
@@ -12960,7 +12960,7 @@
         <v>0</v>
       </c>
       <c r="V233" s="16" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="234" spans="4:22" x14ac:dyDescent="0.25">
@@ -13329,7 +13329,7 @@
         <v>0</v>
       </c>
       <c r="V246" s="16" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="247" spans="5:22" x14ac:dyDescent="0.25">
@@ -13391,7 +13391,7 @@
         <v>0</v>
       </c>
       <c r="V248" s="16" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="249" spans="5:22" x14ac:dyDescent="0.25">
@@ -13424,7 +13424,7 @@
         <v>0</v>
       </c>
       <c r="V249" s="16" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="250" spans="5:22" x14ac:dyDescent="0.25">
@@ -13513,7 +13513,7 @@
         <v>0</v>
       </c>
       <c r="V252" s="16" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="253" spans="5:22" x14ac:dyDescent="0.25">
@@ -13602,7 +13602,7 @@
         <v>0</v>
       </c>
       <c r="V255" s="16" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="256" spans="5:22" x14ac:dyDescent="0.25">
@@ -13664,7 +13664,7 @@
         <v>0</v>
       </c>
       <c r="V257" s="16" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="258" spans="1:22" x14ac:dyDescent="0.25">
@@ -13697,7 +13697,7 @@
         <v>0</v>
       </c>
       <c r="V258" s="16" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="259" spans="1:22" x14ac:dyDescent="0.25">
@@ -13758,7 +13758,7 @@
         <v>0</v>
       </c>
       <c r="V260" s="16" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="261" spans="1:22" x14ac:dyDescent="0.25">
@@ -13791,7 +13791,7 @@
         <v>0</v>
       </c>
       <c r="V261" s="16" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="262" spans="1:22" x14ac:dyDescent="0.25">
@@ -13852,12 +13852,12 @@
         <v>0</v>
       </c>
       <c r="V263" s="16" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="264" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A264" s="61" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E264" s="26"/>
       <c r="F264" s="26"/>
@@ -13890,7 +13890,7 @@
     </row>
     <row r="265" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A265" s="61" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E265" s="26"/>
       <c r="F265" s="26"/>
@@ -13953,7 +13953,7 @@
         <v>0</v>
       </c>
       <c r="V266" s="16" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="267" spans="1:22" x14ac:dyDescent="0.25">
@@ -14420,7 +14420,7 @@
         <v>0</v>
       </c>
       <c r="V282" s="16" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="283" spans="1:22" x14ac:dyDescent="0.25">
@@ -14453,12 +14453,12 @@
         <v>0</v>
       </c>
       <c r="V283" s="16" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="284" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A284" s="61" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E284" s="26"/>
       <c r="F284" s="26"/>
@@ -14491,12 +14491,12 @@
         <v>0</v>
       </c>
       <c r="V284" s="16" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="285" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A285" s="61" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E285" s="26"/>
       <c r="F285" s="26"/>
@@ -14790,7 +14790,7 @@
     <row r="295" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E295" s="26"/>
       <c r="F295" s="65" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="G295" s="26"/>
       <c r="H295" s="26"/>
@@ -14820,7 +14820,7 @@
     <row r="296" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E296" s="26"/>
       <c r="F296" s="65" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="G296" s="26"/>
       <c r="H296" s="26"/>
@@ -14854,7 +14854,7 @@
       </c>
       <c r="E297" s="26"/>
       <c r="F297" s="65" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="G297" s="26"/>
       <c r="H297" s="26"/>
@@ -14887,7 +14887,7 @@
     <row r="298" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E298" s="26"/>
       <c r="F298" s="65" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="G298" s="26"/>
       <c r="H298" s="26"/>
@@ -15086,7 +15086,7 @@
         <v>0</v>
       </c>
       <c r="V304" s="16" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="305" spans="5:22" x14ac:dyDescent="0.25">
@@ -15317,7 +15317,7 @@
         <v>0</v>
       </c>
       <c r="V312" s="16" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="313" spans="5:22" x14ac:dyDescent="0.25">
@@ -15378,7 +15378,7 @@
         <v>15</v>
       </c>
       <c r="V314" s="16" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="315" spans="5:22" x14ac:dyDescent="0.25">
@@ -15555,7 +15555,7 @@
         <v>83</v>
       </c>
       <c r="V320" s="42" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="321" spans="5:22" x14ac:dyDescent="0.25">
@@ -15616,7 +15616,7 @@
         <v>0</v>
       </c>
       <c r="V322" s="16" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="323" spans="5:22" x14ac:dyDescent="0.25">
@@ -15678,7 +15678,7 @@
         <v>0</v>
       </c>
       <c r="V324" s="16" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="325" spans="5:22" x14ac:dyDescent="0.25">
@@ -15711,7 +15711,7 @@
         <v>0</v>
       </c>
       <c r="V325" s="16" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="326" spans="5:22" x14ac:dyDescent="0.25">
@@ -15744,7 +15744,7 @@
         <v>83</v>
       </c>
       <c r="V326" s="37" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="327" spans="5:22" x14ac:dyDescent="0.25">
@@ -15836,7 +15836,7 @@
       </c>
       <c r="S329" s="49"/>
       <c r="V329" s="16" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="330" spans="5:22" x14ac:dyDescent="0.25">
@@ -15925,7 +15925,7 @@
         <v>0</v>
       </c>
       <c r="V332" s="16" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="333" spans="5:22" x14ac:dyDescent="0.25">
@@ -16014,7 +16014,7 @@
         <v>0</v>
       </c>
       <c r="V335" s="16" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="336" spans="5:22" x14ac:dyDescent="0.25">
@@ -16900,7 +16900,7 @@
         <v>0</v>
       </c>
       <c r="V365" s="16" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="366" spans="4:22" x14ac:dyDescent="0.25">
@@ -16969,7 +16969,7 @@
     </row>
     <row r="368" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D368" s="58" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="E368" s="26"/>
       <c r="F368" s="26"/>
@@ -17097,7 +17097,7 @@
         <v>0</v>
       </c>
       <c r="V371" s="16" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="372" spans="4:22" x14ac:dyDescent="0.25">
@@ -17130,7 +17130,7 @@
         <v>0</v>
       </c>
       <c r="V372" s="16" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="373" spans="4:22" x14ac:dyDescent="0.25">
@@ -17525,7 +17525,7 @@
         <v>0</v>
       </c>
       <c r="V385" s="16" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="386" spans="5:22" x14ac:dyDescent="0.25">
@@ -17614,7 +17614,7 @@
         <v>0</v>
       </c>
       <c r="V388" s="16" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="389" spans="5:22" x14ac:dyDescent="0.25">
@@ -18135,7 +18135,7 @@
         <v>0</v>
       </c>
       <c r="V406" s="16" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="407" spans="4:22" x14ac:dyDescent="0.25">
@@ -18196,7 +18196,7 @@
         <v>0</v>
       </c>
       <c r="V408" s="16" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="409" spans="4:22" x14ac:dyDescent="0.25">
@@ -18257,7 +18257,7 @@
         <v>83</v>
       </c>
       <c r="V410" s="39" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="411" spans="4:22" x14ac:dyDescent="0.25">
@@ -18785,7 +18785,7 @@
         <v>0</v>
       </c>
       <c r="V428" s="16" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="429" spans="5:22" x14ac:dyDescent="0.25">
@@ -19043,7 +19043,7 @@
         <v>0</v>
       </c>
       <c r="V437" s="16" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="438" spans="5:22" x14ac:dyDescent="0.25">
@@ -19501,7 +19501,7 @@
         <v>0</v>
       </c>
       <c r="V453" s="16" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="454" spans="5:22" x14ac:dyDescent="0.25">
@@ -19593,7 +19593,7 @@
         <v>0</v>
       </c>
       <c r="V456" s="16" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="457" spans="5:22" x14ac:dyDescent="0.25">
@@ -19798,7 +19798,7 @@
         <v>0</v>
       </c>
       <c r="V463" s="16" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="464" spans="5:22" x14ac:dyDescent="0.25">
@@ -19859,7 +19859,7 @@
         <v>0</v>
       </c>
       <c r="V465" s="16" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="466" spans="5:22" x14ac:dyDescent="0.25">
@@ -20007,7 +20007,7 @@
         <v>83</v>
       </c>
       <c r="V470" s="16" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="471" spans="5:22" x14ac:dyDescent="0.25">
@@ -20264,7 +20264,7 @@
         <v>0</v>
       </c>
       <c r="V479" s="9" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="480" spans="5:22" x14ac:dyDescent="0.25">
@@ -20582,7 +20582,7 @@
         <v>0</v>
       </c>
       <c r="V490" s="16" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="491" spans="5:22" x14ac:dyDescent="0.25">
@@ -20643,7 +20643,7 @@
         <v>0</v>
       </c>
       <c r="V492" s="16" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="493" spans="5:22" x14ac:dyDescent="0.25">
@@ -21017,7 +21017,7 @@
         <v>0</v>
       </c>
       <c r="V505" s="16" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="506" spans="5:22" x14ac:dyDescent="0.25">
@@ -21078,7 +21078,7 @@
         <v>0</v>
       </c>
       <c r="V507" s="37" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="508" spans="5:22" x14ac:dyDescent="0.25">
@@ -21582,7 +21582,7 @@
         <v>0</v>
       </c>
       <c r="V524" s="16" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="525" spans="5:22" x14ac:dyDescent="0.25">
@@ -21742,7 +21742,7 @@
         <v>0</v>
       </c>
       <c r="V529" s="16" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="530" spans="5:22" x14ac:dyDescent="0.25">
@@ -21918,7 +21918,7 @@
         <v>83</v>
       </c>
       <c r="V535" s="37" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="536" spans="5:22" x14ac:dyDescent="0.25">
@@ -22093,7 +22093,7 @@
         <v>83</v>
       </c>
       <c r="V541" s="9" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="542" spans="5:22" x14ac:dyDescent="0.25">
@@ -22182,7 +22182,7 @@
         <v>83</v>
       </c>
       <c r="V544" s="37" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="545" spans="5:22" x14ac:dyDescent="0.25">
@@ -22383,7 +22383,7 @@
         <v>83</v>
       </c>
       <c r="V551" s="34" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="552" spans="5:22" x14ac:dyDescent="0.25">
@@ -22504,7 +22504,7 @@
         <v>83</v>
       </c>
       <c r="V555" s="16" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="556" spans="5:22" x14ac:dyDescent="0.25">
@@ -22537,7 +22537,7 @@
         <v>0</v>
       </c>
       <c r="V556" s="16" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="557" spans="5:22" x14ac:dyDescent="0.25">
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="V558" s="16" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="559" spans="5:22" x14ac:dyDescent="0.25">
@@ -22631,7 +22631,7 @@
         <v>0</v>
       </c>
       <c r="V559" s="16" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="560" spans="5:22" x14ac:dyDescent="0.25">
@@ -22664,7 +22664,7 @@
         <v>0</v>
       </c>
       <c r="V560" s="16" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="561" spans="5:22" x14ac:dyDescent="0.25">
@@ -23019,7 +23019,7 @@
         <v>0</v>
       </c>
       <c r="V572" s="16" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="573" spans="5:22" x14ac:dyDescent="0.25">
@@ -23520,7 +23520,7 @@
         <v>83</v>
       </c>
       <c r="V589" s="43" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="590" spans="5:22" x14ac:dyDescent="0.25">
@@ -23607,7 +23607,7 @@
         <v>0</v>
       </c>
       <c r="V592" s="16" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="593" spans="5:22" x14ac:dyDescent="0.25">
@@ -23668,7 +23668,7 @@
         <v>15</v>
       </c>
       <c r="V594" s="16" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="595" spans="5:22" x14ac:dyDescent="0.25">
@@ -24560,7 +24560,7 @@
         <v>96</v>
       </c>
       <c r="V625" s="31" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="626" spans="1:22" x14ac:dyDescent="0.25">
@@ -25048,7 +25048,7 @@
         <v>0</v>
       </c>
       <c r="V641" s="16" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="642" spans="5:22" x14ac:dyDescent="0.25">
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="V642" s="16" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="643" spans="5:22" x14ac:dyDescent="0.25">
@@ -25115,7 +25115,7 @@
         <v>83</v>
       </c>
       <c r="V643" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="644" spans="5:22" x14ac:dyDescent="0.25">
@@ -25261,7 +25261,7 @@
         <v>0</v>
       </c>
       <c r="V648" s="16" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="649" spans="5:22" x14ac:dyDescent="0.25">
@@ -25294,7 +25294,7 @@
         <v>0</v>
       </c>
       <c r="V649" s="16" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="650" spans="5:22" x14ac:dyDescent="0.25">
@@ -25356,10 +25356,10 @@
     </row>
     <row r="652" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E652" s="65" t="s">
+        <v>1320</v>
+      </c>
+      <c r="F652" s="65" t="s">
         <v>1321</v>
-      </c>
-      <c r="F652" s="65" t="s">
-        <v>1322</v>
       </c>
       <c r="G652" s="26"/>
       <c r="H652" s="26"/>
@@ -25388,10 +25388,10 @@
     </row>
     <row r="653" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E653" s="65" t="s">
+        <v>1320</v>
+      </c>
+      <c r="F653" s="65" t="s">
         <v>1321</v>
-      </c>
-      <c r="F653" s="65" t="s">
-        <v>1322</v>
       </c>
       <c r="G653" s="26"/>
       <c r="H653" s="26"/>
@@ -25420,7 +25420,7 @@
         <v>83</v>
       </c>
       <c r="V653" s="31" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="654" spans="5:22" x14ac:dyDescent="0.25">
@@ -25538,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="V657" s="16" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="658" spans="5:22" x14ac:dyDescent="0.25">
@@ -25630,7 +25630,7 @@
         <v>89</v>
       </c>
       <c r="V660" s="16" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="661" spans="5:22" x14ac:dyDescent="0.25">
@@ -25663,7 +25663,7 @@
         <v>83</v>
       </c>
       <c r="V661" s="68" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="662" spans="5:22" x14ac:dyDescent="0.25">
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="V662" s="16" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="663" spans="5:22" x14ac:dyDescent="0.25">
@@ -25945,7 +25945,7 @@
         <v>83</v>
       </c>
       <c r="V670" s="16" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="671" spans="5:22" x14ac:dyDescent="0.25">
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="V675" s="16" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="676" spans="5:22" x14ac:dyDescent="0.25">
@@ -26271,7 +26271,7 @@
         <v>0</v>
       </c>
       <c r="V681" s="16" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="682" spans="5:22" x14ac:dyDescent="0.25">
@@ -26332,7 +26332,7 @@
         <v>0</v>
       </c>
       <c r="V683" s="16" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="684" spans="5:22" x14ac:dyDescent="0.25">
@@ -26564,7 +26564,7 @@
         <v>0</v>
       </c>
       <c r="V691" s="16" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="692" spans="5:22" x14ac:dyDescent="0.25">
@@ -26797,7 +26797,7 @@
         <v>0</v>
       </c>
       <c r="V699" s="16" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="700" spans="5:22" x14ac:dyDescent="0.25">
@@ -27004,7 +27004,7 @@
         <v>0</v>
       </c>
       <c r="V706" s="16" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="707" spans="5:22" x14ac:dyDescent="0.25">
@@ -27037,7 +27037,7 @@
         <v>0</v>
       </c>
       <c r="V707" s="16" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="708" spans="5:22" x14ac:dyDescent="0.25">
@@ -27184,7 +27184,7 @@
     </row>
     <row r="713" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E713" s="65" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="F713" s="26"/>
       <c r="G713" s="26"/>
@@ -27219,12 +27219,12 @@
         <v>92</v>
       </c>
       <c r="V713" s="16" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="714" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E714" s="65" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="F714" s="26"/>
       <c r="G714" s="26"/>
@@ -27259,12 +27259,12 @@
         <v>93</v>
       </c>
       <c r="V714" s="16" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="715" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E715" s="65" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="F715" s="26"/>
       <c r="G715" s="26"/>
@@ -27299,7 +27299,7 @@
     </row>
     <row r="716" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E716" s="65" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="F716" s="26"/>
       <c r="G716" s="26"/>
@@ -27423,7 +27423,7 @@
         <v>0</v>
       </c>
       <c r="V719" s="16" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="720" spans="5:22" x14ac:dyDescent="0.25">
@@ -27823,7 +27823,7 @@
         <v>0</v>
       </c>
       <c r="V733" s="16" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="734" spans="5:22" x14ac:dyDescent="0.25">
@@ -27912,7 +27912,7 @@
         <v>0</v>
       </c>
       <c r="V736" s="16" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="737" spans="5:22" x14ac:dyDescent="0.25">
@@ -28035,7 +28035,7 @@
         <v>0</v>
       </c>
       <c r="V740" s="16" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="741" spans="5:22" x14ac:dyDescent="0.25">
@@ -28282,7 +28282,7 @@
         <v>0</v>
       </c>
       <c r="V748" s="16" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="749" spans="5:22" x14ac:dyDescent="0.25">
@@ -28461,7 +28461,7 @@
         <v>0</v>
       </c>
       <c r="V754" s="39" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="755" spans="5:22" x14ac:dyDescent="0.25">
@@ -28668,7 +28668,7 @@
         <v>0</v>
       </c>
       <c r="V761" s="16" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="762" spans="5:22" x14ac:dyDescent="0.25">
@@ -28701,7 +28701,7 @@
         <v>0</v>
       </c>
       <c r="V762" s="16" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="763" spans="5:22" x14ac:dyDescent="0.25">
@@ -28762,7 +28762,7 @@
         <v>83</v>
       </c>
       <c r="V764" s="43" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="765" spans="5:22" x14ac:dyDescent="0.25">
@@ -28909,7 +28909,7 @@
         <v>0</v>
       </c>
       <c r="V769" s="16" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="770" spans="5:22" x14ac:dyDescent="0.25">
@@ -29329,7 +29329,7 @@
         <v>121</v>
       </c>
       <c r="V783" s="16" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="784" spans="5:22" x14ac:dyDescent="0.25">
@@ -29650,7 +29650,7 @@
         <v>0</v>
       </c>
       <c r="V794" s="16" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="795" spans="4:22" x14ac:dyDescent="0.25">
@@ -30227,7 +30227,7 @@
         <v>0</v>
       </c>
       <c r="V814" s="16" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="815" spans="5:22" x14ac:dyDescent="0.25">
@@ -30287,7 +30287,7 @@
         <v>0</v>
       </c>
       <c r="V816" s="39" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="817" spans="5:22" x14ac:dyDescent="0.25">
@@ -30404,7 +30404,7 @@
         <v>0</v>
       </c>
       <c r="V820" s="16" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="821" spans="5:22" x14ac:dyDescent="0.25">
@@ -30521,7 +30521,7 @@
         <v>0</v>
       </c>
       <c r="V824" s="16" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="825" spans="5:22" x14ac:dyDescent="0.25">
@@ -31317,7 +31317,7 @@
         <v>84</v>
       </c>
       <c r="V852" s="16" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="853" spans="5:22" x14ac:dyDescent="0.25">
@@ -31465,7 +31465,7 @@
         <v>0</v>
       </c>
       <c r="V857" s="16" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="858" spans="5:22" x14ac:dyDescent="0.25">
@@ -31770,7 +31770,7 @@
         <v>0</v>
       </c>
       <c r="V867" s="16" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="868" spans="5:22" x14ac:dyDescent="0.25">
@@ -31831,7 +31831,7 @@
         <v>83</v>
       </c>
       <c r="V869" s="43" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="870" spans="5:22" x14ac:dyDescent="0.25">
@@ -32009,7 +32009,7 @@
         <v>0</v>
       </c>
       <c r="V875" s="16" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="876" spans="5:22" x14ac:dyDescent="0.25">
@@ -32042,7 +32042,7 @@
         <v>0</v>
       </c>
       <c r="V876" s="16" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="877" spans="5:22" x14ac:dyDescent="0.25">
@@ -32152,14 +32152,14 @@
         <f t="shared" si="28"/>
         <v>11</v>
       </c>
-      <c r="N880" s="9" t="s">
-        <v>668</v>
+      <c r="N880" s="5" t="s">
+        <v>1331</v>
       </c>
       <c r="O880" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V880" s="16" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="881" spans="4:22" x14ac:dyDescent="0.25">
@@ -32214,7 +32214,7 @@
         <v>13</v>
       </c>
       <c r="N882" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="V882" s="16"/>
     </row>
@@ -32248,7 +32248,7 @@
         <v>0</v>
       </c>
       <c r="V883" s="16" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="884" spans="4:22" x14ac:dyDescent="0.25">
@@ -32278,7 +32278,7 @@
         <v>15</v>
       </c>
       <c r="N884" s="9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="O884" s="2" t="s">
         <v>0</v>
@@ -32287,7 +32287,7 @@
         <v>105</v>
       </c>
       <c r="V884" s="16" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="885" spans="4:22" x14ac:dyDescent="0.25">
@@ -32314,7 +32314,7 @@
         <v>16</v>
       </c>
       <c r="N885" s="9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="O885" s="1" t="s">
         <v>103</v>
@@ -32345,7 +32345,7 @@
         <v>17</v>
       </c>
       <c r="N886" s="9" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="V886" s="16"/>
     </row>
@@ -32373,7 +32373,7 @@
         <v>18</v>
       </c>
       <c r="N887" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="V887" s="16"/>
     </row>
@@ -32401,13 +32401,13 @@
         <v>19</v>
       </c>
       <c r="N888" s="9" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="O888" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V888" s="16" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="889" spans="4:22" x14ac:dyDescent="0.25">
@@ -32437,7 +32437,7 @@
         <v>20</v>
       </c>
       <c r="N889" s="9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="O889" s="2" t="s">
         <v>0</v>
@@ -32446,7 +32446,7 @@
         <v>105</v>
       </c>
       <c r="V889" s="16" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="890" spans="4:22" x14ac:dyDescent="0.25">
@@ -32504,7 +32504,7 @@
         <v>22</v>
       </c>
       <c r="N891" s="9" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="V891" s="16"/>
     </row>
@@ -32594,7 +32594,7 @@
         <v>25</v>
       </c>
       <c r="N894" s="9" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="V894" s="16"/>
     </row>
@@ -32650,13 +32650,13 @@
         <v>27</v>
       </c>
       <c r="N896" s="9" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="O896" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V896" s="16" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="897" spans="5:22" x14ac:dyDescent="0.25">
@@ -32711,13 +32711,13 @@
         <v>29</v>
       </c>
       <c r="N898" s="9" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="O898" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V898" s="16" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="899" spans="5:22" x14ac:dyDescent="0.25">
@@ -32772,13 +32772,13 @@
         <v>31</v>
       </c>
       <c r="N900" s="9" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="O900" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V900" s="16" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="901" spans="5:22" x14ac:dyDescent="0.25">
@@ -32805,7 +32805,7 @@
         <v>32</v>
       </c>
       <c r="N901" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="V901" s="16"/>
     </row>
@@ -32833,13 +32833,13 @@
         <v>33</v>
       </c>
       <c r="N902" s="9" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="O902" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V902" s="16" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="903" spans="5:22" x14ac:dyDescent="0.25">
@@ -32866,7 +32866,7 @@
         <v>34</v>
       </c>
       <c r="N903" s="9" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="V903" s="16"/>
     </row>
@@ -32894,7 +32894,7 @@
         <v>35</v>
       </c>
       <c r="N904" s="9" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="V904" s="16"/>
     </row>
@@ -32922,7 +32922,7 @@
         <v>36</v>
       </c>
       <c r="N905" s="9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O905" s="2"/>
       <c r="V905" s="16"/>
@@ -33010,7 +33010,7 @@
         <v>39</v>
       </c>
       <c r="N908" s="9" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="V908" s="16"/>
     </row>
@@ -33038,7 +33038,7 @@
         <v>40</v>
       </c>
       <c r="N909" s="9" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="O909" s="10"/>
       <c r="V909" s="16"/>
@@ -33067,7 +33067,7 @@
         <v>41</v>
       </c>
       <c r="N910" s="9" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="O910" s="10"/>
       <c r="V910" s="16"/>
@@ -33096,7 +33096,7 @@
         <v>42</v>
       </c>
       <c r="N911" s="9" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="V911" s="16"/>
     </row>
@@ -33208,7 +33208,7 @@
         <v>46</v>
       </c>
       <c r="N915" s="9" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="V915" s="16"/>
     </row>
@@ -33295,7 +33295,7 @@
         <v>49</v>
       </c>
       <c r="N918" s="9" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="V918" s="16"/>
     </row>
@@ -33323,7 +33323,7 @@
         <v>50</v>
       </c>
       <c r="N919" s="9" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="V919" s="16"/>
     </row>
@@ -33378,7 +33378,7 @@
         <v>52</v>
       </c>
       <c r="N921" s="9" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="O921" s="2"/>
       <c r="V921" s="16"/>
@@ -33435,7 +33435,7 @@
         <v>54</v>
       </c>
       <c r="N923" s="9" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="O923" s="2"/>
       <c r="V923" s="16"/>
@@ -33492,7 +33492,7 @@
         <v>56</v>
       </c>
       <c r="N925" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="O925" s="2"/>
       <c r="V925" s="16"/>
@@ -33521,7 +33521,7 @@
         <v>57</v>
       </c>
       <c r="N926" s="9" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="V926" s="16"/>
     </row>
@@ -33577,13 +33577,13 @@
         <v>59</v>
       </c>
       <c r="N928" s="9" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="O928" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V928" s="16" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="929" spans="5:22" x14ac:dyDescent="0.25">
@@ -33610,7 +33610,7 @@
         <v>60</v>
       </c>
       <c r="N929" s="9" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="V929" s="16"/>
     </row>
@@ -33638,7 +33638,7 @@
         <v>61</v>
       </c>
       <c r="N930" s="9" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="V930" s="16"/>
     </row>
@@ -33666,13 +33666,13 @@
         <v>62</v>
       </c>
       <c r="N931" s="9" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="O931" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V931" s="16" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="932" spans="5:22" x14ac:dyDescent="0.25">
@@ -33699,7 +33699,7 @@
         <v>63</v>
       </c>
       <c r="N932" s="9" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="V932" s="16"/>
     </row>
@@ -33755,7 +33755,7 @@
         <v>65</v>
       </c>
       <c r="N934" s="9" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="V934" s="16"/>
     </row>
@@ -33895,7 +33895,7 @@
         <v>70</v>
       </c>
       <c r="N939" s="9" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="V939" s="16"/>
     </row>
@@ -33923,13 +33923,13 @@
         <v>71</v>
       </c>
       <c r="N940" s="9" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="O940" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V940" s="16" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="941" spans="5:22" x14ac:dyDescent="0.25">
@@ -33956,13 +33956,13 @@
         <v>72</v>
       </c>
       <c r="N941" s="9" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="O941" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V941" s="16" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="942" spans="5:22" x14ac:dyDescent="0.25">
@@ -33989,13 +33989,13 @@
         <v>73</v>
       </c>
       <c r="N942" s="9" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="O942" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V942" s="16" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="943" spans="5:22" x14ac:dyDescent="0.25">
@@ -34022,13 +34022,13 @@
         <v>74</v>
       </c>
       <c r="N943" s="9" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="O943" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V943" s="16" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="944" spans="5:22" x14ac:dyDescent="0.25">
@@ -34083,13 +34083,13 @@
         <v>76</v>
       </c>
       <c r="N945" s="9" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="O945" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V945" s="16" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="946" spans="5:22" x14ac:dyDescent="0.25">
@@ -34145,7 +34145,7 @@
         <v>78</v>
       </c>
       <c r="N947" s="9" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="O947" s="2" t="s">
         <v>0</v>
@@ -34154,7 +34154,7 @@
         <v>83</v>
       </c>
       <c r="V947" s="16" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="948" spans="5:22" x14ac:dyDescent="0.25">
@@ -34179,7 +34179,7 @@
         <v>1</v>
       </c>
       <c r="N948" s="9" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="O948" s="2"/>
       <c r="V948" s="16"/>
@@ -34208,7 +34208,7 @@
         <v>2</v>
       </c>
       <c r="N949" s="9" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="V949" s="16"/>
     </row>
@@ -34292,7 +34292,7 @@
         <v>5</v>
       </c>
       <c r="N952" s="9" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="V952" s="16"/>
     </row>
@@ -34348,7 +34348,7 @@
         <v>7</v>
       </c>
       <c r="N954" s="9" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="V954" s="16"/>
     </row>
@@ -34376,7 +34376,7 @@
         <v>8</v>
       </c>
       <c r="N955" s="9" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="V955" s="16"/>
     </row>
@@ -34404,7 +34404,7 @@
         <v>9</v>
       </c>
       <c r="N956" s="9" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="O956" s="2"/>
       <c r="V956" s="16"/>
@@ -34461,7 +34461,7 @@
         <v>11</v>
       </c>
       <c r="N958" s="9" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="O958" s="2" t="s">
         <v>84</v>
@@ -34470,7 +34470,7 @@
         <v>96</v>
       </c>
       <c r="V958" s="16" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="959" spans="5:22" x14ac:dyDescent="0.25">
@@ -34497,7 +34497,7 @@
         <v>12</v>
       </c>
       <c r="N959" s="9" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="V959" s="16"/>
     </row>
@@ -34553,13 +34553,13 @@
         <v>14</v>
       </c>
       <c r="N961" s="9" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="O961" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V961" s="16" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="962" spans="5:22" x14ac:dyDescent="0.25">
@@ -34586,7 +34586,7 @@
         <v>15</v>
       </c>
       <c r="N962" s="9" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="O962" s="2"/>
       <c r="V962" s="16"/>
@@ -34643,7 +34643,7 @@
         <v>17</v>
       </c>
       <c r="N964" s="9" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="V964" s="16"/>
     </row>
@@ -34671,7 +34671,7 @@
         <v>18</v>
       </c>
       <c r="N965" s="9" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="V965" s="16"/>
     </row>
@@ -34755,7 +34755,7 @@
         <v>21</v>
       </c>
       <c r="N968" s="9" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="V968" s="16"/>
     </row>
@@ -34811,7 +34811,7 @@
         <v>23</v>
       </c>
       <c r="N970" s="9" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="V970" s="16"/>
     </row>
@@ -34839,7 +34839,7 @@
         <v>24</v>
       </c>
       <c r="N971" s="9" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="V971" s="16"/>
     </row>
@@ -34895,13 +34895,13 @@
         <v>26</v>
       </c>
       <c r="N973" s="9" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="O973" s="2" t="s">
         <v>84</v>
       </c>
       <c r="V973" s="16" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="974" spans="5:22" x14ac:dyDescent="0.25">
@@ -34928,7 +34928,7 @@
         <v>27</v>
       </c>
       <c r="N974" s="9" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="V974" s="16"/>
     </row>
@@ -34984,7 +34984,7 @@
         <v>29</v>
       </c>
       <c r="N976" s="9" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="V976" s="16"/>
     </row>
@@ -35012,7 +35012,7 @@
         <v>30</v>
       </c>
       <c r="N977" s="9" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="V977" s="16"/>
     </row>
@@ -35040,7 +35040,7 @@
         <v>31</v>
       </c>
       <c r="N978" s="9" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="V978" s="16"/>
     </row>
@@ -35096,7 +35096,7 @@
         <v>33</v>
       </c>
       <c r="N980" s="9" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="V980" s="16"/>
     </row>
@@ -35152,7 +35152,7 @@
         <v>35</v>
       </c>
       <c r="N982" s="9" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="O982" s="2"/>
       <c r="V982" s="16"/>
@@ -35216,7 +35216,7 @@
         <v>0</v>
       </c>
       <c r="V984" s="16" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="985" spans="5:22" x14ac:dyDescent="0.25">
@@ -35277,7 +35277,7 @@
         <v>0</v>
       </c>
       <c r="V986" s="16" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="987" spans="5:22" x14ac:dyDescent="0.25">
@@ -35332,7 +35332,7 @@
         <v>41</v>
       </c>
       <c r="N988" s="9" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="V988" s="16"/>
     </row>
@@ -35360,7 +35360,7 @@
         <v>42</v>
       </c>
       <c r="N989" s="9" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="V989" s="16"/>
     </row>
@@ -35388,7 +35388,7 @@
         <v>43</v>
       </c>
       <c r="N990" s="9" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="V990" s="16"/>
     </row>
@@ -35416,7 +35416,7 @@
         <v>44</v>
       </c>
       <c r="N991" s="9" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="V991" s="16"/>
     </row>
@@ -35444,7 +35444,7 @@
         <v>45</v>
       </c>
       <c r="N992" s="9" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="V992" s="16"/>
     </row>
@@ -35472,7 +35472,7 @@
         <v>46</v>
       </c>
       <c r="N993" s="9" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="O993" s="2"/>
       <c r="V993" s="16"/>
@@ -35501,7 +35501,7 @@
         <v>47</v>
       </c>
       <c r="N994" s="9" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="V994" s="16"/>
     </row>
@@ -35529,7 +35529,7 @@
         <v>48</v>
       </c>
       <c r="N995" s="9" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="V995" s="16"/>
     </row>
@@ -35642,7 +35642,7 @@
         <v>52</v>
       </c>
       <c r="N999" s="9" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="O999" s="1" t="s">
         <v>103</v>
@@ -35673,7 +35673,7 @@
         <v>53</v>
       </c>
       <c r="N1000" s="9" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="O1000" s="2"/>
       <c r="V1000" s="16"/>
@@ -35899,13 +35899,13 @@
         <v>61</v>
       </c>
       <c r="N1008" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="O1008" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1008" s="16" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="1009" spans="4:22" x14ac:dyDescent="0.25">
@@ -35932,7 +35932,7 @@
         <v>62</v>
       </c>
       <c r="N1009" s="9" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="V1009" s="16"/>
     </row>
@@ -35960,7 +35960,7 @@
         <v>63</v>
       </c>
       <c r="N1010" s="9" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="V1010" s="16"/>
     </row>
@@ -35988,7 +35988,7 @@
         <v>64</v>
       </c>
       <c r="N1011" s="9" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="V1011" s="16"/>
     </row>
@@ -36045,7 +36045,7 @@
         <v>66</v>
       </c>
       <c r="N1013" s="9" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="V1013" s="16"/>
     </row>
@@ -36133,7 +36133,7 @@
         <v>69</v>
       </c>
       <c r="N1016" s="9" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="U1016" s="2" t="s">
         <v>89</v>
@@ -36164,7 +36164,7 @@
         <v>70</v>
       </c>
       <c r="N1017" s="9" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="O1017" s="2"/>
       <c r="V1017" s="16"/>
@@ -36193,7 +36193,7 @@
         <v>71</v>
       </c>
       <c r="N1018" s="9" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="V1018" s="16"/>
     </row>
@@ -36221,7 +36221,7 @@
         <v>72</v>
       </c>
       <c r="N1019" s="9" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="V1019" s="16"/>
     </row>
@@ -36249,7 +36249,7 @@
         <v>73</v>
       </c>
       <c r="N1020" s="9" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="V1020" s="16"/>
     </row>
@@ -36277,7 +36277,7 @@
         <v>74</v>
       </c>
       <c r="N1021" s="9" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="V1021" s="16"/>
     </row>
@@ -36333,14 +36333,14 @@
         <v>76</v>
       </c>
       <c r="N1023" s="9" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="O1023" s="2"/>
       <c r="P1023" s="2" t="s">
         <v>83</v>
       </c>
       <c r="V1023" s="35" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="1024" spans="4:22" x14ac:dyDescent="0.25">
@@ -36367,7 +36367,7 @@
         <v>1</v>
       </c>
       <c r="N1024" s="40" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="V1024" s="16"/>
     </row>
@@ -36464,7 +36464,7 @@
         <v>4</v>
       </c>
       <c r="N1027" s="40" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="V1027" s="16"/>
     </row>
@@ -36526,7 +36526,7 @@
         <v>6</v>
       </c>
       <c r="N1029" s="40" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="U1029" s="2" t="s">
         <v>105</v>
@@ -36538,7 +36538,7 @@
         <v>125</v>
       </c>
       <c r="D1030" s="58" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="E1030" s="26"/>
       <c r="F1030" s="26"/>
@@ -36565,7 +36565,7 @@
         <v>7</v>
       </c>
       <c r="N1030" s="9" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="S1030" s="2" t="s">
         <v>110</v>
@@ -36634,14 +36634,14 @@
         <v>9</v>
       </c>
       <c r="N1032" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="O1032" s="2"/>
       <c r="V1032" s="16"/>
     </row>
     <row r="1033" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D1033" s="58" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="E1033" s="26"/>
       <c r="F1033" s="26"/>
@@ -36668,7 +36668,7 @@
         <v>10</v>
       </c>
       <c r="N1033" s="9" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="O1033" s="2"/>
       <c r="S1033" s="2" t="s">
@@ -36708,7 +36708,7 @@
         <v>11</v>
       </c>
       <c r="N1034" s="9" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="U1034" s="2" t="s">
         <v>107</v>
@@ -36741,13 +36741,13 @@
         <v>12</v>
       </c>
       <c r="N1035" s="9" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="P1035" s="2" t="s">
         <v>83</v>
       </c>
       <c r="V1035" s="43" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="1036" spans="1:22" x14ac:dyDescent="0.25">
@@ -36831,13 +36831,13 @@
         <v>15</v>
       </c>
       <c r="N1038" s="9" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="O1038" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1038" s="16" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="1039" spans="1:22" x14ac:dyDescent="0.25">
@@ -36864,7 +36864,7 @@
         <v>16</v>
       </c>
       <c r="N1039" s="9" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="V1039" s="16"/>
     </row>
@@ -36892,7 +36892,7 @@
         <v>17</v>
       </c>
       <c r="N1040" s="9" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="V1040" s="16"/>
     </row>
@@ -36920,7 +36920,7 @@
         <v>18</v>
       </c>
       <c r="N1041" s="9" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="V1041" s="16"/>
     </row>
@@ -36948,7 +36948,7 @@
         <v>19</v>
       </c>
       <c r="N1042" s="9" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="V1042" s="16"/>
     </row>
@@ -36976,7 +36976,7 @@
         <v>20</v>
       </c>
       <c r="N1043" s="9" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="V1043" s="16"/>
     </row>
@@ -37032,7 +37032,7 @@
         <v>22</v>
       </c>
       <c r="N1045" s="9" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="V1045" s="16"/>
     </row>
@@ -37060,13 +37060,13 @@
         <v>23</v>
       </c>
       <c r="N1046" s="9" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="O1046" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1046" s="16" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="1047" spans="5:22" x14ac:dyDescent="0.25">
@@ -37093,13 +37093,13 @@
         <v>24</v>
       </c>
       <c r="N1047" s="9" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="O1047" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1047" s="16" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="1048" spans="5:22" x14ac:dyDescent="0.25">
@@ -37126,7 +37126,7 @@
         <v>25</v>
       </c>
       <c r="N1048" s="9" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="V1048" s="16"/>
     </row>
@@ -37160,7 +37160,7 @@
         <v>0</v>
       </c>
       <c r="V1049" s="16" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="1050" spans="5:22" x14ac:dyDescent="0.25">
@@ -37187,13 +37187,13 @@
         <v>27</v>
       </c>
       <c r="N1050" s="9" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="O1050" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1050" s="16" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="1051" spans="5:22" x14ac:dyDescent="0.25">
@@ -37220,7 +37220,7 @@
         <v>28</v>
       </c>
       <c r="N1051" s="9" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="O1051" s="2"/>
       <c r="V1051" s="16"/>
@@ -37249,7 +37249,7 @@
         <v>29</v>
       </c>
       <c r="N1052" s="9" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="V1052" s="16"/>
     </row>
@@ -37305,13 +37305,13 @@
         <v>31</v>
       </c>
       <c r="N1054" s="9" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="O1054" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1054" s="16" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="1055" spans="5:22" x14ac:dyDescent="0.25">
@@ -37338,7 +37338,7 @@
         <v>32</v>
       </c>
       <c r="N1055" s="9" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="V1055" s="16"/>
     </row>
@@ -37394,13 +37394,13 @@
         <v>34</v>
       </c>
       <c r="N1057" s="9" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="P1057" s="2" t="s">
         <v>83</v>
       </c>
       <c r="V1057" s="35" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="1058" spans="5:22" x14ac:dyDescent="0.25">
@@ -37425,7 +37425,7 @@
         <v>1</v>
       </c>
       <c r="N1058" s="9" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="V1058" s="16"/>
     </row>
@@ -37481,7 +37481,7 @@
         <v>3</v>
       </c>
       <c r="N1060" s="9" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="V1060" s="16"/>
     </row>
@@ -37594,7 +37594,7 @@
         <v>7</v>
       </c>
       <c r="N1064" s="9" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="V1064" s="16"/>
     </row>
@@ -37650,7 +37650,7 @@
         <v>9</v>
       </c>
       <c r="N1066" s="9" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="V1066" s="16"/>
     </row>
@@ -37706,7 +37706,7 @@
         <v>11</v>
       </c>
       <c r="N1068" s="9" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="V1068" s="16"/>
     </row>
@@ -37790,7 +37790,7 @@
         <v>14</v>
       </c>
       <c r="N1071" s="9" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="O1071" s="2"/>
       <c r="V1071" s="16"/>
@@ -37819,7 +37819,7 @@
         <v>15</v>
       </c>
       <c r="N1072" s="9" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="V1072" s="16"/>
     </row>
@@ -37847,7 +37847,7 @@
         <v>16</v>
       </c>
       <c r="N1073" s="9" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="V1073" s="16"/>
     </row>
@@ -37875,7 +37875,7 @@
         <v>17</v>
       </c>
       <c r="N1074" s="9" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="O1074" s="2"/>
       <c r="V1074" s="16"/>
@@ -37906,7 +37906,7 @@
         <v>18</v>
       </c>
       <c r="N1075" s="9" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="V1075" s="16"/>
     </row>
@@ -38092,7 +38092,7 @@
         <v>24</v>
       </c>
       <c r="N1081" s="9" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="V1081" s="16"/>
     </row>
@@ -38183,7 +38183,7 @@
         <v>27</v>
       </c>
       <c r="N1084" s="9" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="V1084" s="16"/>
     </row>
@@ -38267,7 +38267,7 @@
         <v>30</v>
       </c>
       <c r="N1087" s="9" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="V1087" s="16"/>
     </row>
@@ -38295,13 +38295,13 @@
         <v>31</v>
       </c>
       <c r="N1088" s="9" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="O1088" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1088" s="16" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="1089" spans="5:22" x14ac:dyDescent="0.25">
@@ -38357,13 +38357,13 @@
         <v>33</v>
       </c>
       <c r="N1090" s="9" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="O1090" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1090" s="16" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="1091" spans="5:22" x14ac:dyDescent="0.25">
@@ -38390,13 +38390,13 @@
         <v>34</v>
       </c>
       <c r="N1091" s="9" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="O1091" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1091" s="16" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="1092" spans="5:22" x14ac:dyDescent="0.25">
@@ -38423,7 +38423,7 @@
         <v>35</v>
       </c>
       <c r="N1092" s="9" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="V1092" s="16"/>
     </row>
@@ -38451,13 +38451,13 @@
         <v>36</v>
       </c>
       <c r="N1093" s="9" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="O1093" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1093" s="16" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="1094" spans="5:22" x14ac:dyDescent="0.25">
@@ -38484,7 +38484,7 @@
         <v>37</v>
       </c>
       <c r="N1094" s="9" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="V1094" s="16"/>
     </row>
@@ -38540,13 +38540,13 @@
         <v>39</v>
       </c>
       <c r="N1096" s="9" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="O1096" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1096" s="16" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="1097" spans="5:22" x14ac:dyDescent="0.25">
@@ -38573,7 +38573,7 @@
         <v>40</v>
       </c>
       <c r="N1097" s="9" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="O1097" s="2"/>
       <c r="V1097" s="16"/>
@@ -38602,7 +38602,7 @@
         <v>41</v>
       </c>
       <c r="N1098" s="9" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="O1098" s="2"/>
       <c r="V1098" s="16"/>
@@ -38631,7 +38631,7 @@
         <v>42</v>
       </c>
       <c r="N1099" s="9" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="V1099" s="16"/>
     </row>
@@ -38687,7 +38687,7 @@
         <v>44</v>
       </c>
       <c r="N1101" s="9" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="V1101" s="16"/>
     </row>
@@ -38743,7 +38743,7 @@
         <v>46</v>
       </c>
       <c r="N1103" s="9" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="P1103" s="2" t="s">
         <v>83</v>
@@ -38776,7 +38776,7 @@
         <v>47</v>
       </c>
       <c r="N1104" s="9" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="V1104" s="16"/>
     </row>
@@ -38804,14 +38804,14 @@
         <v>48</v>
       </c>
       <c r="N1105" s="9" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="V1105" s="16"/>
     </row>
     <row r="1106" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E1106" s="26"/>
       <c r="F1106" s="65" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="G1106" s="57" t="s">
         <v>135</v>
@@ -38836,17 +38836,17 @@
         <v>49</v>
       </c>
       <c r="N1106" s="9" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="V1106" s="16"/>
     </row>
     <row r="1107" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B1107" s="64" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E1107" s="26"/>
       <c r="F1107" s="65" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="G1107" s="57" t="s">
         <v>135</v>
@@ -38871,7 +38871,7 @@
         <v>50</v>
       </c>
       <c r="N1107" s="9" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="V1107" s="16"/>
     </row>
@@ -38926,7 +38926,7 @@
         <v>52</v>
       </c>
       <c r="N1109" s="9" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="V1109" s="16"/>
     </row>
@@ -39011,7 +39011,7 @@
         <v>55</v>
       </c>
       <c r="N1112" s="9" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="V1112" s="16"/>
     </row>
@@ -39039,13 +39039,13 @@
         <v>56</v>
       </c>
       <c r="N1113" s="9" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="P1113" s="2" t="s">
         <v>83</v>
       </c>
       <c r="V1113" s="35" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="1114" spans="1:22" x14ac:dyDescent="0.25">
@@ -39072,7 +39072,7 @@
         <v>57</v>
       </c>
       <c r="N1114" s="9" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="V1114" s="16"/>
     </row>
@@ -39100,7 +39100,7 @@
         <v>58</v>
       </c>
       <c r="N1115" s="9" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="V1115" s="16"/>
     </row>
@@ -39128,7 +39128,7 @@
         <v>59</v>
       </c>
       <c r="N1116" s="9" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="U1116" s="2" t="s">
         <v>89</v>
@@ -39159,7 +39159,7 @@
         <v>60</v>
       </c>
       <c r="N1117" s="9" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="V1117" s="16"/>
     </row>
@@ -39219,7 +39219,7 @@
         <v>62</v>
       </c>
       <c r="N1119" s="9" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="V1119" s="16"/>
     </row>
@@ -39250,7 +39250,7 @@
         <v>63</v>
       </c>
       <c r="N1120" s="9" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="O1120" s="2"/>
       <c r="V1120" s="16"/>
@@ -39279,13 +39279,13 @@
         <v>64</v>
       </c>
       <c r="N1121" s="9" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="O1121" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1121" s="16" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="1122" spans="5:22" x14ac:dyDescent="0.25">
@@ -39312,7 +39312,7 @@
         <v>65</v>
       </c>
       <c r="N1122" s="9" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="V1122" s="16"/>
     </row>
@@ -39397,13 +39397,13 @@
         <v>68</v>
       </c>
       <c r="N1125" s="9" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="O1125" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1125" s="16" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="1126" spans="5:22" x14ac:dyDescent="0.25">
@@ -39430,7 +39430,7 @@
         <v>69</v>
       </c>
       <c r="N1126" s="9" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="O1126" s="2"/>
       <c r="V1126" s="16"/>
@@ -39459,7 +39459,7 @@
         <v>70</v>
       </c>
       <c r="N1127" s="9" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="O1127" s="2"/>
       <c r="V1127" s="16"/>
@@ -39488,13 +39488,13 @@
         <v>71</v>
       </c>
       <c r="N1128" s="9" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="O1128" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1128" s="16" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="1129" spans="5:22" x14ac:dyDescent="0.25">
@@ -39521,7 +39521,7 @@
         <v>72</v>
       </c>
       <c r="N1129" s="9" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="V1129" s="16"/>
     </row>
@@ -39577,7 +39577,7 @@
         <v>74</v>
       </c>
       <c r="N1131" s="9" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="V1131" s="16"/>
     </row>
@@ -39635,7 +39635,7 @@
         <v>76</v>
       </c>
       <c r="N1133" s="9" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="V1133" s="16"/>
     </row>
@@ -39696,7 +39696,7 @@
         <v>78</v>
       </c>
       <c r="N1135" s="9" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="O1135" s="1" t="s">
         <v>103</v>
@@ -39757,7 +39757,7 @@
         <v>80</v>
       </c>
       <c r="N1137" s="9" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="O1137" s="2"/>
       <c r="V1137" s="16"/>
@@ -39786,7 +39786,7 @@
         <v>81</v>
       </c>
       <c r="N1138" s="9" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="V1138" s="16"/>
     </row>
@@ -39842,7 +39842,7 @@
         <v>83</v>
       </c>
       <c r="N1140" s="9" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="V1140" s="16"/>
     </row>
@@ -39901,13 +39901,13 @@
         <v>85</v>
       </c>
       <c r="N1142" s="9" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="P1142" s="2" t="s">
         <v>83</v>
       </c>
       <c r="V1142" s="41" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="1143" spans="5:22" x14ac:dyDescent="0.25">
@@ -39990,13 +39990,13 @@
         <v>88</v>
       </c>
       <c r="N1145" s="9" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="O1145" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1145" s="16" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="1146" spans="5:22" x14ac:dyDescent="0.25">
@@ -40023,7 +40023,7 @@
         <v>89</v>
       </c>
       <c r="N1146" s="9" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="V1146" s="16"/>
     </row>
@@ -40051,7 +40051,7 @@
         <v>90</v>
       </c>
       <c r="N1147" s="9" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="V1147" s="16"/>
     </row>
@@ -40079,7 +40079,7 @@
         <v>91</v>
       </c>
       <c r="N1148" s="9" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="O1148" s="2"/>
       <c r="V1148" s="16"/>
@@ -40137,13 +40137,13 @@
         <v>93</v>
       </c>
       <c r="N1150" s="9" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="P1150" s="2" t="s">
         <v>83</v>
       </c>
       <c r="V1150" s="9" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="1151" spans="5:22" x14ac:dyDescent="0.25">
@@ -40170,7 +40170,7 @@
         <v>94</v>
       </c>
       <c r="N1151" s="9" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="V1151" s="16"/>
     </row>
@@ -40198,7 +40198,7 @@
         <v>95</v>
       </c>
       <c r="N1152" s="9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="V1152" s="16"/>
     </row>
@@ -40226,7 +40226,7 @@
         <v>96</v>
       </c>
       <c r="N1153" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="V1153" s="16"/>
     </row>
@@ -40254,18 +40254,18 @@
         <v>97</v>
       </c>
       <c r="N1154" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="P1154" s="2" t="s">
         <v>83</v>
       </c>
       <c r="V1154" s="43" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="1155" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1155" s="59" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E1155" s="57" t="s">
         <v>133</v>
@@ -40298,7 +40298,7 @@
     </row>
     <row r="1156" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1156" s="59" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E1156" s="57" t="s">
         <v>133</v>
@@ -40337,7 +40337,7 @@
     </row>
     <row r="1157" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1157" s="59" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E1157" s="26"/>
       <c r="F1157" s="26"/>
@@ -40364,13 +40364,13 @@
         <v>3</v>
       </c>
       <c r="N1157" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="V1157" s="16"/>
     </row>
     <row r="1158" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1158" s="59" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E1158" s="26"/>
       <c r="F1158" s="26"/>
@@ -40397,7 +40397,7 @@
         <v>4</v>
       </c>
       <c r="N1158" s="9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="U1158" s="2" t="s">
         <v>106</v>
@@ -40406,7 +40406,7 @@
     </row>
     <row r="1159" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1159" s="59" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E1159" s="26"/>
       <c r="F1159" s="26"/>
@@ -40431,14 +40431,14 @@
         <v>5</v>
       </c>
       <c r="N1159" s="9" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="O1159" s="2"/>
       <c r="V1159" s="16"/>
     </row>
     <row r="1160" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1160" s="59" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E1160" s="26"/>
       <c r="F1160" s="26"/>
@@ -40463,13 +40463,13 @@
         <v>6</v>
       </c>
       <c r="N1160" s="9" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="V1160" s="16"/>
     </row>
     <row r="1161" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1161" s="59" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E1161" s="26"/>
       <c r="F1161" s="26"/>
@@ -40501,7 +40501,7 @@
     </row>
     <row r="1162" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1162" s="59" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E1162" s="26"/>
       <c r="F1162" s="26"/>
@@ -40526,13 +40526,13 @@
         <v>8</v>
       </c>
       <c r="N1162" s="9" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="V1162" s="16"/>
     </row>
     <row r="1163" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1163" s="59" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E1163" s="26"/>
       <c r="F1163" s="26"/>
@@ -40557,13 +40557,13 @@
         <v>9</v>
       </c>
       <c r="N1163" s="9" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="V1163" s="16"/>
     </row>
     <row r="1164" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1164" s="59" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E1164" s="26"/>
       <c r="F1164" s="26"/>
@@ -40588,13 +40588,13 @@
         <v>10</v>
       </c>
       <c r="N1164" s="9" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="V1164" s="16"/>
     </row>
     <row r="1165" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1165" s="59" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E1165" s="26"/>
       <c r="F1165" s="26"/>
@@ -40619,18 +40619,18 @@
         <v>11</v>
       </c>
       <c r="N1165" s="9" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="P1165" s="2" t="s">
         <v>83</v>
       </c>
       <c r="V1165" s="9" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="1166" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1166" s="59" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E1166" s="26"/>
       <c r="F1166" s="26"/>
@@ -40661,7 +40661,7 @@
     </row>
     <row r="1167" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1167" s="59" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E1167" s="26"/>
       <c r="F1167" s="26"/>
@@ -40686,13 +40686,13 @@
         <v>13</v>
       </c>
       <c r="N1167" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="V1167" s="16"/>
     </row>
     <row r="1168" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1168" s="59" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E1168" s="26"/>
       <c r="F1168" s="26"/>
@@ -40717,14 +40717,14 @@
         <v>14</v>
       </c>
       <c r="N1168" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O1168" s="2"/>
       <c r="V1168" s="16"/>
     </row>
     <row r="1169" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1169" s="59" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E1169" s="26"/>
       <c r="F1169" s="26"/>
@@ -40749,13 +40749,13 @@
         <v>15</v>
       </c>
       <c r="N1169" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="V1169" s="16"/>
     </row>
     <row r="1170" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1170" s="59" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E1170" s="26"/>
       <c r="F1170" s="26"/>
@@ -40780,18 +40780,18 @@
         <v>16</v>
       </c>
       <c r="N1170" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="O1170" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1170" s="16" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="1171" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1171" s="59" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E1171" s="26"/>
       <c r="F1171" s="26"/>
@@ -40822,7 +40822,7 @@
     </row>
     <row r="1172" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1172" s="59" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E1172" s="26"/>
       <c r="F1172" s="26"/>
@@ -40847,13 +40847,13 @@
         <v>18</v>
       </c>
       <c r="N1172" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="V1172" s="16"/>
     </row>
     <row r="1173" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1173" s="59" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E1173" s="26"/>
       <c r="F1173" s="26"/>
@@ -40878,18 +40878,18 @@
         <v>19</v>
       </c>
       <c r="N1173" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="O1173" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1173" s="16" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="1174" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1174" s="59" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E1174" s="26"/>
       <c r="F1174" s="26"/>
@@ -40914,13 +40914,13 @@
         <v>20</v>
       </c>
       <c r="N1174" s="9" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="V1174" s="16"/>
     </row>
     <row r="1175" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1175" s="59" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E1175" s="26"/>
       <c r="F1175" s="26"/>
@@ -40945,13 +40945,13 @@
         <v>21</v>
       </c>
       <c r="N1175" s="9" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="V1175" s="16"/>
     </row>
     <row r="1176" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1176" s="59" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E1176" s="26"/>
       <c r="F1176" s="26"/>
@@ -40987,7 +40987,7 @@
     </row>
     <row r="1177" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1177" s="59" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E1177" s="26"/>
       <c r="F1177" s="26"/>
@@ -41021,7 +41021,7 @@
     </row>
     <row r="1178" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1178" s="59" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E1178" s="26"/>
       <c r="F1178" s="26"/>
@@ -41052,7 +41052,7 @@
     </row>
     <row r="1179" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1179" s="59" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E1179" s="26"/>
       <c r="F1179" s="26"/>
@@ -41077,13 +41077,13 @@
         <v>25</v>
       </c>
       <c r="N1179" s="9" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="V1179" s="16"/>
     </row>
     <row r="1180" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1180" s="59" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E1180" s="26"/>
       <c r="F1180" s="26"/>
@@ -41108,13 +41108,13 @@
         <v>26</v>
       </c>
       <c r="N1180" s="9" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="V1180" s="16"/>
     </row>
     <row r="1181" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1181" s="59" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E1181" s="26"/>
       <c r="F1181" s="26"/>
@@ -41139,13 +41139,13 @@
         <v>27</v>
       </c>
       <c r="N1181" s="9" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="V1181" s="16"/>
     </row>
     <row r="1182" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1182" s="59" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E1182" s="26"/>
       <c r="F1182" s="26"/>
@@ -41170,13 +41170,13 @@
         <v>28</v>
       </c>
       <c r="N1182" s="9" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="V1182" s="16"/>
     </row>
     <row r="1183" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1183" s="59" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E1183" s="26"/>
       <c r="F1183" s="26"/>
@@ -41201,18 +41201,18 @@
         <v>29</v>
       </c>
       <c r="N1183" s="9" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="O1183" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1183" s="16" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="1184" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1184" s="59" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E1184" s="26"/>
       <c r="F1184" s="26"/>
@@ -41237,18 +41237,18 @@
         <v>30</v>
       </c>
       <c r="N1184" s="9" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="P1184" s="2" t="s">
         <v>83</v>
       </c>
       <c r="V1184" s="43" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="1185" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1185" s="59" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E1185" s="26"/>
       <c r="F1185" s="26"/>
@@ -41273,13 +41273,13 @@
         <v>31</v>
       </c>
       <c r="N1185" s="9" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="V1185" s="16"/>
     </row>
     <row r="1186" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1186" s="59" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E1186" s="26"/>
       <c r="F1186" s="26"/>
@@ -41304,13 +41304,13 @@
         <v>32</v>
       </c>
       <c r="N1186" s="9" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="V1186" s="16"/>
     </row>
     <row r="1187" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1187" s="59" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E1187" s="26"/>
       <c r="F1187" s="26"/>
@@ -41335,13 +41335,13 @@
         <v>33</v>
       </c>
       <c r="N1187" s="9" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="V1187" s="16"/>
     </row>
     <row r="1188" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1188" s="59" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E1188" s="26"/>
       <c r="F1188" s="26"/>
@@ -41366,13 +41366,13 @@
         <v>34</v>
       </c>
       <c r="N1188" s="9" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="V1188" s="16"/>
     </row>
     <row r="1189" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1189" s="59" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E1189" s="26"/>
       <c r="F1189" s="26"/>
@@ -41397,18 +41397,18 @@
         <v>35</v>
       </c>
       <c r="N1189" s="9" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="O1189" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1189" s="16" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="1190" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1190" s="59" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E1190" s="26"/>
       <c r="F1190" s="26"/>
@@ -41433,13 +41433,13 @@
         <v>36</v>
       </c>
       <c r="N1190" s="9" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="V1190" s="16"/>
     </row>
     <row r="1191" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1191" s="59" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E1191" s="26"/>
       <c r="F1191" s="26"/>
@@ -41464,18 +41464,18 @@
         <v>37</v>
       </c>
       <c r="N1191" s="9" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="P1191" s="2" t="s">
         <v>83</v>
       </c>
       <c r="V1191" s="35" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="1192" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1192" s="59" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E1192" s="26"/>
       <c r="F1192" s="26"/>
@@ -41506,7 +41506,7 @@
     </row>
     <row r="1193" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1193" s="59" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E1193" s="26"/>
       <c r="F1193" s="26"/>
@@ -41531,13 +41531,13 @@
         <v>39</v>
       </c>
       <c r="N1193" s="9" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="V1193" s="16"/>
     </row>
     <row r="1194" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1194" s="59" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E1194" s="26"/>
       <c r="F1194" s="26"/>
@@ -41562,7 +41562,7 @@
         <v>40</v>
       </c>
       <c r="N1194" s="9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="O1194" s="1" t="s">
         <v>103</v>
@@ -41571,11 +41571,11 @@
     </row>
     <row r="1195" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1195" s="59" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E1195" s="26"/>
       <c r="F1195" s="65" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="G1195" s="26"/>
       <c r="H1195" s="26"/>
@@ -41598,7 +41598,7 @@
         <v>41</v>
       </c>
       <c r="N1195" s="9" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="S1195" s="2" t="s">
         <v>109</v>
@@ -41613,11 +41613,11 @@
         <v>125</v>
       </c>
       <c r="C1196" s="59" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E1196" s="26"/>
       <c r="F1196" s="65" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="G1196" s="26"/>
       <c r="H1196" s="26"/>
@@ -41640,13 +41640,13 @@
         <v>42</v>
       </c>
       <c r="N1196" s="9" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="V1196" s="16"/>
     </row>
     <row r="1197" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1197" s="59" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E1197" s="26"/>
       <c r="F1197" s="26"/>
@@ -41671,18 +41671,18 @@
         <v>43</v>
       </c>
       <c r="N1197" s="9" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O1197" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1197" s="16" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="1198" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1198" s="59" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E1198" s="26"/>
       <c r="F1198" s="26"/>
@@ -41707,13 +41707,13 @@
         <v>44</v>
       </c>
       <c r="N1198" s="9" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="V1198" s="16"/>
     </row>
     <row r="1199" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1199" s="59" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E1199" s="26"/>
       <c r="F1199" s="26"/>
@@ -41738,13 +41738,13 @@
         <v>45</v>
       </c>
       <c r="N1199" s="9" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="V1199" s="16"/>
     </row>
     <row r="1200" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1200" s="59" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E1200" s="26"/>
       <c r="F1200" s="26"/>
@@ -41769,13 +41769,13 @@
         <v>46</v>
       </c>
       <c r="N1200" s="9" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="V1200" s="16"/>
     </row>
     <row r="1201" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1201" s="59" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E1201" s="26"/>
       <c r="F1201" s="26"/>
@@ -41800,18 +41800,18 @@
         <v>47</v>
       </c>
       <c r="N1201" s="9" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="P1201" s="2" t="s">
         <v>83</v>
       </c>
       <c r="V1201" s="35" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="1202" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1202" s="59" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E1202" s="26"/>
       <c r="F1202" s="26"/>
@@ -41836,14 +41836,14 @@
         <v>48</v>
       </c>
       <c r="N1202" s="9" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="O1202" s="2"/>
       <c r="V1202" s="16"/>
     </row>
     <row r="1203" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1203" s="59" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E1203" s="26"/>
       <c r="F1203" s="26"/>
@@ -41874,7 +41874,7 @@
     </row>
     <row r="1204" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1204" s="59" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E1204" s="26"/>
       <c r="F1204" s="26"/>
@@ -41901,13 +41901,13 @@
         <v>50</v>
       </c>
       <c r="N1204" s="9" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="O1204" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1204" s="16" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="1205" spans="3:22" x14ac:dyDescent="0.25">
@@ -41935,13 +41935,13 @@
         <v>51</v>
       </c>
       <c r="N1205" s="9" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="O1205" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1205" s="39" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="1206" spans="3:22" x14ac:dyDescent="0.25">
@@ -41970,7 +41970,7 @@
         <v>52</v>
       </c>
       <c r="N1206" s="9" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="V1206" s="16"/>
     </row>
@@ -42000,7 +42000,7 @@
         <v>53</v>
       </c>
       <c r="N1207" s="9" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="V1207" s="16"/>
     </row>
@@ -42030,7 +42030,7 @@
         <v>54</v>
       </c>
       <c r="N1208" s="9" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="O1208" s="2"/>
       <c r="V1208" s="16"/>
@@ -42059,7 +42059,7 @@
         <v>55</v>
       </c>
       <c r="N1209" s="9" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="V1209" s="16"/>
     </row>
@@ -42087,13 +42087,13 @@
         <v>56</v>
       </c>
       <c r="N1210" s="9" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="P1210" s="2" t="s">
         <v>83</v>
       </c>
       <c r="V1210" s="9" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="1211" spans="3:22" x14ac:dyDescent="0.25">
@@ -42120,7 +42120,7 @@
         <v>57</v>
       </c>
       <c r="N1211" s="9" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="V1211" s="16"/>
     </row>
@@ -42151,7 +42151,7 @@
         <v>58</v>
       </c>
       <c r="N1212" s="9" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="S1212" s="2" t="s">
         <v>90</v>
@@ -42185,13 +42185,13 @@
         <v>59</v>
       </c>
       <c r="N1213" s="9" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="O1213" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1213" s="16" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="1214" spans="3:22" x14ac:dyDescent="0.25">
@@ -42277,7 +42277,7 @@
         <v>62</v>
       </c>
       <c r="N1216" s="9" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="V1216" s="16"/>
     </row>
@@ -42305,7 +42305,7 @@
         <v>63</v>
       </c>
       <c r="N1217" s="9" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="O1217" s="2"/>
       <c r="V1217" s="16"/>
@@ -42334,7 +42334,7 @@
         <v>64</v>
       </c>
       <c r="N1218" s="9" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="O1218" s="2"/>
       <c r="V1218" s="16"/>
@@ -42363,13 +42363,13 @@
         <v>65</v>
       </c>
       <c r="N1219" s="9" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="P1219" s="2" t="s">
         <v>83</v>
       </c>
       <c r="V1219" s="9" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="1220" spans="4:22" x14ac:dyDescent="0.25">
@@ -42398,7 +42398,7 @@
         <v>66</v>
       </c>
       <c r="N1220" s="9" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="V1220" s="16"/>
     </row>
@@ -42428,7 +42428,7 @@
         <v>67</v>
       </c>
       <c r="N1221" s="9" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="O1221" s="2"/>
       <c r="V1221" s="16"/>
@@ -42492,7 +42492,7 @@
         <v>69</v>
       </c>
       <c r="N1223" s="9" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="V1223" s="16"/>
     </row>
@@ -42522,7 +42522,7 @@
         <v>70</v>
       </c>
       <c r="N1224" s="9" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="V1224" s="16"/>
     </row>
@@ -42550,7 +42550,7 @@
         <v>71</v>
       </c>
       <c r="N1225" s="9" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="V1225" s="16"/>
     </row>
@@ -42578,7 +42578,7 @@
         <v>72</v>
       </c>
       <c r="N1226" s="9" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="V1226" s="16"/>
     </row>
@@ -42609,7 +42609,7 @@
         <v>73</v>
       </c>
       <c r="N1227" s="9" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="S1227" s="2" t="s">
         <v>90</v>
@@ -42643,13 +42643,13 @@
         <v>74</v>
       </c>
       <c r="N1228" s="9" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="O1228" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1228" s="16" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="1229" spans="4:22" x14ac:dyDescent="0.25">
@@ -42740,7 +42740,7 @@
         <v>77</v>
       </c>
       <c r="N1231" s="9" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="V1231" s="16"/>
     </row>
@@ -42796,7 +42796,7 @@
         <v>79</v>
       </c>
       <c r="N1233" s="9" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="O1233" s="2"/>
       <c r="V1233" s="16"/>
@@ -42853,7 +42853,7 @@
         <v>81</v>
       </c>
       <c r="N1235" s="9" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="V1235" s="16"/>
     </row>
@@ -42881,7 +42881,7 @@
         <v>82</v>
       </c>
       <c r="N1236" s="9" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="S1236" s="2" t="s">
         <v>98</v>
@@ -42912,7 +42912,7 @@
         <v>83</v>
       </c>
       <c r="N1237" s="9" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="V1237" s="16"/>
     </row>
@@ -42940,7 +42940,7 @@
         <v>84</v>
       </c>
       <c r="N1238" s="9" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="V1238" s="16"/>
     </row>
@@ -42968,7 +42968,7 @@
         <v>85</v>
       </c>
       <c r="N1239" s="9" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="O1239" s="2" t="s">
         <v>0</v>
@@ -42977,7 +42977,7 @@
         <v>83</v>
       </c>
       <c r="V1239" s="16" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="1240" spans="5:22" x14ac:dyDescent="0.25">
@@ -43004,7 +43004,7 @@
         <v>86</v>
       </c>
       <c r="N1240" s="9" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="V1240" s="16"/>
     </row>
@@ -43032,7 +43032,7 @@
         <v>87</v>
       </c>
       <c r="N1241" s="9" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="V1241" s="16"/>
     </row>
@@ -43095,7 +43095,7 @@
         <v>89</v>
       </c>
       <c r="N1243" s="9" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="O1243" s="2"/>
       <c r="V1243" s="16"/>
@@ -43126,7 +43126,7 @@
         <v>90</v>
       </c>
       <c r="N1244" s="9" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="O1244" s="2"/>
       <c r="V1244" s="16"/>
@@ -43157,7 +43157,7 @@
         <v>91</v>
       </c>
       <c r="N1245" s="9" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="V1245" s="16"/>
     </row>
@@ -43187,7 +43187,7 @@
         <v>92</v>
       </c>
       <c r="N1246" s="9" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="U1246" s="49" t="s">
         <v>89</v>
@@ -43253,13 +43253,13 @@
         <v>94</v>
       </c>
       <c r="N1248" s="9" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="O1248" s="1" t="s">
         <v>15</v>
       </c>
       <c r="V1248" s="33" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="1249" spans="5:22" x14ac:dyDescent="0.25">
@@ -43286,7 +43286,7 @@
         <v>95</v>
       </c>
       <c r="N1249" s="9" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="V1249" s="16"/>
     </row>
@@ -43342,7 +43342,7 @@
         <v>97</v>
       </c>
       <c r="N1251" s="9" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="P1251" s="2" t="s">
         <v>83</v>
@@ -43381,13 +43381,13 @@
         <v>98</v>
       </c>
       <c r="N1252" s="9" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="O1252" s="2" t="s">
         <v>15</v>
       </c>
       <c r="V1252" s="35" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="1253" spans="5:22" x14ac:dyDescent="0.25">
@@ -43442,13 +43442,13 @@
         <v>100</v>
       </c>
       <c r="N1254" s="9" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="O1254" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1254" s="16" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="1255" spans="5:22" x14ac:dyDescent="0.25">
@@ -43474,7 +43474,7 @@
         <v>101</v>
       </c>
       <c r="N1255" s="9" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="S1255" s="2" t="s">
         <v>90</v>
@@ -43508,7 +43508,7 @@
         <v>102</v>
       </c>
       <c r="N1256" s="9" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="V1256" s="16"/>
     </row>
@@ -43536,7 +43536,7 @@
         <v>103</v>
       </c>
       <c r="N1257" s="9" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="V1257" s="16"/>
     </row>
@@ -43595,7 +43595,7 @@
         <v>105</v>
       </c>
       <c r="N1259" s="9" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="V1259" s="16"/>
     </row>
@@ -43623,13 +43623,13 @@
         <v>106</v>
       </c>
       <c r="N1260" s="9" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="P1260" s="2" t="s">
         <v>83</v>
       </c>
       <c r="V1260" s="38" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="1261" spans="5:22" x14ac:dyDescent="0.25">
@@ -43656,7 +43656,7 @@
         <v>107</v>
       </c>
       <c r="N1261" s="9" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="V1261" s="16"/>
     </row>
@@ -43712,7 +43712,7 @@
         <v>109</v>
       </c>
       <c r="N1263" s="9" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="V1263" s="16"/>
     </row>
@@ -43740,7 +43740,7 @@
         <v>110</v>
       </c>
       <c r="N1264" s="9" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="V1264" s="16"/>
     </row>
@@ -43768,7 +43768,7 @@
         <v>111</v>
       </c>
       <c r="N1265" s="9" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="V1265" s="16"/>
     </row>
@@ -43827,7 +43827,7 @@
         <v>113</v>
       </c>
       <c r="N1267" s="9" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="V1267" s="16"/>
     </row>
@@ -43855,7 +43855,7 @@
         <v>114</v>
       </c>
       <c r="N1268" s="9" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="V1268" s="16"/>
     </row>
@@ -43883,13 +43883,13 @@
         <v>115</v>
       </c>
       <c r="N1269" s="9" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="P1269" s="2" t="s">
         <v>83</v>
       </c>
       <c r="V1269" s="35" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="1270" spans="5:22" x14ac:dyDescent="0.25">
@@ -43916,7 +43916,7 @@
         <v>116</v>
       </c>
       <c r="N1270" s="9" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="O1270" s="2"/>
       <c r="V1270" s="16"/>
@@ -43945,7 +43945,7 @@
         <v>117</v>
       </c>
       <c r="N1271" s="9" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="O1271" s="2"/>
       <c r="V1271" s="16"/>
@@ -43974,13 +43974,13 @@
         <v>118</v>
       </c>
       <c r="N1272" s="9" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="O1272" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1272" s="16" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="1273" spans="5:22" x14ac:dyDescent="0.25">
@@ -44007,7 +44007,7 @@
         <v>119</v>
       </c>
       <c r="N1273" s="9" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="V1273" s="16"/>
     </row>
@@ -44035,13 +44035,13 @@
         <v>120</v>
       </c>
       <c r="N1274" s="9" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="O1274" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1274" s="16" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="1275" spans="5:22" x14ac:dyDescent="0.25">
@@ -44068,13 +44068,13 @@
         <v>121</v>
       </c>
       <c r="N1275" s="9" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="P1275" s="2" t="s">
         <v>83</v>
       </c>
       <c r="V1275" s="43" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="1276" spans="5:22" x14ac:dyDescent="0.25">
@@ -44129,7 +44129,7 @@
         <v>123</v>
       </c>
       <c r="N1277" s="9" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="O1277" s="2"/>
       <c r="V1277" s="16"/>
@@ -44158,13 +44158,13 @@
         <v>124</v>
       </c>
       <c r="N1278" s="9" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="P1278" s="2" t="s">
         <v>83</v>
       </c>
       <c r="V1278" s="51" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="1279" spans="5:22" x14ac:dyDescent="0.25">
@@ -44191,7 +44191,7 @@
         <v>125</v>
       </c>
       <c r="N1279" s="9" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="O1279" s="2"/>
       <c r="V1279" s="16"/>
@@ -44248,7 +44248,7 @@
         <v>127</v>
       </c>
       <c r="N1281" s="9" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="O1281" s="2"/>
       <c r="V1281" s="16"/>
@@ -44344,7 +44344,7 @@
         <v>130</v>
       </c>
       <c r="N1284" s="9" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="V1284" s="16"/>
     </row>
@@ -44377,7 +44377,7 @@
         <v>131</v>
       </c>
       <c r="N1285" s="9" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="V1285" s="16"/>
     </row>
@@ -44407,7 +44407,7 @@
         <v>132</v>
       </c>
       <c r="N1286" s="9" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="V1286" s="16"/>
     </row>
@@ -44437,13 +44437,13 @@
         <v>133</v>
       </c>
       <c r="N1287" s="9" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="O1287" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1287" s="16" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="1288" spans="1:22" x14ac:dyDescent="0.25">
@@ -44472,7 +44472,7 @@
         <v>134</v>
       </c>
       <c r="N1288" s="9" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="O1288" s="2" t="s">
         <v>0</v>
@@ -44481,7 +44481,7 @@
         <v>83</v>
       </c>
       <c r="V1288" s="16" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="1289" spans="1:22" x14ac:dyDescent="0.25">
@@ -44508,7 +44508,7 @@
         <v>135</v>
       </c>
       <c r="N1289" s="9" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="V1289" s="16"/>
     </row>
@@ -44564,7 +44564,7 @@
         <v>137</v>
       </c>
       <c r="N1291" s="9" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="O1291" s="1" t="s">
         <v>103</v>
@@ -44595,7 +44595,7 @@
         <v>138</v>
       </c>
       <c r="N1292" s="9" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="O1292" s="2"/>
       <c r="V1292" s="16"/>
@@ -44624,7 +44624,7 @@
         <v>139</v>
       </c>
       <c r="N1293" s="9" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="V1293" s="16"/>
     </row>
@@ -44654,7 +44654,7 @@
         <v>140</v>
       </c>
       <c r="N1294" s="9" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="V1294" s="16"/>
     </row>
@@ -44684,7 +44684,7 @@
         <v>141</v>
       </c>
       <c r="N1295" s="9" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="V1295" s="16"/>
     </row>
@@ -44714,7 +44714,7 @@
         <v>142</v>
       </c>
       <c r="N1296" s="9" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="U1296" s="2" t="s">
         <v>107</v>
@@ -44753,7 +44753,7 @@
         <v>83</v>
       </c>
       <c r="V1297" s="51" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1298" spans="5:22" x14ac:dyDescent="0.25">
@@ -44780,7 +44780,7 @@
         <v>144</v>
       </c>
       <c r="N1298" s="9" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="V1298" s="16"/>
     </row>
@@ -44808,7 +44808,7 @@
         <v>145</v>
       </c>
       <c r="N1299" s="9" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="V1299" s="16"/>
     </row>
@@ -44836,7 +44836,7 @@
         <v>146</v>
       </c>
       <c r="N1300" s="9" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="V1300" s="16"/>
     </row>
@@ -44892,13 +44892,13 @@
         <v>148</v>
       </c>
       <c r="N1302" s="9" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="O1302" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1302" s="16" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="1303" spans="5:22" x14ac:dyDescent="0.25">
@@ -44956,13 +44956,13 @@
         <v>150</v>
       </c>
       <c r="N1304" s="9" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="P1304" s="2" t="s">
         <v>83</v>
       </c>
       <c r="V1304" s="43" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1305" spans="5:22" x14ac:dyDescent="0.25">
@@ -44988,13 +44988,13 @@
         <v>151</v>
       </c>
       <c r="N1305" s="9" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="O1305" s="1" t="s">
         <v>15</v>
       </c>
       <c r="V1305" s="33" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="1306" spans="5:22" x14ac:dyDescent="0.25">
@@ -45021,13 +45021,13 @@
         <v>152</v>
       </c>
       <c r="N1306" s="9" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="O1306" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1306" s="16" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="1307" spans="5:22" x14ac:dyDescent="0.25">
@@ -45054,13 +45054,13 @@
         <v>153</v>
       </c>
       <c r="N1307" s="9" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="P1307" s="2" t="s">
         <v>83</v>
       </c>
       <c r="V1307" s="43" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="1308" spans="5:22" x14ac:dyDescent="0.25">
@@ -45087,7 +45087,7 @@
         <v>154</v>
       </c>
       <c r="N1308" s="9" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="V1308" s="16"/>
     </row>
@@ -45115,7 +45115,7 @@
         <v>155</v>
       </c>
       <c r="N1309" s="9" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="V1309" s="16"/>
     </row>
@@ -45143,7 +45143,7 @@
         <v>156</v>
       </c>
       <c r="N1310" s="9" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="V1310" s="16"/>
     </row>
@@ -45171,13 +45171,13 @@
         <v>157</v>
       </c>
       <c r="N1311" s="9" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="O1311" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1311" s="16" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="1312" spans="5:22" x14ac:dyDescent="0.25">
@@ -45204,7 +45204,7 @@
         <v>158</v>
       </c>
       <c r="N1312" s="9" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="V1312" s="16"/>
     </row>
@@ -45232,13 +45232,13 @@
         <v>159</v>
       </c>
       <c r="N1313" s="9" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="O1313" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1313" s="16" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="1314" spans="5:22" x14ac:dyDescent="0.25">
@@ -45265,7 +45265,7 @@
         <v>160</v>
       </c>
       <c r="N1314" s="9" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="P1314" s="2" t="s">
         <v>83</v>
@@ -45326,7 +45326,7 @@
         <v>162</v>
       </c>
       <c r="N1316" s="9" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="V1316" s="16"/>
     </row>
@@ -45354,13 +45354,13 @@
         <v>163</v>
       </c>
       <c r="N1317" s="9" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="O1317" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1317" s="16" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="1318" spans="5:22" x14ac:dyDescent="0.25">
@@ -45387,7 +45387,7 @@
         <v>164</v>
       </c>
       <c r="N1318" s="9" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="V1318" s="16"/>
     </row>
@@ -45415,7 +45415,7 @@
         <v>165</v>
       </c>
       <c r="N1319" s="9" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="V1319" s="16"/>
     </row>
@@ -45471,13 +45471,13 @@
         <v>167</v>
       </c>
       <c r="N1321" s="9" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="O1321" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1321" s="16" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="1322" spans="5:22" x14ac:dyDescent="0.25">
@@ -45504,13 +45504,13 @@
         <v>168</v>
       </c>
       <c r="N1322" s="9" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="P1322" s="2" t="s">
         <v>83</v>
       </c>
       <c r="V1322" s="38" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="1323" spans="5:22" x14ac:dyDescent="0.25">
@@ -45537,13 +45537,13 @@
         <v>169</v>
       </c>
       <c r="N1323" s="9" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="S1323" s="2" t="s">
         <v>90</v>
       </c>
       <c r="T1323" s="2" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="V1323" s="16"/>
     </row>
@@ -45627,7 +45627,7 @@
         <v>172</v>
       </c>
       <c r="N1326" s="9" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="V1326" s="16"/>
     </row>
@@ -45715,13 +45715,13 @@
         <v>175</v>
       </c>
       <c r="N1329" s="9" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="P1329" s="2" t="s">
         <v>83</v>
       </c>
       <c r="V1329" s="35" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="1330" spans="4:22" x14ac:dyDescent="0.25">
@@ -45751,7 +45751,7 @@
         <v>176</v>
       </c>
       <c r="N1330" s="9" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="O1330" s="2"/>
       <c r="V1330" s="16"/>
@@ -45814,7 +45814,7 @@
         <v>0</v>
       </c>
       <c r="V1332" s="16" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="1333" spans="4:22" x14ac:dyDescent="0.25">
@@ -45872,7 +45872,7 @@
         <v>180</v>
       </c>
       <c r="N1334" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="V1334" s="16"/>
     </row>
@@ -45900,7 +45900,7 @@
         <v>181</v>
       </c>
       <c r="N1335" s="66" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="O1335" s="1" t="s">
         <v>103</v>
@@ -45931,7 +45931,7 @@
         <v>182</v>
       </c>
       <c r="N1336" s="9" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="V1336" s="16"/>
     </row>
@@ -45959,7 +45959,7 @@
         <v>183</v>
       </c>
       <c r="N1337" s="9" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="O1337" s="2"/>
       <c r="V1337" s="16"/>
@@ -45995,7 +45995,7 @@
         <v>83</v>
       </c>
       <c r="V1338" s="33" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1339" spans="4:22" x14ac:dyDescent="0.25">
@@ -46028,13 +46028,13 @@
         <v>185</v>
       </c>
       <c r="N1339" s="9" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="O1339" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1339" s="16" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1340" spans="4:22" x14ac:dyDescent="0.25">
@@ -46154,13 +46154,13 @@
         <v>189</v>
       </c>
       <c r="N1343" s="9" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="O1343" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1343" s="16" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="1344" spans="4:22" x14ac:dyDescent="0.25">
@@ -46187,13 +46187,13 @@
         <v>190</v>
       </c>
       <c r="N1344" s="9" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="O1344" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1344" s="16" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="1345" spans="5:22" x14ac:dyDescent="0.25">
@@ -46220,13 +46220,13 @@
         <v>191</v>
       </c>
       <c r="N1345" s="9" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="P1345" s="2" t="s">
         <v>83</v>
       </c>
       <c r="V1345" s="35" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="1346" spans="5:22" x14ac:dyDescent="0.25">
@@ -46282,7 +46282,7 @@
         <v>193</v>
       </c>
       <c r="N1347" s="9" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="V1347" s="16"/>
     </row>
@@ -46310,7 +46310,7 @@
         <v>194</v>
       </c>
       <c r="N1348" s="9" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="V1348" s="16"/>
     </row>
@@ -46338,7 +46338,7 @@
         <v>195</v>
       </c>
       <c r="N1349" s="9" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="V1349" s="16"/>
     </row>
@@ -46366,7 +46366,7 @@
         <v>196</v>
       </c>
       <c r="N1350" s="9" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="V1350" s="16"/>
     </row>
@@ -46394,7 +46394,7 @@
         <v>197</v>
       </c>
       <c r="N1351" s="9" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="V1351" s="16"/>
     </row>
@@ -46450,7 +46450,7 @@
         <v>199</v>
       </c>
       <c r="N1353" s="9" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="V1353" s="16"/>
     </row>
@@ -46478,7 +46478,7 @@
         <v>200</v>
       </c>
       <c r="N1354" s="9" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="O1354" s="1" t="s">
         <v>103</v>
@@ -46508,7 +46508,7 @@
         <v>201</v>
       </c>
       <c r="N1355" s="40" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="V1355" s="16"/>
     </row>
@@ -46543,7 +46543,7 @@
         <v>83</v>
       </c>
       <c r="V1356" s="43" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="1357" spans="5:22" x14ac:dyDescent="0.25">
@@ -46570,7 +46570,7 @@
         <v>203</v>
       </c>
       <c r="N1357" s="40" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="O1357" s="2"/>
       <c r="V1357" s="16"/>
@@ -46627,13 +46627,13 @@
         <v>205</v>
       </c>
       <c r="N1359" s="40" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="O1359" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1359" s="16" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="1360" spans="5:22" x14ac:dyDescent="0.25">
@@ -46660,13 +46660,13 @@
         <v>206</v>
       </c>
       <c r="N1360" s="9" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="O1360" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1360" s="16" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1361" spans="4:22" x14ac:dyDescent="0.25">
@@ -46693,7 +46693,7 @@
         <v>207</v>
       </c>
       <c r="N1361" s="9" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="O1361" s="2" t="s">
         <v>0</v>
@@ -46702,7 +46702,7 @@
         <v>83</v>
       </c>
       <c r="V1361" s="16" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="1362" spans="4:22" x14ac:dyDescent="0.25">
@@ -46758,7 +46758,7 @@
         <v>209</v>
       </c>
       <c r="N1363" s="9" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="V1363" s="16"/>
     </row>
@@ -46786,7 +46786,7 @@
         <v>210</v>
       </c>
       <c r="N1364" s="9" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="O1364" s="2" t="s">
         <v>0</v>
@@ -46795,7 +46795,7 @@
         <v>83</v>
       </c>
       <c r="V1364" s="16" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1365" spans="4:22" x14ac:dyDescent="0.25">
@@ -46822,7 +46822,7 @@
         <v>211</v>
       </c>
       <c r="N1365" s="9" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="S1365" s="2" t="s">
         <v>90</v>
@@ -46887,7 +46887,7 @@
         <v>213</v>
       </c>
       <c r="N1367" s="9" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="V1367" s="16"/>
     </row>
@@ -46918,7 +46918,7 @@
         <v>214</v>
       </c>
       <c r="N1368" s="9" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="V1368" s="16"/>
     </row>
@@ -47008,7 +47008,7 @@
         <v>217</v>
       </c>
       <c r="N1371" s="9" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="V1371" s="16"/>
     </row>
@@ -47067,7 +47067,7 @@
         <v>219</v>
       </c>
       <c r="N1373" s="9" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="O1373" s="2" t="s">
         <v>0</v>
@@ -47076,7 +47076,7 @@
         <v>83</v>
       </c>
       <c r="V1373" s="16" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="1374" spans="4:22" x14ac:dyDescent="0.25">
@@ -47103,7 +47103,7 @@
         <v>220</v>
       </c>
       <c r="N1374" s="9" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="V1374" s="16"/>
     </row>
@@ -47131,13 +47131,13 @@
         <v>221</v>
       </c>
       <c r="N1375" s="9" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="O1375" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1375" s="16" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="1376" spans="4:22" x14ac:dyDescent="0.25">
@@ -47164,7 +47164,7 @@
         <v>222</v>
       </c>
       <c r="N1376" s="53" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O1376" s="6" t="s">
         <v>0</v>
@@ -47176,7 +47176,7 @@
       <c r="T1376" s="52"/>
       <c r="U1376" s="52"/>
       <c r="V1376" s="16" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="1377" spans="5:22" x14ac:dyDescent="0.25">
@@ -47205,7 +47205,7 @@
         <v>223</v>
       </c>
       <c r="N1377" s="9" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="V1377" s="16"/>
     </row>
@@ -47235,7 +47235,7 @@
         <v>224</v>
       </c>
       <c r="N1378" s="9" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="V1378" s="16"/>
     </row>
@@ -47293,7 +47293,7 @@
         <v>226</v>
       </c>
       <c r="N1380" s="9" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="O1380" s="2"/>
       <c r="V1380" s="16"/>
@@ -47322,7 +47322,7 @@
         <v>227</v>
       </c>
       <c r="N1381" s="9" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="O1381" s="2" t="s">
         <v>0</v>
@@ -47331,7 +47331,7 @@
         <v>83</v>
       </c>
       <c r="V1381" s="16" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="1382" spans="5:22" x14ac:dyDescent="0.25">
@@ -47358,7 +47358,7 @@
         <v>228</v>
       </c>
       <c r="N1382" s="9" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="V1382" s="16"/>
     </row>
@@ -47386,7 +47386,7 @@
         <v>229</v>
       </c>
       <c r="N1383" s="9" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="V1383" s="16"/>
     </row>
@@ -47414,7 +47414,7 @@
         <v>230</v>
       </c>
       <c r="N1384" s="9" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="V1384" s="16"/>
     </row>
@@ -47470,7 +47470,7 @@
         <v>232</v>
       </c>
       <c r="N1386" s="9" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="V1386" s="16"/>
     </row>
@@ -47529,13 +47529,13 @@
         <v>234</v>
       </c>
       <c r="N1388" s="9" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="P1388" s="2" t="s">
         <v>83</v>
       </c>
       <c r="V1388" s="35" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="1389" spans="5:22" x14ac:dyDescent="0.25">
@@ -47590,7 +47590,7 @@
         <v>236</v>
       </c>
       <c r="N1390" s="9" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="V1390" s="16"/>
     </row>
@@ -47618,7 +47618,7 @@
         <v>237</v>
       </c>
       <c r="N1391" s="9" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="O1391" s="2" t="s">
         <v>0</v>
@@ -47627,7 +47627,7 @@
         <v>83</v>
       </c>
       <c r="V1391" s="16" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="1392" spans="5:22" x14ac:dyDescent="0.25">
@@ -47654,7 +47654,7 @@
         <v>238</v>
       </c>
       <c r="N1392" s="9" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="O1392" s="2"/>
       <c r="V1392" s="16"/>
@@ -47683,7 +47683,7 @@
         <v>239</v>
       </c>
       <c r="N1393" s="9" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="O1393" s="2"/>
       <c r="V1393" s="16"/>
@@ -47712,7 +47712,7 @@
         <v>240</v>
       </c>
       <c r="N1394" s="9" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="V1394" s="16"/>
     </row>
@@ -47771,7 +47771,7 @@
         <v>242</v>
       </c>
       <c r="N1396" s="9" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="V1396" s="16"/>
     </row>
@@ -47799,13 +47799,13 @@
         <v>243</v>
       </c>
       <c r="N1397" s="9" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="O1397" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1397" s="16" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="1398" spans="5:22" x14ac:dyDescent="0.25">
@@ -47832,7 +47832,7 @@
         <v>244</v>
       </c>
       <c r="N1398" s="9" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="V1398" s="16"/>
     </row>
@@ -47860,7 +47860,7 @@
         <v>245</v>
       </c>
       <c r="N1399" s="9" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="V1399" s="16"/>
     </row>
@@ -47888,13 +47888,13 @@
         <v>246</v>
       </c>
       <c r="N1400" s="9" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="P1400" s="2" t="s">
         <v>83</v>
       </c>
       <c r="V1400" s="35" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="1401" spans="5:22" x14ac:dyDescent="0.25">
@@ -47952,7 +47952,7 @@
         <v>248</v>
       </c>
       <c r="N1402" s="9" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="U1402" s="2" t="s">
         <v>96</v>
@@ -47983,7 +47983,7 @@
         <v>249</v>
       </c>
       <c r="N1403" s="9" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="U1403" s="2" t="s">
         <v>89</v>
@@ -48014,13 +48014,13 @@
         <v>250</v>
       </c>
       <c r="N1404" s="9" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="O1404" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1404" s="16" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="1405" spans="5:22" x14ac:dyDescent="0.25">
@@ -48102,7 +48102,7 @@
         <v>253</v>
       </c>
       <c r="N1407" s="9" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="V1407" s="16"/>
     </row>
@@ -48130,7 +48130,7 @@
         <v>254</v>
       </c>
       <c r="N1408" s="9" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="V1408" s="16"/>
     </row>
@@ -48158,7 +48158,7 @@
         <v>255</v>
       </c>
       <c r="N1409" s="9" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="O1409" s="2" t="s">
         <v>0</v>
@@ -48167,7 +48167,7 @@
         <v>83</v>
       </c>
       <c r="V1409" s="16" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="1410" spans="5:22" x14ac:dyDescent="0.25">
@@ -48281,13 +48281,13 @@
         <v>259</v>
       </c>
       <c r="N1413" s="9" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="O1413" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1413" s="16" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="1414" spans="5:22" x14ac:dyDescent="0.25">
@@ -48314,7 +48314,7 @@
         <v>260</v>
       </c>
       <c r="N1414" s="9" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="V1414" s="16"/>
     </row>
@@ -48342,7 +48342,7 @@
         <v>261</v>
       </c>
       <c r="N1415" s="9" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="V1415" s="16"/>
     </row>
@@ -48370,7 +48370,7 @@
         <v>262</v>
       </c>
       <c r="N1416" s="9" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="V1416" s="16"/>
     </row>
@@ -48398,7 +48398,7 @@
         <v>263</v>
       </c>
       <c r="N1417" s="9" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="1418" spans="5:22" x14ac:dyDescent="0.25">
@@ -48425,13 +48425,13 @@
         <v>264</v>
       </c>
       <c r="N1418" s="16" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="O1418" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1418" s="9" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="1419" spans="5:22" x14ac:dyDescent="0.25">
@@ -48458,7 +48458,7 @@
         <v>265</v>
       </c>
       <c r="N1419" s="9" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="V1419" s="16"/>
     </row>
@@ -48486,7 +48486,7 @@
         <v>266</v>
       </c>
       <c r="N1420" s="9" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="O1420" s="2"/>
       <c r="P1420" s="2" t="s">
@@ -48496,7 +48496,7 @@
         <v>96</v>
       </c>
       <c r="V1420" s="43" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="1421" spans="5:22" x14ac:dyDescent="0.25">
@@ -48551,7 +48551,7 @@
         <v>268</v>
       </c>
       <c r="N1422" s="9" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="V1422" s="16"/>
     </row>
@@ -48579,7 +48579,7 @@
         <v>269</v>
       </c>
       <c r="N1423" s="9" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="O1423" s="2"/>
       <c r="V1423" s="16"/>
@@ -48608,7 +48608,7 @@
         <v>270</v>
       </c>
       <c r="N1424" s="9" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="V1424" s="16"/>
     </row>
@@ -48636,13 +48636,13 @@
         <v>271</v>
       </c>
       <c r="N1425" s="9" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="O1425" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1425" s="16" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="1426" spans="5:22" x14ac:dyDescent="0.25">
@@ -48669,7 +48669,7 @@
         <v>272</v>
       </c>
       <c r="N1426" s="9" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="V1426" s="16"/>
     </row>
@@ -48697,7 +48697,7 @@
         <v>273</v>
       </c>
       <c r="N1427" s="9" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="V1427" s="16"/>
     </row>
@@ -48758,7 +48758,7 @@
         <v>275</v>
       </c>
       <c r="N1429" s="9" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="V1429" s="16"/>
     </row>
@@ -48786,7 +48786,7 @@
         <v>276</v>
       </c>
       <c r="N1430" s="9" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="O1430" s="2"/>
       <c r="V1430" s="16"/>
@@ -48843,7 +48843,7 @@
         <v>278</v>
       </c>
       <c r="N1432" s="9" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="V1432" s="16"/>
     </row>
@@ -48871,7 +48871,7 @@
         <v>279</v>
       </c>
       <c r="N1433" s="9" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="V1433" s="16"/>
     </row>
@@ -48899,7 +48899,7 @@
         <v>280</v>
       </c>
       <c r="N1434" s="9" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="V1434" s="16"/>
     </row>
@@ -48927,13 +48927,13 @@
         <v>281</v>
       </c>
       <c r="N1435" s="9" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="O1435" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1435" s="16" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="1436" spans="5:22" x14ac:dyDescent="0.25">
@@ -48960,7 +48960,7 @@
         <v>282</v>
       </c>
       <c r="N1436" s="9" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="O1436" s="2" t="s">
         <v>0</v>
@@ -48969,7 +48969,7 @@
         <v>83</v>
       </c>
       <c r="V1436" s="35" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="1437" spans="5:22" x14ac:dyDescent="0.25">
@@ -49058,13 +49058,13 @@
         <v>285</v>
       </c>
       <c r="N1439" s="9" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="O1439" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1439" s="16" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="1440" spans="5:22" x14ac:dyDescent="0.25">
@@ -49091,13 +49091,13 @@
         <v>286</v>
       </c>
       <c r="N1440" s="9" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="O1440" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1440" s="16" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="1441" spans="1:22" x14ac:dyDescent="0.25">
@@ -49124,7 +49124,7 @@
         <v>287</v>
       </c>
       <c r="N1441" s="9" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="V1441" s="16"/>
     </row>
@@ -49180,13 +49180,13 @@
         <v>289</v>
       </c>
       <c r="N1443" s="9" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="O1443" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1443" s="16" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="1444" spans="1:22" x14ac:dyDescent="0.25">
@@ -49241,13 +49241,13 @@
         <v>291</v>
       </c>
       <c r="N1445" s="9" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="P1445" s="2" t="s">
         <v>83</v>
       </c>
       <c r="V1445" s="39" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="1446" spans="1:22" x14ac:dyDescent="0.25">
@@ -49302,7 +49302,7 @@
         <v>293</v>
       </c>
       <c r="N1447" s="9" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="V1447" s="16"/>
     </row>
@@ -49361,7 +49361,7 @@
         <v>295</v>
       </c>
       <c r="N1449" s="9" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="V1449" s="16"/>
     </row>
@@ -49389,7 +49389,7 @@
         <v>296</v>
       </c>
       <c r="N1450" s="9" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="V1450" s="16"/>
     </row>
@@ -49417,13 +49417,13 @@
         <v>297</v>
       </c>
       <c r="N1451" s="9" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="O1451" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1451" s="16" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="1452" spans="1:22" x14ac:dyDescent="0.25">
@@ -49450,13 +49450,13 @@
         <v>298</v>
       </c>
       <c r="N1452" s="9" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="P1452" s="2" t="s">
         <v>83</v>
       </c>
       <c r="V1452" s="35" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="1453" spans="1:22" x14ac:dyDescent="0.25">
@@ -49483,7 +49483,7 @@
         <v>299</v>
       </c>
       <c r="N1453" s="9" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="V1453" s="16"/>
     </row>
@@ -49541,13 +49541,13 @@
         <v>301</v>
       </c>
       <c r="N1455" s="9" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="V1455" s="16"/>
     </row>
     <row r="1456" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1456" s="61" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E1456" s="26"/>
       <c r="F1456" s="26"/>
@@ -49574,7 +49574,7 @@
         <v>302</v>
       </c>
       <c r="N1456" s="9" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="O1456" s="1" t="s">
         <v>103</v>
@@ -49583,7 +49583,7 @@
     </row>
     <row r="1457" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1457" s="61" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E1457" s="26"/>
       <c r="F1457" s="26"/>
@@ -49610,7 +49610,7 @@
         <v>303</v>
       </c>
       <c r="N1457" s="9" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="V1457" s="16"/>
     </row>
@@ -49640,7 +49640,7 @@
         <v>304</v>
       </c>
       <c r="N1458" s="9" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="V1458" s="16"/>
     </row>
@@ -49668,7 +49668,7 @@
         <v>305</v>
       </c>
       <c r="N1459" s="9" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="O1459" s="2" t="s">
         <v>0</v>
@@ -49677,7 +49677,7 @@
         <v>83</v>
       </c>
       <c r="V1459" s="35" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="1460" spans="1:22" x14ac:dyDescent="0.25">
@@ -49763,13 +49763,13 @@
         <v>308</v>
       </c>
       <c r="N1462" s="9" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="O1462" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1462" s="16" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="1463" spans="1:22" x14ac:dyDescent="0.25">
@@ -49796,7 +49796,7 @@
         <v>309</v>
       </c>
       <c r="N1463" s="9" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="V1463" s="16"/>
     </row>
@@ -49824,7 +49824,7 @@
         <v>310</v>
       </c>
       <c r="N1464" s="9" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="V1464" s="16"/>
     </row>
@@ -49883,13 +49883,13 @@
         <v>312</v>
       </c>
       <c r="N1466" s="9" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="P1466" s="2" t="s">
         <v>83</v>
       </c>
       <c r="V1466" s="43" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1467" spans="1:22" x14ac:dyDescent="0.25">
@@ -49944,7 +49944,7 @@
         <v>314</v>
       </c>
       <c r="N1468" s="9" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="V1468" s="16"/>
     </row>
@@ -49972,7 +49972,7 @@
         <v>315</v>
       </c>
       <c r="N1469" s="9" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="V1469" s="16"/>
     </row>
@@ -50000,7 +50000,7 @@
         <v>316</v>
       </c>
       <c r="N1470" s="9" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="U1470" s="2" t="s">
         <v>105</v>
@@ -50031,7 +50031,7 @@
         <v>317</v>
       </c>
       <c r="N1471" s="9" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="V1471" s="16"/>
     </row>
@@ -50059,7 +50059,7 @@
         <v>318</v>
       </c>
       <c r="N1472" s="9" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="V1472" s="16"/>
     </row>
@@ -50087,7 +50087,7 @@
         <v>319</v>
       </c>
       <c r="N1473" s="9" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="O1473" s="2" t="s">
         <v>0</v>
@@ -50096,7 +50096,7 @@
         <v>83</v>
       </c>
       <c r="V1473" s="16" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="1474" spans="5:22" x14ac:dyDescent="0.25">
@@ -50123,13 +50123,13 @@
         <v>320</v>
       </c>
       <c r="N1474" s="9" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="O1474" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1474" s="16" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="1475" spans="5:22" x14ac:dyDescent="0.25">
@@ -50156,13 +50156,13 @@
         <v>321</v>
       </c>
       <c r="N1475" s="9" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="O1475" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1475" s="16" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="1476" spans="5:22" x14ac:dyDescent="0.25">
@@ -50189,13 +50189,13 @@
         <v>322</v>
       </c>
       <c r="N1476" s="9" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O1476" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1476" s="16" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="1477" spans="5:22" x14ac:dyDescent="0.25">
@@ -50222,13 +50222,13 @@
         <v>323</v>
       </c>
       <c r="N1477" s="9" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="P1477" s="2" t="s">
         <v>83</v>
       </c>
       <c r="V1477" s="9" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="1478" spans="5:22" x14ac:dyDescent="0.25">
@@ -50255,7 +50255,7 @@
         <v>324</v>
       </c>
       <c r="N1478" s="9" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="V1478" s="16"/>
     </row>
@@ -50283,7 +50283,7 @@
         <v>325</v>
       </c>
       <c r="N1479" s="9" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="V1479" s="16"/>
     </row>
@@ -50311,7 +50311,7 @@
         <v>326</v>
       </c>
       <c r="N1480" s="9" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="P1480" s="2" t="s">
         <v>83</v>
@@ -50320,13 +50320,13 @@
         <v>96</v>
       </c>
       <c r="V1480" s="35" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="1481" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E1481" s="26"/>
       <c r="F1481" s="65" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="G1481" s="26"/>
       <c r="H1481" s="57" t="s">
@@ -50351,14 +50351,14 @@
         <v>327</v>
       </c>
       <c r="N1481" s="9" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="V1481" s="16"/>
     </row>
     <row r="1482" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E1482" s="26"/>
       <c r="F1482" s="65" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="G1482" s="26"/>
       <c r="H1482" s="57" t="s">
@@ -50383,7 +50383,7 @@
         <v>328</v>
       </c>
       <c r="N1482" s="9" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="V1482" s="16"/>
     </row>
@@ -50413,13 +50413,13 @@
         <v>329</v>
       </c>
       <c r="N1483" s="9" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="O1483" s="2" t="s">
         <v>15</v>
       </c>
       <c r="V1483" s="33" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="1484" spans="5:22" x14ac:dyDescent="0.25">
@@ -50448,7 +50448,7 @@
         <v>330</v>
       </c>
       <c r="N1484" s="9" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="U1484" s="2" t="s">
         <v>89</v>
@@ -50481,13 +50481,13 @@
         <v>331</v>
       </c>
       <c r="N1485" s="9" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="O1485" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1485" s="16" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="1486" spans="5:22" x14ac:dyDescent="0.25">
@@ -50516,7 +50516,7 @@
         <v>332</v>
       </c>
       <c r="N1486" s="9" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="V1486" s="16"/>
     </row>
@@ -50575,7 +50575,7 @@
         <v>334</v>
       </c>
       <c r="N1488" s="9" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="O1488" s="2"/>
       <c r="V1488" s="16"/>
@@ -50604,7 +50604,7 @@
         <v>335</v>
       </c>
       <c r="N1489" s="9" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="V1489" s="16"/>
     </row>
@@ -50632,14 +50632,14 @@
         <v>336</v>
       </c>
       <c r="N1490" s="9" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="O1490" s="2"/>
       <c r="P1490" s="2" t="s">
         <v>83</v>
       </c>
       <c r="V1490" s="35" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="1491" spans="5:22" x14ac:dyDescent="0.25">
@@ -50666,7 +50666,7 @@
         <v>337</v>
       </c>
       <c r="N1491" s="9" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="V1491" s="16"/>
     </row>
@@ -50750,13 +50750,13 @@
         <v>340</v>
       </c>
       <c r="N1494" s="9" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="O1494" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1494" s="16" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="1495" spans="5:22" x14ac:dyDescent="0.25">
@@ -50783,7 +50783,7 @@
         <v>341</v>
       </c>
       <c r="N1495" s="9" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="V1495" s="16"/>
     </row>
@@ -50841,7 +50841,7 @@
         <v>343</v>
       </c>
       <c r="N1497" s="9" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="V1497" s="16"/>
     </row>
@@ -50901,7 +50901,7 @@
         <v>345</v>
       </c>
       <c r="N1499" s="9" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="V1499" s="16"/>
     </row>
@@ -50931,7 +50931,7 @@
         <v>346</v>
       </c>
       <c r="N1500" s="9" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="V1500" s="16"/>
     </row>
@@ -50961,7 +50961,7 @@
         <v>347</v>
       </c>
       <c r="N1501" s="9" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="V1501" s="16"/>
     </row>
@@ -50991,7 +50991,7 @@
         <v>348</v>
       </c>
       <c r="N1502" s="9" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="P1502" s="2" t="s">
         <v>83</v>
@@ -51003,7 +51003,7 @@
         <v>124</v>
       </c>
       <c r="V1502" s="35" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="1503" spans="5:22" x14ac:dyDescent="0.25">
@@ -51058,7 +51058,7 @@
         <v>350</v>
       </c>
       <c r="N1504" s="9" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="V1504" s="16"/>
     </row>
@@ -51085,7 +51085,7 @@
         <v>351</v>
       </c>
       <c r="N1505" s="9" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="O1505" s="2"/>
       <c r="V1505" s="16"/>
@@ -51145,7 +51145,7 @@
         <v>353</v>
       </c>
       <c r="N1507" s="9" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="V1507" s="16"/>
     </row>
@@ -51173,7 +51173,7 @@
         <v>354</v>
       </c>
       <c r="N1508" s="9" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="V1508" s="16"/>
     </row>
@@ -51201,7 +51201,7 @@
         <v>355</v>
       </c>
       <c r="N1509" s="9" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="V1509" s="16"/>
     </row>
@@ -51263,7 +51263,7 @@
         <v>83</v>
       </c>
       <c r="V1511" s="43" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="1512" spans="5:22" x14ac:dyDescent="0.25">
@@ -51290,7 +51290,7 @@
         <v>358</v>
       </c>
       <c r="N1512" s="9" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="V1512" s="16"/>
     </row>
@@ -51318,7 +51318,7 @@
         <v>359</v>
       </c>
       <c r="N1513" s="9" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="V1513" s="16"/>
     </row>
@@ -51346,13 +51346,13 @@
         <v>360</v>
       </c>
       <c r="N1514" s="9" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="P1514" s="2" t="s">
         <v>83</v>
       </c>
       <c r="V1514" s="35" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="1515" spans="5:22" x14ac:dyDescent="0.25">
@@ -51386,7 +51386,7 @@
     <row r="1516" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E1516" s="26"/>
       <c r="F1516" s="65" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="G1516" s="26"/>
       <c r="H1516" s="26"/>
@@ -51409,14 +51409,14 @@
         <v>362</v>
       </c>
       <c r="N1516" s="9" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="V1516" s="16"/>
     </row>
     <row r="1517" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E1517" s="26"/>
       <c r="F1517" s="65" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="G1517" s="26"/>
       <c r="H1517" s="26"/>
@@ -51439,13 +51439,13 @@
         <v>363</v>
       </c>
       <c r="N1517" s="9" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="O1517" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1517" s="16" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="1518" spans="5:22" x14ac:dyDescent="0.25">
@@ -51453,7 +51453,7 @@
         <v>133</v>
       </c>
       <c r="F1518" s="65" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="G1518" s="26"/>
       <c r="H1518" s="26"/>
@@ -51476,7 +51476,7 @@
         <v>364</v>
       </c>
       <c r="N1518" s="9" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="O1518" s="1" t="s">
         <v>15</v>
@@ -51485,7 +51485,7 @@
         <v>100</v>
       </c>
       <c r="V1518" s="33" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="1519" spans="5:22" x14ac:dyDescent="0.25">
@@ -51493,7 +51493,7 @@
         <v>133</v>
       </c>
       <c r="F1519" s="65" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="G1519" s="26"/>
       <c r="H1519" s="26"/>
@@ -51516,7 +51516,7 @@
         <v>365</v>
       </c>
       <c r="N1519" s="9" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="V1519" s="16"/>
     </row>
@@ -51544,7 +51544,7 @@
         <v>366</v>
       </c>
       <c r="N1520" s="9" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="O1520" s="2" t="s">
         <v>0</v>
@@ -51553,7 +51553,7 @@
         <v>83</v>
       </c>
       <c r="V1520" s="16" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="1521" spans="1:22" x14ac:dyDescent="0.25">
@@ -51580,7 +51580,7 @@
         <v>367</v>
       </c>
       <c r="N1521" s="9" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="O1521" s="2"/>
       <c r="V1521" s="16"/>
@@ -51637,7 +51637,7 @@
         <v>369</v>
       </c>
       <c r="N1523" s="9" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="V1523" s="16"/>
     </row>
@@ -51726,7 +51726,7 @@
         <v>372</v>
       </c>
       <c r="N1526" s="9" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="V1526" s="16"/>
     </row>
@@ -51754,7 +51754,7 @@
         <v>373</v>
       </c>
       <c r="N1527" s="9" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="V1527" s="16"/>
     </row>
@@ -51782,7 +51782,7 @@
         <v>374</v>
       </c>
       <c r="N1528" s="9" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="V1528" s="16"/>
     </row>
@@ -51838,7 +51838,7 @@
         <v>376</v>
       </c>
       <c r="N1530" s="9" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="O1530" s="2"/>
       <c r="P1530" s="2" t="s">
@@ -51934,7 +51934,7 @@
         <v>379</v>
       </c>
       <c r="N1533" s="9" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="V1533" s="16"/>
     </row>
@@ -51962,7 +51962,7 @@
         <v>380</v>
       </c>
       <c r="N1534" s="9" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="V1534" s="16"/>
     </row>
@@ -51996,7 +51996,7 @@
         <v>83</v>
       </c>
       <c r="V1535" s="44" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="1536" spans="1:22" x14ac:dyDescent="0.25">
@@ -52023,7 +52023,7 @@
         <v>382</v>
       </c>
       <c r="N1536" s="9" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="V1536" s="16"/>
     </row>
@@ -52079,7 +52079,7 @@
         <v>384</v>
       </c>
       <c r="N1538" s="9" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="V1538" s="16"/>
     </row>
@@ -52107,7 +52107,7 @@
         <v>385</v>
       </c>
       <c r="N1539" s="9" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="V1539" s="16"/>
     </row>
@@ -52197,7 +52197,7 @@
         <v>388</v>
       </c>
       <c r="N1542" s="9" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="V1542" s="16"/>
     </row>
@@ -52256,13 +52256,13 @@
         <v>390</v>
       </c>
       <c r="N1544" s="9" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="P1544" s="2" t="s">
         <v>83</v>
       </c>
       <c r="V1544" s="35" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="1545" spans="5:22" x14ac:dyDescent="0.25">
@@ -52345,7 +52345,7 @@
         <v>393</v>
       </c>
       <c r="N1547" s="9" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="V1547" s="16"/>
     </row>
@@ -52407,7 +52407,7 @@
         <v>83</v>
       </c>
       <c r="V1549" s="43" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="1550" spans="5:22" x14ac:dyDescent="0.25">
@@ -52466,13 +52466,13 @@
         <v>397</v>
       </c>
       <c r="N1551" s="9" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="O1551" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1551" s="16" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="1552" spans="5:22" x14ac:dyDescent="0.25">
@@ -52499,7 +52499,7 @@
         <v>398</v>
       </c>
       <c r="N1552" s="9" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="V1552" s="16"/>
     </row>
@@ -52527,7 +52527,7 @@
         <v>399</v>
       </c>
       <c r="N1553" s="9" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="V1553" s="16"/>
     </row>
@@ -52555,7 +52555,7 @@
         <v>400</v>
       </c>
       <c r="N1554" s="9" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="V1554" s="16"/>
     </row>
@@ -52589,7 +52589,7 @@
         <v>83</v>
       </c>
       <c r="V1555" s="9" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="1556" spans="5:22" x14ac:dyDescent="0.25">
@@ -52616,7 +52616,7 @@
         <v>402</v>
       </c>
       <c r="N1556" s="9" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="V1556" s="16"/>
     </row>
@@ -52644,7 +52644,7 @@
         <v>403</v>
       </c>
       <c r="N1557" s="9" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="V1557" s="16"/>
     </row>
@@ -52672,7 +52672,7 @@
         <v>404</v>
       </c>
       <c r="N1558" s="9" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="O1558" s="2" t="s">
         <v>0</v>
@@ -52681,7 +52681,7 @@
         <v>83</v>
       </c>
       <c r="V1558" s="16" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="1559" spans="5:22" x14ac:dyDescent="0.25">
@@ -52770,7 +52770,7 @@
         <v>407</v>
       </c>
       <c r="N1561" s="9" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="V1561" s="16"/>
     </row>
@@ -52826,7 +52826,7 @@
         <v>409</v>
       </c>
       <c r="N1563" s="9" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="V1563" s="16"/>
     </row>
@@ -52854,7 +52854,7 @@
         <v>410</v>
       </c>
       <c r="N1564" s="9" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="O1564" s="2"/>
       <c r="V1564" s="16"/>
@@ -52883,13 +52883,13 @@
         <v>411</v>
       </c>
       <c r="N1565" s="9" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="P1565" s="2" t="s">
         <v>83</v>
       </c>
       <c r="V1565" s="35" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="1566" spans="5:22" x14ac:dyDescent="0.25">
@@ -52944,7 +52944,7 @@
         <v>413</v>
       </c>
       <c r="N1567" s="9" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="V1567" s="16"/>
     </row>
@@ -52972,7 +52972,7 @@
         <v>414</v>
       </c>
       <c r="N1568" s="9" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="P1568" s="2" t="s">
         <v>83</v>
@@ -52981,7 +52981,7 @@
         <v>96</v>
       </c>
       <c r="V1568" s="39" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="1569" spans="5:8" x14ac:dyDescent="0.25">

--- a/TS Jatai Working/Padam Input Templates/TS 1.3 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 1.3 Padam Input Template.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4272" uniqueCount="1331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4273" uniqueCount="1331">
   <si>
     <t>PS</t>
   </si>
@@ -4709,8 +4709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V1577"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M292" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N304" sqref="N304"/>
+    <sheetView tabSelected="1" topLeftCell="O298" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V312" sqref="V312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -15316,6 +15316,9 @@
       <c r="O312" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="P312" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="V312" s="16" t="s">
         <v>1115</v>
       </c>

--- a/TS Jatai Working/Padam Input Templates/TS 1.3 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 1.3 Padam Input Template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\texts\TS Jatai Working\Padam Input Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACAAF87D-410B-45D8-847D-B50C9677313D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TS 1.3" sheetId="1" r:id="rId1"/>
@@ -17,10 +18,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TS 1.3'!$A$1:$V$1568</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -4025,7 +4033,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4706,13 +4714,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V1577"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1192" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A355" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="S1199" sqref="S1199"/>
+      <selection pane="bottomLeft" activeCell="N362" sqref="N362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -53044,7 +53052,6 @@
       <c r="H1577" s="26"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V1568"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/TS Jatai Working/Padam Input Templates/TS 1.3 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 1.3 Padam Input Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACAAF87D-410B-45D8-847D-B50C9677313D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4296F91-9A37-4FA6-B8C2-FF68BB5F504D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4717,10 +4717,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V1577"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A355" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="N362" sqref="N362"/>
+      <selection pane="bottomLeft" activeCell="Q1510" sqref="Q1510"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>

--- a/TS Jatai Working/Padam Input Templates/TS 1.3 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 1.3 Padam Input Template.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4296F91-9A37-4FA6-B8C2-FF68BB5F504D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="TS 1.3" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TS 1.3'!$A$1:$V$1568</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TS 1.3'!$A$1:$XES$1577</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4273" uniqueCount="1331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4275" uniqueCount="1331">
   <si>
     <t>PS</t>
   </si>
@@ -4033,7 +4032,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4182,7 +4181,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4204,6 +4203,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4235,7 +4240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4433,6 +4438,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -4714,13 +4722,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V1577"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A315" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="Q1510" sqref="Q1510"/>
+      <selection pane="bottomLeft" activeCell="I411" sqref="I411:I454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -18452,6 +18460,9 @@
       <c r="N416" s="9" t="s">
         <v>298</v>
       </c>
+      <c r="O416" s="69" t="s">
+        <v>103</v>
+      </c>
       <c r="V416" s="16"/>
     </row>
     <row r="417" spans="5:22" x14ac:dyDescent="0.25">
@@ -30268,6 +30279,7 @@
       <c r="N815" s="9" t="s">
         <v>650</v>
       </c>
+      <c r="O815" s="10"/>
       <c r="V815" s="16"/>
     </row>
     <row r="816" spans="5:22" x14ac:dyDescent="0.25">
@@ -30329,6 +30341,7 @@
       <c r="N817" s="9" t="s">
         <v>650</v>
       </c>
+      <c r="O817" s="2"/>
       <c r="V817" s="16"/>
     </row>
     <row r="818" spans="5:22" x14ac:dyDescent="0.25">
@@ -30385,6 +30398,7 @@
       <c r="N819" s="9" t="s">
         <v>650</v>
       </c>
+      <c r="O819" s="2"/>
       <c r="V819" s="16"/>
     </row>
     <row r="820" spans="5:22" x14ac:dyDescent="0.25">
@@ -52304,6 +52318,9 @@
       <c r="N1545" s="9" t="s">
         <v>298</v>
       </c>
+      <c r="O1545" s="69" t="s">
+        <v>103</v>
+      </c>
       <c r="V1545" s="16"/>
     </row>
     <row r="1546" spans="5:22" x14ac:dyDescent="0.25">
@@ -53052,6 +53069,7 @@
       <c r="H1577" s="26"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:XES1577"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/TS Jatai Working/Padam Input Templates/TS 1.3 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 1.3 Padam Input Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL IMP DATA\GitHub\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFD3365-04CE-4D99-BD0F-453639E8C342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D28D0B5-A633-4CDE-AC01-41E77F5ED7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4275" uniqueCount="1331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4275" uniqueCount="1330">
   <si>
     <t>PS</t>
   </si>
@@ -3567,9 +3567,6 @@
   </si>
   <si>
     <t xml:space="preserve">Asthi#taqmityA - sthiqtaqm </t>
-  </si>
-  <si>
-    <t xml:space="preserve">oSha#dhIByaq ityoShA#dhi - ByaqH </t>
   </si>
   <si>
     <t xml:space="preserve">aho$ByAqmityaha#H - ByAqm </t>
@@ -4282,7 +4279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4455,6 +4452,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -4739,10 +4739,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V1568"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A617" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A815" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="V625" sqref="V625"/>
+      <selection pane="bottomLeft" activeCell="N816" sqref="N816"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -5214,7 +5214,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="72" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15" t="s">
@@ -5266,10 +5266,10 @@
         <v>10</v>
       </c>
       <c r="S1" s="39" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="T1" s="39" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="U1" s="38" t="s">
         <v>17</v>
@@ -5420,7 +5420,7 @@
         <v>4</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>0</v>
@@ -13100,7 +13100,7 @@
     </row>
     <row r="264" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A264" s="51" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="H264" s="47" t="s">
         <v>138</v>
@@ -13130,7 +13130,7 @@
     </row>
     <row r="265" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A265" s="51" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="H265" s="47" t="s">
         <v>138</v>
@@ -13629,7 +13629,7 @@
     </row>
     <row r="284" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A284" s="51" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="H284" s="47" t="s">
         <v>139</v>
@@ -13664,7 +13664,7 @@
     </row>
     <row r="285" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A285" s="51" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="H285" s="47" t="s">
         <v>139</v>
@@ -13919,7 +13919,7 @@
     </row>
     <row r="295" spans="4:22" x14ac:dyDescent="0.25">
       <c r="F295" s="54" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="I295" s="8" t="s">
         <v>23</v>
@@ -13946,7 +13946,7 @@
     </row>
     <row r="296" spans="4:22" x14ac:dyDescent="0.25">
       <c r="F296" s="54" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="I296" s="8" t="s">
         <v>23</v>
@@ -13977,7 +13977,7 @@
         <v>128</v>
       </c>
       <c r="F297" s="54" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="I297" s="8" t="s">
         <v>23</v>
@@ -14007,7 +14007,7 @@
     </row>
     <row r="298" spans="4:22" x14ac:dyDescent="0.25">
       <c r="F298" s="54" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="I298" s="8" t="s">
         <v>23</v>
@@ -15829,7 +15829,7 @@
     </row>
     <row r="368" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D368" s="48" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="H368" s="47" t="s">
         <v>141</v>
@@ -20366,7 +20366,7 @@
         <v>83</v>
       </c>
       <c r="V544" s="59" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="545" spans="9:22" x14ac:dyDescent="0.25">
@@ -22420,7 +22420,7 @@
         <v>96</v>
       </c>
       <c r="V625" s="59" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="626" spans="1:22" x14ac:dyDescent="0.25">
@@ -23112,10 +23112,10 @@
     </row>
     <row r="652" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E652" s="54" t="s">
+        <v>1315</v>
+      </c>
+      <c r="F652" s="54" t="s">
         <v>1316</v>
-      </c>
-      <c r="F652" s="54" t="s">
-        <v>1317</v>
       </c>
       <c r="I652" s="8" t="s">
         <v>30</v>
@@ -23142,10 +23142,10 @@
     </row>
     <row r="653" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E653" s="54" t="s">
+        <v>1315</v>
+      </c>
+      <c r="F653" s="54" t="s">
         <v>1316</v>
-      </c>
-      <c r="F653" s="54" t="s">
-        <v>1317</v>
       </c>
       <c r="I653" s="8" t="s">
         <v>30</v>
@@ -23383,7 +23383,7 @@
         <v>83</v>
       </c>
       <c r="V661" s="57" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="662" spans="8:22" x14ac:dyDescent="0.25">
@@ -24705,7 +24705,7 @@
     </row>
     <row r="713" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E713" s="54" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="H713" s="47" t="s">
         <v>147</v>
@@ -24743,7 +24743,7 @@
     </row>
     <row r="714" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E714" s="54" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="H714" s="47" t="s">
         <v>147</v>
@@ -24781,7 +24781,7 @@
     </row>
     <row r="715" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E715" s="54" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="H715" s="47" t="s">
         <v>147</v>
@@ -24814,7 +24814,7 @@
     </row>
     <row r="716" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E716" s="54" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="H716" s="47" t="s">
         <v>147</v>
@@ -27410,8 +27410,8 @@
       <c r="O816" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="V816" s="32" t="s">
-        <v>1177</v>
+      <c r="V816" s="60" t="s">
+        <v>1141</v>
       </c>
     </row>
     <row r="817" spans="9:22" x14ac:dyDescent="0.25">
@@ -27514,7 +27514,7 @@
         <v>0</v>
       </c>
       <c r="V820" s="14" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="821" spans="9:22" x14ac:dyDescent="0.25">
@@ -28696,7 +28696,7 @@
         <v>0</v>
       </c>
       <c r="V867" s="14" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="868" spans="8:22" x14ac:dyDescent="0.25">
@@ -28749,7 +28749,7 @@
         <v>83</v>
       </c>
       <c r="V869" s="35" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="870" spans="8:22" x14ac:dyDescent="0.25">
@@ -28903,7 +28903,7 @@
         <v>0</v>
       </c>
       <c r="V875" s="14" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="876" spans="8:22" x14ac:dyDescent="0.25">
@@ -29027,13 +29027,13 @@
         <v>11</v>
       </c>
       <c r="N880" s="5" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="O880" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V880" s="14" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="881" spans="4:22" x14ac:dyDescent="0.25">
@@ -29145,7 +29145,7 @@
         <v>105</v>
       </c>
       <c r="V884" s="14" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="885" spans="4:22" x14ac:dyDescent="0.25">
@@ -29249,7 +29249,7 @@
         <v>0</v>
       </c>
       <c r="V888" s="14" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="889" spans="4:22" x14ac:dyDescent="0.25">
@@ -29284,7 +29284,7 @@
         <v>105</v>
       </c>
       <c r="V889" s="14" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="890" spans="4:22" x14ac:dyDescent="0.25">
@@ -29466,7 +29466,7 @@
         <v>0</v>
       </c>
       <c r="V896" s="14" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="897" spans="9:22" x14ac:dyDescent="0.25">
@@ -29519,7 +29519,7 @@
         <v>0</v>
       </c>
       <c r="V898" s="14" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="899" spans="9:22" x14ac:dyDescent="0.25">
@@ -29572,7 +29572,7 @@
         <v>0</v>
       </c>
       <c r="V900" s="14" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="901" spans="9:22" x14ac:dyDescent="0.25">
@@ -29625,7 +29625,7 @@
         <v>0</v>
       </c>
       <c r="V902" s="14" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="903" spans="9:22" x14ac:dyDescent="0.25">
@@ -30263,7 +30263,7 @@
         <v>0</v>
       </c>
       <c r="V928" s="14" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="929" spans="9:22" x14ac:dyDescent="0.25">
@@ -30340,7 +30340,7 @@
         <v>0</v>
       </c>
       <c r="V931" s="14" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="932" spans="9:22" x14ac:dyDescent="0.25">
@@ -30561,7 +30561,7 @@
         <v>0</v>
       </c>
       <c r="V940" s="14" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="941" spans="9:22" x14ac:dyDescent="0.25">
@@ -30590,7 +30590,7 @@
         <v>0</v>
       </c>
       <c r="V941" s="14" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="942" spans="9:22" x14ac:dyDescent="0.25">
@@ -30619,7 +30619,7 @@
         <v>0</v>
       </c>
       <c r="V942" s="14" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="943" spans="9:22" x14ac:dyDescent="0.25">
@@ -30648,7 +30648,7 @@
         <v>0</v>
       </c>
       <c r="V943" s="14" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="944" spans="9:22" x14ac:dyDescent="0.25">
@@ -30701,7 +30701,7 @@
         <v>0</v>
       </c>
       <c r="V945" s="14" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="946" spans="9:22" x14ac:dyDescent="0.25">
@@ -30758,7 +30758,7 @@
         <v>83</v>
       </c>
       <c r="V947" s="14" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="948" spans="9:22" x14ac:dyDescent="0.25">
@@ -31030,7 +31030,7 @@
         <v>96</v>
       </c>
       <c r="V958" s="14" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="959" spans="9:22" x14ac:dyDescent="0.25">
@@ -31107,7 +31107,7 @@
         <v>0</v>
       </c>
       <c r="V961" s="14" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="962" spans="9:22" x14ac:dyDescent="0.25">
@@ -31401,7 +31401,7 @@
         <v>84</v>
       </c>
       <c r="V973" s="14" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="974" spans="9:22" x14ac:dyDescent="0.25">
@@ -32265,7 +32265,7 @@
         <v>0</v>
       </c>
       <c r="V1008" s="14" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="1009" spans="4:22" x14ac:dyDescent="0.25">
@@ -32640,7 +32640,7 @@
         <v>83</v>
       </c>
       <c r="V1023" s="28" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="1024" spans="4:22" x14ac:dyDescent="0.25">
@@ -32820,7 +32820,7 @@
         <v>124</v>
       </c>
       <c r="D1030" s="48" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="H1030" s="47" t="s">
         <v>151</v>
@@ -32914,7 +32914,7 @@
     </row>
     <row r="1033" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D1033" s="48" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="H1033" s="47" t="s">
         <v>151</v>
@@ -33011,7 +33011,7 @@
         <v>83</v>
       </c>
       <c r="V1035" s="35" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="1036" spans="1:22" x14ac:dyDescent="0.25">
@@ -33089,7 +33089,7 @@
         <v>0</v>
       </c>
       <c r="V1038" s="14" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="1039" spans="1:22" x14ac:dyDescent="0.25">
@@ -33286,7 +33286,7 @@
         <v>0</v>
       </c>
       <c r="V1046" s="14" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="1047" spans="9:22" x14ac:dyDescent="0.25">
@@ -33315,7 +33315,7 @@
         <v>0</v>
       </c>
       <c r="V1047" s="14" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="1048" spans="9:22" x14ac:dyDescent="0.25">
@@ -33397,7 +33397,7 @@
         <v>0</v>
       </c>
       <c r="V1050" s="14" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="1051" spans="9:22" x14ac:dyDescent="0.25">
@@ -33499,7 +33499,7 @@
         <v>0</v>
       </c>
       <c r="V1054" s="14" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="1055" spans="9:22" x14ac:dyDescent="0.25">
@@ -33576,7 +33576,7 @@
         <v>83</v>
       </c>
       <c r="V1057" s="28" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="1058" spans="9:22" x14ac:dyDescent="0.25">
@@ -34362,7 +34362,7 @@
         <v>0</v>
       </c>
       <c r="V1088" s="14" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="1089" spans="9:22" x14ac:dyDescent="0.25">
@@ -34416,7 +34416,7 @@
         <v>0</v>
       </c>
       <c r="V1090" s="14" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="1091" spans="9:22" x14ac:dyDescent="0.25">
@@ -34445,7 +34445,7 @@
         <v>0</v>
       </c>
       <c r="V1091" s="14" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="1092" spans="9:22" x14ac:dyDescent="0.25">
@@ -34498,7 +34498,7 @@
         <v>0</v>
       </c>
       <c r="V1093" s="14" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="1094" spans="9:22" x14ac:dyDescent="0.25">
@@ -34575,7 +34575,7 @@
         <v>0</v>
       </c>
       <c r="V1096" s="14" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="1097" spans="9:22" x14ac:dyDescent="0.25">
@@ -34803,7 +34803,7 @@
     </row>
     <row r="1106" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F1106" s="54" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="G1106" s="47" t="s">
         <v>134</v>
@@ -34833,10 +34833,10 @@
     </row>
     <row r="1107" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B1107" s="54" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="F1107" s="54" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="G1107" s="47" t="s">
         <v>134</v>
@@ -35010,7 +35010,7 @@
         <v>83</v>
       </c>
       <c r="V1113" s="28" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="1114" spans="1:22" x14ac:dyDescent="0.25">
@@ -35217,7 +35217,7 @@
         <v>0</v>
       </c>
       <c r="V1121" s="14" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="1122" spans="8:22" x14ac:dyDescent="0.25">
@@ -35319,7 +35319,7 @@
         <v>0</v>
       </c>
       <c r="V1125" s="14" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="1126" spans="8:22" x14ac:dyDescent="0.25">
@@ -35398,7 +35398,7 @@
         <v>0</v>
       </c>
       <c r="V1128" s="14" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="1129" spans="8:22" x14ac:dyDescent="0.25">
@@ -35759,7 +35759,7 @@
         <v>83</v>
       </c>
       <c r="V1142" s="33" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="1143" spans="9:22" x14ac:dyDescent="0.25">
@@ -35836,7 +35836,7 @@
         <v>0</v>
       </c>
       <c r="V1145" s="14" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="1146" spans="9:22" x14ac:dyDescent="0.25">
@@ -35963,7 +35963,7 @@
         <v>83</v>
       </c>
       <c r="V1150" s="8" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="1151" spans="9:22" x14ac:dyDescent="0.25">
@@ -36064,12 +36064,12 @@
         <v>83</v>
       </c>
       <c r="V1154" s="35" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="1155" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1155" s="49" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="E1155" s="47" t="s">
         <v>132</v>
@@ -36100,7 +36100,7 @@
     </row>
     <row r="1156" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1156" s="49" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="E1156" s="47" t="s">
         <v>132</v>
@@ -36137,7 +36137,7 @@
     </row>
     <row r="1157" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1157" s="49" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="H1157" s="47" t="s">
         <v>154</v>
@@ -36167,7 +36167,7 @@
     </row>
     <row r="1158" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1158" s="49" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="H1158" s="47" t="s">
         <v>154</v>
@@ -36200,7 +36200,7 @@
     </row>
     <row r="1159" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1159" s="49" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I1159" s="8" t="s">
         <v>41</v>
@@ -36228,7 +36228,7 @@
     </row>
     <row r="1160" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1160" s="49" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I1160" s="8" t="s">
         <v>41</v>
@@ -36255,7 +36255,7 @@
     </row>
     <row r="1161" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1161" s="49" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I1161" s="8" t="s">
         <v>41</v>
@@ -36283,7 +36283,7 @@
     </row>
     <row r="1162" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1162" s="49" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I1162" s="8" t="s">
         <v>41</v>
@@ -36310,7 +36310,7 @@
     </row>
     <row r="1163" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1163" s="49" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I1163" s="8" t="s">
         <v>41</v>
@@ -36337,7 +36337,7 @@
     </row>
     <row r="1164" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1164" s="49" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I1164" s="8" t="s">
         <v>41</v>
@@ -36364,7 +36364,7 @@
     </row>
     <row r="1165" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1165" s="49" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I1165" s="8" t="s">
         <v>41</v>
@@ -36391,12 +36391,12 @@
         <v>83</v>
       </c>
       <c r="V1165" s="8" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="1166" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1166" s="49" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I1166" s="8" t="s">
         <v>41</v>
@@ -36423,7 +36423,7 @@
     </row>
     <row r="1167" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1167" s="49" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I1167" s="8" t="s">
         <v>41</v>
@@ -36450,7 +36450,7 @@
     </row>
     <row r="1168" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1168" s="49" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I1168" s="8" t="s">
         <v>41</v>
@@ -36478,7 +36478,7 @@
     </row>
     <row r="1169" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1169" s="49" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I1169" s="8" t="s">
         <v>41</v>
@@ -36505,7 +36505,7 @@
     </row>
     <row r="1170" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1170" s="49" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I1170" s="8" t="s">
         <v>41</v>
@@ -36532,12 +36532,12 @@
         <v>0</v>
       </c>
       <c r="V1170" s="14" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="1171" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1171" s="49" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I1171" s="8" t="s">
         <v>41</v>
@@ -36564,7 +36564,7 @@
     </row>
     <row r="1172" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1172" s="49" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I1172" s="8" t="s">
         <v>41</v>
@@ -36591,7 +36591,7 @@
     </row>
     <row r="1173" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1173" s="49" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I1173" s="8" t="s">
         <v>41</v>
@@ -36618,12 +36618,12 @@
         <v>0</v>
       </c>
       <c r="V1173" s="14" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="1174" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1174" s="49" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I1174" s="8" t="s">
         <v>41</v>
@@ -36650,7 +36650,7 @@
     </row>
     <row r="1175" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1175" s="49" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I1175" s="8" t="s">
         <v>41</v>
@@ -36677,7 +36677,7 @@
     </row>
     <row r="1176" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1176" s="49" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I1176" s="8" t="s">
         <v>41</v>
@@ -36709,7 +36709,7 @@
     </row>
     <row r="1177" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1177" s="49" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I1177" s="8" t="s">
         <v>41</v>
@@ -36739,7 +36739,7 @@
     </row>
     <row r="1178" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1178" s="49" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I1178" s="8" t="s">
         <v>41</v>
@@ -36766,7 +36766,7 @@
     </row>
     <row r="1179" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1179" s="49" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I1179" s="8" t="s">
         <v>41</v>
@@ -36793,7 +36793,7 @@
     </row>
     <row r="1180" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1180" s="49" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I1180" s="8" t="s">
         <v>41</v>
@@ -36820,7 +36820,7 @@
     </row>
     <row r="1181" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1181" s="49" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I1181" s="8" t="s">
         <v>41</v>
@@ -36847,7 +36847,7 @@
     </row>
     <row r="1182" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1182" s="49" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I1182" s="8" t="s">
         <v>41</v>
@@ -36874,7 +36874,7 @@
     </row>
     <row r="1183" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1183" s="49" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I1183" s="8" t="s">
         <v>41</v>
@@ -36901,12 +36901,12 @@
         <v>0</v>
       </c>
       <c r="V1183" s="14" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="1184" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1184" s="49" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I1184" s="8" t="s">
         <v>41</v>
@@ -36933,12 +36933,12 @@
         <v>83</v>
       </c>
       <c r="V1184" s="35" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="1185" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1185" s="49" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I1185" s="8" t="s">
         <v>41</v>
@@ -36965,7 +36965,7 @@
     </row>
     <row r="1186" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1186" s="49" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I1186" s="8" t="s">
         <v>41</v>
@@ -36992,7 +36992,7 @@
     </row>
     <row r="1187" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1187" s="49" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I1187" s="8" t="s">
         <v>41</v>
@@ -37019,7 +37019,7 @@
     </row>
     <row r="1188" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1188" s="49" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I1188" s="8" t="s">
         <v>41</v>
@@ -37046,7 +37046,7 @@
     </row>
     <row r="1189" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1189" s="49" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I1189" s="8" t="s">
         <v>41</v>
@@ -37073,12 +37073,12 @@
         <v>0</v>
       </c>
       <c r="V1189" s="14" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="1190" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1190" s="49" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I1190" s="8" t="s">
         <v>41</v>
@@ -37105,7 +37105,7 @@
     </row>
     <row r="1191" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1191" s="49" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I1191" s="8" t="s">
         <v>41</v>
@@ -37132,12 +37132,12 @@
         <v>83</v>
       </c>
       <c r="V1191" s="28" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="1192" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1192" s="49" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I1192" s="8" t="s">
         <v>41</v>
@@ -37164,7 +37164,7 @@
     </row>
     <row r="1193" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1193" s="49" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I1193" s="8" t="s">
         <v>41</v>
@@ -37191,7 +37191,7 @@
     </row>
     <row r="1194" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1194" s="49" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I1194" s="8" t="s">
         <v>41</v>
@@ -37221,10 +37221,10 @@
     </row>
     <row r="1195" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1195" s="49" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="F1195" s="54" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="I1195" s="8" t="s">
         <v>41</v>
@@ -37248,7 +37248,7 @@
         <v>831</v>
       </c>
       <c r="S1195" s="41" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="T1195" s="2" t="s">
         <v>114</v>
@@ -37260,10 +37260,10 @@
         <v>124</v>
       </c>
       <c r="C1196" s="49" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="F1196" s="54" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="I1196" s="8" t="s">
         <v>41</v>
@@ -37290,7 +37290,7 @@
     </row>
     <row r="1197" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1197" s="49" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I1197" s="8" t="s">
         <v>41</v>
@@ -37317,12 +37317,12 @@
         <v>0</v>
       </c>
       <c r="V1197" s="14" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="1198" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1198" s="49" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I1198" s="8" t="s">
         <v>41</v>
@@ -37349,7 +37349,7 @@
     </row>
     <row r="1199" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1199" s="49" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I1199" s="8" t="s">
         <v>41</v>
@@ -37376,7 +37376,7 @@
     </row>
     <row r="1200" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1200" s="49" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I1200" s="8" t="s">
         <v>41</v>
@@ -37403,7 +37403,7 @@
     </row>
     <row r="1201" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1201" s="49" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I1201" s="8" t="s">
         <v>41</v>
@@ -37430,12 +37430,12 @@
         <v>83</v>
       </c>
       <c r="V1201" s="28" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="1202" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1202" s="49" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I1202" s="8" t="s">
         <v>41</v>
@@ -37463,7 +37463,7 @@
     </row>
     <row r="1203" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1203" s="49" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I1203" s="8" t="s">
         <v>41</v>
@@ -37490,7 +37490,7 @@
     </row>
     <row r="1204" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1204" s="49" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="H1204" s="47" t="s">
         <v>155</v>
@@ -37520,7 +37520,7 @@
         <v>0</v>
       </c>
       <c r="V1204" s="14" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="1205" spans="3:22" x14ac:dyDescent="0.25">
@@ -37551,7 +37551,7 @@
         <v>0</v>
       </c>
       <c r="V1205" s="32" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="1206" spans="3:22" x14ac:dyDescent="0.25">
@@ -37686,7 +37686,7 @@
         <v>83</v>
       </c>
       <c r="V1210" s="8" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="1211" spans="3:22" x14ac:dyDescent="0.25">
@@ -37772,7 +37772,7 @@
         <v>0</v>
       </c>
       <c r="V1213" s="14" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="1214" spans="3:22" x14ac:dyDescent="0.25">
@@ -37926,7 +37926,7 @@
         <v>83</v>
       </c>
       <c r="V1219" s="8" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="1220" spans="4:22" x14ac:dyDescent="0.25">
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="V1228" s="14" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="1229" spans="4:22" x14ac:dyDescent="0.25">
@@ -38459,7 +38459,7 @@
         <v>83</v>
       </c>
       <c r="V1239" s="14" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="1240" spans="8:22" x14ac:dyDescent="0.25">
@@ -38712,7 +38712,7 @@
         <v>15</v>
       </c>
       <c r="V1248" s="26" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="1249" spans="9:22" x14ac:dyDescent="0.25">
@@ -38824,7 +38824,7 @@
         <v>15</v>
       </c>
       <c r="V1252" s="28" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="1253" spans="9:22" x14ac:dyDescent="0.25">
@@ -38877,7 +38877,7 @@
         <v>0</v>
       </c>
       <c r="V1254" s="14" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="1255" spans="9:22" x14ac:dyDescent="0.25">
@@ -39034,7 +39034,7 @@
         <v>83</v>
       </c>
       <c r="V1260" s="31" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="1261" spans="9:22" x14ac:dyDescent="0.25">
@@ -39258,7 +39258,7 @@
         <v>83</v>
       </c>
       <c r="V1269" s="28" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="1270" spans="9:22" x14ac:dyDescent="0.25">
@@ -39337,7 +39337,7 @@
         <v>0</v>
       </c>
       <c r="V1272" s="14" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="1273" spans="9:22" x14ac:dyDescent="0.25">
@@ -39390,7 +39390,7 @@
         <v>0</v>
       </c>
       <c r="V1274" s="14" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="1275" spans="9:22" x14ac:dyDescent="0.25">
@@ -39419,7 +39419,7 @@
         <v>83</v>
       </c>
       <c r="V1275" s="35" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="1276" spans="9:22" x14ac:dyDescent="0.25">
@@ -39497,7 +39497,7 @@
         <v>83</v>
       </c>
       <c r="V1278" s="28" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="1279" spans="9:22" x14ac:dyDescent="0.25">
@@ -39745,7 +39745,7 @@
         <v>0</v>
       </c>
       <c r="V1287" s="14" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="1288" spans="1:22" x14ac:dyDescent="0.25">
@@ -39780,7 +39780,7 @@
         <v>83</v>
       </c>
       <c r="V1288" s="14" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="1289" spans="1:22" x14ac:dyDescent="0.25">
@@ -40020,7 +40020,7 @@
         <v>83</v>
       </c>
       <c r="V1297" s="28" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="1298" spans="8:22" x14ac:dyDescent="0.25">
@@ -40145,7 +40145,7 @@
         <v>0</v>
       </c>
       <c r="V1302" s="14" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="1303" spans="8:22" x14ac:dyDescent="0.25">
@@ -40201,7 +40201,7 @@
         <v>83</v>
       </c>
       <c r="V1304" s="35" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="1305" spans="8:22" x14ac:dyDescent="0.25">
@@ -40229,7 +40229,7 @@
         <v>15</v>
       </c>
       <c r="V1305" s="26" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="1306" spans="8:22" x14ac:dyDescent="0.25">
@@ -40258,7 +40258,7 @@
         <v>0</v>
       </c>
       <c r="V1306" s="14" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="1307" spans="8:22" x14ac:dyDescent="0.25">
@@ -40287,7 +40287,7 @@
         <v>83</v>
       </c>
       <c r="V1307" s="35" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1308" spans="8:22" x14ac:dyDescent="0.25">
@@ -40388,7 +40388,7 @@
         <v>0</v>
       </c>
       <c r="V1311" s="14" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="1312" spans="8:22" x14ac:dyDescent="0.25">
@@ -40441,7 +40441,7 @@
         <v>0</v>
       </c>
       <c r="V1313" s="14" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1314" spans="9:22" x14ac:dyDescent="0.25">
@@ -40547,7 +40547,7 @@
         <v>0</v>
       </c>
       <c r="V1317" s="14" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="1318" spans="9:22" x14ac:dyDescent="0.25">
@@ -40648,7 +40648,7 @@
         <v>0</v>
       </c>
       <c r="V1321" s="14" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="1322" spans="9:22" x14ac:dyDescent="0.25">
@@ -40677,7 +40677,7 @@
         <v>83</v>
       </c>
       <c r="V1322" s="31" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="1323" spans="9:22" x14ac:dyDescent="0.25">
@@ -40706,7 +40706,7 @@
         <v>90</v>
       </c>
       <c r="T1323" s="2" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="V1323" s="14"/>
     </row>
@@ -40860,7 +40860,7 @@
         <v>83</v>
       </c>
       <c r="V1329" s="28" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="1330" spans="4:22" x14ac:dyDescent="0.25">
@@ -41015,7 +41015,7 @@
         <v>181</v>
       </c>
       <c r="N1335" s="55" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="O1335" s="1" t="s">
         <v>103</v>
@@ -41098,7 +41098,7 @@
         <v>83</v>
       </c>
       <c r="V1338" s="26" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="1339" spans="4:22" x14ac:dyDescent="0.25">
@@ -41136,7 +41136,7 @@
         <v>0</v>
       </c>
       <c r="V1339" s="14" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="1340" spans="4:22" x14ac:dyDescent="0.25">
@@ -41249,7 +41249,7 @@
         <v>0</v>
       </c>
       <c r="V1343" s="14" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="1344" spans="4:22" x14ac:dyDescent="0.25">
@@ -41278,7 +41278,7 @@
         <v>0</v>
       </c>
       <c r="V1344" s="14" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="1345" spans="9:22" x14ac:dyDescent="0.25">
@@ -41307,7 +41307,7 @@
         <v>83</v>
       </c>
       <c r="V1345" s="28" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="1346" spans="9:22" x14ac:dyDescent="0.25">
@@ -41580,7 +41580,7 @@
         <v>83</v>
       </c>
       <c r="V1356" s="35" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="1357" spans="9:22" x14ac:dyDescent="0.25">
@@ -41658,7 +41658,7 @@
         <v>0</v>
       </c>
       <c r="V1359" s="14" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1360" spans="9:22" x14ac:dyDescent="0.25">
@@ -41687,7 +41687,7 @@
         <v>0</v>
       </c>
       <c r="V1360" s="14" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="1361" spans="4:22" x14ac:dyDescent="0.25">
@@ -41719,7 +41719,7 @@
         <v>83</v>
       </c>
       <c r="V1361" s="14" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="1362" spans="4:22" x14ac:dyDescent="0.25">
@@ -41800,7 +41800,7 @@
         <v>83</v>
       </c>
       <c r="V1364" s="14" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="1365" spans="4:22" x14ac:dyDescent="0.25">
@@ -42045,7 +42045,7 @@
         <v>83</v>
       </c>
       <c r="V1373" s="14" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="1374" spans="4:22" x14ac:dyDescent="0.25">
@@ -42098,7 +42098,7 @@
         <v>0</v>
       </c>
       <c r="V1375" s="14" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="1376" spans="4:22" x14ac:dyDescent="0.25">
@@ -42133,7 +42133,7 @@
       <c r="T1376" s="43"/>
       <c r="U1376" s="43"/>
       <c r="V1376" s="14" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1377" spans="8:22" x14ac:dyDescent="0.25">
@@ -42271,7 +42271,7 @@
         <v>83</v>
       </c>
       <c r="V1381" s="14" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="1382" spans="8:22" x14ac:dyDescent="0.25">
@@ -42447,7 +42447,7 @@
         <v>83</v>
       </c>
       <c r="V1388" s="28" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1389" spans="8:22" x14ac:dyDescent="0.25">
@@ -42527,7 +42527,7 @@
         <v>83</v>
       </c>
       <c r="V1391" s="14" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="1392" spans="8:22" x14ac:dyDescent="0.25">
@@ -42681,7 +42681,7 @@
         <v>0</v>
       </c>
       <c r="V1397" s="14" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="1398" spans="9:22" x14ac:dyDescent="0.25">
@@ -42758,7 +42758,7 @@
         <v>83</v>
       </c>
       <c r="V1400" s="28" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="1401" spans="9:22" x14ac:dyDescent="0.25">
@@ -42868,7 +42868,7 @@
         <v>0</v>
       </c>
       <c r="V1404" s="14" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="1405" spans="9:22" x14ac:dyDescent="0.25">
@@ -42995,7 +42995,7 @@
         <v>83</v>
       </c>
       <c r="V1409" s="14" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="1410" spans="9:22" x14ac:dyDescent="0.25">
@@ -43099,7 +43099,7 @@
         <v>0</v>
       </c>
       <c r="V1413" s="14" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="1414" spans="9:22" x14ac:dyDescent="0.25">
@@ -43223,7 +43223,7 @@
         <v>0</v>
       </c>
       <c r="V1418" s="8" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="1419" spans="9:22" x14ac:dyDescent="0.25">
@@ -43280,7 +43280,7 @@
         <v>96</v>
       </c>
       <c r="V1420" s="35" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="1421" spans="9:22" x14ac:dyDescent="0.25">
@@ -43406,7 +43406,7 @@
         <v>0</v>
       </c>
       <c r="V1425" s="14" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="1426" spans="8:22" x14ac:dyDescent="0.25">
@@ -43657,7 +43657,7 @@
         <v>0</v>
       </c>
       <c r="V1435" s="14" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="1436" spans="8:22" x14ac:dyDescent="0.25">
@@ -43689,7 +43689,7 @@
         <v>83</v>
       </c>
       <c r="V1436" s="28" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="1437" spans="8:22" x14ac:dyDescent="0.25">
@@ -43775,7 +43775,7 @@
         <v>0</v>
       </c>
       <c r="V1439" s="14" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="1440" spans="8:22" x14ac:dyDescent="0.25">
@@ -43804,7 +43804,7 @@
         <v>0</v>
       </c>
       <c r="V1440" s="14" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="1441" spans="1:22" x14ac:dyDescent="0.25">
@@ -43881,7 +43881,7 @@
         <v>0</v>
       </c>
       <c r="V1443" s="14" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="1444" spans="1:22" x14ac:dyDescent="0.25">
@@ -43934,7 +43934,7 @@
         <v>83</v>
       </c>
       <c r="V1445" s="32" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="1446" spans="1:22" x14ac:dyDescent="0.25">
@@ -44086,7 +44086,7 @@
         <v>0</v>
       </c>
       <c r="V1451" s="14" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="1452" spans="1:22" x14ac:dyDescent="0.25">
@@ -44115,7 +44115,7 @@
         <v>83</v>
       </c>
       <c r="V1452" s="28" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="1453" spans="1:22" x14ac:dyDescent="0.25">
@@ -44195,7 +44195,7 @@
     </row>
     <row r="1456" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1456" s="51" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="H1456" s="47" t="s">
         <v>161</v>
@@ -44228,7 +44228,7 @@
     </row>
     <row r="1457" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1457" s="51" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="H1457" s="47" t="s">
         <v>161</v>
@@ -44312,7 +44312,7 @@
         <v>83</v>
       </c>
       <c r="V1459" s="28" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="1460" spans="1:22" x14ac:dyDescent="0.25">
@@ -44392,7 +44392,7 @@
         <v>0</v>
       </c>
       <c r="V1462" s="14" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="1463" spans="1:22" x14ac:dyDescent="0.25">
@@ -44496,7 +44496,7 @@
         <v>83</v>
       </c>
       <c r="V1466" s="35" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="1467" spans="1:22" x14ac:dyDescent="0.25">
@@ -44675,7 +44675,7 @@
         <v>83</v>
       </c>
       <c r="V1473" s="14" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="1474" spans="6:22" x14ac:dyDescent="0.25">
@@ -44704,7 +44704,7 @@
         <v>0</v>
       </c>
       <c r="V1474" s="14" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="1475" spans="6:22" x14ac:dyDescent="0.25">
@@ -44733,7 +44733,7 @@
         <v>0</v>
       </c>
       <c r="V1475" s="14" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="1476" spans="6:22" x14ac:dyDescent="0.25">
@@ -44762,7 +44762,7 @@
         <v>0</v>
       </c>
       <c r="V1476" s="14" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="1477" spans="6:22" x14ac:dyDescent="0.25">
@@ -44791,7 +44791,7 @@
         <v>83</v>
       </c>
       <c r="V1477" s="8" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="1478" spans="6:22" x14ac:dyDescent="0.25">
@@ -44871,12 +44871,12 @@
         <v>96</v>
       </c>
       <c r="V1480" s="28" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="1481" spans="6:22" x14ac:dyDescent="0.25">
       <c r="F1481" s="54" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="H1481" s="47" t="s">
         <v>162</v>
@@ -44906,7 +44906,7 @@
     </row>
     <row r="1482" spans="6:22" x14ac:dyDescent="0.25">
       <c r="F1482" s="54" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="H1482" s="47" t="s">
         <v>162</v>
@@ -44963,7 +44963,7 @@
         <v>15</v>
       </c>
       <c r="V1483" s="26" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="1484" spans="6:22" x14ac:dyDescent="0.25">
@@ -45025,7 +45025,7 @@
         <v>0</v>
       </c>
       <c r="V1485" s="14" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="1486" spans="6:22" x14ac:dyDescent="0.25">
@@ -45158,7 +45158,7 @@
         <v>83</v>
       </c>
       <c r="V1490" s="28" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="1491" spans="8:22" x14ac:dyDescent="0.25">
@@ -45259,7 +45259,7 @@
         <v>0</v>
       </c>
       <c r="V1494" s="14" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="1495" spans="8:22" x14ac:dyDescent="0.25">
@@ -45480,7 +45480,7 @@
         <v>123</v>
       </c>
       <c r="V1502" s="28" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="1503" spans="8:22" x14ac:dyDescent="0.25">
@@ -45781,7 +45781,7 @@
         <v>83</v>
       </c>
       <c r="V1514" s="28" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="1515" spans="5:22" x14ac:dyDescent="0.25">
@@ -45810,7 +45810,7 @@
     </row>
     <row r="1516" spans="5:22" x14ac:dyDescent="0.25">
       <c r="F1516" s="54" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="I1516" s="8" t="s">
         <v>48</v>
@@ -45837,7 +45837,7 @@
     </row>
     <row r="1517" spans="5:22" x14ac:dyDescent="0.25">
       <c r="F1517" s="54" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="I1517" s="8" t="s">
         <v>48</v>
@@ -45864,7 +45864,7 @@
         <v>0</v>
       </c>
       <c r="V1517" s="14" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="1518" spans="5:22" x14ac:dyDescent="0.25">
@@ -45872,7 +45872,7 @@
         <v>132</v>
       </c>
       <c r="F1518" s="54" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="I1518" s="8" t="s">
         <v>48</v>
@@ -45902,7 +45902,7 @@
         <v>100</v>
       </c>
       <c r="V1518" s="26" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="1519" spans="5:22" x14ac:dyDescent="0.25">
@@ -45910,7 +45910,7 @@
         <v>132</v>
       </c>
       <c r="F1519" s="54" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="I1519" s="8" t="s">
         <v>48</v>
@@ -45964,7 +45964,7 @@
         <v>83</v>
       </c>
       <c r="V1520" s="14" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="1521" spans="1:22" x14ac:dyDescent="0.25">
@@ -46347,7 +46347,7 @@
         <v>83</v>
       </c>
       <c r="V1535" s="36" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="1536" spans="1:22" x14ac:dyDescent="0.25">
@@ -46577,7 +46577,7 @@
         <v>83</v>
       </c>
       <c r="V1544" s="28" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="1545" spans="8:22" x14ac:dyDescent="0.25">
@@ -46764,7 +46764,7 @@
         <v>0</v>
       </c>
       <c r="V1551" s="14" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="1552" spans="8:22" x14ac:dyDescent="0.25">
@@ -46865,7 +46865,7 @@
         <v>83</v>
       </c>
       <c r="V1555" s="8" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="1556" spans="5:22" x14ac:dyDescent="0.25">
@@ -46945,7 +46945,7 @@
         <v>83</v>
       </c>
       <c r="V1558" s="14" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="1559" spans="5:22" x14ac:dyDescent="0.25">
@@ -47125,7 +47125,7 @@
         <v>83</v>
       </c>
       <c r="V1565" s="28" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="1566" spans="5:22" x14ac:dyDescent="0.25">
@@ -47206,7 +47206,7 @@
         <v>96</v>
       </c>
       <c r="V1568" s="32" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
   </sheetData>

--- a/TS Jatai Working/Padam Input Templates/TS 1.3 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 1.3 Padam Input Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL IMP DATA\GitHub\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D28D0B5-A633-4CDE-AC01-41E77F5ED7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6D9180-C255-49C5-96BE-BAE30743672C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3929,9 +3929,6 @@
     <t xml:space="preserve">annaqmityanna$m </t>
   </si>
   <si>
-    <t xml:space="preserve">Uqrjaqsaqnaq ityu$rja - saqneq </t>
-  </si>
-  <si>
     <t xml:space="preserve">aqntarityaqntaH </t>
   </si>
   <si>
@@ -4065,6 +4062,29 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">qkte </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Uqrjaqsaqnaq ity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">$rja - saqneq </t>
     </r>
   </si>
 </sst>
@@ -4739,10 +4759,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V1568"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A815" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1491" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="N816" sqref="N816"/>
+      <selection pane="bottomLeft" activeCell="V1498" sqref="V1498"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -5214,7 +5234,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="72" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15" t="s">
@@ -5266,10 +5286,10 @@
         <v>10</v>
       </c>
       <c r="S1" s="39" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="T1" s="39" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="U1" s="38" t="s">
         <v>17</v>
@@ -5420,7 +5440,7 @@
         <v>4</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>0</v>
@@ -13100,7 +13120,7 @@
     </row>
     <row r="264" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A264" s="51" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="H264" s="47" t="s">
         <v>138</v>
@@ -13130,7 +13150,7 @@
     </row>
     <row r="265" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A265" s="51" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="H265" s="47" t="s">
         <v>138</v>
@@ -13629,7 +13649,7 @@
     </row>
     <row r="284" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A284" s="51" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="H284" s="47" t="s">
         <v>139</v>
@@ -13664,7 +13684,7 @@
     </row>
     <row r="285" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A285" s="51" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="H285" s="47" t="s">
         <v>139</v>
@@ -13919,7 +13939,7 @@
     </row>
     <row r="295" spans="4:22" x14ac:dyDescent="0.25">
       <c r="F295" s="54" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="I295" s="8" t="s">
         <v>23</v>
@@ -13946,7 +13966,7 @@
     </row>
     <row r="296" spans="4:22" x14ac:dyDescent="0.25">
       <c r="F296" s="54" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="I296" s="8" t="s">
         <v>23</v>
@@ -13977,7 +13997,7 @@
         <v>128</v>
       </c>
       <c r="F297" s="54" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="I297" s="8" t="s">
         <v>23</v>
@@ -14007,7 +14027,7 @@
     </row>
     <row r="298" spans="4:22" x14ac:dyDescent="0.25">
       <c r="F298" s="54" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="I298" s="8" t="s">
         <v>23</v>
@@ -15829,7 +15849,7 @@
     </row>
     <row r="368" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D368" s="48" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="H368" s="47" t="s">
         <v>141</v>
@@ -20366,7 +20386,7 @@
         <v>83</v>
       </c>
       <c r="V544" s="59" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="545" spans="9:22" x14ac:dyDescent="0.25">
@@ -22420,7 +22440,7 @@
         <v>96</v>
       </c>
       <c r="V625" s="59" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="626" spans="1:22" x14ac:dyDescent="0.25">
@@ -23112,10 +23132,10 @@
     </row>
     <row r="652" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E652" s="54" t="s">
+        <v>1314</v>
+      </c>
+      <c r="F652" s="54" t="s">
         <v>1315</v>
-      </c>
-      <c r="F652" s="54" t="s">
-        <v>1316</v>
       </c>
       <c r="I652" s="8" t="s">
         <v>30</v>
@@ -23142,10 +23162,10 @@
     </row>
     <row r="653" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E653" s="54" t="s">
+        <v>1314</v>
+      </c>
+      <c r="F653" s="54" t="s">
         <v>1315</v>
-      </c>
-      <c r="F653" s="54" t="s">
-        <v>1316</v>
       </c>
       <c r="I653" s="8" t="s">
         <v>30</v>
@@ -23383,7 +23403,7 @@
         <v>83</v>
       </c>
       <c r="V661" s="57" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="662" spans="8:22" x14ac:dyDescent="0.25">
@@ -24705,7 +24725,7 @@
     </row>
     <row r="713" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E713" s="54" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="H713" s="47" t="s">
         <v>147</v>
@@ -24743,7 +24763,7 @@
     </row>
     <row r="714" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E714" s="54" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="H714" s="47" t="s">
         <v>147</v>
@@ -24781,7 +24801,7 @@
     </row>
     <row r="715" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E715" s="54" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="H715" s="47" t="s">
         <v>147</v>
@@ -24814,7 +24834,7 @@
     </row>
     <row r="716" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E716" s="54" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="H716" s="47" t="s">
         <v>147</v>
@@ -29027,7 +29047,7 @@
         <v>11</v>
       </c>
       <c r="N880" s="5" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="O880" s="2" t="s">
         <v>0</v>
@@ -32820,7 +32840,7 @@
         <v>124</v>
       </c>
       <c r="D1030" s="48" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="H1030" s="47" t="s">
         <v>151</v>
@@ -32914,7 +32934,7 @@
     </row>
     <row r="1033" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D1033" s="48" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="H1033" s="47" t="s">
         <v>151</v>
@@ -34803,7 +34823,7 @@
     </row>
     <row r="1106" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F1106" s="54" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="G1106" s="47" t="s">
         <v>134</v>
@@ -34833,10 +34853,10 @@
     </row>
     <row r="1107" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B1107" s="54" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="F1107" s="54" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="G1107" s="47" t="s">
         <v>134</v>
@@ -36069,7 +36089,7 @@
     </row>
     <row r="1155" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1155" s="49" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="E1155" s="47" t="s">
         <v>132</v>
@@ -36100,7 +36120,7 @@
     </row>
     <row r="1156" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1156" s="49" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="E1156" s="47" t="s">
         <v>132</v>
@@ -36137,7 +36157,7 @@
     </row>
     <row r="1157" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1157" s="49" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="H1157" s="47" t="s">
         <v>154</v>
@@ -36167,7 +36187,7 @@
     </row>
     <row r="1158" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1158" s="49" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="H1158" s="47" t="s">
         <v>154</v>
@@ -36200,7 +36220,7 @@
     </row>
     <row r="1159" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1159" s="49" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="I1159" s="8" t="s">
         <v>41</v>
@@ -36228,7 +36248,7 @@
     </row>
     <row r="1160" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1160" s="49" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="I1160" s="8" t="s">
         <v>41</v>
@@ -36255,7 +36275,7 @@
     </row>
     <row r="1161" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1161" s="49" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="I1161" s="8" t="s">
         <v>41</v>
@@ -36283,7 +36303,7 @@
     </row>
     <row r="1162" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1162" s="49" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="I1162" s="8" t="s">
         <v>41</v>
@@ -36310,7 +36330,7 @@
     </row>
     <row r="1163" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1163" s="49" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="I1163" s="8" t="s">
         <v>41</v>
@@ -36337,7 +36357,7 @@
     </row>
     <row r="1164" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1164" s="49" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="I1164" s="8" t="s">
         <v>41</v>
@@ -36364,7 +36384,7 @@
     </row>
     <row r="1165" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1165" s="49" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="I1165" s="8" t="s">
         <v>41</v>
@@ -36396,7 +36416,7 @@
     </row>
     <row r="1166" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1166" s="49" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="I1166" s="8" t="s">
         <v>41</v>
@@ -36423,7 +36443,7 @@
     </row>
     <row r="1167" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1167" s="49" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="I1167" s="8" t="s">
         <v>41</v>
@@ -36450,7 +36470,7 @@
     </row>
     <row r="1168" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1168" s="49" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="I1168" s="8" t="s">
         <v>41</v>
@@ -36478,7 +36498,7 @@
     </row>
     <row r="1169" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1169" s="49" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="I1169" s="8" t="s">
         <v>41</v>
@@ -36505,7 +36525,7 @@
     </row>
     <row r="1170" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1170" s="49" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="I1170" s="8" t="s">
         <v>41</v>
@@ -36537,7 +36557,7 @@
     </row>
     <row r="1171" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1171" s="49" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="I1171" s="8" t="s">
         <v>41</v>
@@ -36564,7 +36584,7 @@
     </row>
     <row r="1172" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1172" s="49" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="I1172" s="8" t="s">
         <v>41</v>
@@ -36591,7 +36611,7 @@
     </row>
     <row r="1173" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1173" s="49" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="I1173" s="8" t="s">
         <v>41</v>
@@ -36623,7 +36643,7 @@
     </row>
     <row r="1174" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1174" s="49" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="I1174" s="8" t="s">
         <v>41</v>
@@ -36650,7 +36670,7 @@
     </row>
     <row r="1175" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1175" s="49" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="I1175" s="8" t="s">
         <v>41</v>
@@ -36677,7 +36697,7 @@
     </row>
     <row r="1176" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1176" s="49" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="I1176" s="8" t="s">
         <v>41</v>
@@ -36709,7 +36729,7 @@
     </row>
     <row r="1177" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1177" s="49" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="I1177" s="8" t="s">
         <v>41</v>
@@ -36739,7 +36759,7 @@
     </row>
     <row r="1178" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1178" s="49" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="I1178" s="8" t="s">
         <v>41</v>
@@ -36766,7 +36786,7 @@
     </row>
     <row r="1179" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1179" s="49" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="I1179" s="8" t="s">
         <v>41</v>
@@ -36793,7 +36813,7 @@
     </row>
     <row r="1180" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1180" s="49" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="I1180" s="8" t="s">
         <v>41</v>
@@ -36820,7 +36840,7 @@
     </row>
     <row r="1181" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1181" s="49" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="I1181" s="8" t="s">
         <v>41</v>
@@ -36847,7 +36867,7 @@
     </row>
     <row r="1182" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1182" s="49" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="I1182" s="8" t="s">
         <v>41</v>
@@ -36874,7 +36894,7 @@
     </row>
     <row r="1183" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1183" s="49" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="I1183" s="8" t="s">
         <v>41</v>
@@ -36906,7 +36926,7 @@
     </row>
     <row r="1184" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1184" s="49" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="I1184" s="8" t="s">
         <v>41</v>
@@ -36938,7 +36958,7 @@
     </row>
     <row r="1185" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1185" s="49" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="I1185" s="8" t="s">
         <v>41</v>
@@ -36965,7 +36985,7 @@
     </row>
     <row r="1186" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1186" s="49" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="I1186" s="8" t="s">
         <v>41</v>
@@ -36992,7 +37012,7 @@
     </row>
     <row r="1187" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1187" s="49" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="I1187" s="8" t="s">
         <v>41</v>
@@ -37019,7 +37039,7 @@
     </row>
     <row r="1188" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1188" s="49" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="I1188" s="8" t="s">
         <v>41</v>
@@ -37046,7 +37066,7 @@
     </row>
     <row r="1189" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1189" s="49" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="I1189" s="8" t="s">
         <v>41</v>
@@ -37078,7 +37098,7 @@
     </row>
     <row r="1190" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1190" s="49" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="I1190" s="8" t="s">
         <v>41</v>
@@ -37105,7 +37125,7 @@
     </row>
     <row r="1191" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1191" s="49" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="I1191" s="8" t="s">
         <v>41</v>
@@ -37137,7 +37157,7 @@
     </row>
     <row r="1192" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1192" s="49" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="I1192" s="8" t="s">
         <v>41</v>
@@ -37164,7 +37184,7 @@
     </row>
     <row r="1193" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1193" s="49" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="I1193" s="8" t="s">
         <v>41</v>
@@ -37191,7 +37211,7 @@
     </row>
     <row r="1194" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1194" s="49" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="I1194" s="8" t="s">
         <v>41</v>
@@ -37221,10 +37241,10 @@
     </row>
     <row r="1195" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1195" s="49" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="F1195" s="54" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="I1195" s="8" t="s">
         <v>41</v>
@@ -37248,7 +37268,7 @@
         <v>831</v>
       </c>
       <c r="S1195" s="41" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="T1195" s="2" t="s">
         <v>114</v>
@@ -37260,10 +37280,10 @@
         <v>124</v>
       </c>
       <c r="C1196" s="49" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="F1196" s="54" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="I1196" s="8" t="s">
         <v>41</v>
@@ -37290,7 +37310,7 @@
     </row>
     <row r="1197" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1197" s="49" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="I1197" s="8" t="s">
         <v>41</v>
@@ -37322,7 +37342,7 @@
     </row>
     <row r="1198" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1198" s="49" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="I1198" s="8" t="s">
         <v>41</v>
@@ -37349,7 +37369,7 @@
     </row>
     <row r="1199" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1199" s="49" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="I1199" s="8" t="s">
         <v>41</v>
@@ -37376,7 +37396,7 @@
     </row>
     <row r="1200" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1200" s="49" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="I1200" s="8" t="s">
         <v>41</v>
@@ -37403,7 +37423,7 @@
     </row>
     <row r="1201" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1201" s="49" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="I1201" s="8" t="s">
         <v>41</v>
@@ -37435,7 +37455,7 @@
     </row>
     <row r="1202" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1202" s="49" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="I1202" s="8" t="s">
         <v>41</v>
@@ -37463,7 +37483,7 @@
     </row>
     <row r="1203" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1203" s="49" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="I1203" s="8" t="s">
         <v>41</v>
@@ -37490,7 +37510,7 @@
     </row>
     <row r="1204" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1204" s="49" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="H1204" s="47" t="s">
         <v>155</v>
@@ -40706,7 +40726,7 @@
         <v>90</v>
       </c>
       <c r="T1323" s="2" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="V1323" s="14"/>
     </row>
@@ -41015,7 +41035,7 @@
         <v>181</v>
       </c>
       <c r="N1335" s="55" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="O1335" s="1" t="s">
         <v>103</v>
@@ -44195,7 +44215,7 @@
     </row>
     <row r="1456" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1456" s="51" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="H1456" s="47" t="s">
         <v>161</v>
@@ -44228,7 +44248,7 @@
     </row>
     <row r="1457" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1457" s="51" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="H1457" s="47" t="s">
         <v>161</v>
@@ -44876,7 +44896,7 @@
     </row>
     <row r="1481" spans="6:22" x14ac:dyDescent="0.25">
       <c r="F1481" s="54" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="H1481" s="47" t="s">
         <v>162</v>
@@ -44906,7 +44926,7 @@
     </row>
     <row r="1482" spans="6:22" x14ac:dyDescent="0.25">
       <c r="F1482" s="54" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="H1482" s="47" t="s">
         <v>162</v>
@@ -45258,8 +45278,8 @@
       <c r="O1494" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="V1494" s="14" t="s">
-        <v>1297</v>
+      <c r="V1494" s="60" t="s">
+        <v>1329</v>
       </c>
     </row>
     <row r="1495" spans="8:22" x14ac:dyDescent="0.25">
@@ -45480,7 +45500,7 @@
         <v>123</v>
       </c>
       <c r="V1502" s="28" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="1503" spans="8:22" x14ac:dyDescent="0.25">
@@ -45781,7 +45801,7 @@
         <v>83</v>
       </c>
       <c r="V1514" s="28" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="1515" spans="5:22" x14ac:dyDescent="0.25">
@@ -45810,7 +45830,7 @@
     </row>
     <row r="1516" spans="5:22" x14ac:dyDescent="0.25">
       <c r="F1516" s="54" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="I1516" s="8" t="s">
         <v>48</v>
@@ -45837,7 +45857,7 @@
     </row>
     <row r="1517" spans="5:22" x14ac:dyDescent="0.25">
       <c r="F1517" s="54" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="I1517" s="8" t="s">
         <v>48</v>
@@ -45864,7 +45884,7 @@
         <v>0</v>
       </c>
       <c r="V1517" s="14" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="1518" spans="5:22" x14ac:dyDescent="0.25">
@@ -45872,7 +45892,7 @@
         <v>132</v>
       </c>
       <c r="F1518" s="54" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="I1518" s="8" t="s">
         <v>48</v>
@@ -45902,7 +45922,7 @@
         <v>100</v>
       </c>
       <c r="V1518" s="26" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="1519" spans="5:22" x14ac:dyDescent="0.25">
@@ -45910,7 +45930,7 @@
         <v>132</v>
       </c>
       <c r="F1519" s="54" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="I1519" s="8" t="s">
         <v>48</v>
@@ -45964,7 +45984,7 @@
         <v>83</v>
       </c>
       <c r="V1520" s="14" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="1521" spans="1:22" x14ac:dyDescent="0.25">
@@ -46347,7 +46367,7 @@
         <v>83</v>
       </c>
       <c r="V1535" s="36" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="1536" spans="1:22" x14ac:dyDescent="0.25">
@@ -46577,7 +46597,7 @@
         <v>83</v>
       </c>
       <c r="V1544" s="28" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="1545" spans="8:22" x14ac:dyDescent="0.25">
@@ -46764,7 +46784,7 @@
         <v>0</v>
       </c>
       <c r="V1551" s="14" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="1552" spans="8:22" x14ac:dyDescent="0.25">
@@ -46865,7 +46885,7 @@
         <v>83</v>
       </c>
       <c r="V1555" s="8" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="1556" spans="5:22" x14ac:dyDescent="0.25">
@@ -47125,7 +47145,7 @@
         <v>83</v>
       </c>
       <c r="V1565" s="28" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="1566" spans="5:22" x14ac:dyDescent="0.25">
@@ -47206,7 +47226,7 @@
         <v>96</v>
       </c>
       <c r="V1568" s="32" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
   </sheetData>

--- a/TS Jatai Working/Padam Input Templates/TS 1.3 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 1.3 Padam Input Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL IMP DATA\GitHub\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34860340-728C-4387-BFC5-ACEA56C30570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377A95BD-BF4C-47B7-AC4B-8F61BFE1D3B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4275" uniqueCount="1330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4274" uniqueCount="1330">
   <si>
     <t>PS</t>
   </si>
@@ -4751,10 +4751,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V1568"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A271" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A478" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="V279" sqref="V279"/>
+      <selection pane="bottomLeft" activeCell="U483" sqref="U483"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -18807,9 +18807,6 @@
       <c r="N483" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="U483" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="V483" s="14"/>
     </row>
     <row r="484" spans="9:22" x14ac:dyDescent="0.25">

--- a/TS Jatai Working/Padam Input Templates/TS 1.3 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 1.3 Padam Input Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL IMP DATA\GitHub\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377A95BD-BF4C-47B7-AC4B-8F61BFE1D3B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA519FD4-D0B8-4D7B-AF40-8A377A9E8EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2376,9 +2376,6 @@
     <t xml:space="preserve">haqviqShya#H </t>
   </si>
   <si>
-    <t xml:space="preserve">iqndriqyAvA#n </t>
-  </si>
-  <si>
     <t xml:space="preserve">maqdinta#maH </t>
   </si>
   <si>
@@ -3622,12 +3619,6 @@
   </si>
   <si>
     <t xml:space="preserve">dhAmno#dhAmnaq itiq dhAmna#H - dhAqmnaqH </t>
-  </si>
-  <si>
-    <t xml:space="preserve">muq~jceti# muq~jcaq </t>
-  </si>
-  <si>
-    <t xml:space="preserve">suryaq iti# sUrya#H </t>
   </si>
   <si>
     <t xml:space="preserve">apa#nnagRuhaqsyetyapa#nna - gRuqhaqsyaq </t>
@@ -4078,6 +4069,15 @@
   </si>
   <si>
     <t>hiq(gm)qsIqriti# hi(gm)sIH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">muq~jceti# mu~jca </t>
+  </si>
+  <si>
+    <t xml:space="preserve">suryaq itiq sUrya#H </t>
+  </si>
+  <si>
+    <t xml:space="preserve">iqndriqyAvAn# </t>
   </si>
 </sst>
 </file>
@@ -4751,10 +4751,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V1568"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A478" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1111" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="U483" sqref="U483"/>
+      <selection pane="bottomLeft" activeCell="N1115" sqref="N1115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -5226,7 +5226,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="72" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15" t="s">
@@ -5278,10 +5278,10 @@
         <v>10</v>
       </c>
       <c r="S1" s="39" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="T1" s="39" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="U1" s="38" t="s">
         <v>17</v>
@@ -5432,7 +5432,7 @@
         <v>4</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>0</v>
@@ -5444,7 +5444,7 @@
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
       <c r="V5" s="14" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="6" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5526,7 +5526,7 @@
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
       <c r="V7" s="14" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="8" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5882,7 +5882,7 @@
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
       <c r="V16" s="14" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="17" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5964,7 +5964,7 @@
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
       <c r="V18" s="14" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="19" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7037,7 +7037,7 @@
       <c r="T46" s="4"/>
       <c r="U46" s="4"/>
       <c r="V46" s="14" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="47" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7889,7 +7889,7 @@
       <c r="T69" s="4"/>
       <c r="U69" s="4"/>
       <c r="V69" s="14" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="70" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7994,7 +7994,7 @@
       <c r="T72" s="4"/>
       <c r="U72" s="4"/>
       <c r="V72" s="14" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="73" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8068,7 +8068,7 @@
       <c r="T74" s="4"/>
       <c r="U74" s="4"/>
       <c r="V74" s="14" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
@@ -8103,7 +8103,7 @@
       <c r="T75" s="4"/>
       <c r="U75" s="4"/>
       <c r="V75" s="14" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="76" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8146,7 +8146,7 @@
       <c r="T76" s="4"/>
       <c r="U76" s="4"/>
       <c r="V76" s="42" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.25">
@@ -8373,7 +8373,7 @@
       <c r="T83" s="4"/>
       <c r="U83" s="4"/>
       <c r="V83" s="14" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.25">
@@ -8563,7 +8563,7 @@
       <c r="T89" s="4"/>
       <c r="U89" s="4"/>
       <c r="V89" s="27" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.25">
@@ -8753,7 +8753,7 @@
         <v>0</v>
       </c>
       <c r="V95" s="14" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.25">
@@ -8991,7 +8991,7 @@
         <v>0</v>
       </c>
       <c r="V104" s="14" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="105" spans="8:22" x14ac:dyDescent="0.25">
@@ -9394,7 +9394,7 @@
         <v>0</v>
       </c>
       <c r="V120" s="14" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="121" spans="9:22" x14ac:dyDescent="0.25">
@@ -9423,7 +9423,7 @@
         <v>0</v>
       </c>
       <c r="V121" s="14" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="122" spans="9:22" x14ac:dyDescent="0.25">
@@ -9572,7 +9572,7 @@
         <v>0</v>
       </c>
       <c r="V127" s="14" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="128" spans="9:22" x14ac:dyDescent="0.25">
@@ -9773,7 +9773,7 @@
         <v>0</v>
       </c>
       <c r="V135" s="14" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="136" spans="9:22" x14ac:dyDescent="0.25">
@@ -10092,7 +10092,7 @@
         <v>0</v>
       </c>
       <c r="V148" s="14" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="149" spans="9:22" x14ac:dyDescent="0.25">
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="V149" s="14" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="150" spans="9:22" x14ac:dyDescent="0.25">
@@ -10295,7 +10295,7 @@
         <v>0</v>
       </c>
       <c r="V156" s="14" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="157" spans="9:22" x14ac:dyDescent="0.25">
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="V158" s="14" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="159" spans="9:22" x14ac:dyDescent="0.25">
@@ -10377,7 +10377,7 @@
         <v>0</v>
       </c>
       <c r="V159" s="14" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="160" spans="9:22" x14ac:dyDescent="0.25">
@@ -10430,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="V161" s="14" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="162" spans="9:22" x14ac:dyDescent="0.25">
@@ -10459,7 +10459,7 @@
         <v>0</v>
       </c>
       <c r="V162" s="14" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="163" spans="9:22" x14ac:dyDescent="0.25">
@@ -10512,7 +10512,7 @@
         <v>0</v>
       </c>
       <c r="V164" s="14" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="165" spans="9:22" x14ac:dyDescent="0.25">
@@ -10541,7 +10541,7 @@
         <v>0</v>
       </c>
       <c r="V165" s="14" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="166" spans="9:22" x14ac:dyDescent="0.25">
@@ -10667,7 +10667,7 @@
         <v>0</v>
       </c>
       <c r="V170" s="14" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="171" spans="9:22" x14ac:dyDescent="0.25">
@@ -10696,7 +10696,7 @@
         <v>0</v>
       </c>
       <c r="V171" s="14" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="172" spans="9:22" x14ac:dyDescent="0.25">
@@ -10800,7 +10800,7 @@
         <v>0</v>
       </c>
       <c r="V175" s="14" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="176" spans="9:22" x14ac:dyDescent="0.25">
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="V176" s="14" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="177" spans="9:22" x14ac:dyDescent="0.25">
@@ -11102,7 +11102,7 @@
         <v>0</v>
       </c>
       <c r="V187" s="14" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="188" spans="9:22" x14ac:dyDescent="0.25">
@@ -11131,7 +11131,7 @@
         <v>0</v>
       </c>
       <c r="V188" s="14" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="189" spans="9:22" x14ac:dyDescent="0.25">
@@ -11235,7 +11235,7 @@
         <v>0</v>
       </c>
       <c r="V192" s="14" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="193" spans="9:22" x14ac:dyDescent="0.25">
@@ -11264,7 +11264,7 @@
         <v>0</v>
       </c>
       <c r="V193" s="14" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="194" spans="9:22" x14ac:dyDescent="0.25">
@@ -11368,7 +11368,7 @@
         <v>0</v>
       </c>
       <c r="V197" s="14" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="198" spans="9:22" x14ac:dyDescent="0.25">
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="V198" s="14" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="199" spans="9:22" x14ac:dyDescent="0.25">
@@ -11506,7 +11506,7 @@
         <v>0</v>
       </c>
       <c r="V202" s="14" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="203" spans="9:22" x14ac:dyDescent="0.25">
@@ -11535,7 +11535,7 @@
         <v>0</v>
       </c>
       <c r="V203" s="14" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="204" spans="9:22" x14ac:dyDescent="0.25">
@@ -11644,7 +11644,7 @@
         <v>0</v>
       </c>
       <c r="V207" s="14" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="208" spans="9:22" x14ac:dyDescent="0.25">
@@ -11673,7 +11673,7 @@
         <v>0</v>
       </c>
       <c r="V208" s="14" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="209" spans="9:22" x14ac:dyDescent="0.25">
@@ -11782,7 +11782,7 @@
         <v>0</v>
       </c>
       <c r="V212" s="14" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="213" spans="9:22" x14ac:dyDescent="0.25">
@@ -11811,7 +11811,7 @@
         <v>0</v>
       </c>
       <c r="V213" s="14" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="214" spans="9:22" x14ac:dyDescent="0.25">
@@ -11917,7 +11917,7 @@
         <v>0</v>
       </c>
       <c r="V217" s="14" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="218" spans="9:22" x14ac:dyDescent="0.25">
@@ -12049,7 +12049,7 @@
         <v>0</v>
       </c>
       <c r="V222" s="14" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="223" spans="9:22" x14ac:dyDescent="0.25">
@@ -12102,7 +12102,7 @@
         <v>0</v>
       </c>
       <c r="V224" s="14" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="225" spans="4:22" x14ac:dyDescent="0.25">
@@ -12181,7 +12181,7 @@
         <v>0</v>
       </c>
       <c r="V227" s="14" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="228" spans="4:22" x14ac:dyDescent="0.25">
@@ -12258,7 +12258,7 @@
         <v>0</v>
       </c>
       <c r="V230" s="14" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="231" spans="4:22" x14ac:dyDescent="0.25">
@@ -12335,7 +12335,7 @@
         <v>0</v>
       </c>
       <c r="V233" s="14" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="234" spans="4:22" x14ac:dyDescent="0.25">
@@ -12652,7 +12652,7 @@
         <v>0</v>
       </c>
       <c r="V246" s="14" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="247" spans="9:22" x14ac:dyDescent="0.25">
@@ -12706,7 +12706,7 @@
         <v>0</v>
       </c>
       <c r="V248" s="14" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="249" spans="9:22" x14ac:dyDescent="0.25">
@@ -12735,7 +12735,7 @@
         <v>0</v>
       </c>
       <c r="V249" s="14" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="250" spans="9:22" x14ac:dyDescent="0.25">
@@ -12812,7 +12812,7 @@
         <v>0</v>
       </c>
       <c r="V252" s="14" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="253" spans="9:22" x14ac:dyDescent="0.25">
@@ -12889,7 +12889,7 @@
         <v>0</v>
       </c>
       <c r="V255" s="14" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="256" spans="9:22" x14ac:dyDescent="0.25">
@@ -12943,7 +12943,7 @@
         <v>0</v>
       </c>
       <c r="V257" s="14" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="258" spans="1:22" x14ac:dyDescent="0.25">
@@ -12972,7 +12972,7 @@
         <v>0</v>
       </c>
       <c r="V258" s="14" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="259" spans="1:22" x14ac:dyDescent="0.25">
@@ -13025,7 +13025,7 @@
         <v>0</v>
       </c>
       <c r="V260" s="14" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="261" spans="1:22" x14ac:dyDescent="0.25">
@@ -13054,7 +13054,7 @@
         <v>0</v>
       </c>
       <c r="V261" s="14" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="262" spans="1:22" x14ac:dyDescent="0.25">
@@ -13107,12 +13107,12 @@
         <v>0</v>
       </c>
       <c r="V263" s="14" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="264" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A264" s="51" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="H264" s="47" t="s">
         <v>137</v>
@@ -13142,7 +13142,7 @@
     </row>
     <row r="265" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A265" s="51" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="H265" s="47" t="s">
         <v>137</v>
@@ -13199,7 +13199,7 @@
         <v>0</v>
       </c>
       <c r="V266" s="14" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="267" spans="1:22" x14ac:dyDescent="0.25">
@@ -13532,7 +13532,7 @@
         <v>82</v>
       </c>
       <c r="V279" s="57" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="280" spans="1:22" x14ac:dyDescent="0.25">
@@ -13607,7 +13607,7 @@
         <v>0</v>
       </c>
       <c r="V282" s="14" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="283" spans="1:22" x14ac:dyDescent="0.25">
@@ -13636,12 +13636,12 @@
         <v>0</v>
       </c>
       <c r="V283" s="14" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="284" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A284" s="51" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="H284" s="47" t="s">
         <v>138</v>
@@ -13671,12 +13671,12 @@
         <v>0</v>
       </c>
       <c r="V284" s="14" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="285" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A285" s="51" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="H285" s="47" t="s">
         <v>138</v>
@@ -13931,7 +13931,7 @@
     </row>
     <row r="295" spans="4:22" x14ac:dyDescent="0.25">
       <c r="F295" s="54" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="I295" s="8" t="s">
         <v>23</v>
@@ -13958,7 +13958,7 @@
     </row>
     <row r="296" spans="4:22" x14ac:dyDescent="0.25">
       <c r="F296" s="54" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="I296" s="8" t="s">
         <v>23</v>
@@ -13989,7 +13989,7 @@
         <v>127</v>
       </c>
       <c r="F297" s="54" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="I297" s="8" t="s">
         <v>23</v>
@@ -14019,7 +14019,7 @@
     </row>
     <row r="298" spans="4:22" x14ac:dyDescent="0.25">
       <c r="F298" s="54" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="I298" s="8" t="s">
         <v>23</v>
@@ -14195,7 +14195,7 @@
         <v>82</v>
       </c>
       <c r="V304" s="14" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="305" spans="9:22" x14ac:dyDescent="0.25">
@@ -14397,7 +14397,7 @@
         <v>82</v>
       </c>
       <c r="V312" s="14" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="313" spans="9:22" x14ac:dyDescent="0.25">
@@ -14450,7 +14450,7 @@
         <v>15</v>
       </c>
       <c r="V314" s="14" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="315" spans="9:22" x14ac:dyDescent="0.25">
@@ -14603,7 +14603,7 @@
         <v>82</v>
       </c>
       <c r="V320" s="34" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="321" spans="8:22" x14ac:dyDescent="0.25">
@@ -14656,7 +14656,7 @@
         <v>0</v>
       </c>
       <c r="V322" s="14" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="323" spans="8:22" x14ac:dyDescent="0.25">
@@ -14710,7 +14710,7 @@
         <v>0</v>
       </c>
       <c r="V324" s="14" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="325" spans="8:22" x14ac:dyDescent="0.25">
@@ -14739,7 +14739,7 @@
         <v>0</v>
       </c>
       <c r="V325" s="14" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="326" spans="8:22" x14ac:dyDescent="0.25">
@@ -14768,7 +14768,7 @@
         <v>82</v>
       </c>
       <c r="V326" s="30" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="327" spans="8:22" x14ac:dyDescent="0.25">
@@ -14848,7 +14848,7 @@
       </c>
       <c r="S329" s="41"/>
       <c r="V329" s="14" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="330" spans="8:22" x14ac:dyDescent="0.25">
@@ -14925,7 +14925,7 @@
         <v>0</v>
       </c>
       <c r="V332" s="14" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="333" spans="8:22" x14ac:dyDescent="0.25">
@@ -15002,7 +15002,7 @@
         <v>0</v>
       </c>
       <c r="V335" s="14" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="336" spans="8:22" x14ac:dyDescent="0.25">
@@ -15779,7 +15779,7 @@
         <v>0</v>
       </c>
       <c r="V365" s="14" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="366" spans="4:22" x14ac:dyDescent="0.25">
@@ -15841,7 +15841,7 @@
     </row>
     <row r="368" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D368" s="48" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="H368" s="47" t="s">
         <v>140</v>
@@ -15956,7 +15956,7 @@
         <v>0</v>
       </c>
       <c r="V371" s="14" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="372" spans="4:22" x14ac:dyDescent="0.25">
@@ -15985,7 +15985,7 @@
         <v>0</v>
       </c>
       <c r="V372" s="14" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="373" spans="4:22" x14ac:dyDescent="0.25">
@@ -16328,7 +16328,7 @@
         <v>0</v>
       </c>
       <c r="V385" s="14" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="386" spans="9:22" x14ac:dyDescent="0.25">
@@ -16405,7 +16405,7 @@
         <v>0</v>
       </c>
       <c r="V388" s="14" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="389" spans="9:22" x14ac:dyDescent="0.25">
@@ -16858,7 +16858,7 @@
         <v>0</v>
       </c>
       <c r="V406" s="14" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="407" spans="4:22" x14ac:dyDescent="0.25">
@@ -16911,7 +16911,7 @@
         <v>0</v>
       </c>
       <c r="V408" s="14" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="409" spans="4:22" x14ac:dyDescent="0.25">
@@ -16964,7 +16964,7 @@
         <v>82</v>
       </c>
       <c r="V410" s="32" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="411" spans="4:22" x14ac:dyDescent="0.25">
@@ -17432,7 +17432,7 @@
         <v>0</v>
       </c>
       <c r="V428" s="14" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="429" spans="8:22" x14ac:dyDescent="0.25">
@@ -17654,7 +17654,7 @@
         <v>0</v>
       </c>
       <c r="V437" s="14" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="438" spans="9:22" x14ac:dyDescent="0.25">
@@ -18048,7 +18048,7 @@
         <v>0</v>
       </c>
       <c r="V453" s="14" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="454" spans="5:22" x14ac:dyDescent="0.25">
@@ -18128,7 +18128,7 @@
         <v>0</v>
       </c>
       <c r="V456" s="14" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="457" spans="5:22" x14ac:dyDescent="0.25">
@@ -18307,7 +18307,7 @@
         <v>0</v>
       </c>
       <c r="V463" s="14" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="464" spans="5:22" x14ac:dyDescent="0.25">
@@ -18360,7 +18360,7 @@
         <v>0</v>
       </c>
       <c r="V465" s="14" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="466" spans="9:22" x14ac:dyDescent="0.25">
@@ -18488,7 +18488,7 @@
         <v>82</v>
       </c>
       <c r="V470" s="14" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="471" spans="9:22" x14ac:dyDescent="0.25">
@@ -18709,7 +18709,7 @@
         <v>0</v>
       </c>
       <c r="V479" s="8" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="480" spans="9:22" x14ac:dyDescent="0.25">
@@ -18980,7 +18980,7 @@
         <v>0</v>
       </c>
       <c r="V490" s="14" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="491" spans="9:22" x14ac:dyDescent="0.25">
@@ -19033,7 +19033,7 @@
         <v>0</v>
       </c>
       <c r="V492" s="14" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="493" spans="9:22" x14ac:dyDescent="0.25">
@@ -19355,7 +19355,7 @@
         <v>0</v>
       </c>
       <c r="V505" s="14" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="506" spans="9:22" x14ac:dyDescent="0.25">
@@ -19408,7 +19408,7 @@
         <v>0</v>
       </c>
       <c r="V507" s="30" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="508" spans="9:22" x14ac:dyDescent="0.25">
@@ -19851,7 +19851,7 @@
         <v>0</v>
       </c>
       <c r="V524" s="14" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="525" spans="8:22" x14ac:dyDescent="0.25">
@@ -19995,7 +19995,7 @@
         <v>0</v>
       </c>
       <c r="V529" s="14" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="530" spans="8:22" x14ac:dyDescent="0.25">
@@ -20147,7 +20147,7 @@
         <v>82</v>
       </c>
       <c r="V535" s="30" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="536" spans="8:22" x14ac:dyDescent="0.25">
@@ -20298,7 +20298,7 @@
         <v>82</v>
       </c>
       <c r="V541" s="8" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="542" spans="8:22" x14ac:dyDescent="0.25">
@@ -20375,7 +20375,7 @@
         <v>82</v>
       </c>
       <c r="V544" s="59" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="545" spans="9:22" x14ac:dyDescent="0.25">
@@ -20548,7 +20548,7 @@
         <v>82</v>
       </c>
       <c r="V551" s="27" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="552" spans="9:22" x14ac:dyDescent="0.25">
@@ -20653,7 +20653,7 @@
         <v>82</v>
       </c>
       <c r="V555" s="14" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="556" spans="9:22" x14ac:dyDescent="0.25">
@@ -20682,7 +20682,7 @@
         <v>0</v>
       </c>
       <c r="V556" s="14" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="557" spans="9:22" x14ac:dyDescent="0.25">
@@ -20735,7 +20735,7 @@
         <v>0</v>
       </c>
       <c r="V558" s="14" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="559" spans="9:22" x14ac:dyDescent="0.25">
@@ -20764,7 +20764,7 @@
         <v>0</v>
       </c>
       <c r="V559" s="14" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="560" spans="9:22" x14ac:dyDescent="0.25">
@@ -20793,7 +20793,7 @@
         <v>0</v>
       </c>
       <c r="V560" s="14" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="561" spans="9:22" x14ac:dyDescent="0.25">
@@ -21100,7 +21100,7 @@
         <v>0</v>
       </c>
       <c r="V572" s="14" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="573" spans="9:22" x14ac:dyDescent="0.25">
@@ -21533,7 +21533,7 @@
         <v>82</v>
       </c>
       <c r="V589" s="35" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="590" spans="9:22" x14ac:dyDescent="0.25">
@@ -21608,7 +21608,7 @@
         <v>0</v>
       </c>
       <c r="V592" s="14" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="593" spans="9:22" x14ac:dyDescent="0.25">
@@ -21661,7 +21661,7 @@
         <v>15</v>
       </c>
       <c r="V594" s="14" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="595" spans="9:22" x14ac:dyDescent="0.25">
@@ -22429,7 +22429,7 @@
         <v>95</v>
       </c>
       <c r="V625" s="59" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="626" spans="1:22" x14ac:dyDescent="0.25">
@@ -22853,7 +22853,7 @@
         <v>0</v>
       </c>
       <c r="V641" s="14" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="642" spans="5:22" x14ac:dyDescent="0.25">
@@ -22882,7 +22882,7 @@
         <v>0</v>
       </c>
       <c r="V642" s="14" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="643" spans="5:22" x14ac:dyDescent="0.25">
@@ -22912,7 +22912,7 @@
         <v>82</v>
       </c>
       <c r="V643" s="32" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="644" spans="5:22" x14ac:dyDescent="0.25">
@@ -23038,7 +23038,7 @@
         <v>0</v>
       </c>
       <c r="V648" s="14" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="649" spans="5:22" x14ac:dyDescent="0.25">
@@ -23067,7 +23067,7 @@
         <v>0</v>
       </c>
       <c r="V649" s="14" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="650" spans="5:22" x14ac:dyDescent="0.25">
@@ -23121,10 +23121,10 @@
     </row>
     <row r="652" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E652" s="54" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="F652" s="54" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="I652" s="8" t="s">
         <v>30</v>
@@ -23151,10 +23151,10 @@
     </row>
     <row r="653" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E653" s="54" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="F653" s="54" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="I653" s="8" t="s">
         <v>30</v>
@@ -23181,7 +23181,7 @@
         <v>82</v>
       </c>
       <c r="V653" s="24" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="654" spans="5:22" x14ac:dyDescent="0.25">
@@ -23283,7 +23283,7 @@
         <v>0</v>
       </c>
       <c r="V657" s="14" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="658" spans="8:22" x14ac:dyDescent="0.25">
@@ -23363,7 +23363,7 @@
         <v>88</v>
       </c>
       <c r="V660" s="14" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="661" spans="8:22" x14ac:dyDescent="0.25">
@@ -23392,7 +23392,7 @@
         <v>82</v>
       </c>
       <c r="V661" s="57" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="662" spans="8:22" x14ac:dyDescent="0.25">
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="V662" s="14" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="663" spans="8:22" x14ac:dyDescent="0.25">
@@ -23643,7 +23643,7 @@
         <v>82</v>
       </c>
       <c r="V670" s="14" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="671" spans="8:22" x14ac:dyDescent="0.25">
@@ -23769,7 +23769,7 @@
         <v>0</v>
       </c>
       <c r="V675" s="14" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="676" spans="9:22" x14ac:dyDescent="0.25">
@@ -23925,7 +23925,7 @@
         <v>0</v>
       </c>
       <c r="V681" s="14" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="682" spans="9:22" x14ac:dyDescent="0.25">
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="V683" s="14" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="684" spans="9:22" x14ac:dyDescent="0.25">
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="V691" s="14" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="692" spans="9:22" x14ac:dyDescent="0.25">
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="V699" s="14" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="700" spans="9:22" x14ac:dyDescent="0.25">
@@ -24558,7 +24558,7 @@
         <v>0</v>
       </c>
       <c r="V706" s="14" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="707" spans="5:22" x14ac:dyDescent="0.25">
@@ -24587,7 +24587,7 @@
         <v>0</v>
       </c>
       <c r="V707" s="14" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="708" spans="5:22" x14ac:dyDescent="0.25">
@@ -24714,7 +24714,7 @@
     </row>
     <row r="713" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E713" s="54" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="H713" s="47" t="s">
         <v>146</v>
@@ -24747,12 +24747,12 @@
         <v>91</v>
       </c>
       <c r="V713" s="14" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="714" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E714" s="54" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="H714" s="47" t="s">
         <v>146</v>
@@ -24785,12 +24785,12 @@
         <v>92</v>
       </c>
       <c r="V714" s="14" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="715" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E715" s="54" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="H715" s="47" t="s">
         <v>146</v>
@@ -24823,7 +24823,7 @@
     </row>
     <row r="716" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E716" s="54" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="H716" s="47" t="s">
         <v>146</v>
@@ -24933,7 +24933,7 @@
         <v>0</v>
       </c>
       <c r="V719" s="14" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="720" spans="5:22" x14ac:dyDescent="0.25">
@@ -25277,7 +25277,7 @@
         <v>0</v>
       </c>
       <c r="V733" s="14" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="734" spans="9:22" x14ac:dyDescent="0.25">
@@ -25354,7 +25354,7 @@
         <v>0</v>
       </c>
       <c r="V736" s="14" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="737" spans="8:22" x14ac:dyDescent="0.25">
@@ -25464,7 +25464,7 @@
         <v>0</v>
       </c>
       <c r="V740" s="14" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="741" spans="8:22" x14ac:dyDescent="0.25">
@@ -25682,7 +25682,7 @@
         <v>0</v>
       </c>
       <c r="V748" s="14" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="749" spans="8:22" x14ac:dyDescent="0.25">
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="V754" s="32" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="755" spans="9:22" x14ac:dyDescent="0.25">
@@ -26016,7 +26016,7 @@
         <v>0</v>
       </c>
       <c r="V761" s="14" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="762" spans="9:22" x14ac:dyDescent="0.25">
@@ -26045,7 +26045,7 @@
         <v>0</v>
       </c>
       <c r="V762" s="14" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="763" spans="9:22" x14ac:dyDescent="0.25">
@@ -26098,7 +26098,7 @@
         <v>82</v>
       </c>
       <c r="V764" s="35" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="765" spans="9:22" x14ac:dyDescent="0.25">
@@ -26225,7 +26225,7 @@
         <v>0</v>
       </c>
       <c r="V769" s="14" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="770" spans="8:22" x14ac:dyDescent="0.25">
@@ -26592,7 +26592,7 @@
         <v>119</v>
       </c>
       <c r="V783" s="14" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="784" spans="8:22" x14ac:dyDescent="0.25">
@@ -26871,7 +26871,7 @@
         <v>0</v>
       </c>
       <c r="V794" s="14" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="795" spans="4:22" x14ac:dyDescent="0.25">
@@ -27368,7 +27368,7 @@
         <v>0</v>
       </c>
       <c r="V814" s="14" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="815" spans="9:22" x14ac:dyDescent="0.25">
@@ -27420,7 +27420,7 @@
         <v>0</v>
       </c>
       <c r="V816" s="60" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="817" spans="9:22" x14ac:dyDescent="0.25">
@@ -27523,7 +27523,7 @@
         <v>0</v>
       </c>
       <c r="V820" s="14" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="821" spans="9:22" x14ac:dyDescent="0.25">
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="V824" s="14" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="825" spans="9:22" x14ac:dyDescent="0.25">
@@ -28308,7 +28308,7 @@
         <v>83</v>
       </c>
       <c r="V852" s="14" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="853" spans="8:22" x14ac:dyDescent="0.25">
@@ -28436,7 +28436,7 @@
         <v>0</v>
       </c>
       <c r="V857" s="14" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="858" spans="8:22" x14ac:dyDescent="0.25">
@@ -28705,7 +28705,7 @@
         <v>0</v>
       </c>
       <c r="V867" s="14" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="868" spans="8:22" x14ac:dyDescent="0.25">
@@ -28758,7 +28758,7 @@
         <v>82</v>
       </c>
       <c r="V869" s="35" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="870" spans="8:22" x14ac:dyDescent="0.25">
@@ -28912,7 +28912,7 @@
         <v>0</v>
       </c>
       <c r="V875" s="14" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="876" spans="8:22" x14ac:dyDescent="0.25">
@@ -28941,7 +28941,7 @@
         <v>0</v>
       </c>
       <c r="V876" s="14" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="877" spans="8:22" x14ac:dyDescent="0.25">
@@ -29036,13 +29036,13 @@
         <v>11</v>
       </c>
       <c r="N880" s="5" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="O880" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V880" s="14" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="881" spans="4:22" x14ac:dyDescent="0.25">
@@ -29119,7 +29119,7 @@
         <v>0</v>
       </c>
       <c r="V883" s="14" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="884" spans="4:22" x14ac:dyDescent="0.25">
@@ -29154,7 +29154,7 @@
         <v>104</v>
       </c>
       <c r="V884" s="14" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="885" spans="4:22" x14ac:dyDescent="0.25">
@@ -29258,7 +29258,7 @@
         <v>0</v>
       </c>
       <c r="V888" s="14" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="889" spans="4:22" x14ac:dyDescent="0.25">
@@ -29293,7 +29293,7 @@
         <v>104</v>
       </c>
       <c r="V889" s="14" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="890" spans="4:22" x14ac:dyDescent="0.25">
@@ -29475,7 +29475,7 @@
         <v>0</v>
       </c>
       <c r="V896" s="14" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="897" spans="9:22" x14ac:dyDescent="0.25">
@@ -29528,7 +29528,7 @@
         <v>0</v>
       </c>
       <c r="V898" s="14" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="899" spans="9:22" x14ac:dyDescent="0.25">
@@ -29581,7 +29581,7 @@
         <v>0</v>
       </c>
       <c r="V900" s="14" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="901" spans="9:22" x14ac:dyDescent="0.25">
@@ -29634,7 +29634,7 @@
         <v>0</v>
       </c>
       <c r="V902" s="14" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="903" spans="9:22" x14ac:dyDescent="0.25">
@@ -30272,7 +30272,7 @@
         <v>0</v>
       </c>
       <c r="V928" s="14" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="929" spans="9:22" x14ac:dyDescent="0.25">
@@ -30349,7 +30349,7 @@
         <v>0</v>
       </c>
       <c r="V931" s="14" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="932" spans="9:22" x14ac:dyDescent="0.25">
@@ -30570,7 +30570,7 @@
         <v>0</v>
       </c>
       <c r="V940" s="14" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="941" spans="9:22" x14ac:dyDescent="0.25">
@@ -30599,7 +30599,7 @@
         <v>0</v>
       </c>
       <c r="V941" s="14" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="942" spans="9:22" x14ac:dyDescent="0.25">
@@ -30628,7 +30628,7 @@
         <v>0</v>
       </c>
       <c r="V942" s="14" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="943" spans="9:22" x14ac:dyDescent="0.25">
@@ -30657,7 +30657,7 @@
         <v>0</v>
       </c>
       <c r="V943" s="14" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="944" spans="9:22" x14ac:dyDescent="0.25">
@@ -30710,7 +30710,7 @@
         <v>0</v>
       </c>
       <c r="V945" s="14" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="946" spans="9:22" x14ac:dyDescent="0.25">
@@ -30767,7 +30767,7 @@
         <v>82</v>
       </c>
       <c r="V947" s="14" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="948" spans="9:22" x14ac:dyDescent="0.25">
@@ -31039,7 +31039,7 @@
         <v>95</v>
       </c>
       <c r="V958" s="14" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="959" spans="9:22" x14ac:dyDescent="0.25">
@@ -31116,7 +31116,7 @@
         <v>0</v>
       </c>
       <c r="V961" s="14" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="962" spans="9:22" x14ac:dyDescent="0.25">
@@ -31410,7 +31410,7 @@
         <v>83</v>
       </c>
       <c r="V973" s="14" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="974" spans="9:22" x14ac:dyDescent="0.25">
@@ -31681,7 +31681,7 @@
         <v>0</v>
       </c>
       <c r="V984" s="14" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="985" spans="9:22" x14ac:dyDescent="0.25">
@@ -31734,7 +31734,7 @@
         <v>0</v>
       </c>
       <c r="V986" s="14" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="987" spans="9:22" x14ac:dyDescent="0.25">
@@ -32047,7 +32047,7 @@
         <v>52</v>
       </c>
       <c r="N999" s="8" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="O999" s="1" t="s">
         <v>102</v>
@@ -32274,7 +32274,7 @@
         <v>0</v>
       </c>
       <c r="V1008" s="14" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="1009" spans="4:22" x14ac:dyDescent="0.25">
@@ -32648,8 +32648,8 @@
       <c r="P1023" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="V1023" s="28" t="s">
-        <v>1198</v>
+      <c r="V1023" s="57" t="s">
+        <v>1327</v>
       </c>
     </row>
     <row r="1024" spans="4:22" x14ac:dyDescent="0.25">
@@ -32829,7 +32829,7 @@
         <v>123</v>
       </c>
       <c r="D1030" s="48" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="H1030" s="47" t="s">
         <v>150</v>
@@ -32923,7 +32923,7 @@
     </row>
     <row r="1033" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D1033" s="48" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="H1033" s="47" t="s">
         <v>150</v>
@@ -33019,8 +33019,8 @@
       <c r="P1035" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="V1035" s="35" t="s">
-        <v>1199</v>
+      <c r="V1035" s="57" t="s">
+        <v>1328</v>
       </c>
     </row>
     <row r="1036" spans="1:22" x14ac:dyDescent="0.25">
@@ -33098,7 +33098,7 @@
         <v>0</v>
       </c>
       <c r="V1038" s="14" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="1039" spans="1:22" x14ac:dyDescent="0.25">
@@ -33295,7 +33295,7 @@
         <v>0</v>
       </c>
       <c r="V1046" s="14" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="1047" spans="9:22" x14ac:dyDescent="0.25">
@@ -33324,7 +33324,7 @@
         <v>0</v>
       </c>
       <c r="V1047" s="14" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="1048" spans="9:22" x14ac:dyDescent="0.25">
@@ -33377,7 +33377,7 @@
         <v>0</v>
       </c>
       <c r="V1049" s="14" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="1050" spans="9:22" x14ac:dyDescent="0.25">
@@ -33406,7 +33406,7 @@
         <v>0</v>
       </c>
       <c r="V1050" s="14" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="1051" spans="9:22" x14ac:dyDescent="0.25">
@@ -33508,7 +33508,7 @@
         <v>0</v>
       </c>
       <c r="V1054" s="14" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="1055" spans="9:22" x14ac:dyDescent="0.25">
@@ -33585,7 +33585,7 @@
         <v>82</v>
       </c>
       <c r="V1057" s="28" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="1058" spans="9:22" x14ac:dyDescent="0.25">
@@ -34371,7 +34371,7 @@
         <v>0</v>
       </c>
       <c r="V1088" s="14" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="1089" spans="9:22" x14ac:dyDescent="0.25">
@@ -34425,7 +34425,7 @@
         <v>0</v>
       </c>
       <c r="V1090" s="14" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="1091" spans="9:22" x14ac:dyDescent="0.25">
@@ -34454,7 +34454,7 @@
         <v>0</v>
       </c>
       <c r="V1091" s="14" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="1092" spans="9:22" x14ac:dyDescent="0.25">
@@ -34507,7 +34507,7 @@
         <v>0</v>
       </c>
       <c r="V1093" s="14" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="1094" spans="9:22" x14ac:dyDescent="0.25">
@@ -34584,7 +34584,7 @@
         <v>0</v>
       </c>
       <c r="V1096" s="14" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="1097" spans="9:22" x14ac:dyDescent="0.25">
@@ -34812,7 +34812,7 @@
     </row>
     <row r="1106" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F1106" s="54" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="G1106" s="47" t="s">
         <v>133</v>
@@ -34842,10 +34842,10 @@
     </row>
     <row r="1107" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B1107" s="54" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="F1107" s="54" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="G1107" s="47" t="s">
         <v>133</v>
@@ -35019,7 +35019,7 @@
         <v>82</v>
       </c>
       <c r="V1113" s="28" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="1114" spans="1:22" x14ac:dyDescent="0.25">
@@ -35219,14 +35219,14 @@
         <f t="shared" si="36"/>
         <v>64</v>
       </c>
-      <c r="N1121" s="8" t="s">
-        <v>782</v>
+      <c r="N1121" s="5" t="s">
+        <v>1329</v>
       </c>
       <c r="O1121" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1121" s="14" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="1122" spans="8:22" x14ac:dyDescent="0.25">
@@ -35249,7 +35249,7 @@
         <v>65</v>
       </c>
       <c r="N1122" s="8" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="V1122" s="14"/>
     </row>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="V1125" s="14" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="1126" spans="8:22" x14ac:dyDescent="0.25">
@@ -35376,7 +35376,7 @@
         <v>70</v>
       </c>
       <c r="N1127" s="8" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="O1127" s="2"/>
       <c r="V1127" s="14"/>
@@ -35401,13 +35401,13 @@
         <v>71</v>
       </c>
       <c r="N1128" s="8" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="O1128" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1128" s="14" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="1129" spans="8:22" x14ac:dyDescent="0.25">
@@ -35430,7 +35430,7 @@
         <v>72</v>
       </c>
       <c r="N1129" s="8" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="V1129" s="14"/>
     </row>
@@ -35478,7 +35478,7 @@
         <v>74</v>
       </c>
       <c r="N1131" s="8" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="V1131" s="14"/>
     </row>
@@ -35529,7 +35529,7 @@
         <v>76</v>
       </c>
       <c r="N1133" s="8" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="V1133" s="14"/>
     </row>
@@ -35584,7 +35584,7 @@
         <v>78</v>
       </c>
       <c r="N1135" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="O1135" s="1" t="s">
         <v>102</v>
@@ -35638,7 +35638,7 @@
         <v>80</v>
       </c>
       <c r="N1137" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="O1137" s="2"/>
       <c r="V1137" s="14"/>
@@ -35663,7 +35663,7 @@
         <v>81</v>
       </c>
       <c r="N1138" s="8" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="V1138" s="14"/>
     </row>
@@ -35711,7 +35711,7 @@
         <v>83</v>
       </c>
       <c r="N1140" s="8" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="V1140" s="14"/>
     </row>
@@ -35762,13 +35762,13 @@
         <v>85</v>
       </c>
       <c r="N1142" s="8" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="P1142" s="2" t="s">
         <v>82</v>
       </c>
       <c r="V1142" s="33" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="1143" spans="9:22" x14ac:dyDescent="0.25">
@@ -35839,13 +35839,13 @@
         <v>88</v>
       </c>
       <c r="N1145" s="8" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="O1145" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1145" s="14" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="1146" spans="9:22" x14ac:dyDescent="0.25">
@@ -35868,7 +35868,7 @@
         <v>89</v>
       </c>
       <c r="N1146" s="8" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="V1146" s="14"/>
     </row>
@@ -35892,7 +35892,7 @@
         <v>90</v>
       </c>
       <c r="N1147" s="8" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="V1147" s="14"/>
     </row>
@@ -35916,7 +35916,7 @@
         <v>91</v>
       </c>
       <c r="N1148" s="8" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="O1148" s="2"/>
       <c r="V1148" s="14"/>
@@ -35966,13 +35966,13 @@
         <v>93</v>
       </c>
       <c r="N1150" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="P1150" s="2" t="s">
         <v>82</v>
       </c>
       <c r="V1150" s="8" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="1151" spans="9:22" x14ac:dyDescent="0.25">
@@ -35995,7 +35995,7 @@
         <v>94</v>
       </c>
       <c r="N1151" s="8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="V1151" s="14"/>
     </row>
@@ -36019,7 +36019,7 @@
         <v>95</v>
       </c>
       <c r="N1152" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="V1152" s="14"/>
     </row>
@@ -36043,7 +36043,7 @@
         <v>96</v>
       </c>
       <c r="N1153" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="V1153" s="14"/>
     </row>
@@ -36067,18 +36067,18 @@
         <v>97</v>
       </c>
       <c r="N1154" s="8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="P1154" s="2" t="s">
         <v>82</v>
       </c>
       <c r="V1154" s="35" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="1155" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1155" s="49" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="E1155" s="47" t="s">
         <v>131</v>
@@ -36109,7 +36109,7 @@
     </row>
     <row r="1156" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1156" s="49" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="E1156" s="47" t="s">
         <v>131</v>
@@ -36146,7 +36146,7 @@
     </row>
     <row r="1157" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1157" s="49" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="H1157" s="47" t="s">
         <v>153</v>
@@ -36170,13 +36170,13 @@
         <v>3</v>
       </c>
       <c r="N1157" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="V1157" s="14"/>
     </row>
     <row r="1158" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1158" s="49" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="H1158" s="47" t="s">
         <v>153</v>
@@ -36200,7 +36200,7 @@
         <v>4</v>
       </c>
       <c r="N1158" s="8" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="U1158" s="2" t="s">
         <v>105</v>
@@ -36209,7 +36209,7 @@
     </row>
     <row r="1159" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1159" s="49" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="I1159" s="8" t="s">
         <v>41</v>
@@ -36230,14 +36230,14 @@
         <v>5</v>
       </c>
       <c r="N1159" s="8" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="O1159" s="2"/>
       <c r="V1159" s="14"/>
     </row>
     <row r="1160" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1160" s="49" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="I1160" s="8" t="s">
         <v>41</v>
@@ -36258,13 +36258,13 @@
         <v>6</v>
       </c>
       <c r="N1160" s="8" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="V1160" s="14"/>
     </row>
     <row r="1161" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1161" s="49" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="I1161" s="8" t="s">
         <v>41</v>
@@ -36292,7 +36292,7 @@
     </row>
     <row r="1162" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1162" s="49" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="I1162" s="8" t="s">
         <v>41</v>
@@ -36313,13 +36313,13 @@
         <v>8</v>
       </c>
       <c r="N1162" s="8" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="V1162" s="14"/>
     </row>
     <row r="1163" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1163" s="49" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="I1163" s="8" t="s">
         <v>41</v>
@@ -36340,13 +36340,13 @@
         <v>9</v>
       </c>
       <c r="N1163" s="8" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="V1163" s="14"/>
     </row>
     <row r="1164" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1164" s="49" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="I1164" s="8" t="s">
         <v>41</v>
@@ -36367,13 +36367,13 @@
         <v>10</v>
       </c>
       <c r="N1164" s="8" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="V1164" s="14"/>
     </row>
     <row r="1165" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1165" s="49" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="I1165" s="8" t="s">
         <v>41</v>
@@ -36394,18 +36394,18 @@
         <v>11</v>
       </c>
       <c r="N1165" s="8" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="P1165" s="2" t="s">
         <v>82</v>
       </c>
       <c r="V1165" s="8" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="1166" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1166" s="49" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="I1166" s="8" t="s">
         <v>41</v>
@@ -36432,7 +36432,7 @@
     </row>
     <row r="1167" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1167" s="49" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="I1167" s="8" t="s">
         <v>41</v>
@@ -36453,13 +36453,13 @@
         <v>13</v>
       </c>
       <c r="N1167" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="V1167" s="14"/>
     </row>
     <row r="1168" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1168" s="49" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="I1168" s="8" t="s">
         <v>41</v>
@@ -36480,14 +36480,14 @@
         <v>14</v>
       </c>
       <c r="N1168" s="8" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="O1168" s="2"/>
       <c r="V1168" s="14"/>
     </row>
     <row r="1169" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1169" s="49" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="I1169" s="8" t="s">
         <v>41</v>
@@ -36508,13 +36508,13 @@
         <v>15</v>
       </c>
       <c r="N1169" s="8" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="V1169" s="14"/>
     </row>
     <row r="1170" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1170" s="49" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="I1170" s="8" t="s">
         <v>41</v>
@@ -36535,18 +36535,18 @@
         <v>16</v>
       </c>
       <c r="N1170" s="8" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="O1170" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1170" s="14" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="1171" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1171" s="49" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="I1171" s="8" t="s">
         <v>41</v>
@@ -36573,7 +36573,7 @@
     </row>
     <row r="1172" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1172" s="49" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="I1172" s="8" t="s">
         <v>41</v>
@@ -36594,13 +36594,13 @@
         <v>18</v>
       </c>
       <c r="N1172" s="8" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="V1172" s="14"/>
     </row>
     <row r="1173" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1173" s="49" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="I1173" s="8" t="s">
         <v>41</v>
@@ -36621,18 +36621,18 @@
         <v>19</v>
       </c>
       <c r="N1173" s="8" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O1173" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1173" s="14" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="1174" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1174" s="49" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="I1174" s="8" t="s">
         <v>41</v>
@@ -36653,13 +36653,13 @@
         <v>20</v>
       </c>
       <c r="N1174" s="8" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="V1174" s="14"/>
     </row>
     <row r="1175" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1175" s="49" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="I1175" s="8" t="s">
         <v>41</v>
@@ -36686,7 +36686,7 @@
     </row>
     <row r="1176" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1176" s="49" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="I1176" s="8" t="s">
         <v>41</v>
@@ -36718,7 +36718,7 @@
     </row>
     <row r="1177" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1177" s="49" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="I1177" s="8" t="s">
         <v>41</v>
@@ -36748,7 +36748,7 @@
     </row>
     <row r="1178" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1178" s="49" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="I1178" s="8" t="s">
         <v>41</v>
@@ -36775,7 +36775,7 @@
     </row>
     <row r="1179" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1179" s="49" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="I1179" s="8" t="s">
         <v>41</v>
@@ -36796,13 +36796,13 @@
         <v>25</v>
       </c>
       <c r="N1179" s="8" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="V1179" s="14"/>
     </row>
     <row r="1180" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1180" s="49" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="I1180" s="8" t="s">
         <v>41</v>
@@ -36823,13 +36823,13 @@
         <v>26</v>
       </c>
       <c r="N1180" s="8" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="V1180" s="14"/>
     </row>
     <row r="1181" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1181" s="49" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="I1181" s="8" t="s">
         <v>41</v>
@@ -36850,13 +36850,13 @@
         <v>27</v>
       </c>
       <c r="N1181" s="8" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="V1181" s="14"/>
     </row>
     <row r="1182" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1182" s="49" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="I1182" s="8" t="s">
         <v>41</v>
@@ -36877,13 +36877,13 @@
         <v>28</v>
       </c>
       <c r="N1182" s="8" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="V1182" s="14"/>
     </row>
     <row r="1183" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1183" s="49" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="I1183" s="8" t="s">
         <v>41</v>
@@ -36904,18 +36904,18 @@
         <v>29</v>
       </c>
       <c r="N1183" s="8" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="O1183" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1183" s="14" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="1184" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1184" s="49" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="I1184" s="8" t="s">
         <v>41</v>
@@ -36936,18 +36936,18 @@
         <v>30</v>
       </c>
       <c r="N1184" s="8" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="P1184" s="2" t="s">
         <v>82</v>
       </c>
       <c r="V1184" s="35" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="1185" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1185" s="49" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="I1185" s="8" t="s">
         <v>41</v>
@@ -36974,7 +36974,7 @@
     </row>
     <row r="1186" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1186" s="49" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="I1186" s="8" t="s">
         <v>41</v>
@@ -36995,13 +36995,13 @@
         <v>32</v>
       </c>
       <c r="N1186" s="8" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="V1186" s="14"/>
     </row>
     <row r="1187" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1187" s="49" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="I1187" s="8" t="s">
         <v>41</v>
@@ -37022,13 +37022,13 @@
         <v>33</v>
       </c>
       <c r="N1187" s="8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="V1187" s="14"/>
     </row>
     <row r="1188" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1188" s="49" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="I1188" s="8" t="s">
         <v>41</v>
@@ -37049,13 +37049,13 @@
         <v>34</v>
       </c>
       <c r="N1188" s="8" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="V1188" s="14"/>
     </row>
     <row r="1189" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1189" s="49" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="I1189" s="8" t="s">
         <v>41</v>
@@ -37076,18 +37076,18 @@
         <v>35</v>
       </c>
       <c r="N1189" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="O1189" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1189" s="14" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="1190" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1190" s="49" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="I1190" s="8" t="s">
         <v>41</v>
@@ -37114,7 +37114,7 @@
     </row>
     <row r="1191" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1191" s="49" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="I1191" s="8" t="s">
         <v>41</v>
@@ -37135,18 +37135,18 @@
         <v>37</v>
       </c>
       <c r="N1191" s="8" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="P1191" s="2" t="s">
         <v>82</v>
       </c>
       <c r="V1191" s="28" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="1192" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1192" s="49" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="I1192" s="8" t="s">
         <v>41</v>
@@ -37173,7 +37173,7 @@
     </row>
     <row r="1193" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1193" s="49" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="I1193" s="8" t="s">
         <v>41</v>
@@ -37194,13 +37194,13 @@
         <v>39</v>
       </c>
       <c r="N1193" s="8" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="V1193" s="14"/>
     </row>
     <row r="1194" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1194" s="49" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="I1194" s="8" t="s">
         <v>41</v>
@@ -37230,10 +37230,10 @@
     </row>
     <row r="1195" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1195" s="49" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="F1195" s="54" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="I1195" s="8" t="s">
         <v>41</v>
@@ -37254,10 +37254,10 @@
         <v>41</v>
       </c>
       <c r="N1195" s="8" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="S1195" s="41" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="T1195" s="2" t="s">
         <v>113</v>
@@ -37269,10 +37269,10 @@
         <v>123</v>
       </c>
       <c r="C1196" s="49" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="F1196" s="54" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="I1196" s="8" t="s">
         <v>41</v>
@@ -37293,13 +37293,13 @@
         <v>42</v>
       </c>
       <c r="N1196" s="8" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="V1196" s="14"/>
     </row>
     <row r="1197" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1197" s="49" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="I1197" s="8" t="s">
         <v>41</v>
@@ -37320,18 +37320,18 @@
         <v>43</v>
       </c>
       <c r="N1197" s="8" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="O1197" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1197" s="14" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="1198" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1198" s="49" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="I1198" s="8" t="s">
         <v>41</v>
@@ -37352,13 +37352,13 @@
         <v>44</v>
       </c>
       <c r="N1198" s="8" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="V1198" s="14"/>
     </row>
     <row r="1199" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1199" s="49" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="I1199" s="8" t="s">
         <v>41</v>
@@ -37379,13 +37379,13 @@
         <v>45</v>
       </c>
       <c r="N1199" s="8" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="V1199" s="14"/>
     </row>
     <row r="1200" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1200" s="49" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="I1200" s="8" t="s">
         <v>41</v>
@@ -37406,13 +37406,13 @@
         <v>46</v>
       </c>
       <c r="N1200" s="8" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="V1200" s="14"/>
     </row>
     <row r="1201" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1201" s="49" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="I1201" s="8" t="s">
         <v>41</v>
@@ -37433,18 +37433,18 @@
         <v>47</v>
       </c>
       <c r="N1201" s="8" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="P1201" s="2" t="s">
         <v>82</v>
       </c>
       <c r="V1201" s="28" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="1202" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1202" s="49" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="I1202" s="8" t="s">
         <v>41</v>
@@ -37465,14 +37465,14 @@
         <v>48</v>
       </c>
       <c r="N1202" s="8" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="O1202" s="2"/>
       <c r="V1202" s="14"/>
     </row>
     <row r="1203" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1203" s="49" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="I1203" s="8" t="s">
         <v>41</v>
@@ -37499,7 +37499,7 @@
     </row>
     <row r="1204" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1204" s="49" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="H1204" s="47" t="s">
         <v>154</v>
@@ -37523,13 +37523,13 @@
         <v>50</v>
       </c>
       <c r="N1204" s="8" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="O1204" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1204" s="14" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="1205" spans="3:22" x14ac:dyDescent="0.25">
@@ -37554,13 +37554,13 @@
         <v>51</v>
       </c>
       <c r="N1205" s="8" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="O1205" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1205" s="32" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="1206" spans="3:22" x14ac:dyDescent="0.25">
@@ -37586,7 +37586,7 @@
         <v>52</v>
       </c>
       <c r="N1206" s="8" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="V1206" s="14"/>
     </row>
@@ -37613,7 +37613,7 @@
         <v>53</v>
       </c>
       <c r="N1207" s="8" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="V1207" s="14"/>
     </row>
@@ -37640,7 +37640,7 @@
         <v>54</v>
       </c>
       <c r="N1208" s="8" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="O1208" s="2"/>
       <c r="V1208" s="14"/>
@@ -37665,7 +37665,7 @@
         <v>55</v>
       </c>
       <c r="N1209" s="8" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="V1209" s="14"/>
     </row>
@@ -37689,13 +37689,13 @@
         <v>56</v>
       </c>
       <c r="N1210" s="8" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="P1210" s="2" t="s">
         <v>82</v>
       </c>
       <c r="V1210" s="8" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="1211" spans="3:22" x14ac:dyDescent="0.25">
@@ -37718,7 +37718,7 @@
         <v>57</v>
       </c>
       <c r="N1211" s="8" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="V1211" s="14"/>
     </row>
@@ -37745,7 +37745,7 @@
         <v>58</v>
       </c>
       <c r="N1212" s="8" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="S1212" s="2" t="s">
         <v>89</v>
@@ -37775,13 +37775,13 @@
         <v>59</v>
       </c>
       <c r="N1213" s="8" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="O1213" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1213" s="14" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="1214" spans="3:22" x14ac:dyDescent="0.25">
@@ -37855,7 +37855,7 @@
         <v>62</v>
       </c>
       <c r="N1216" s="8" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="V1216" s="14"/>
     </row>
@@ -37879,7 +37879,7 @@
         <v>63</v>
       </c>
       <c r="N1217" s="8" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O1217" s="2"/>
       <c r="V1217" s="14"/>
@@ -37904,7 +37904,7 @@
         <v>64</v>
       </c>
       <c r="N1218" s="8" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O1218" s="2"/>
       <c r="V1218" s="14"/>
@@ -37929,13 +37929,13 @@
         <v>65</v>
       </c>
       <c r="N1219" s="8" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="P1219" s="2" t="s">
         <v>82</v>
       </c>
       <c r="V1219" s="8" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="1220" spans="4:22" x14ac:dyDescent="0.25">
@@ -37961,7 +37961,7 @@
         <v>66</v>
       </c>
       <c r="N1220" s="8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="V1220" s="14"/>
     </row>
@@ -37988,7 +37988,7 @@
         <v>67</v>
       </c>
       <c r="N1221" s="8" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="O1221" s="2"/>
       <c r="V1221" s="14"/>
@@ -38046,7 +38046,7 @@
         <v>69</v>
       </c>
       <c r="N1223" s="8" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="V1223" s="14"/>
     </row>
@@ -38073,7 +38073,7 @@
         <v>70</v>
       </c>
       <c r="N1224" s="8" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="V1224" s="14"/>
     </row>
@@ -38097,7 +38097,7 @@
         <v>71</v>
       </c>
       <c r="N1225" s="8" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="V1225" s="14"/>
     </row>
@@ -38121,7 +38121,7 @@
         <v>72</v>
       </c>
       <c r="N1226" s="8" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="V1226" s="14"/>
     </row>
@@ -38148,7 +38148,7 @@
         <v>73</v>
       </c>
       <c r="N1227" s="8" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="S1227" s="2" t="s">
         <v>89</v>
@@ -38178,13 +38178,13 @@
         <v>74</v>
       </c>
       <c r="N1228" s="8" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="O1228" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1228" s="14" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="1229" spans="4:22" x14ac:dyDescent="0.25">
@@ -38263,7 +38263,7 @@
         <v>77</v>
       </c>
       <c r="N1231" s="8" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="V1231" s="14"/>
     </row>
@@ -38311,7 +38311,7 @@
         <v>79</v>
       </c>
       <c r="N1233" s="8" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="O1233" s="2"/>
       <c r="V1233" s="14"/>
@@ -38360,7 +38360,7 @@
         <v>81</v>
       </c>
       <c r="N1235" s="8" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="V1235" s="14"/>
     </row>
@@ -38384,7 +38384,7 @@
         <v>82</v>
       </c>
       <c r="N1236" s="8" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="S1236" s="2" t="s">
         <v>97</v>
@@ -38411,7 +38411,7 @@
         <v>83</v>
       </c>
       <c r="N1237" s="8" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="V1237" s="14"/>
     </row>
@@ -38435,7 +38435,7 @@
         <v>84</v>
       </c>
       <c r="N1238" s="8" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="V1238" s="14"/>
     </row>
@@ -38459,7 +38459,7 @@
         <v>85</v>
       </c>
       <c r="N1239" s="8" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="O1239" s="2" t="s">
         <v>0</v>
@@ -38468,7 +38468,7 @@
         <v>82</v>
       </c>
       <c r="V1239" s="14" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="1240" spans="8:22" x14ac:dyDescent="0.25">
@@ -38491,7 +38491,7 @@
         <v>86</v>
       </c>
       <c r="N1240" s="8" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="V1240" s="14"/>
     </row>
@@ -38515,7 +38515,7 @@
         <v>87</v>
       </c>
       <c r="N1241" s="8" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="V1241" s="14"/>
     </row>
@@ -38572,7 +38572,7 @@
         <v>89</v>
       </c>
       <c r="N1243" s="8" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="O1243" s="2"/>
       <c r="V1243" s="14"/>
@@ -38600,7 +38600,7 @@
         <v>90</v>
       </c>
       <c r="N1244" s="8" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="O1244" s="2"/>
       <c r="V1244" s="14"/>
@@ -38628,7 +38628,7 @@
         <v>91</v>
       </c>
       <c r="N1245" s="8" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="V1245" s="14"/>
     </row>
@@ -38655,7 +38655,7 @@
         <v>92</v>
       </c>
       <c r="N1246" s="8" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="U1246" s="41" t="s">
         <v>88</v>
@@ -38715,13 +38715,13 @@
         <v>94</v>
       </c>
       <c r="N1248" s="8" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="O1248" s="1" t="s">
         <v>15</v>
       </c>
       <c r="V1248" s="26" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="1249" spans="9:22" x14ac:dyDescent="0.25">
@@ -38744,7 +38744,7 @@
         <v>95</v>
       </c>
       <c r="N1249" s="8" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="V1249" s="14"/>
     </row>
@@ -38792,7 +38792,7 @@
         <v>97</v>
       </c>
       <c r="N1251" s="8" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="P1251" s="2" t="s">
         <v>82</v>
@@ -38827,13 +38827,13 @@
         <v>98</v>
       </c>
       <c r="N1252" s="8" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="O1252" s="2" t="s">
         <v>15</v>
       </c>
       <c r="V1252" s="28" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="1253" spans="9:22" x14ac:dyDescent="0.25">
@@ -38880,13 +38880,13 @@
         <v>100</v>
       </c>
       <c r="N1254" s="8" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="O1254" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1254" s="14" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="1255" spans="9:22" x14ac:dyDescent="0.25">
@@ -38908,7 +38908,7 @@
         <v>101</v>
       </c>
       <c r="N1255" s="8" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="S1255" s="2" t="s">
         <v>89</v>
@@ -38938,7 +38938,7 @@
         <v>102</v>
       </c>
       <c r="N1256" s="8" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="V1256" s="14"/>
     </row>
@@ -38962,7 +38962,7 @@
         <v>103</v>
       </c>
       <c r="N1257" s="8" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="V1257" s="14"/>
     </row>
@@ -39013,7 +39013,7 @@
         <v>105</v>
       </c>
       <c r="N1259" s="8" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="V1259" s="14"/>
     </row>
@@ -39037,13 +39037,13 @@
         <v>106</v>
       </c>
       <c r="N1260" s="8" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="P1260" s="2" t="s">
         <v>82</v>
       </c>
       <c r="V1260" s="31" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="1261" spans="9:22" x14ac:dyDescent="0.25">
@@ -39066,7 +39066,7 @@
         <v>107</v>
       </c>
       <c r="N1261" s="8" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="V1261" s="14"/>
     </row>
@@ -39114,7 +39114,7 @@
         <v>109</v>
       </c>
       <c r="N1263" s="8" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="V1263" s="14"/>
     </row>
@@ -39138,7 +39138,7 @@
         <v>110</v>
       </c>
       <c r="N1264" s="8" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="V1264" s="14"/>
     </row>
@@ -39162,7 +39162,7 @@
         <v>111</v>
       </c>
       <c r="N1265" s="8" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="V1265" s="14"/>
     </row>
@@ -39213,7 +39213,7 @@
         <v>113</v>
       </c>
       <c r="N1267" s="8" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="V1267" s="14"/>
     </row>
@@ -39237,7 +39237,7 @@
         <v>114</v>
       </c>
       <c r="N1268" s="8" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="V1268" s="14"/>
     </row>
@@ -39261,13 +39261,13 @@
         <v>115</v>
       </c>
       <c r="N1269" s="8" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="P1269" s="2" t="s">
         <v>82</v>
       </c>
       <c r="V1269" s="28" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="1270" spans="9:22" x14ac:dyDescent="0.25">
@@ -39290,7 +39290,7 @@
         <v>116</v>
       </c>
       <c r="N1270" s="8" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="O1270" s="2"/>
       <c r="V1270" s="14"/>
@@ -39315,7 +39315,7 @@
         <v>117</v>
       </c>
       <c r="N1271" s="8" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="O1271" s="2"/>
       <c r="V1271" s="14"/>
@@ -39340,13 +39340,13 @@
         <v>118</v>
       </c>
       <c r="N1272" s="8" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="O1272" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1272" s="14" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="1273" spans="9:22" x14ac:dyDescent="0.25">
@@ -39369,7 +39369,7 @@
         <v>119</v>
       </c>
       <c r="N1273" s="8" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="V1273" s="14"/>
     </row>
@@ -39393,13 +39393,13 @@
         <v>120</v>
       </c>
       <c r="N1274" s="8" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="O1274" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1274" s="14" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="1275" spans="9:22" x14ac:dyDescent="0.25">
@@ -39422,13 +39422,13 @@
         <v>121</v>
       </c>
       <c r="N1275" s="8" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="P1275" s="2" t="s">
         <v>82</v>
       </c>
       <c r="V1275" s="35" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="1276" spans="9:22" x14ac:dyDescent="0.25">
@@ -39475,7 +39475,7 @@
         <v>123</v>
       </c>
       <c r="N1277" s="8" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="O1277" s="2"/>
       <c r="V1277" s="14"/>
@@ -39500,13 +39500,13 @@
         <v>124</v>
       </c>
       <c r="N1278" s="8" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="P1278" s="2" t="s">
         <v>82</v>
       </c>
       <c r="V1278" s="28" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="1279" spans="9:22" x14ac:dyDescent="0.25">
@@ -39529,7 +39529,7 @@
         <v>125</v>
       </c>
       <c r="N1279" s="8" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="O1279" s="2"/>
       <c r="V1279" s="14"/>
@@ -39578,7 +39578,7 @@
         <v>127</v>
       </c>
       <c r="N1281" s="8" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="O1281" s="2"/>
       <c r="V1281" s="14"/>
@@ -39664,7 +39664,7 @@
         <v>130</v>
       </c>
       <c r="N1284" s="8" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="V1284" s="14"/>
     </row>
@@ -39694,7 +39694,7 @@
         <v>131</v>
       </c>
       <c r="N1285" s="8" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="V1285" s="14"/>
     </row>
@@ -39721,7 +39721,7 @@
         <v>132</v>
       </c>
       <c r="N1286" s="8" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="V1286" s="14"/>
     </row>
@@ -39748,13 +39748,13 @@
         <v>133</v>
       </c>
       <c r="N1287" s="8" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="O1287" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1287" s="14" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="1288" spans="1:22" x14ac:dyDescent="0.25">
@@ -39780,7 +39780,7 @@
         <v>134</v>
       </c>
       <c r="N1288" s="8" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="O1288" s="2" t="s">
         <v>0</v>
@@ -39789,7 +39789,7 @@
         <v>82</v>
       </c>
       <c r="V1288" s="14" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="1289" spans="1:22" x14ac:dyDescent="0.25">
@@ -39812,7 +39812,7 @@
         <v>135</v>
       </c>
       <c r="N1289" s="8" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="V1289" s="14"/>
     </row>
@@ -39860,7 +39860,7 @@
         <v>137</v>
       </c>
       <c r="N1291" s="8" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="O1291" s="1" t="s">
         <v>102</v>
@@ -39887,7 +39887,7 @@
         <v>138</v>
       </c>
       <c r="N1292" s="8" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="O1292" s="2"/>
       <c r="V1292" s="14"/>
@@ -39912,7 +39912,7 @@
         <v>139</v>
       </c>
       <c r="N1293" s="8" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="V1293" s="14"/>
     </row>
@@ -39939,7 +39939,7 @@
         <v>140</v>
       </c>
       <c r="N1294" s="8" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="V1294" s="14"/>
     </row>
@@ -39966,7 +39966,7 @@
         <v>141</v>
       </c>
       <c r="N1295" s="8" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="V1295" s="14"/>
     </row>
@@ -39993,7 +39993,7 @@
         <v>142</v>
       </c>
       <c r="N1296" s="8" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="U1296" s="2" t="s">
         <v>106</v>
@@ -40029,7 +40029,7 @@
         <v>82</v>
       </c>
       <c r="V1297" s="28" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="1298" spans="8:22" x14ac:dyDescent="0.25">
@@ -40052,7 +40052,7 @@
         <v>144</v>
       </c>
       <c r="N1298" s="8" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="V1298" s="14"/>
     </row>
@@ -40076,7 +40076,7 @@
         <v>145</v>
       </c>
       <c r="N1299" s="8" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="V1299" s="14"/>
     </row>
@@ -40100,7 +40100,7 @@
         <v>146</v>
       </c>
       <c r="N1300" s="8" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="V1300" s="14"/>
     </row>
@@ -40148,13 +40148,13 @@
         <v>148</v>
       </c>
       <c r="N1302" s="8" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="O1302" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1302" s="14" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="1303" spans="8:22" x14ac:dyDescent="0.25">
@@ -40204,13 +40204,13 @@
         <v>150</v>
       </c>
       <c r="N1304" s="8" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="P1304" s="2" t="s">
         <v>82</v>
       </c>
       <c r="V1304" s="35" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="1305" spans="8:22" x14ac:dyDescent="0.25">
@@ -40232,13 +40232,13 @@
         <v>151</v>
       </c>
       <c r="N1305" s="8" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="O1305" s="1" t="s">
         <v>15</v>
       </c>
       <c r="V1305" s="26" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="1306" spans="8:22" x14ac:dyDescent="0.25">
@@ -40261,13 +40261,13 @@
         <v>152</v>
       </c>
       <c r="N1306" s="8" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="O1306" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1306" s="14" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="1307" spans="8:22" x14ac:dyDescent="0.25">
@@ -40290,13 +40290,13 @@
         <v>153</v>
       </c>
       <c r="N1307" s="8" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="P1307" s="2" t="s">
         <v>82</v>
       </c>
       <c r="V1307" s="35" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="1308" spans="8:22" x14ac:dyDescent="0.25">
@@ -40319,7 +40319,7 @@
         <v>154</v>
       </c>
       <c r="N1308" s="8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="V1308" s="14"/>
     </row>
@@ -40343,7 +40343,7 @@
         <v>155</v>
       </c>
       <c r="N1309" s="8" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="V1309" s="14"/>
     </row>
@@ -40367,7 +40367,7 @@
         <v>156</v>
       </c>
       <c r="N1310" s="8" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="V1310" s="14"/>
     </row>
@@ -40391,13 +40391,13 @@
         <v>157</v>
       </c>
       <c r="N1311" s="8" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="O1311" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1311" s="14" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="1312" spans="8:22" x14ac:dyDescent="0.25">
@@ -40420,7 +40420,7 @@
         <v>158</v>
       </c>
       <c r="N1312" s="8" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="V1312" s="14"/>
     </row>
@@ -40444,13 +40444,13 @@
         <v>159</v>
       </c>
       <c r="N1313" s="8" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="O1313" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1313" s="14" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="1314" spans="9:22" x14ac:dyDescent="0.25">
@@ -40473,7 +40473,7 @@
         <v>160</v>
       </c>
       <c r="N1314" s="8" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="P1314" s="2" t="s">
         <v>82</v>
@@ -40526,7 +40526,7 @@
         <v>162</v>
       </c>
       <c r="N1316" s="8" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="V1316" s="14"/>
     </row>
@@ -40550,13 +40550,13 @@
         <v>163</v>
       </c>
       <c r="N1317" s="8" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="O1317" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1317" s="14" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="1318" spans="9:22" x14ac:dyDescent="0.25">
@@ -40579,7 +40579,7 @@
         <v>164</v>
       </c>
       <c r="N1318" s="8" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="V1318" s="14"/>
     </row>
@@ -40603,7 +40603,7 @@
         <v>165</v>
       </c>
       <c r="N1319" s="8" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="V1319" s="14"/>
     </row>
@@ -40651,13 +40651,13 @@
         <v>167</v>
       </c>
       <c r="N1321" s="8" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="O1321" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1321" s="14" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1322" spans="9:22" x14ac:dyDescent="0.25">
@@ -40680,13 +40680,13 @@
         <v>168</v>
       </c>
       <c r="N1322" s="8" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="P1322" s="2" t="s">
         <v>82</v>
       </c>
       <c r="V1322" s="31" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="1323" spans="9:22" x14ac:dyDescent="0.25">
@@ -40709,13 +40709,13 @@
         <v>169</v>
       </c>
       <c r="N1323" s="8" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="S1323" s="2" t="s">
         <v>89</v>
       </c>
       <c r="T1323" s="2" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="V1323" s="14"/>
     </row>
@@ -40787,7 +40787,7 @@
         <v>172</v>
       </c>
       <c r="N1326" s="8" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="V1326" s="14"/>
     </row>
@@ -40863,13 +40863,13 @@
         <v>175</v>
       </c>
       <c r="N1329" s="8" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="P1329" s="2" t="s">
         <v>82</v>
       </c>
       <c r="V1329" s="28" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1330" spans="4:22" x14ac:dyDescent="0.25">
@@ -40895,7 +40895,7 @@
         <v>176</v>
       </c>
       <c r="N1330" s="8" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="O1330" s="2"/>
       <c r="V1330" s="14"/>
@@ -40950,7 +40950,7 @@
         <v>0</v>
       </c>
       <c r="V1332" s="14" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="1333" spans="4:22" x14ac:dyDescent="0.25">
@@ -41000,7 +41000,7 @@
         <v>180</v>
       </c>
       <c r="N1334" s="8" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="V1334" s="14"/>
     </row>
@@ -41024,7 +41024,7 @@
         <v>181</v>
       </c>
       <c r="N1335" s="55" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="O1335" s="1" t="s">
         <v>102</v>
@@ -41051,7 +41051,7 @@
         <v>182</v>
       </c>
       <c r="N1336" s="8" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="V1336" s="14"/>
     </row>
@@ -41075,7 +41075,7 @@
         <v>183</v>
       </c>
       <c r="N1337" s="8" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="O1337" s="2"/>
       <c r="V1337" s="14"/>
@@ -41107,7 +41107,7 @@
         <v>82</v>
       </c>
       <c r="V1338" s="26" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="1339" spans="4:22" x14ac:dyDescent="0.25">
@@ -41139,13 +41139,13 @@
         <v>185</v>
       </c>
       <c r="N1339" s="8" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="O1339" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1339" s="14" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="1340" spans="4:22" x14ac:dyDescent="0.25">
@@ -41252,13 +41252,13 @@
         <v>189</v>
       </c>
       <c r="N1343" s="8" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="O1343" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1343" s="14" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="1344" spans="4:22" x14ac:dyDescent="0.25">
@@ -41281,13 +41281,13 @@
         <v>190</v>
       </c>
       <c r="N1344" s="8" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="O1344" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1344" s="14" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="1345" spans="9:22" x14ac:dyDescent="0.25">
@@ -41310,13 +41310,13 @@
         <v>191</v>
       </c>
       <c r="N1345" s="8" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="P1345" s="2" t="s">
         <v>82</v>
       </c>
       <c r="V1345" s="28" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="1346" spans="9:22" x14ac:dyDescent="0.25">
@@ -41364,7 +41364,7 @@
         <v>193</v>
       </c>
       <c r="N1347" s="8" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="V1347" s="14"/>
     </row>
@@ -41388,7 +41388,7 @@
         <v>194</v>
       </c>
       <c r="N1348" s="8" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="V1348" s="14"/>
     </row>
@@ -41412,7 +41412,7 @@
         <v>195</v>
       </c>
       <c r="N1349" s="8" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="V1349" s="14"/>
     </row>
@@ -41436,7 +41436,7 @@
         <v>196</v>
       </c>
       <c r="N1350" s="8" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="V1350" s="14"/>
     </row>
@@ -41460,7 +41460,7 @@
         <v>197</v>
       </c>
       <c r="N1351" s="8" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="V1351" s="14"/>
     </row>
@@ -41532,7 +41532,7 @@
         <v>200</v>
       </c>
       <c r="N1354" s="8" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="O1354" s="1" t="s">
         <v>102</v>
@@ -41558,7 +41558,7 @@
         <v>201</v>
       </c>
       <c r="N1355" s="8" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="V1355" s="14"/>
     </row>
@@ -41589,7 +41589,7 @@
         <v>82</v>
       </c>
       <c r="V1356" s="35" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="1357" spans="9:22" x14ac:dyDescent="0.25">
@@ -41612,7 +41612,7 @@
         <v>203</v>
       </c>
       <c r="N1357" s="8" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="O1357" s="2"/>
       <c r="V1357" s="14"/>
@@ -41661,13 +41661,13 @@
         <v>205</v>
       </c>
       <c r="N1359" s="8" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="O1359" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1359" s="14" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="1360" spans="9:22" x14ac:dyDescent="0.25">
@@ -41690,13 +41690,13 @@
         <v>206</v>
       </c>
       <c r="N1360" s="8" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="O1360" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1360" s="14" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="1361" spans="4:22" x14ac:dyDescent="0.25">
@@ -41719,7 +41719,7 @@
         <v>207</v>
       </c>
       <c r="N1361" s="8" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="O1361" s="2" t="s">
         <v>0</v>
@@ -41728,7 +41728,7 @@
         <v>82</v>
       </c>
       <c r="V1361" s="14" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="1362" spans="4:22" x14ac:dyDescent="0.25">
@@ -41776,7 +41776,7 @@
         <v>209</v>
       </c>
       <c r="N1363" s="8" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="V1363" s="14"/>
     </row>
@@ -41800,7 +41800,7 @@
         <v>210</v>
       </c>
       <c r="N1364" s="8" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="O1364" s="2" t="s">
         <v>0</v>
@@ -41809,7 +41809,7 @@
         <v>82</v>
       </c>
       <c r="V1364" s="14" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="1365" spans="4:22" x14ac:dyDescent="0.25">
@@ -41832,7 +41832,7 @@
         <v>211</v>
       </c>
       <c r="N1365" s="8" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="S1365" s="2" t="s">
         <v>89</v>
@@ -41889,7 +41889,7 @@
         <v>213</v>
       </c>
       <c r="N1367" s="8" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="V1367" s="14"/>
     </row>
@@ -41916,7 +41916,7 @@
         <v>214</v>
       </c>
       <c r="N1368" s="8" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="V1368" s="14"/>
     </row>
@@ -41994,7 +41994,7 @@
         <v>217</v>
       </c>
       <c r="N1371" s="8" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="V1371" s="14"/>
     </row>
@@ -42045,7 +42045,7 @@
         <v>219</v>
       </c>
       <c r="N1373" s="8" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="O1373" s="2" t="s">
         <v>0</v>
@@ -42054,7 +42054,7 @@
         <v>82</v>
       </c>
       <c r="V1373" s="14" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1374" spans="4:22" x14ac:dyDescent="0.25">
@@ -42077,7 +42077,7 @@
         <v>220</v>
       </c>
       <c r="N1374" s="8" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="V1374" s="14"/>
     </row>
@@ -42101,13 +42101,13 @@
         <v>221</v>
       </c>
       <c r="N1375" s="8" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="O1375" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1375" s="14" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="1376" spans="4:22" x14ac:dyDescent="0.25">
@@ -42130,7 +42130,7 @@
         <v>222</v>
       </c>
       <c r="N1376" s="44" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="O1376" s="6" t="s">
         <v>0</v>
@@ -42142,7 +42142,7 @@
       <c r="T1376" s="43"/>
       <c r="U1376" s="43"/>
       <c r="V1376" s="14" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="1377" spans="8:22" x14ac:dyDescent="0.25">
@@ -42168,7 +42168,7 @@
         <v>223</v>
       </c>
       <c r="N1377" s="8" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="V1377" s="14"/>
     </row>
@@ -42195,7 +42195,7 @@
         <v>224</v>
       </c>
       <c r="N1378" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="V1378" s="14"/>
     </row>
@@ -42246,7 +42246,7 @@
         <v>226</v>
       </c>
       <c r="N1380" s="8" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="O1380" s="2"/>
       <c r="V1380" s="14"/>
@@ -42271,7 +42271,7 @@
         <v>227</v>
       </c>
       <c r="N1381" s="8" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O1381" s="2" t="s">
         <v>0</v>
@@ -42280,7 +42280,7 @@
         <v>82</v>
       </c>
       <c r="V1381" s="14" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="1382" spans="8:22" x14ac:dyDescent="0.25">
@@ -42303,7 +42303,7 @@
         <v>228</v>
       </c>
       <c r="N1382" s="8" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="V1382" s="14"/>
     </row>
@@ -42327,7 +42327,7 @@
         <v>229</v>
       </c>
       <c r="N1383" s="8" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="V1383" s="14"/>
     </row>
@@ -42351,7 +42351,7 @@
         <v>230</v>
       </c>
       <c r="N1384" s="8" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="V1384" s="14"/>
     </row>
@@ -42399,7 +42399,7 @@
         <v>232</v>
       </c>
       <c r="N1386" s="8" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="V1386" s="14"/>
     </row>
@@ -42450,13 +42450,13 @@
         <v>234</v>
       </c>
       <c r="N1388" s="8" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="P1388" s="2" t="s">
         <v>82</v>
       </c>
       <c r="V1388" s="28" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="1389" spans="8:22" x14ac:dyDescent="0.25">
@@ -42503,7 +42503,7 @@
         <v>236</v>
       </c>
       <c r="N1390" s="8" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="V1390" s="14"/>
     </row>
@@ -42527,7 +42527,7 @@
         <v>237</v>
       </c>
       <c r="N1391" s="8" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="O1391" s="2" t="s">
         <v>0</v>
@@ -42536,7 +42536,7 @@
         <v>82</v>
       </c>
       <c r="V1391" s="14" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="1392" spans="8:22" x14ac:dyDescent="0.25">
@@ -42559,7 +42559,7 @@
         <v>238</v>
       </c>
       <c r="N1392" s="8" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="O1392" s="2"/>
       <c r="V1392" s="14"/>
@@ -42584,7 +42584,7 @@
         <v>239</v>
       </c>
       <c r="N1393" s="8" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="O1393" s="2"/>
       <c r="V1393" s="14"/>
@@ -42609,7 +42609,7 @@
         <v>240</v>
       </c>
       <c r="N1394" s="8" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="V1394" s="14"/>
     </row>
@@ -42660,7 +42660,7 @@
         <v>242</v>
       </c>
       <c r="N1396" s="8" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="V1396" s="14"/>
     </row>
@@ -42684,13 +42684,13 @@
         <v>243</v>
       </c>
       <c r="N1397" s="8" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="O1397" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1397" s="14" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1398" spans="9:22" x14ac:dyDescent="0.25">
@@ -42713,7 +42713,7 @@
         <v>244</v>
       </c>
       <c r="N1398" s="8" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="V1398" s="14"/>
     </row>
@@ -42737,7 +42737,7 @@
         <v>245</v>
       </c>
       <c r="N1399" s="8" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="V1399" s="14"/>
     </row>
@@ -42761,13 +42761,13 @@
         <v>246</v>
       </c>
       <c r="N1400" s="8" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="P1400" s="2" t="s">
         <v>82</v>
       </c>
       <c r="V1400" s="28" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="1401" spans="9:22" x14ac:dyDescent="0.25">
@@ -42817,7 +42817,7 @@
         <v>248</v>
       </c>
       <c r="N1402" s="8" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="U1402" s="2" t="s">
         <v>95</v>
@@ -42844,7 +42844,7 @@
         <v>249</v>
       </c>
       <c r="N1403" s="8" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="U1403" s="2" t="s">
         <v>88</v>
@@ -42871,13 +42871,13 @@
         <v>250</v>
       </c>
       <c r="N1404" s="8" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="O1404" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1404" s="14" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1405" spans="9:22" x14ac:dyDescent="0.25">
@@ -42947,7 +42947,7 @@
         <v>253</v>
       </c>
       <c r="N1407" s="8" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="V1407" s="14"/>
     </row>
@@ -42971,7 +42971,7 @@
         <v>254</v>
       </c>
       <c r="N1408" s="8" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="V1408" s="14"/>
     </row>
@@ -42995,7 +42995,7 @@
         <v>255</v>
       </c>
       <c r="N1409" s="8" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O1409" s="2" t="s">
         <v>0</v>
@@ -43004,7 +43004,7 @@
         <v>82</v>
       </c>
       <c r="V1409" s="14" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="1410" spans="9:22" x14ac:dyDescent="0.25">
@@ -43102,13 +43102,13 @@
         <v>259</v>
       </c>
       <c r="N1413" s="8" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="O1413" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1413" s="14" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="1414" spans="9:22" x14ac:dyDescent="0.25">
@@ -43131,7 +43131,7 @@
         <v>260</v>
       </c>
       <c r="N1414" s="8" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="V1414" s="14"/>
     </row>
@@ -43155,7 +43155,7 @@
         <v>261</v>
       </c>
       <c r="N1415" s="8" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="V1415" s="14"/>
     </row>
@@ -43179,7 +43179,7 @@
         <v>262</v>
       </c>
       <c r="N1416" s="8" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="V1416" s="14"/>
     </row>
@@ -43203,7 +43203,7 @@
         <v>263</v>
       </c>
       <c r="N1417" s="8" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="1418" spans="9:22" x14ac:dyDescent="0.25">
@@ -43226,13 +43226,13 @@
         <v>264</v>
       </c>
       <c r="N1418" s="14" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="O1418" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1418" s="8" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="1419" spans="9:22" x14ac:dyDescent="0.25">
@@ -43255,7 +43255,7 @@
         <v>265</v>
       </c>
       <c r="N1419" s="8" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="V1419" s="14"/>
     </row>
@@ -43279,7 +43279,7 @@
         <v>266</v>
       </c>
       <c r="N1420" s="8" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="O1420" s="2"/>
       <c r="P1420" s="2" t="s">
@@ -43289,7 +43289,7 @@
         <v>95</v>
       </c>
       <c r="V1420" s="35" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="1421" spans="9:22" x14ac:dyDescent="0.25">
@@ -43336,7 +43336,7 @@
         <v>268</v>
       </c>
       <c r="N1422" s="8" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="V1422" s="14"/>
     </row>
@@ -43360,7 +43360,7 @@
         <v>269</v>
       </c>
       <c r="N1423" s="8" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="O1423" s="2"/>
       <c r="V1423" s="14"/>
@@ -43385,7 +43385,7 @@
         <v>270</v>
       </c>
       <c r="N1424" s="8" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="V1424" s="14"/>
     </row>
@@ -43409,13 +43409,13 @@
         <v>271</v>
       </c>
       <c r="N1425" s="8" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="O1425" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1425" s="14" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="1426" spans="8:22" x14ac:dyDescent="0.25">
@@ -43438,7 +43438,7 @@
         <v>272</v>
       </c>
       <c r="N1426" s="8" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="V1426" s="14"/>
     </row>
@@ -43462,7 +43462,7 @@
         <v>273</v>
       </c>
       <c r="N1427" s="8" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="V1427" s="14"/>
     </row>
@@ -43515,7 +43515,7 @@
         <v>275</v>
       </c>
       <c r="N1429" s="8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="V1429" s="14"/>
     </row>
@@ -43539,7 +43539,7 @@
         <v>276</v>
       </c>
       <c r="N1430" s="8" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="O1430" s="2"/>
       <c r="V1430" s="14"/>
@@ -43588,7 +43588,7 @@
         <v>278</v>
       </c>
       <c r="N1432" s="8" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="V1432" s="14"/>
     </row>
@@ -43612,7 +43612,7 @@
         <v>279</v>
       </c>
       <c r="N1433" s="8" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="V1433" s="14"/>
     </row>
@@ -43636,7 +43636,7 @@
         <v>280</v>
       </c>
       <c r="N1434" s="8" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="V1434" s="14"/>
     </row>
@@ -43660,13 +43660,13 @@
         <v>281</v>
       </c>
       <c r="N1435" s="8" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="O1435" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1435" s="14" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="1436" spans="8:22" x14ac:dyDescent="0.25">
@@ -43689,7 +43689,7 @@
         <v>282</v>
       </c>
       <c r="N1436" s="8" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="O1436" s="2" t="s">
         <v>0</v>
@@ -43698,7 +43698,7 @@
         <v>82</v>
       </c>
       <c r="V1436" s="28" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="1437" spans="8:22" x14ac:dyDescent="0.25">
@@ -43778,13 +43778,13 @@
         <v>285</v>
       </c>
       <c r="N1439" s="8" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="O1439" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1439" s="14" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="1440" spans="8:22" x14ac:dyDescent="0.25">
@@ -43807,13 +43807,13 @@
         <v>286</v>
       </c>
       <c r="N1440" s="8" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="O1440" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1440" s="14" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="1441" spans="1:22" x14ac:dyDescent="0.25">
@@ -43836,7 +43836,7 @@
         <v>287</v>
       </c>
       <c r="N1441" s="8" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="V1441" s="14"/>
     </row>
@@ -43884,13 +43884,13 @@
         <v>289</v>
       </c>
       <c r="N1443" s="8" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="O1443" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1443" s="14" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="1444" spans="1:22" x14ac:dyDescent="0.25">
@@ -43937,13 +43937,13 @@
         <v>291</v>
       </c>
       <c r="N1445" s="8" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="P1445" s="2" t="s">
         <v>82</v>
       </c>
       <c r="V1445" s="32" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="1446" spans="1:22" x14ac:dyDescent="0.25">
@@ -43990,7 +43990,7 @@
         <v>293</v>
       </c>
       <c r="N1447" s="8" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="V1447" s="14"/>
     </row>
@@ -44041,7 +44041,7 @@
         <v>295</v>
       </c>
       <c r="N1449" s="8" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="V1449" s="14"/>
     </row>
@@ -44065,7 +44065,7 @@
         <v>296</v>
       </c>
       <c r="N1450" s="8" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="V1450" s="14"/>
     </row>
@@ -44089,13 +44089,13 @@
         <v>297</v>
       </c>
       <c r="N1451" s="8" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="O1451" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1451" s="14" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="1452" spans="1:22" x14ac:dyDescent="0.25">
@@ -44118,13 +44118,13 @@
         <v>298</v>
       </c>
       <c r="N1452" s="8" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="P1452" s="2" t="s">
         <v>82</v>
       </c>
       <c r="V1452" s="28" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="1453" spans="1:22" x14ac:dyDescent="0.25">
@@ -44147,7 +44147,7 @@
         <v>299</v>
       </c>
       <c r="N1453" s="8" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="V1453" s="14"/>
     </row>
@@ -44198,13 +44198,13 @@
         <v>301</v>
       </c>
       <c r="N1455" s="8" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="V1455" s="14"/>
     </row>
     <row r="1456" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1456" s="51" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="H1456" s="47" t="s">
         <v>160</v>
@@ -44228,7 +44228,7 @@
         <v>302</v>
       </c>
       <c r="N1456" s="8" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="O1456" s="1" t="s">
         <v>102</v>
@@ -44237,7 +44237,7 @@
     </row>
     <row r="1457" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1457" s="51" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="H1457" s="47" t="s">
         <v>160</v>
@@ -44261,7 +44261,7 @@
         <v>303</v>
       </c>
       <c r="N1457" s="8" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="V1457" s="14"/>
     </row>
@@ -44288,7 +44288,7 @@
         <v>304</v>
       </c>
       <c r="N1458" s="8" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="V1458" s="14"/>
     </row>
@@ -44312,7 +44312,7 @@
         <v>305</v>
       </c>
       <c r="N1459" s="8" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="O1459" s="2" t="s">
         <v>0</v>
@@ -44321,7 +44321,7 @@
         <v>82</v>
       </c>
       <c r="V1459" s="28" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="1460" spans="1:22" x14ac:dyDescent="0.25">
@@ -44395,13 +44395,13 @@
         <v>308</v>
       </c>
       <c r="N1462" s="8" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="O1462" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1462" s="14" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="1463" spans="1:22" x14ac:dyDescent="0.25">
@@ -44424,7 +44424,7 @@
         <v>309</v>
       </c>
       <c r="N1463" s="8" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="V1463" s="14"/>
     </row>
@@ -44448,7 +44448,7 @@
         <v>310</v>
       </c>
       <c r="N1464" s="8" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="V1464" s="14"/>
     </row>
@@ -44499,13 +44499,13 @@
         <v>312</v>
       </c>
       <c r="N1466" s="8" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="P1466" s="2" t="s">
         <v>82</v>
       </c>
       <c r="V1466" s="35" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="1467" spans="1:22" x14ac:dyDescent="0.25">
@@ -44552,7 +44552,7 @@
         <v>314</v>
       </c>
       <c r="N1468" s="8" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="V1468" s="14"/>
     </row>
@@ -44576,7 +44576,7 @@
         <v>315</v>
       </c>
       <c r="N1469" s="8" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="V1469" s="14"/>
     </row>
@@ -44600,7 +44600,7 @@
         <v>316</v>
       </c>
       <c r="N1470" s="8" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="U1470" s="2" t="s">
         <v>104</v>
@@ -44627,7 +44627,7 @@
         <v>317</v>
       </c>
       <c r="N1471" s="8" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="V1471" s="14"/>
     </row>
@@ -44651,7 +44651,7 @@
         <v>318</v>
       </c>
       <c r="N1472" s="8" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="V1472" s="14"/>
     </row>
@@ -44675,7 +44675,7 @@
         <v>319</v>
       </c>
       <c r="N1473" s="8" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="O1473" s="2" t="s">
         <v>0</v>
@@ -44684,7 +44684,7 @@
         <v>82</v>
       </c>
       <c r="V1473" s="14" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="1474" spans="6:22" x14ac:dyDescent="0.25">
@@ -44707,13 +44707,13 @@
         <v>320</v>
       </c>
       <c r="N1474" s="8" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="O1474" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1474" s="14" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="1475" spans="6:22" x14ac:dyDescent="0.25">
@@ -44736,13 +44736,13 @@
         <v>321</v>
       </c>
       <c r="N1475" s="8" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="O1475" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1475" s="14" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="1476" spans="6:22" x14ac:dyDescent="0.25">
@@ -44765,13 +44765,13 @@
         <v>322</v>
       </c>
       <c r="N1476" s="8" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="O1476" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1476" s="14" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="1477" spans="6:22" x14ac:dyDescent="0.25">
@@ -44794,13 +44794,13 @@
         <v>323</v>
       </c>
       <c r="N1477" s="8" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="P1477" s="2" t="s">
         <v>82</v>
       </c>
       <c r="V1477" s="8" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="1478" spans="6:22" x14ac:dyDescent="0.25">
@@ -44823,7 +44823,7 @@
         <v>324</v>
       </c>
       <c r="N1478" s="8" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="V1478" s="14"/>
     </row>
@@ -44847,7 +44847,7 @@
         <v>325</v>
       </c>
       <c r="N1479" s="8" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="V1479" s="14"/>
     </row>
@@ -44871,7 +44871,7 @@
         <v>326</v>
       </c>
       <c r="N1480" s="8" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="P1480" s="2" t="s">
         <v>82</v>
@@ -44880,12 +44880,12 @@
         <v>95</v>
       </c>
       <c r="V1480" s="28" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="1481" spans="6:22" x14ac:dyDescent="0.25">
       <c r="F1481" s="54" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="H1481" s="47" t="s">
         <v>161</v>
@@ -44909,13 +44909,13 @@
         <v>327</v>
       </c>
       <c r="N1481" s="8" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="V1481" s="14"/>
     </row>
     <row r="1482" spans="6:22" x14ac:dyDescent="0.25">
       <c r="F1482" s="54" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="H1482" s="47" t="s">
         <v>161</v>
@@ -44939,7 +44939,7 @@
         <v>328</v>
       </c>
       <c r="N1482" s="8" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="V1482" s="14"/>
     </row>
@@ -44966,13 +44966,13 @@
         <v>329</v>
       </c>
       <c r="N1483" s="8" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O1483" s="2" t="s">
         <v>15</v>
       </c>
       <c r="V1483" s="26" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="1484" spans="6:22" x14ac:dyDescent="0.25">
@@ -44998,7 +44998,7 @@
         <v>330</v>
       </c>
       <c r="N1484" s="8" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="U1484" s="2" t="s">
         <v>88</v>
@@ -45028,13 +45028,13 @@
         <v>331</v>
       </c>
       <c r="N1485" s="8" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="O1485" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1485" s="14" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="1486" spans="6:22" x14ac:dyDescent="0.25">
@@ -45060,7 +45060,7 @@
         <v>332</v>
       </c>
       <c r="N1486" s="8" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="V1486" s="14"/>
     </row>
@@ -45111,7 +45111,7 @@
         <v>334</v>
       </c>
       <c r="N1488" s="8" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="O1488" s="2"/>
       <c r="V1488" s="14"/>
@@ -45136,7 +45136,7 @@
         <v>335</v>
       </c>
       <c r="N1489" s="8" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="V1489" s="14"/>
     </row>
@@ -45160,14 +45160,14 @@
         <v>336</v>
       </c>
       <c r="N1490" s="8" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="O1490" s="2"/>
       <c r="P1490" s="2" t="s">
         <v>82</v>
       </c>
       <c r="V1490" s="28" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="1491" spans="8:22" x14ac:dyDescent="0.25">
@@ -45190,7 +45190,7 @@
         <v>337</v>
       </c>
       <c r="N1491" s="8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="V1491" s="14"/>
     </row>
@@ -45262,13 +45262,13 @@
         <v>340</v>
       </c>
       <c r="N1494" s="8" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="O1494" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1494" s="60" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="1495" spans="8:22" x14ac:dyDescent="0.25">
@@ -45291,7 +45291,7 @@
         <v>341</v>
       </c>
       <c r="N1495" s="8" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="V1495" s="14"/>
     </row>
@@ -45342,7 +45342,7 @@
         <v>343</v>
       </c>
       <c r="N1497" s="8" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="V1497" s="14"/>
     </row>
@@ -45396,7 +45396,7 @@
         <v>345</v>
       </c>
       <c r="N1499" s="8" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="V1499" s="14"/>
     </row>
@@ -45423,7 +45423,7 @@
         <v>346</v>
       </c>
       <c r="N1500" s="8" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="V1500" s="14"/>
     </row>
@@ -45450,7 +45450,7 @@
         <v>347</v>
       </c>
       <c r="N1501" s="8" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="V1501" s="14"/>
     </row>
@@ -45477,7 +45477,7 @@
         <v>348</v>
       </c>
       <c r="N1502" s="8" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="P1502" s="2" t="s">
         <v>82</v>
@@ -45489,7 +45489,7 @@
         <v>122</v>
       </c>
       <c r="V1502" s="28" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="1503" spans="8:22" x14ac:dyDescent="0.25">
@@ -45536,7 +45536,7 @@
         <v>350</v>
       </c>
       <c r="N1504" s="8" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="V1504" s="14"/>
     </row>
@@ -45559,7 +45559,7 @@
         <v>351</v>
       </c>
       <c r="N1505" s="8" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="O1505" s="2"/>
       <c r="V1505" s="14"/>
@@ -45611,7 +45611,7 @@
         <v>353</v>
       </c>
       <c r="N1507" s="8" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="V1507" s="14"/>
     </row>
@@ -45635,7 +45635,7 @@
         <v>354</v>
       </c>
       <c r="N1508" s="8" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="V1508" s="14"/>
     </row>
@@ -45659,7 +45659,7 @@
         <v>355</v>
       </c>
       <c r="N1509" s="8" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="V1509" s="14"/>
     </row>
@@ -45713,7 +45713,7 @@
         <v>82</v>
       </c>
       <c r="V1511" s="35" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="1512" spans="5:22" x14ac:dyDescent="0.25">
@@ -45736,7 +45736,7 @@
         <v>358</v>
       </c>
       <c r="N1512" s="8" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="V1512" s="14"/>
     </row>
@@ -45760,7 +45760,7 @@
         <v>359</v>
       </c>
       <c r="N1513" s="8" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="V1513" s="14"/>
     </row>
@@ -45784,13 +45784,13 @@
         <v>360</v>
       </c>
       <c r="N1514" s="8" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="P1514" s="2" t="s">
         <v>82</v>
       </c>
       <c r="V1514" s="28" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="1515" spans="5:22" x14ac:dyDescent="0.25">
@@ -45819,7 +45819,7 @@
     </row>
     <row r="1516" spans="5:22" x14ac:dyDescent="0.25">
       <c r="F1516" s="54" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="I1516" s="8" t="s">
         <v>48</v>
@@ -45840,13 +45840,13 @@
         <v>362</v>
       </c>
       <c r="N1516" s="8" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="V1516" s="14"/>
     </row>
     <row r="1517" spans="5:22" x14ac:dyDescent="0.25">
       <c r="F1517" s="54" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="I1517" s="8" t="s">
         <v>48</v>
@@ -45867,13 +45867,13 @@
         <v>363</v>
       </c>
       <c r="N1517" s="8" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="O1517" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1517" s="14" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="1518" spans="5:22" x14ac:dyDescent="0.25">
@@ -45881,7 +45881,7 @@
         <v>131</v>
       </c>
       <c r="F1518" s="54" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="I1518" s="8" t="s">
         <v>48</v>
@@ -45902,7 +45902,7 @@
         <v>364</v>
       </c>
       <c r="N1518" s="8" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="O1518" s="1" t="s">
         <v>15</v>
@@ -45911,7 +45911,7 @@
         <v>99</v>
       </c>
       <c r="V1518" s="26" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="1519" spans="5:22" x14ac:dyDescent="0.25">
@@ -45919,7 +45919,7 @@
         <v>131</v>
       </c>
       <c r="F1519" s="54" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="I1519" s="8" t="s">
         <v>48</v>
@@ -45940,7 +45940,7 @@
         <v>365</v>
       </c>
       <c r="N1519" s="8" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="V1519" s="14"/>
     </row>
@@ -45964,7 +45964,7 @@
         <v>366</v>
       </c>
       <c r="N1520" s="8" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="O1520" s="2" t="s">
         <v>0</v>
@@ -45973,7 +45973,7 @@
         <v>82</v>
       </c>
       <c r="V1520" s="14" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="1521" spans="1:22" x14ac:dyDescent="0.25">
@@ -45996,7 +45996,7 @@
         <v>367</v>
       </c>
       <c r="N1521" s="8" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="O1521" s="2"/>
       <c r="V1521" s="14"/>
@@ -46045,7 +46045,7 @@
         <v>369</v>
       </c>
       <c r="N1523" s="8" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="V1523" s="14"/>
     </row>
@@ -46122,7 +46122,7 @@
         <v>372</v>
       </c>
       <c r="N1526" s="8" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="V1526" s="14"/>
     </row>
@@ -46146,7 +46146,7 @@
         <v>373</v>
       </c>
       <c r="N1527" s="8" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="V1527" s="14"/>
     </row>
@@ -46170,7 +46170,7 @@
         <v>374</v>
       </c>
       <c r="N1528" s="8" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="V1528" s="14"/>
     </row>
@@ -46218,7 +46218,7 @@
         <v>376</v>
       </c>
       <c r="N1530" s="8" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="O1530" s="2"/>
       <c r="P1530" s="2" t="s">
@@ -46302,7 +46302,7 @@
         <v>379</v>
       </c>
       <c r="N1533" s="8" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="V1533" s="14"/>
     </row>
@@ -46326,7 +46326,7 @@
         <v>380</v>
       </c>
       <c r="N1534" s="8" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="V1534" s="14"/>
     </row>
@@ -46356,7 +46356,7 @@
         <v>82</v>
       </c>
       <c r="V1535" s="36" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="1536" spans="1:22" x14ac:dyDescent="0.25">
@@ -46379,7 +46379,7 @@
         <v>382</v>
       </c>
       <c r="N1536" s="8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="V1536" s="14"/>
     </row>
@@ -46427,7 +46427,7 @@
         <v>384</v>
       </c>
       <c r="N1538" s="8" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="V1538" s="14"/>
     </row>
@@ -46451,7 +46451,7 @@
         <v>385</v>
       </c>
       <c r="N1539" s="8" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="V1539" s="14"/>
     </row>
@@ -46529,7 +46529,7 @@
         <v>388</v>
       </c>
       <c r="N1542" s="8" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="V1542" s="14"/>
     </row>
@@ -46580,13 +46580,13 @@
         <v>390</v>
       </c>
       <c r="N1544" s="8" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="P1544" s="2" t="s">
         <v>82</v>
       </c>
       <c r="V1544" s="28" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="1545" spans="8:22" x14ac:dyDescent="0.25">
@@ -46714,7 +46714,7 @@
         <v>82</v>
       </c>
       <c r="V1549" s="35" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="1550" spans="8:22" x14ac:dyDescent="0.25">
@@ -46767,13 +46767,13 @@
         <v>397</v>
       </c>
       <c r="N1551" s="8" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="O1551" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1551" s="14" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="1552" spans="8:22" x14ac:dyDescent="0.25">
@@ -46796,7 +46796,7 @@
         <v>398</v>
       </c>
       <c r="N1552" s="8" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="V1552" s="14"/>
     </row>
@@ -46820,7 +46820,7 @@
         <v>399</v>
       </c>
       <c r="N1553" s="8" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="V1553" s="14"/>
     </row>
@@ -46844,7 +46844,7 @@
         <v>400</v>
       </c>
       <c r="N1554" s="8" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="V1554" s="14"/>
     </row>
@@ -46874,7 +46874,7 @@
         <v>82</v>
       </c>
       <c r="V1555" s="8" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="1556" spans="5:22" x14ac:dyDescent="0.25">
@@ -46897,7 +46897,7 @@
         <v>402</v>
       </c>
       <c r="N1556" s="8" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="V1556" s="14"/>
     </row>
@@ -46921,7 +46921,7 @@
         <v>403</v>
       </c>
       <c r="N1557" s="8" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="V1557" s="14"/>
     </row>
@@ -46945,7 +46945,7 @@
         <v>404</v>
       </c>
       <c r="N1558" s="8" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="O1558" s="2" t="s">
         <v>0</v>
@@ -46954,7 +46954,7 @@
         <v>82</v>
       </c>
       <c r="V1558" s="14" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="1559" spans="5:22" x14ac:dyDescent="0.25">
@@ -47031,7 +47031,7 @@
         <v>407</v>
       </c>
       <c r="N1561" s="8" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="V1561" s="14"/>
     </row>
@@ -47079,7 +47079,7 @@
         <v>409</v>
       </c>
       <c r="N1563" s="8" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="V1563" s="14"/>
     </row>
@@ -47103,7 +47103,7 @@
         <v>410</v>
       </c>
       <c r="N1564" s="8" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="O1564" s="2"/>
       <c r="V1564" s="14"/>
@@ -47128,13 +47128,13 @@
         <v>411</v>
       </c>
       <c r="N1565" s="8" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="P1565" s="2" t="s">
         <v>82</v>
       </c>
       <c r="V1565" s="28" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="1566" spans="5:22" x14ac:dyDescent="0.25">
@@ -47181,7 +47181,7 @@
         <v>413</v>
       </c>
       <c r="N1567" s="8" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="V1567" s="14"/>
     </row>
@@ -47206,7 +47206,7 @@
         <v>414</v>
       </c>
       <c r="N1568" s="8" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="P1568" s="2" t="s">
         <v>82</v>
@@ -47215,7 +47215,7 @@
         <v>95</v>
       </c>
       <c r="V1568" s="32" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
     </row>
   </sheetData>

--- a/TS Jatai Working/Padam Input Templates/TS 1.3 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 1.3 Padam Input Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL IMP DATA\GitHub\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA519FD4-D0B8-4D7B-AF40-8A377A9E8EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECA6263-0480-43DE-B601-3AC64BAAEC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3484,9 +3484,6 @@
   </si>
   <si>
     <t xml:space="preserve">samo#kasAqvitiq saM - oqkaqsauq </t>
-  </si>
-  <si>
-    <t xml:space="preserve">aqreqpasAvitya#reqpasau$ </t>
   </si>
   <si>
     <t xml:space="preserve">jAqtaqveqdaqsAqviti# jAta - veqdaqsauq </t>
@@ -4078,6 +4075,9 @@
   </si>
   <si>
     <t xml:space="preserve">iqndriqyAvAn# </t>
+  </si>
+  <si>
+    <t xml:space="preserve">aqreqpasAqvitya#reqpasau$ </t>
   </si>
 </sst>
 </file>
@@ -4751,10 +4751,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V1568"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1111" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A637" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="N1115" sqref="N1115"/>
+      <selection pane="bottomLeft" activeCell="X641" sqref="X641"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -5226,7 +5226,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="72" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15" t="s">
@@ -5278,10 +5278,10 @@
         <v>10</v>
       </c>
       <c r="S1" s="39" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="T1" s="39" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="U1" s="38" t="s">
         <v>17</v>
@@ -5432,7 +5432,7 @@
         <v>4</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>0</v>
@@ -13112,7 +13112,7 @@
     </row>
     <row r="264" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A264" s="51" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="H264" s="47" t="s">
         <v>137</v>
@@ -13142,7 +13142,7 @@
     </row>
     <row r="265" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A265" s="51" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="H265" s="47" t="s">
         <v>137</v>
@@ -13532,7 +13532,7 @@
         <v>82</v>
       </c>
       <c r="V279" s="57" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="280" spans="1:22" x14ac:dyDescent="0.25">
@@ -13641,7 +13641,7 @@
     </row>
     <row r="284" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A284" s="51" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="H284" s="47" t="s">
         <v>138</v>
@@ -13676,7 +13676,7 @@
     </row>
     <row r="285" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A285" s="51" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="H285" s="47" t="s">
         <v>138</v>
@@ -13931,7 +13931,7 @@
     </row>
     <row r="295" spans="4:22" x14ac:dyDescent="0.25">
       <c r="F295" s="54" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="I295" s="8" t="s">
         <v>23</v>
@@ -13958,7 +13958,7 @@
     </row>
     <row r="296" spans="4:22" x14ac:dyDescent="0.25">
       <c r="F296" s="54" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="I296" s="8" t="s">
         <v>23</v>
@@ -13989,7 +13989,7 @@
         <v>127</v>
       </c>
       <c r="F297" s="54" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="I297" s="8" t="s">
         <v>23</v>
@@ -14019,7 +14019,7 @@
     </row>
     <row r="298" spans="4:22" x14ac:dyDescent="0.25">
       <c r="F298" s="54" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="I298" s="8" t="s">
         <v>23</v>
@@ -15841,7 +15841,7 @@
     </row>
     <row r="368" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D368" s="48" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="H368" s="47" t="s">
         <v>140</v>
@@ -20375,7 +20375,7 @@
         <v>82</v>
       </c>
       <c r="V544" s="59" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="545" spans="9:22" x14ac:dyDescent="0.25">
@@ -22429,7 +22429,7 @@
         <v>95</v>
       </c>
       <c r="V625" s="59" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="626" spans="1:22" x14ac:dyDescent="0.25">
@@ -22911,8 +22911,8 @@
       <c r="P643" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="V643" s="32" t="s">
-        <v>1152</v>
+      <c r="V643" s="57" t="s">
+        <v>1329</v>
       </c>
     </row>
     <row r="644" spans="5:22" x14ac:dyDescent="0.25">
@@ -23067,7 +23067,7 @@
         <v>0</v>
       </c>
       <c r="V649" s="14" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="650" spans="5:22" x14ac:dyDescent="0.25">
@@ -23121,10 +23121,10 @@
     </row>
     <row r="652" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E652" s="54" t="s">
+        <v>1309</v>
+      </c>
+      <c r="F652" s="54" t="s">
         <v>1310</v>
-      </c>
-      <c r="F652" s="54" t="s">
-        <v>1311</v>
       </c>
       <c r="I652" s="8" t="s">
         <v>30</v>
@@ -23151,10 +23151,10 @@
     </row>
     <row r="653" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E653" s="54" t="s">
+        <v>1309</v>
+      </c>
+      <c r="F653" s="54" t="s">
         <v>1310</v>
-      </c>
-      <c r="F653" s="54" t="s">
-        <v>1311</v>
       </c>
       <c r="I653" s="8" t="s">
         <v>30</v>
@@ -23181,7 +23181,7 @@
         <v>82</v>
       </c>
       <c r="V653" s="24" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="654" spans="5:22" x14ac:dyDescent="0.25">
@@ -23283,7 +23283,7 @@
         <v>0</v>
       </c>
       <c r="V657" s="14" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="658" spans="8:22" x14ac:dyDescent="0.25">
@@ -23363,7 +23363,7 @@
         <v>88</v>
       </c>
       <c r="V660" s="14" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="661" spans="8:22" x14ac:dyDescent="0.25">
@@ -23392,7 +23392,7 @@
         <v>82</v>
       </c>
       <c r="V661" s="57" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="662" spans="8:22" x14ac:dyDescent="0.25">
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="V662" s="14" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="663" spans="8:22" x14ac:dyDescent="0.25">
@@ -23643,7 +23643,7 @@
         <v>82</v>
       </c>
       <c r="V670" s="14" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="671" spans="8:22" x14ac:dyDescent="0.25">
@@ -23769,7 +23769,7 @@
         <v>0</v>
       </c>
       <c r="V675" s="14" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="676" spans="9:22" x14ac:dyDescent="0.25">
@@ -23925,7 +23925,7 @@
         <v>0</v>
       </c>
       <c r="V681" s="14" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="682" spans="9:22" x14ac:dyDescent="0.25">
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="V691" s="14" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="692" spans="9:22" x14ac:dyDescent="0.25">
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="V699" s="14" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="700" spans="9:22" x14ac:dyDescent="0.25">
@@ -24558,7 +24558,7 @@
         <v>0</v>
       </c>
       <c r="V706" s="14" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="707" spans="5:22" x14ac:dyDescent="0.25">
@@ -24587,7 +24587,7 @@
         <v>0</v>
       </c>
       <c r="V707" s="14" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="708" spans="5:22" x14ac:dyDescent="0.25">
@@ -24714,7 +24714,7 @@
     </row>
     <row r="713" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E713" s="54" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="H713" s="47" t="s">
         <v>146</v>
@@ -24752,7 +24752,7 @@
     </row>
     <row r="714" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E714" s="54" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="H714" s="47" t="s">
         <v>146</v>
@@ -24785,12 +24785,12 @@
         <v>92</v>
       </c>
       <c r="V714" s="14" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="715" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E715" s="54" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="H715" s="47" t="s">
         <v>146</v>
@@ -24823,7 +24823,7 @@
     </row>
     <row r="716" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E716" s="54" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="H716" s="47" t="s">
         <v>146</v>
@@ -24933,7 +24933,7 @@
         <v>0</v>
       </c>
       <c r="V719" s="14" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="720" spans="5:22" x14ac:dyDescent="0.25">
@@ -25354,7 +25354,7 @@
         <v>0</v>
       </c>
       <c r="V736" s="14" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="737" spans="8:22" x14ac:dyDescent="0.25">
@@ -25464,7 +25464,7 @@
         <v>0</v>
       </c>
       <c r="V740" s="14" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="741" spans="8:22" x14ac:dyDescent="0.25">
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="V754" s="32" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="755" spans="9:22" x14ac:dyDescent="0.25">
@@ -26016,7 +26016,7 @@
         <v>0</v>
       </c>
       <c r="V761" s="14" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="762" spans="9:22" x14ac:dyDescent="0.25">
@@ -26045,7 +26045,7 @@
         <v>0</v>
       </c>
       <c r="V762" s="14" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="763" spans="9:22" x14ac:dyDescent="0.25">
@@ -26098,7 +26098,7 @@
         <v>82</v>
       </c>
       <c r="V764" s="35" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="765" spans="9:22" x14ac:dyDescent="0.25">
@@ -26225,7 +26225,7 @@
         <v>0</v>
       </c>
       <c r="V769" s="14" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="770" spans="8:22" x14ac:dyDescent="0.25">
@@ -26592,7 +26592,7 @@
         <v>119</v>
       </c>
       <c r="V783" s="14" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="784" spans="8:22" x14ac:dyDescent="0.25">
@@ -26871,7 +26871,7 @@
         <v>0</v>
       </c>
       <c r="V794" s="14" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="795" spans="4:22" x14ac:dyDescent="0.25">
@@ -27368,7 +27368,7 @@
         <v>0</v>
       </c>
       <c r="V814" s="14" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="815" spans="9:22" x14ac:dyDescent="0.25">
@@ -27523,7 +27523,7 @@
         <v>0</v>
       </c>
       <c r="V820" s="14" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="821" spans="9:22" x14ac:dyDescent="0.25">
@@ -28705,7 +28705,7 @@
         <v>0</v>
       </c>
       <c r="V867" s="14" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="868" spans="8:22" x14ac:dyDescent="0.25">
@@ -28758,7 +28758,7 @@
         <v>82</v>
       </c>
       <c r="V869" s="35" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="870" spans="8:22" x14ac:dyDescent="0.25">
@@ -28912,7 +28912,7 @@
         <v>0</v>
       </c>
       <c r="V875" s="14" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="876" spans="8:22" x14ac:dyDescent="0.25">
@@ -28941,7 +28941,7 @@
         <v>0</v>
       </c>
       <c r="V876" s="14" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="877" spans="8:22" x14ac:dyDescent="0.25">
@@ -29036,13 +29036,13 @@
         <v>11</v>
       </c>
       <c r="N880" s="5" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="O880" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V880" s="14" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="881" spans="4:22" x14ac:dyDescent="0.25">
@@ -29119,7 +29119,7 @@
         <v>0</v>
       </c>
       <c r="V883" s="14" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="884" spans="4:22" x14ac:dyDescent="0.25">
@@ -29154,7 +29154,7 @@
         <v>104</v>
       </c>
       <c r="V884" s="14" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="885" spans="4:22" x14ac:dyDescent="0.25">
@@ -29258,7 +29258,7 @@
         <v>0</v>
       </c>
       <c r="V888" s="14" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="889" spans="4:22" x14ac:dyDescent="0.25">
@@ -29293,7 +29293,7 @@
         <v>104</v>
       </c>
       <c r="V889" s="14" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="890" spans="4:22" x14ac:dyDescent="0.25">
@@ -29475,7 +29475,7 @@
         <v>0</v>
       </c>
       <c r="V896" s="14" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="897" spans="9:22" x14ac:dyDescent="0.25">
@@ -29528,7 +29528,7 @@
         <v>0</v>
       </c>
       <c r="V898" s="14" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="899" spans="9:22" x14ac:dyDescent="0.25">
@@ -29581,7 +29581,7 @@
         <v>0</v>
       </c>
       <c r="V900" s="14" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="901" spans="9:22" x14ac:dyDescent="0.25">
@@ -29634,7 +29634,7 @@
         <v>0</v>
       </c>
       <c r="V902" s="14" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="903" spans="9:22" x14ac:dyDescent="0.25">
@@ -30272,7 +30272,7 @@
         <v>0</v>
       </c>
       <c r="V928" s="14" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="929" spans="9:22" x14ac:dyDescent="0.25">
@@ -30349,7 +30349,7 @@
         <v>0</v>
       </c>
       <c r="V931" s="14" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="932" spans="9:22" x14ac:dyDescent="0.25">
@@ -30570,7 +30570,7 @@
         <v>0</v>
       </c>
       <c r="V940" s="14" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="941" spans="9:22" x14ac:dyDescent="0.25">
@@ -30599,7 +30599,7 @@
         <v>0</v>
       </c>
       <c r="V941" s="14" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="942" spans="9:22" x14ac:dyDescent="0.25">
@@ -30628,7 +30628,7 @@
         <v>0</v>
       </c>
       <c r="V942" s="14" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="943" spans="9:22" x14ac:dyDescent="0.25">
@@ -30657,7 +30657,7 @@
         <v>0</v>
       </c>
       <c r="V943" s="14" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="944" spans="9:22" x14ac:dyDescent="0.25">
@@ -30710,7 +30710,7 @@
         <v>0</v>
       </c>
       <c r="V945" s="14" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="946" spans="9:22" x14ac:dyDescent="0.25">
@@ -30767,7 +30767,7 @@
         <v>82</v>
       </c>
       <c r="V947" s="14" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="948" spans="9:22" x14ac:dyDescent="0.25">
@@ -31039,7 +31039,7 @@
         <v>95</v>
       </c>
       <c r="V958" s="14" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="959" spans="9:22" x14ac:dyDescent="0.25">
@@ -31116,7 +31116,7 @@
         <v>0</v>
       </c>
       <c r="V961" s="14" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="962" spans="9:22" x14ac:dyDescent="0.25">
@@ -31410,7 +31410,7 @@
         <v>83</v>
       </c>
       <c r="V973" s="14" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="974" spans="9:22" x14ac:dyDescent="0.25">
@@ -31681,7 +31681,7 @@
         <v>0</v>
       </c>
       <c r="V984" s="14" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="985" spans="9:22" x14ac:dyDescent="0.25">
@@ -32274,7 +32274,7 @@
         <v>0</v>
       </c>
       <c r="V1008" s="14" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="1009" spans="4:22" x14ac:dyDescent="0.25">
@@ -32649,7 +32649,7 @@
         <v>82</v>
       </c>
       <c r="V1023" s="57" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="1024" spans="4:22" x14ac:dyDescent="0.25">
@@ -32829,7 +32829,7 @@
         <v>123</v>
       </c>
       <c r="D1030" s="48" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="H1030" s="47" t="s">
         <v>150</v>
@@ -32923,7 +32923,7 @@
     </row>
     <row r="1033" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D1033" s="48" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="H1033" s="47" t="s">
         <v>150</v>
@@ -33020,7 +33020,7 @@
         <v>82</v>
       </c>
       <c r="V1035" s="57" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="1036" spans="1:22" x14ac:dyDescent="0.25">
@@ -33098,7 +33098,7 @@
         <v>0</v>
       </c>
       <c r="V1038" s="14" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="1039" spans="1:22" x14ac:dyDescent="0.25">
@@ -33295,7 +33295,7 @@
         <v>0</v>
       </c>
       <c r="V1046" s="14" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="1047" spans="9:22" x14ac:dyDescent="0.25">
@@ -33324,7 +33324,7 @@
         <v>0</v>
       </c>
       <c r="V1047" s="14" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="1048" spans="9:22" x14ac:dyDescent="0.25">
@@ -33406,7 +33406,7 @@
         <v>0</v>
       </c>
       <c r="V1050" s="14" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="1051" spans="9:22" x14ac:dyDescent="0.25">
@@ -33508,7 +33508,7 @@
         <v>0</v>
       </c>
       <c r="V1054" s="14" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="1055" spans="9:22" x14ac:dyDescent="0.25">
@@ -33585,7 +33585,7 @@
         <v>82</v>
       </c>
       <c r="V1057" s="28" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="1058" spans="9:22" x14ac:dyDescent="0.25">
@@ -34371,7 +34371,7 @@
         <v>0</v>
       </c>
       <c r="V1088" s="14" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="1089" spans="9:22" x14ac:dyDescent="0.25">
@@ -34425,7 +34425,7 @@
         <v>0</v>
       </c>
       <c r="V1090" s="14" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="1091" spans="9:22" x14ac:dyDescent="0.25">
@@ -34454,7 +34454,7 @@
         <v>0</v>
       </c>
       <c r="V1091" s="14" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="1092" spans="9:22" x14ac:dyDescent="0.25">
@@ -34507,7 +34507,7 @@
         <v>0</v>
       </c>
       <c r="V1093" s="14" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="1094" spans="9:22" x14ac:dyDescent="0.25">
@@ -34584,7 +34584,7 @@
         <v>0</v>
       </c>
       <c r="V1096" s="14" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="1097" spans="9:22" x14ac:dyDescent="0.25">
@@ -34812,7 +34812,7 @@
     </row>
     <row r="1106" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F1106" s="54" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="G1106" s="47" t="s">
         <v>133</v>
@@ -34842,10 +34842,10 @@
     </row>
     <row r="1107" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B1107" s="54" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="F1107" s="54" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="G1107" s="47" t="s">
         <v>133</v>
@@ -35019,7 +35019,7 @@
         <v>82</v>
       </c>
       <c r="V1113" s="28" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="1114" spans="1:22" x14ac:dyDescent="0.25">
@@ -35220,13 +35220,13 @@
         <v>64</v>
       </c>
       <c r="N1121" s="5" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="O1121" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1121" s="14" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="1122" spans="8:22" x14ac:dyDescent="0.25">
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="V1125" s="14" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="1126" spans="8:22" x14ac:dyDescent="0.25">
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="V1128" s="14" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="1129" spans="8:22" x14ac:dyDescent="0.25">
@@ -35768,7 +35768,7 @@
         <v>82</v>
       </c>
       <c r="V1142" s="33" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="1143" spans="9:22" x14ac:dyDescent="0.25">
@@ -35845,7 +35845,7 @@
         <v>0</v>
       </c>
       <c r="V1145" s="14" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="1146" spans="9:22" x14ac:dyDescent="0.25">
@@ -35972,7 +35972,7 @@
         <v>82</v>
       </c>
       <c r="V1150" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="1151" spans="9:22" x14ac:dyDescent="0.25">
@@ -36073,12 +36073,12 @@
         <v>82</v>
       </c>
       <c r="V1154" s="35" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="1155" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1155" s="49" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="E1155" s="47" t="s">
         <v>131</v>
@@ -36109,7 +36109,7 @@
     </row>
     <row r="1156" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1156" s="49" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="E1156" s="47" t="s">
         <v>131</v>
@@ -36146,7 +36146,7 @@
     </row>
     <row r="1157" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1157" s="49" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="H1157" s="47" t="s">
         <v>153</v>
@@ -36176,7 +36176,7 @@
     </row>
     <row r="1158" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1158" s="49" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="H1158" s="47" t="s">
         <v>153</v>
@@ -36209,7 +36209,7 @@
     </row>
     <row r="1159" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1159" s="49" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I1159" s="8" t="s">
         <v>41</v>
@@ -36237,7 +36237,7 @@
     </row>
     <row r="1160" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1160" s="49" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I1160" s="8" t="s">
         <v>41</v>
@@ -36264,7 +36264,7 @@
     </row>
     <row r="1161" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1161" s="49" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I1161" s="8" t="s">
         <v>41</v>
@@ -36292,7 +36292,7 @@
     </row>
     <row r="1162" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1162" s="49" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I1162" s="8" t="s">
         <v>41</v>
@@ -36319,7 +36319,7 @@
     </row>
     <row r="1163" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1163" s="49" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I1163" s="8" t="s">
         <v>41</v>
@@ -36346,7 +36346,7 @@
     </row>
     <row r="1164" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1164" s="49" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I1164" s="8" t="s">
         <v>41</v>
@@ -36373,7 +36373,7 @@
     </row>
     <row r="1165" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1165" s="49" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I1165" s="8" t="s">
         <v>41</v>
@@ -36400,12 +36400,12 @@
         <v>82</v>
       </c>
       <c r="V1165" s="8" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="1166" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1166" s="49" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I1166" s="8" t="s">
         <v>41</v>
@@ -36432,7 +36432,7 @@
     </row>
     <row r="1167" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1167" s="49" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I1167" s="8" t="s">
         <v>41</v>
@@ -36459,7 +36459,7 @@
     </row>
     <row r="1168" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1168" s="49" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I1168" s="8" t="s">
         <v>41</v>
@@ -36487,7 +36487,7 @@
     </row>
     <row r="1169" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1169" s="49" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I1169" s="8" t="s">
         <v>41</v>
@@ -36514,7 +36514,7 @@
     </row>
     <row r="1170" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1170" s="49" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I1170" s="8" t="s">
         <v>41</v>
@@ -36541,12 +36541,12 @@
         <v>0</v>
       </c>
       <c r="V1170" s="14" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="1171" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1171" s="49" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I1171" s="8" t="s">
         <v>41</v>
@@ -36573,7 +36573,7 @@
     </row>
     <row r="1172" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1172" s="49" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I1172" s="8" t="s">
         <v>41</v>
@@ -36600,7 +36600,7 @@
     </row>
     <row r="1173" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1173" s="49" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I1173" s="8" t="s">
         <v>41</v>
@@ -36627,12 +36627,12 @@
         <v>0</v>
       </c>
       <c r="V1173" s="14" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="1174" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1174" s="49" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I1174" s="8" t="s">
         <v>41</v>
@@ -36659,7 +36659,7 @@
     </row>
     <row r="1175" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1175" s="49" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I1175" s="8" t="s">
         <v>41</v>
@@ -36686,7 +36686,7 @@
     </row>
     <row r="1176" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1176" s="49" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I1176" s="8" t="s">
         <v>41</v>
@@ -36718,7 +36718,7 @@
     </row>
     <row r="1177" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1177" s="49" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I1177" s="8" t="s">
         <v>41</v>
@@ -36748,7 +36748,7 @@
     </row>
     <row r="1178" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1178" s="49" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I1178" s="8" t="s">
         <v>41</v>
@@ -36775,7 +36775,7 @@
     </row>
     <row r="1179" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1179" s="49" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I1179" s="8" t="s">
         <v>41</v>
@@ -36802,7 +36802,7 @@
     </row>
     <row r="1180" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1180" s="49" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I1180" s="8" t="s">
         <v>41</v>
@@ -36829,7 +36829,7 @@
     </row>
     <row r="1181" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1181" s="49" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I1181" s="8" t="s">
         <v>41</v>
@@ -36856,7 +36856,7 @@
     </row>
     <row r="1182" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1182" s="49" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I1182" s="8" t="s">
         <v>41</v>
@@ -36883,7 +36883,7 @@
     </row>
     <row r="1183" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1183" s="49" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I1183" s="8" t="s">
         <v>41</v>
@@ -36910,12 +36910,12 @@
         <v>0</v>
       </c>
       <c r="V1183" s="14" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="1184" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1184" s="49" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I1184" s="8" t="s">
         <v>41</v>
@@ -36942,12 +36942,12 @@
         <v>82</v>
       </c>
       <c r="V1184" s="35" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="1185" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1185" s="49" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I1185" s="8" t="s">
         <v>41</v>
@@ -36974,7 +36974,7 @@
     </row>
     <row r="1186" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1186" s="49" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I1186" s="8" t="s">
         <v>41</v>
@@ -37001,7 +37001,7 @@
     </row>
     <row r="1187" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1187" s="49" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I1187" s="8" t="s">
         <v>41</v>
@@ -37028,7 +37028,7 @@
     </row>
     <row r="1188" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1188" s="49" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I1188" s="8" t="s">
         <v>41</v>
@@ -37055,7 +37055,7 @@
     </row>
     <row r="1189" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1189" s="49" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I1189" s="8" t="s">
         <v>41</v>
@@ -37082,12 +37082,12 @@
         <v>0</v>
       </c>
       <c r="V1189" s="14" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="1190" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1190" s="49" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I1190" s="8" t="s">
         <v>41</v>
@@ -37114,7 +37114,7 @@
     </row>
     <row r="1191" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1191" s="49" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I1191" s="8" t="s">
         <v>41</v>
@@ -37141,12 +37141,12 @@
         <v>82</v>
       </c>
       <c r="V1191" s="28" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="1192" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1192" s="49" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I1192" s="8" t="s">
         <v>41</v>
@@ -37173,7 +37173,7 @@
     </row>
     <row r="1193" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1193" s="49" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I1193" s="8" t="s">
         <v>41</v>
@@ -37200,7 +37200,7 @@
     </row>
     <row r="1194" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1194" s="49" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I1194" s="8" t="s">
         <v>41</v>
@@ -37230,10 +37230,10 @@
     </row>
     <row r="1195" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1195" s="49" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="F1195" s="54" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I1195" s="8" t="s">
         <v>41</v>
@@ -37257,7 +37257,7 @@
         <v>829</v>
       </c>
       <c r="S1195" s="41" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="T1195" s="2" t="s">
         <v>113</v>
@@ -37269,10 +37269,10 @@
         <v>123</v>
       </c>
       <c r="C1196" s="49" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="F1196" s="54" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I1196" s="8" t="s">
         <v>41</v>
@@ -37299,7 +37299,7 @@
     </row>
     <row r="1197" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1197" s="49" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I1197" s="8" t="s">
         <v>41</v>
@@ -37326,12 +37326,12 @@
         <v>0</v>
       </c>
       <c r="V1197" s="14" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="1198" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1198" s="49" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I1198" s="8" t="s">
         <v>41</v>
@@ -37358,7 +37358,7 @@
     </row>
     <row r="1199" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1199" s="49" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I1199" s="8" t="s">
         <v>41</v>
@@ -37385,7 +37385,7 @@
     </row>
     <row r="1200" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1200" s="49" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I1200" s="8" t="s">
         <v>41</v>
@@ -37412,7 +37412,7 @@
     </row>
     <row r="1201" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1201" s="49" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I1201" s="8" t="s">
         <v>41</v>
@@ -37439,12 +37439,12 @@
         <v>82</v>
       </c>
       <c r="V1201" s="28" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="1202" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1202" s="49" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I1202" s="8" t="s">
         <v>41</v>
@@ -37472,7 +37472,7 @@
     </row>
     <row r="1203" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1203" s="49" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I1203" s="8" t="s">
         <v>41</v>
@@ -37499,7 +37499,7 @@
     </row>
     <row r="1204" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1204" s="49" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="H1204" s="47" t="s">
         <v>154</v>
@@ -37529,7 +37529,7 @@
         <v>0</v>
       </c>
       <c r="V1204" s="14" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="1205" spans="3:22" x14ac:dyDescent="0.25">
@@ -37560,7 +37560,7 @@
         <v>0</v>
       </c>
       <c r="V1205" s="32" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="1206" spans="3:22" x14ac:dyDescent="0.25">
@@ -37695,7 +37695,7 @@
         <v>82</v>
       </c>
       <c r="V1210" s="8" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="1211" spans="3:22" x14ac:dyDescent="0.25">
@@ -37781,7 +37781,7 @@
         <v>0</v>
       </c>
       <c r="V1213" s="14" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="1214" spans="3:22" x14ac:dyDescent="0.25">
@@ -37935,7 +37935,7 @@
         <v>82</v>
       </c>
       <c r="V1219" s="8" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="1220" spans="4:22" x14ac:dyDescent="0.25">
@@ -38184,7 +38184,7 @@
         <v>0</v>
       </c>
       <c r="V1228" s="14" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="1229" spans="4:22" x14ac:dyDescent="0.25">
@@ -38468,7 +38468,7 @@
         <v>82</v>
       </c>
       <c r="V1239" s="14" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="1240" spans="8:22" x14ac:dyDescent="0.25">
@@ -38721,7 +38721,7 @@
         <v>15</v>
       </c>
       <c r="V1248" s="26" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="1249" spans="9:22" x14ac:dyDescent="0.25">
@@ -38833,7 +38833,7 @@
         <v>15</v>
       </c>
       <c r="V1252" s="28" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="1253" spans="9:22" x14ac:dyDescent="0.25">
@@ -38886,7 +38886,7 @@
         <v>0</v>
       </c>
       <c r="V1254" s="14" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="1255" spans="9:22" x14ac:dyDescent="0.25">
@@ -39043,7 +39043,7 @@
         <v>82</v>
       </c>
       <c r="V1260" s="31" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="1261" spans="9:22" x14ac:dyDescent="0.25">
@@ -39267,7 +39267,7 @@
         <v>82</v>
       </c>
       <c r="V1269" s="28" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="1270" spans="9:22" x14ac:dyDescent="0.25">
@@ -39346,7 +39346,7 @@
         <v>0</v>
       </c>
       <c r="V1272" s="14" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="1273" spans="9:22" x14ac:dyDescent="0.25">
@@ -39399,7 +39399,7 @@
         <v>0</v>
       </c>
       <c r="V1274" s="14" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="1275" spans="9:22" x14ac:dyDescent="0.25">
@@ -39428,7 +39428,7 @@
         <v>82</v>
       </c>
       <c r="V1275" s="35" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="1276" spans="9:22" x14ac:dyDescent="0.25">
@@ -39506,7 +39506,7 @@
         <v>82</v>
       </c>
       <c r="V1278" s="28" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="1279" spans="9:22" x14ac:dyDescent="0.25">
@@ -39754,7 +39754,7 @@
         <v>0</v>
       </c>
       <c r="V1287" s="14" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="1288" spans="1:22" x14ac:dyDescent="0.25">
@@ -39789,7 +39789,7 @@
         <v>82</v>
       </c>
       <c r="V1288" s="14" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="1289" spans="1:22" x14ac:dyDescent="0.25">
@@ -40029,7 +40029,7 @@
         <v>82</v>
       </c>
       <c r="V1297" s="28" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="1298" spans="8:22" x14ac:dyDescent="0.25">
@@ -40154,7 +40154,7 @@
         <v>0</v>
       </c>
       <c r="V1302" s="14" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="1303" spans="8:22" x14ac:dyDescent="0.25">
@@ -40210,7 +40210,7 @@
         <v>82</v>
       </c>
       <c r="V1304" s="35" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="1305" spans="8:22" x14ac:dyDescent="0.25">
@@ -40238,7 +40238,7 @@
         <v>15</v>
       </c>
       <c r="V1305" s="26" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="1306" spans="8:22" x14ac:dyDescent="0.25">
@@ -40267,7 +40267,7 @@
         <v>0</v>
       </c>
       <c r="V1306" s="14" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="1307" spans="8:22" x14ac:dyDescent="0.25">
@@ -40296,7 +40296,7 @@
         <v>82</v>
       </c>
       <c r="V1307" s="35" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="1308" spans="8:22" x14ac:dyDescent="0.25">
@@ -40397,7 +40397,7 @@
         <v>0</v>
       </c>
       <c r="V1311" s="14" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="1312" spans="8:22" x14ac:dyDescent="0.25">
@@ -40450,7 +40450,7 @@
         <v>0</v>
       </c>
       <c r="V1313" s="14" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="1314" spans="9:22" x14ac:dyDescent="0.25">
@@ -40556,7 +40556,7 @@
         <v>0</v>
       </c>
       <c r="V1317" s="14" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="1318" spans="9:22" x14ac:dyDescent="0.25">
@@ -40657,7 +40657,7 @@
         <v>0</v>
       </c>
       <c r="V1321" s="14" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="1322" spans="9:22" x14ac:dyDescent="0.25">
@@ -40686,7 +40686,7 @@
         <v>82</v>
       </c>
       <c r="V1322" s="31" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1323" spans="9:22" x14ac:dyDescent="0.25">
@@ -40715,7 +40715,7 @@
         <v>89</v>
       </c>
       <c r="T1323" s="2" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="V1323" s="14"/>
     </row>
@@ -40869,7 +40869,7 @@
         <v>82</v>
       </c>
       <c r="V1329" s="28" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="1330" spans="4:22" x14ac:dyDescent="0.25">
@@ -40950,7 +40950,7 @@
         <v>0</v>
       </c>
       <c r="V1332" s="14" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="1333" spans="4:22" x14ac:dyDescent="0.25">
@@ -41024,7 +41024,7 @@
         <v>181</v>
       </c>
       <c r="N1335" s="55" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="O1335" s="1" t="s">
         <v>102</v>
@@ -41107,7 +41107,7 @@
         <v>82</v>
       </c>
       <c r="V1338" s="26" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="1339" spans="4:22" x14ac:dyDescent="0.25">
@@ -41145,7 +41145,7 @@
         <v>0</v>
       </c>
       <c r="V1339" s="14" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1340" spans="4:22" x14ac:dyDescent="0.25">
@@ -41258,7 +41258,7 @@
         <v>0</v>
       </c>
       <c r="V1343" s="14" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="1344" spans="4:22" x14ac:dyDescent="0.25">
@@ -41287,7 +41287,7 @@
         <v>0</v>
       </c>
       <c r="V1344" s="14" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="1345" spans="9:22" x14ac:dyDescent="0.25">
@@ -41316,7 +41316,7 @@
         <v>82</v>
       </c>
       <c r="V1345" s="28" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="1346" spans="9:22" x14ac:dyDescent="0.25">
@@ -41589,7 +41589,7 @@
         <v>82</v>
       </c>
       <c r="V1356" s="35" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="1357" spans="9:22" x14ac:dyDescent="0.25">
@@ -41667,7 +41667,7 @@
         <v>0</v>
       </c>
       <c r="V1359" s="14" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="1360" spans="9:22" x14ac:dyDescent="0.25">
@@ -41696,7 +41696,7 @@
         <v>0</v>
       </c>
       <c r="V1360" s="14" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="1361" spans="4:22" x14ac:dyDescent="0.25">
@@ -41728,7 +41728,7 @@
         <v>82</v>
       </c>
       <c r="V1361" s="14" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="1362" spans="4:22" x14ac:dyDescent="0.25">
@@ -41809,7 +41809,7 @@
         <v>82</v>
       </c>
       <c r="V1364" s="14" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="1365" spans="4:22" x14ac:dyDescent="0.25">
@@ -42054,7 +42054,7 @@
         <v>82</v>
       </c>
       <c r="V1373" s="14" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="1374" spans="4:22" x14ac:dyDescent="0.25">
@@ -42107,7 +42107,7 @@
         <v>0</v>
       </c>
       <c r="V1375" s="14" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1376" spans="4:22" x14ac:dyDescent="0.25">
@@ -42142,7 +42142,7 @@
       <c r="T1376" s="43"/>
       <c r="U1376" s="43"/>
       <c r="V1376" s="14" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="1377" spans="8:22" x14ac:dyDescent="0.25">
@@ -42280,7 +42280,7 @@
         <v>82</v>
       </c>
       <c r="V1381" s="14" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="1382" spans="8:22" x14ac:dyDescent="0.25">
@@ -42456,7 +42456,7 @@
         <v>82</v>
       </c>
       <c r="V1388" s="28" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="1389" spans="8:22" x14ac:dyDescent="0.25">
@@ -42536,7 +42536,7 @@
         <v>82</v>
       </c>
       <c r="V1391" s="14" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="1392" spans="8:22" x14ac:dyDescent="0.25">
@@ -42690,7 +42690,7 @@
         <v>0</v>
       </c>
       <c r="V1397" s="14" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="1398" spans="9:22" x14ac:dyDescent="0.25">
@@ -42767,7 +42767,7 @@
         <v>82</v>
       </c>
       <c r="V1400" s="28" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1401" spans="9:22" x14ac:dyDescent="0.25">
@@ -42877,7 +42877,7 @@
         <v>0</v>
       </c>
       <c r="V1404" s="14" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="1405" spans="9:22" x14ac:dyDescent="0.25">
@@ -43004,7 +43004,7 @@
         <v>82</v>
       </c>
       <c r="V1409" s="14" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1410" spans="9:22" x14ac:dyDescent="0.25">
@@ -43108,7 +43108,7 @@
         <v>0</v>
       </c>
       <c r="V1413" s="14" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="1414" spans="9:22" x14ac:dyDescent="0.25">
@@ -43232,7 +43232,7 @@
         <v>0</v>
       </c>
       <c r="V1418" s="8" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="1419" spans="9:22" x14ac:dyDescent="0.25">
@@ -43289,7 +43289,7 @@
         <v>95</v>
       </c>
       <c r="V1420" s="35" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="1421" spans="9:22" x14ac:dyDescent="0.25">
@@ -43415,7 +43415,7 @@
         <v>0</v>
       </c>
       <c r="V1425" s="14" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="1426" spans="8:22" x14ac:dyDescent="0.25">
@@ -43666,7 +43666,7 @@
         <v>0</v>
       </c>
       <c r="V1435" s="14" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="1436" spans="8:22" x14ac:dyDescent="0.25">
@@ -43698,7 +43698,7 @@
         <v>82</v>
       </c>
       <c r="V1436" s="28" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="1437" spans="8:22" x14ac:dyDescent="0.25">
@@ -43784,7 +43784,7 @@
         <v>0</v>
       </c>
       <c r="V1439" s="14" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="1440" spans="8:22" x14ac:dyDescent="0.25">
@@ -43813,7 +43813,7 @@
         <v>0</v>
       </c>
       <c r="V1440" s="14" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="1441" spans="1:22" x14ac:dyDescent="0.25">
@@ -43890,7 +43890,7 @@
         <v>0</v>
       </c>
       <c r="V1443" s="14" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="1444" spans="1:22" x14ac:dyDescent="0.25">
@@ -43943,7 +43943,7 @@
         <v>82</v>
       </c>
       <c r="V1445" s="32" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="1446" spans="1:22" x14ac:dyDescent="0.25">
@@ -44095,7 +44095,7 @@
         <v>0</v>
       </c>
       <c r="V1451" s="14" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="1452" spans="1:22" x14ac:dyDescent="0.25">
@@ -44124,7 +44124,7 @@
         <v>82</v>
       </c>
       <c r="V1452" s="28" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="1453" spans="1:22" x14ac:dyDescent="0.25">
@@ -44204,7 +44204,7 @@
     </row>
     <row r="1456" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1456" s="51" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="H1456" s="47" t="s">
         <v>160</v>
@@ -44237,7 +44237,7 @@
     </row>
     <row r="1457" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1457" s="51" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="H1457" s="47" t="s">
         <v>160</v>
@@ -44321,7 +44321,7 @@
         <v>82</v>
       </c>
       <c r="V1459" s="28" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="1460" spans="1:22" x14ac:dyDescent="0.25">
@@ -44401,7 +44401,7 @@
         <v>0</v>
       </c>
       <c r="V1462" s="14" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="1463" spans="1:22" x14ac:dyDescent="0.25">
@@ -44505,7 +44505,7 @@
         <v>82</v>
       </c>
       <c r="V1466" s="35" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="1467" spans="1:22" x14ac:dyDescent="0.25">
@@ -44684,7 +44684,7 @@
         <v>82</v>
       </c>
       <c r="V1473" s="14" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="1474" spans="6:22" x14ac:dyDescent="0.25">
@@ -44713,7 +44713,7 @@
         <v>0</v>
       </c>
       <c r="V1474" s="14" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="1475" spans="6:22" x14ac:dyDescent="0.25">
@@ -44742,7 +44742,7 @@
         <v>0</v>
       </c>
       <c r="V1475" s="14" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="1476" spans="6:22" x14ac:dyDescent="0.25">
@@ -44771,7 +44771,7 @@
         <v>0</v>
       </c>
       <c r="V1476" s="14" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="1477" spans="6:22" x14ac:dyDescent="0.25">
@@ -44800,7 +44800,7 @@
         <v>82</v>
       </c>
       <c r="V1477" s="8" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="1478" spans="6:22" x14ac:dyDescent="0.25">
@@ -44880,12 +44880,12 @@
         <v>95</v>
       </c>
       <c r="V1480" s="28" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="1481" spans="6:22" x14ac:dyDescent="0.25">
       <c r="F1481" s="54" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="H1481" s="47" t="s">
         <v>161</v>
@@ -44915,7 +44915,7 @@
     </row>
     <row r="1482" spans="6:22" x14ac:dyDescent="0.25">
       <c r="F1482" s="54" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="H1482" s="47" t="s">
         <v>161</v>
@@ -44972,7 +44972,7 @@
         <v>15</v>
       </c>
       <c r="V1483" s="26" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="1484" spans="6:22" x14ac:dyDescent="0.25">
@@ -45034,7 +45034,7 @@
         <v>0</v>
       </c>
       <c r="V1485" s="14" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="1486" spans="6:22" x14ac:dyDescent="0.25">
@@ -45167,7 +45167,7 @@
         <v>82</v>
       </c>
       <c r="V1490" s="28" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="1491" spans="8:22" x14ac:dyDescent="0.25">
@@ -45268,7 +45268,7 @@
         <v>0</v>
       </c>
       <c r="V1494" s="60" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="1495" spans="8:22" x14ac:dyDescent="0.25">
@@ -45489,7 +45489,7 @@
         <v>122</v>
       </c>
       <c r="V1502" s="28" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="1503" spans="8:22" x14ac:dyDescent="0.25">
@@ -45713,7 +45713,7 @@
         <v>82</v>
       </c>
       <c r="V1511" s="35" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="1512" spans="5:22" x14ac:dyDescent="0.25">
@@ -45790,7 +45790,7 @@
         <v>82</v>
       </c>
       <c r="V1514" s="28" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="1515" spans="5:22" x14ac:dyDescent="0.25">
@@ -45819,7 +45819,7 @@
     </row>
     <row r="1516" spans="5:22" x14ac:dyDescent="0.25">
       <c r="F1516" s="54" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="I1516" s="8" t="s">
         <v>48</v>
@@ -45846,7 +45846,7 @@
     </row>
     <row r="1517" spans="5:22" x14ac:dyDescent="0.25">
       <c r="F1517" s="54" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="I1517" s="8" t="s">
         <v>48</v>
@@ -45873,7 +45873,7 @@
         <v>0</v>
       </c>
       <c r="V1517" s="14" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="1518" spans="5:22" x14ac:dyDescent="0.25">
@@ -45881,7 +45881,7 @@
         <v>131</v>
       </c>
       <c r="F1518" s="54" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="I1518" s="8" t="s">
         <v>48</v>
@@ -45911,7 +45911,7 @@
         <v>99</v>
       </c>
       <c r="V1518" s="26" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="1519" spans="5:22" x14ac:dyDescent="0.25">
@@ -45919,7 +45919,7 @@
         <v>131</v>
       </c>
       <c r="F1519" s="54" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="I1519" s="8" t="s">
         <v>48</v>
@@ -45973,7 +45973,7 @@
         <v>82</v>
       </c>
       <c r="V1520" s="14" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="1521" spans="1:22" x14ac:dyDescent="0.25">
@@ -46356,7 +46356,7 @@
         <v>82</v>
       </c>
       <c r="V1535" s="36" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="1536" spans="1:22" x14ac:dyDescent="0.25">
@@ -46586,7 +46586,7 @@
         <v>82</v>
       </c>
       <c r="V1544" s="28" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="1545" spans="8:22" x14ac:dyDescent="0.25">
@@ -46714,7 +46714,7 @@
         <v>82</v>
       </c>
       <c r="V1549" s="35" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="1550" spans="8:22" x14ac:dyDescent="0.25">
@@ -46773,7 +46773,7 @@
         <v>0</v>
       </c>
       <c r="V1551" s="14" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="1552" spans="8:22" x14ac:dyDescent="0.25">
@@ -46874,7 +46874,7 @@
         <v>82</v>
       </c>
       <c r="V1555" s="8" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="1556" spans="5:22" x14ac:dyDescent="0.25">
@@ -46954,7 +46954,7 @@
         <v>82</v>
       </c>
       <c r="V1558" s="14" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="1559" spans="5:22" x14ac:dyDescent="0.25">
@@ -47134,7 +47134,7 @@
         <v>82</v>
       </c>
       <c r="V1565" s="28" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="1566" spans="5:22" x14ac:dyDescent="0.25">
@@ -47215,7 +47215,7 @@
         <v>95</v>
       </c>
       <c r="V1568" s="32" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
   </sheetData>
